--- a/core/utils/distgradeunificadaJOINVILLE.xlsx
+++ b/core/utils/distgradeunificadaJOINVILLE.xlsx
@@ -1,40 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E673DE-DFDA-4DCC-8C6E-947937BE4352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0C4922-F1F5-4850-8BC3-806FBF07310E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7D8F346-A79E-4C25-BB45-DA9F96A70FA9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{A7D8F346-A79E-4C25-BB45-DA9F96A70FA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="481">
   <si>
     <t>PROJETO</t>
   </si>
@@ -1474,12 +1465,6 @@
   </si>
   <si>
     <t>BERMUDA TACTEL</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>CIAD - BRANET</t>
@@ -1652,8 +1637,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1981,8 +1966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{414053F0-9035-4345-833E-9715016AA804}">
   <dimension ref="A1:R201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="A158" sqref="A158"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2072,36 +2057,16 @@
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
-      <c r="I2" s="5">
-        <v>15</v>
-      </c>
-      <c r="J2" s="5">
-        <v>40</v>
-      </c>
-      <c r="K2" s="5">
-        <v>40</v>
-      </c>
-      <c r="L2" s="5">
-        <v>40</v>
-      </c>
-      <c r="M2" s="5">
-        <v>44</v>
-      </c>
-      <c r="N2" s="5">
-        <v>40</v>
-      </c>
-      <c r="O2" s="5">
-        <v>30</v>
-      </c>
-      <c r="P2" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="5">
-        <v>30</v>
-      </c>
-      <c r="R2" s="5">
-        <v>12</v>
-      </c>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -2124,36 +2089,16 @@
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="5">
-        <v>40</v>
-      </c>
-      <c r="J3" s="5">
-        <v>70</v>
-      </c>
-      <c r="K3" s="5">
-        <v>80</v>
-      </c>
-      <c r="L3" s="5">
-        <v>60</v>
-      </c>
-      <c r="M3" s="5">
-        <v>50</v>
-      </c>
-      <c r="N3" s="5">
-        <v>60</v>
-      </c>
-      <c r="O3" s="5">
-        <v>50</v>
-      </c>
-      <c r="P3" s="5">
-        <v>50</v>
-      </c>
-      <c r="Q3" s="5">
-        <v>30</v>
-      </c>
-      <c r="R3" s="5">
-        <v>10</v>
-      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -2176,30 +2121,14 @@
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
-      <c r="I4" s="5">
-        <v>20</v>
-      </c>
-      <c r="J4" s="5">
-        <v>40</v>
-      </c>
-      <c r="K4" s="5">
-        <v>40</v>
-      </c>
-      <c r="L4" s="5">
-        <v>35</v>
-      </c>
-      <c r="M4" s="5">
-        <v>25</v>
-      </c>
-      <c r="N4" s="5">
-        <v>0</v>
-      </c>
-      <c r="O4" s="5">
-        <v>3</v>
-      </c>
-      <c r="P4" s="5">
-        <v>0</v>
-      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
     </row>
@@ -2223,27 +2152,13 @@
         <v>19</v>
       </c>
       <c r="G5" s="5"/>
-      <c r="H5" s="5">
-        <v>108</v>
-      </c>
-      <c r="I5" s="5">
-        <v>72</v>
-      </c>
-      <c r="J5" s="5">
-        <v>70</v>
-      </c>
-      <c r="K5" s="5">
-        <v>90</v>
-      </c>
-      <c r="L5" s="5">
-        <v>75</v>
-      </c>
-      <c r="M5" s="5">
-        <v>50</v>
-      </c>
-      <c r="N5" s="5">
-        <v>50</v>
-      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
@@ -2270,21 +2185,11 @@
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
-      <c r="I6" s="11">
-        <v>4</v>
-      </c>
-      <c r="J6" s="11">
-        <v>3</v>
-      </c>
-      <c r="K6" s="11">
-        <v>6</v>
-      </c>
-      <c r="L6" s="11">
-        <v>4</v>
-      </c>
-      <c r="M6" s="11">
-        <v>2</v>
-      </c>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -2311,33 +2216,15 @@
         <v>23</v>
       </c>
       <c r="G7" s="11"/>
-      <c r="H7" s="11">
-        <v>24</v>
-      </c>
-      <c r="I7" s="11">
-        <v>30</v>
-      </c>
-      <c r="J7" s="11">
-        <v>30</v>
-      </c>
-      <c r="K7" s="11">
-        <v>20</v>
-      </c>
-      <c r="L7" s="11">
-        <v>30</v>
-      </c>
-      <c r="M7" s="11">
-        <v>15</v>
-      </c>
-      <c r="N7" s="11">
-        <v>3</v>
-      </c>
-      <c r="O7" s="11">
-        <v>3</v>
-      </c>
-      <c r="P7" s="11">
-        <v>3</v>
-      </c>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
       <c r="R7" s="11"/>
     </row>
@@ -2360,33 +2247,15 @@
       <c r="F8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="11">
-        <v>0</v>
-      </c>
-      <c r="H8" s="11">
-        <v>6</v>
-      </c>
-      <c r="I8" s="11">
-        <v>10</v>
-      </c>
-      <c r="J8" s="11">
-        <v>20</v>
-      </c>
-      <c r="K8" s="11">
-        <v>20</v>
-      </c>
-      <c r="L8" s="11">
-        <v>20</v>
-      </c>
-      <c r="M8" s="11">
-        <v>7</v>
-      </c>
-      <c r="N8" s="11">
-        <v>7</v>
-      </c>
-      <c r="O8" s="11">
-        <v>1</v>
-      </c>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
@@ -2412,33 +2281,15 @@
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="5">
-        <v>50</v>
-      </c>
-      <c r="J9" s="5">
-        <v>50</v>
-      </c>
-      <c r="K9" s="5">
-        <v>50</v>
-      </c>
-      <c r="L9" s="5">
-        <v>50</v>
-      </c>
-      <c r="M9" s="5">
-        <v>50</v>
-      </c>
-      <c r="N9" s="5">
-        <v>50</v>
-      </c>
-      <c r="O9" s="5">
-        <v>3</v>
-      </c>
-      <c r="P9" s="5">
-        <v>3</v>
-      </c>
-      <c r="Q9" s="5">
-        <v>3</v>
-      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -2462,36 +2313,16 @@
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
-      <c r="I10" s="5">
-        <v>25</v>
-      </c>
-      <c r="J10" s="5">
-        <v>60</v>
-      </c>
-      <c r="K10" s="5">
-        <v>70</v>
-      </c>
-      <c r="L10" s="5">
-        <v>80</v>
-      </c>
-      <c r="M10" s="5">
-        <v>85</v>
-      </c>
-      <c r="N10" s="5">
-        <v>65</v>
-      </c>
-      <c r="O10" s="5">
-        <v>55</v>
-      </c>
-      <c r="P10" s="5">
-        <v>65</v>
-      </c>
-      <c r="Q10" s="5">
-        <v>60</v>
-      </c>
-      <c r="R10" s="5">
-        <v>30</v>
-      </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
@@ -2512,42 +2343,20 @@
       <c r="F11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="5">
-        <v>0</v>
-      </c>
-      <c r="H11" s="5">
-        <v>17</v>
-      </c>
-      <c r="I11" s="5">
-        <v>59</v>
-      </c>
-      <c r="J11" s="5">
-        <v>35</v>
-      </c>
-      <c r="K11" s="5">
-        <v>30</v>
-      </c>
-      <c r="L11" s="5">
-        <v>40</v>
-      </c>
-      <c r="M11" s="5">
-        <v>30</v>
-      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
       <c r="N11" s="5">
-        <v>13</v>
-      </c>
-      <c r="O11" s="5">
-        <v>8</v>
-      </c>
-      <c r="P11" s="5">
-        <v>6</v>
-      </c>
-      <c r="Q11" s="5">
-        <v>16</v>
-      </c>
-      <c r="R11" s="5">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
@@ -2569,36 +2378,16 @@
         <v>28</v>
       </c>
       <c r="G12" s="5"/>
-      <c r="H12" s="5">
-        <v>1</v>
-      </c>
-      <c r="I12" s="5">
-        <v>17</v>
-      </c>
-      <c r="J12" s="5">
-        <v>40</v>
-      </c>
-      <c r="K12" s="5">
-        <v>67</v>
-      </c>
-      <c r="L12" s="5">
-        <v>69</v>
-      </c>
-      <c r="M12" s="5">
-        <v>28</v>
-      </c>
-      <c r="N12" s="5">
-        <v>13</v>
-      </c>
-      <c r="O12" s="5">
-        <v>5</v>
-      </c>
-      <c r="P12" s="5">
-        <v>2</v>
-      </c>
-      <c r="Q12" s="5">
-        <v>1</v>
-      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
@@ -2622,36 +2411,16 @@
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="5">
-        <v>40</v>
-      </c>
-      <c r="J13" s="5">
-        <v>90</v>
-      </c>
-      <c r="K13" s="5">
-        <v>90</v>
-      </c>
-      <c r="L13" s="5">
-        <v>90</v>
-      </c>
-      <c r="M13" s="5">
-        <v>90</v>
-      </c>
-      <c r="N13" s="5">
-        <v>90</v>
-      </c>
-      <c r="O13" s="5">
-        <v>60</v>
-      </c>
-      <c r="P13" s="5">
-        <v>50</v>
-      </c>
-      <c r="Q13" s="5">
-        <v>30</v>
-      </c>
-      <c r="R13" s="5">
-        <v>20</v>
-      </c>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
@@ -2674,36 +2443,16 @@
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="5">
-        <v>50</v>
-      </c>
-      <c r="J14" s="5">
-        <v>60</v>
-      </c>
-      <c r="K14" s="5">
-        <v>75</v>
-      </c>
-      <c r="L14" s="5">
-        <v>70</v>
-      </c>
-      <c r="M14" s="5">
-        <v>70</v>
-      </c>
-      <c r="N14" s="5">
-        <v>80</v>
-      </c>
-      <c r="O14" s="5">
-        <v>40</v>
-      </c>
-      <c r="P14" s="5">
-        <v>25</v>
-      </c>
-      <c r="Q14" s="5">
-        <v>20</v>
-      </c>
-      <c r="R14" s="5">
-        <v>10</v>
-      </c>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
@@ -2724,42 +2473,18 @@
       <c r="F15" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G15" s="5">
-        <v>5</v>
-      </c>
-      <c r="H15" s="5">
-        <v>25</v>
-      </c>
-      <c r="I15" s="5">
-        <v>50</v>
-      </c>
-      <c r="J15" s="5">
-        <v>60</v>
-      </c>
-      <c r="K15" s="5">
-        <v>100</v>
-      </c>
-      <c r="L15" s="5">
-        <v>90</v>
-      </c>
-      <c r="M15" s="5">
-        <v>50</v>
-      </c>
-      <c r="N15" s="5">
-        <v>25</v>
-      </c>
-      <c r="O15" s="5">
-        <v>3</v>
-      </c>
-      <c r="P15" s="5">
-        <v>4</v>
-      </c>
-      <c r="Q15" s="5">
-        <v>5</v>
-      </c>
-      <c r="R15" s="5">
-        <v>0</v>
-      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
@@ -2781,39 +2506,17 @@
         <v>32</v>
       </c>
       <c r="G16" s="5"/>
-      <c r="H16" s="5">
-        <v>4</v>
-      </c>
-      <c r="I16" s="5">
-        <v>35</v>
-      </c>
-      <c r="J16" s="5">
-        <v>40</v>
-      </c>
-      <c r="K16" s="5">
-        <v>40</v>
-      </c>
-      <c r="L16" s="5">
-        <v>45</v>
-      </c>
-      <c r="M16" s="5">
-        <v>45</v>
-      </c>
-      <c r="N16" s="5">
-        <v>45</v>
-      </c>
-      <c r="O16" s="5">
-        <v>25</v>
-      </c>
-      <c r="P16" s="5">
-        <v>20</v>
-      </c>
-      <c r="Q16" s="5">
-        <v>16</v>
-      </c>
-      <c r="R16" s="5">
-        <v>3</v>
-      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
@@ -2836,33 +2539,15 @@
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="5">
-        <v>50</v>
-      </c>
-      <c r="J17" s="5">
-        <v>100</v>
-      </c>
-      <c r="K17" s="5">
-        <v>100</v>
-      </c>
-      <c r="L17" s="5">
-        <v>65</v>
-      </c>
-      <c r="M17" s="5">
-        <v>20</v>
-      </c>
-      <c r="N17" s="5">
-        <v>10</v>
-      </c>
-      <c r="O17" s="5">
-        <v>5</v>
-      </c>
-      <c r="P17" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="5">
-        <v>1</v>
-      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
@@ -2884,42 +2569,18 @@
       <c r="F18" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G18" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="I18" s="5">
-        <v>70</v>
-      </c>
-      <c r="J18" s="5">
-        <v>30</v>
-      </c>
-      <c r="K18" s="5">
-        <v>70</v>
-      </c>
-      <c r="L18" s="5">
-        <v>60</v>
-      </c>
-      <c r="M18" s="5">
-        <v>40</v>
-      </c>
-      <c r="N18" s="5">
-        <v>50</v>
-      </c>
-      <c r="O18" s="5">
-        <v>30</v>
-      </c>
-      <c r="P18" s="5">
-        <v>30</v>
-      </c>
-      <c r="Q18" s="5">
-        <v>30</v>
-      </c>
-      <c r="R18" s="5">
-        <v>20</v>
-      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
@@ -2941,39 +2602,17 @@
         <v>35</v>
       </c>
       <c r="G19" s="5"/>
-      <c r="H19" s="5">
-        <v>4</v>
-      </c>
-      <c r="I19" s="5">
-        <v>25</v>
-      </c>
-      <c r="J19" s="5">
-        <v>30</v>
-      </c>
-      <c r="K19" s="5">
-        <v>60</v>
-      </c>
-      <c r="L19" s="5">
-        <v>65</v>
-      </c>
-      <c r="M19" s="5">
-        <v>70</v>
-      </c>
-      <c r="N19" s="5">
-        <v>70</v>
-      </c>
-      <c r="O19" s="5">
-        <v>40</v>
-      </c>
-      <c r="P19" s="5">
-        <v>20</v>
-      </c>
-      <c r="Q19" s="5">
-        <v>10</v>
-      </c>
-      <c r="R19" s="5">
-        <v>10</v>
-      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -2996,36 +2635,16 @@
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
-      <c r="I20" s="5">
-        <v>20</v>
-      </c>
-      <c r="J20" s="5">
-        <v>60</v>
-      </c>
-      <c r="K20" s="5">
-        <v>60</v>
-      </c>
-      <c r="L20" s="5">
-        <v>90</v>
-      </c>
-      <c r="M20" s="5">
-        <v>70</v>
-      </c>
-      <c r="N20" s="5">
-        <v>80</v>
-      </c>
-      <c r="O20" s="5">
-        <v>70</v>
-      </c>
-      <c r="P20" s="5">
-        <v>50</v>
-      </c>
-      <c r="Q20" s="5">
-        <v>20</v>
-      </c>
-      <c r="R20" s="5">
-        <v>4</v>
-      </c>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
@@ -3050,30 +2669,14 @@
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
-      <c r="K21" s="5">
-        <v>3</v>
-      </c>
-      <c r="L21" s="5">
-        <v>15</v>
-      </c>
-      <c r="M21" s="5">
-        <v>41</v>
-      </c>
-      <c r="N21" s="5">
-        <v>30</v>
-      </c>
-      <c r="O21" s="5">
-        <v>44</v>
-      </c>
-      <c r="P21" s="5">
-        <v>36</v>
-      </c>
-      <c r="Q21" s="5">
-        <v>20</v>
-      </c>
-      <c r="R21" s="5">
-        <v>4</v>
-      </c>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
@@ -3098,30 +2701,14 @@
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
-      <c r="K22" s="5">
-        <v>1</v>
-      </c>
-      <c r="L22" s="5">
-        <v>24</v>
-      </c>
-      <c r="M22" s="5">
-        <v>60</v>
-      </c>
-      <c r="N22" s="5">
-        <v>68</v>
-      </c>
-      <c r="O22" s="5">
-        <v>63</v>
-      </c>
-      <c r="P22" s="5">
-        <v>52</v>
-      </c>
-      <c r="Q22" s="5">
-        <v>69</v>
-      </c>
-      <c r="R22" s="5">
-        <v>17</v>
-      </c>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -3144,36 +2731,16 @@
       </c>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="5">
-        <v>60</v>
-      </c>
-      <c r="J23" s="5">
-        <v>70</v>
-      </c>
-      <c r="K23" s="5">
-        <v>70</v>
-      </c>
-      <c r="L23" s="5">
-        <v>70</v>
-      </c>
-      <c r="M23" s="5">
-        <v>50</v>
-      </c>
-      <c r="N23" s="5">
-        <v>50</v>
-      </c>
-      <c r="O23" s="5">
-        <v>50</v>
-      </c>
-      <c r="P23" s="5">
-        <v>50</v>
-      </c>
-      <c r="Q23" s="5">
-        <v>0</v>
-      </c>
-      <c r="R23" s="5">
-        <v>20</v>
-      </c>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
@@ -3194,42 +2761,18 @@
       <c r="F24" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G24" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="I24" s="5">
-        <v>50</v>
-      </c>
-      <c r="J24" s="5">
-        <v>60</v>
-      </c>
-      <c r="K24" s="5">
-        <v>110</v>
-      </c>
-      <c r="L24" s="5">
-        <v>120</v>
-      </c>
-      <c r="M24" s="5">
-        <v>68</v>
-      </c>
-      <c r="N24" s="5">
-        <v>80</v>
-      </c>
-      <c r="O24" s="5">
-        <v>60</v>
-      </c>
-      <c r="P24" s="5">
-        <v>50</v>
-      </c>
-      <c r="Q24" s="5">
-        <v>55</v>
-      </c>
-      <c r="R24" s="5">
-        <v>35</v>
-      </c>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
@@ -3251,39 +2794,17 @@
         <v>41</v>
       </c>
       <c r="G25" s="5"/>
-      <c r="H25" s="5">
-        <v>40</v>
-      </c>
-      <c r="I25" s="5">
-        <v>100</v>
-      </c>
-      <c r="J25" s="5">
-        <v>80</v>
-      </c>
-      <c r="K25" s="5">
-        <v>70</v>
-      </c>
-      <c r="L25" s="5">
-        <v>85</v>
-      </c>
-      <c r="M25" s="5">
-        <v>75</v>
-      </c>
-      <c r="N25" s="5">
-        <v>55</v>
-      </c>
-      <c r="O25" s="5">
-        <v>30</v>
-      </c>
-      <c r="P25" s="5">
-        <v>40</v>
-      </c>
-      <c r="Q25" s="5">
-        <v>15</v>
-      </c>
-      <c r="R25" s="5">
-        <v>5</v>
-      </c>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
@@ -3305,39 +2826,17 @@
         <v>42</v>
       </c>
       <c r="G26" s="5"/>
-      <c r="H26" s="5">
-        <v>30</v>
-      </c>
-      <c r="I26" s="5">
-        <v>80</v>
-      </c>
-      <c r="J26" s="5">
-        <v>80</v>
-      </c>
-      <c r="K26" s="5">
-        <v>100</v>
-      </c>
-      <c r="L26" s="5">
-        <v>80</v>
-      </c>
-      <c r="M26" s="5">
-        <v>80</v>
-      </c>
-      <c r="N26" s="5">
-        <v>70</v>
-      </c>
-      <c r="O26" s="5">
-        <v>70</v>
-      </c>
-      <c r="P26" s="5">
-        <v>80</v>
-      </c>
-      <c r="Q26" s="5">
-        <v>40</v>
-      </c>
-      <c r="R26" s="5">
-        <v>10</v>
-      </c>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
@@ -3360,36 +2859,16 @@
       </c>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
-      <c r="I27" s="5">
-        <v>10</v>
-      </c>
-      <c r="J27" s="5">
-        <v>10</v>
-      </c>
-      <c r="K27" s="5">
-        <v>15</v>
-      </c>
-      <c r="L27" s="5">
-        <v>15</v>
-      </c>
-      <c r="M27" s="5">
-        <v>38</v>
-      </c>
-      <c r="N27" s="5">
-        <v>37</v>
-      </c>
-      <c r="O27" s="5">
-        <v>34</v>
-      </c>
-      <c r="P27" s="5">
-        <v>18</v>
-      </c>
-      <c r="Q27" s="5">
-        <v>10</v>
-      </c>
-      <c r="R27" s="5">
-        <v>7</v>
-      </c>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
@@ -3411,27 +2890,13 @@
         <v>44</v>
       </c>
       <c r="G28" s="5"/>
-      <c r="H28" s="5">
-        <v>2</v>
-      </c>
-      <c r="I28" s="5">
-        <v>6</v>
-      </c>
-      <c r="J28" s="5">
-        <v>8</v>
-      </c>
-      <c r="K28" s="5">
-        <v>8</v>
-      </c>
-      <c r="L28" s="5">
-        <v>6</v>
-      </c>
-      <c r="M28" s="5">
-        <v>1</v>
-      </c>
-      <c r="N28" s="5">
-        <v>1</v>
-      </c>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
       <c r="O28" s="5"/>
       <c r="P28" s="5"/>
       <c r="Q28" s="5"/>
@@ -3457,30 +2922,14 @@
         <v>45</v>
       </c>
       <c r="G29" s="5"/>
-      <c r="H29" s="5">
-        <v>20</v>
-      </c>
-      <c r="I29" s="5">
-        <v>30</v>
-      </c>
-      <c r="J29" s="5">
-        <v>30</v>
-      </c>
-      <c r="K29" s="5">
-        <v>35</v>
-      </c>
-      <c r="L29" s="5">
-        <v>35</v>
-      </c>
-      <c r="M29" s="5">
-        <v>5</v>
-      </c>
-      <c r="N29" s="5">
-        <v>1</v>
-      </c>
-      <c r="O29" s="5">
-        <v>1</v>
-      </c>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
       <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
       <c r="R29" s="5"/>
@@ -3506,24 +2955,12 @@
       </c>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
-      <c r="I30" s="5">
-        <v>12</v>
-      </c>
-      <c r="J30" s="5">
-        <v>12</v>
-      </c>
-      <c r="K30" s="5">
-        <v>9</v>
-      </c>
-      <c r="L30" s="5">
-        <v>5</v>
-      </c>
-      <c r="M30" s="5">
-        <v>3</v>
-      </c>
-      <c r="N30" s="5">
-        <v>1</v>
-      </c>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
       <c r="Q30" s="5"/>
@@ -3550,24 +2987,12 @@
       </c>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
-      <c r="I31" s="5">
-        <v>15</v>
-      </c>
-      <c r="J31" s="5">
-        <v>18</v>
-      </c>
-      <c r="K31" s="5">
-        <v>12</v>
-      </c>
-      <c r="L31" s="5">
-        <v>13</v>
-      </c>
-      <c r="M31" s="5">
-        <v>7</v>
-      </c>
-      <c r="N31" s="5">
-        <v>5</v>
-      </c>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
       <c r="Q31" s="5"/>
@@ -3594,33 +3019,15 @@
       </c>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
-      <c r="I32" s="5">
-        <v>95</v>
-      </c>
-      <c r="J32" s="5">
-        <v>68</v>
-      </c>
-      <c r="K32" s="5">
-        <v>45</v>
-      </c>
-      <c r="L32" s="5">
-        <v>25</v>
-      </c>
-      <c r="M32" s="5">
-        <v>14</v>
-      </c>
-      <c r="N32" s="5">
-        <v>3</v>
-      </c>
-      <c r="O32" s="5">
-        <v>2</v>
-      </c>
-      <c r="P32" s="5">
-        <v>2</v>
-      </c>
-      <c r="Q32" s="5">
-        <v>1</v>
-      </c>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
       <c r="R32" s="5"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
@@ -3644,36 +3051,16 @@
       </c>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
-      <c r="I33" s="5">
-        <v>100</v>
-      </c>
-      <c r="J33" s="5">
-        <v>100</v>
-      </c>
-      <c r="K33" s="5">
-        <v>100</v>
-      </c>
-      <c r="L33" s="5">
-        <v>100</v>
-      </c>
-      <c r="M33" s="5">
-        <v>100</v>
-      </c>
-      <c r="N33" s="5">
-        <v>100</v>
-      </c>
-      <c r="O33" s="5">
-        <v>100</v>
-      </c>
-      <c r="P33" s="5">
-        <v>100</v>
-      </c>
-      <c r="Q33" s="5">
-        <v>90</v>
-      </c>
-      <c r="R33" s="5">
-        <v>50</v>
-      </c>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
@@ -3696,28 +3083,14 @@
       </c>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
-      <c r="I34" s="5">
-        <v>13</v>
-      </c>
-      <c r="J34" s="5">
-        <v>9</v>
-      </c>
-      <c r="K34" s="5">
-        <v>13</v>
-      </c>
-      <c r="L34" s="5">
-        <v>8</v>
-      </c>
-      <c r="M34" s="5">
-        <v>5</v>
-      </c>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
       <c r="N34" s="5"/>
-      <c r="O34" s="5">
-        <v>1</v>
-      </c>
-      <c r="P34" s="5">
-        <v>1</v>
-      </c>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
       <c r="Q34" s="5"/>
       <c r="R34" s="5"/>
     </row>
@@ -3742,30 +3115,14 @@
       </c>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
-      <c r="I35" s="5">
-        <v>55</v>
-      </c>
-      <c r="J35" s="5">
-        <v>50</v>
-      </c>
-      <c r="K35" s="5">
-        <v>120</v>
-      </c>
-      <c r="L35" s="5">
-        <v>80</v>
-      </c>
-      <c r="M35" s="5">
-        <v>80</v>
-      </c>
-      <c r="N35" s="5">
-        <v>80</v>
-      </c>
-      <c r="O35" s="5">
-        <v>50</v>
-      </c>
-      <c r="P35" s="5">
-        <v>28</v>
-      </c>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
       <c r="Q35" s="5"/>
       <c r="R35" s="5"/>
     </row>
@@ -3789,39 +3146,17 @@
         <v>52</v>
       </c>
       <c r="G36" s="5"/>
-      <c r="H36" s="5">
-        <v>4</v>
-      </c>
-      <c r="I36" s="5">
-        <v>10</v>
-      </c>
-      <c r="J36" s="5">
-        <v>10</v>
-      </c>
-      <c r="K36" s="5">
-        <v>10</v>
-      </c>
-      <c r="L36" s="5">
-        <v>20</v>
-      </c>
-      <c r="M36" s="5">
-        <v>6</v>
-      </c>
-      <c r="N36" s="5">
-        <v>4</v>
-      </c>
-      <c r="O36" s="5">
-        <v>3</v>
-      </c>
-      <c r="P36" s="5">
-        <v>2</v>
-      </c>
-      <c r="Q36" s="5">
-        <v>3</v>
-      </c>
-      <c r="R36" s="5">
-        <v>3</v>
-      </c>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
@@ -3843,39 +3178,17 @@
         <v>53</v>
       </c>
       <c r="G37" s="5"/>
-      <c r="H37" s="5">
-        <v>8</v>
-      </c>
-      <c r="I37" s="5">
-        <v>105</v>
-      </c>
-      <c r="J37" s="5">
-        <v>155</v>
-      </c>
-      <c r="K37" s="5">
-        <v>95</v>
-      </c>
-      <c r="L37" s="5">
-        <v>35</v>
-      </c>
-      <c r="M37" s="5">
-        <v>25</v>
-      </c>
-      <c r="N37" s="5">
-        <v>12</v>
-      </c>
-      <c r="O37" s="5">
-        <v>5</v>
-      </c>
-      <c r="P37" s="5">
-        <v>4</v>
-      </c>
-      <c r="Q37" s="5">
-        <v>6</v>
-      </c>
-      <c r="R37" s="5">
-        <v>3</v>
-      </c>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
@@ -3898,36 +3211,16 @@
       </c>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
-      <c r="I38" s="5">
-        <v>5</v>
-      </c>
-      <c r="J38" s="5">
-        <v>30</v>
-      </c>
-      <c r="K38" s="5">
-        <v>50</v>
-      </c>
-      <c r="L38" s="5">
-        <v>100</v>
-      </c>
-      <c r="M38" s="5">
-        <v>130</v>
-      </c>
-      <c r="N38" s="5">
-        <v>100</v>
-      </c>
-      <c r="O38" s="5">
-        <v>40</v>
-      </c>
-      <c r="P38" s="5">
-        <v>40</v>
-      </c>
-      <c r="Q38" s="5">
-        <v>20</v>
-      </c>
-      <c r="R38" s="5">
-        <v>10</v>
-      </c>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
@@ -3948,39 +3241,17 @@
       <c r="F39" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G39" s="5">
-        <v>5</v>
-      </c>
-      <c r="H39" s="5">
-        <v>45</v>
-      </c>
-      <c r="I39" s="5">
-        <v>60</v>
-      </c>
-      <c r="J39" s="5">
-        <v>90</v>
-      </c>
-      <c r="K39" s="5">
-        <v>90</v>
-      </c>
-      <c r="L39" s="5">
-        <v>60</v>
-      </c>
-      <c r="M39" s="5">
-        <v>45</v>
-      </c>
-      <c r="N39" s="5">
-        <v>10</v>
-      </c>
-      <c r="O39" s="5">
-        <v>1</v>
-      </c>
-      <c r="P39" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q39" s="5">
-        <v>2</v>
-      </c>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
       <c r="R39" s="5"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
@@ -4003,24 +3274,12 @@
         <v>56</v>
       </c>
       <c r="G40" s="5"/>
-      <c r="H40" s="5">
-        <v>11</v>
-      </c>
-      <c r="I40" s="5">
-        <v>7</v>
-      </c>
-      <c r="J40" s="5">
-        <v>2</v>
-      </c>
-      <c r="K40" s="5">
-        <v>3</v>
-      </c>
-      <c r="L40" s="5">
-        <v>4</v>
-      </c>
-      <c r="M40" s="5">
-        <v>4</v>
-      </c>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
       <c r="N40" s="5"/>
       <c r="O40" s="5"/>
       <c r="P40" s="5"/>
@@ -4048,33 +3307,15 @@
       </c>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
-      <c r="I41" s="5">
-        <v>100</v>
-      </c>
-      <c r="J41" s="5">
-        <v>100</v>
-      </c>
-      <c r="K41" s="5">
-        <v>100</v>
-      </c>
-      <c r="L41" s="5">
-        <v>100</v>
-      </c>
-      <c r="M41" s="5">
-        <v>100</v>
-      </c>
-      <c r="N41" s="5">
-        <v>100</v>
-      </c>
-      <c r="O41" s="5">
-        <v>50</v>
-      </c>
-      <c r="P41" s="5">
-        <v>50</v>
-      </c>
-      <c r="Q41" s="5">
-        <v>50</v>
-      </c>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
       <c r="R41" s="5"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
@@ -4099,33 +3340,15 @@
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
-      <c r="J42" s="5">
-        <v>5</v>
-      </c>
-      <c r="K42" s="5">
-        <v>10</v>
-      </c>
-      <c r="L42" s="5">
-        <v>15</v>
-      </c>
-      <c r="M42" s="5">
-        <v>15</v>
-      </c>
-      <c r="N42" s="5">
-        <v>15</v>
-      </c>
-      <c r="O42" s="5">
-        <v>10</v>
-      </c>
-      <c r="P42" s="5">
-        <v>10</v>
-      </c>
-      <c r="Q42" s="5">
-        <v>2</v>
-      </c>
-      <c r="R42" s="5">
-        <v>1</v>
-      </c>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="5"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
@@ -4147,21 +3370,11 @@
         <v>59</v>
       </c>
       <c r="G43" s="5"/>
-      <c r="H43" s="5">
-        <v>15</v>
-      </c>
-      <c r="I43" s="5">
-        <v>25</v>
-      </c>
-      <c r="J43" s="5">
-        <v>20</v>
-      </c>
-      <c r="K43" s="5">
-        <v>10</v>
-      </c>
-      <c r="L43" s="5">
-        <v>2</v>
-      </c>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
       <c r="O43" s="5"/>
@@ -4189,30 +3402,14 @@
         <v>60</v>
       </c>
       <c r="G44" s="5"/>
-      <c r="H44" s="5">
-        <v>5</v>
-      </c>
-      <c r="I44" s="5">
-        <v>25</v>
-      </c>
-      <c r="J44" s="5">
-        <v>30</v>
-      </c>
-      <c r="K44" s="5">
-        <v>30</v>
-      </c>
-      <c r="L44" s="5">
-        <v>15</v>
-      </c>
-      <c r="M44" s="5">
-        <v>4</v>
-      </c>
-      <c r="N44" s="5">
-        <v>4</v>
-      </c>
-      <c r="O44" s="5">
-        <v>1</v>
-      </c>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
       <c r="P44" s="5"/>
       <c r="Q44" s="5"/>
       <c r="R44" s="5"/>
@@ -4238,33 +3435,15 @@
       </c>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
-      <c r="I45" s="5">
-        <v>50</v>
-      </c>
-      <c r="J45" s="5">
-        <v>60</v>
-      </c>
-      <c r="K45" s="5">
-        <v>60</v>
-      </c>
-      <c r="L45" s="5">
-        <v>80</v>
-      </c>
-      <c r="M45" s="5">
-        <v>60</v>
-      </c>
-      <c r="N45" s="5">
-        <v>70</v>
-      </c>
-      <c r="O45" s="5">
-        <v>90</v>
-      </c>
-      <c r="P45" s="5">
-        <v>20</v>
-      </c>
-      <c r="Q45" s="5">
-        <v>5</v>
-      </c>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="5"/>
       <c r="R45" s="5"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
@@ -4288,30 +3467,14 @@
       </c>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
-      <c r="I46" s="5">
-        <v>15</v>
-      </c>
-      <c r="J46" s="5">
-        <v>40</v>
-      </c>
-      <c r="K46" s="5">
-        <v>60</v>
-      </c>
-      <c r="L46" s="5">
-        <v>60</v>
-      </c>
-      <c r="M46" s="5">
-        <v>50</v>
-      </c>
-      <c r="N46" s="5">
-        <v>50</v>
-      </c>
-      <c r="O46" s="5">
-        <v>40</v>
-      </c>
-      <c r="P46" s="5">
-        <v>49</v>
-      </c>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
       <c r="Q46" s="5"/>
       <c r="R46" s="5"/>
     </row>
@@ -4336,33 +3499,15 @@
       </c>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
-      <c r="I47" s="5">
-        <v>70</v>
-      </c>
-      <c r="J47" s="5">
-        <v>80</v>
-      </c>
-      <c r="K47" s="5">
-        <v>70</v>
-      </c>
-      <c r="L47" s="5">
-        <v>50</v>
-      </c>
-      <c r="M47" s="5">
-        <v>50</v>
-      </c>
-      <c r="N47" s="5">
-        <v>80</v>
-      </c>
-      <c r="O47" s="5">
-        <v>60</v>
-      </c>
-      <c r="P47" s="5">
-        <v>60</v>
-      </c>
-      <c r="Q47" s="5">
-        <v>60</v>
-      </c>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="5"/>
       <c r="R47" s="5"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
@@ -4386,36 +3531,16 @@
       </c>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
-      <c r="I48" s="5">
-        <v>70</v>
-      </c>
-      <c r="J48" s="5">
-        <v>80</v>
-      </c>
-      <c r="K48" s="5">
-        <v>50</v>
-      </c>
-      <c r="L48" s="5">
-        <v>50</v>
-      </c>
-      <c r="M48" s="5">
-        <v>50</v>
-      </c>
-      <c r="N48" s="5">
-        <v>100</v>
-      </c>
-      <c r="O48" s="5">
-        <v>50</v>
-      </c>
-      <c r="P48" s="5">
-        <v>50</v>
-      </c>
-      <c r="Q48" s="5">
-        <v>50</v>
-      </c>
-      <c r="R48" s="5">
-        <v>20</v>
-      </c>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="5"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
@@ -4439,19 +3564,11 @@
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
-      <c r="J49" s="5">
-        <v>3</v>
-      </c>
-      <c r="K49" s="5">
-        <v>2</v>
-      </c>
-      <c r="L49" s="5">
-        <v>2</v>
-      </c>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
       <c r="M49" s="5"/>
-      <c r="N49" s="5">
-        <v>1</v>
-      </c>
+      <c r="N49" s="5"/>
       <c r="O49" s="5"/>
       <c r="P49" s="5"/>
       <c r="Q49" s="5"/>
@@ -4478,33 +3595,15 @@
       </c>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
-      <c r="I50" s="5">
-        <v>30</v>
-      </c>
-      <c r="J50" s="5">
-        <v>70</v>
-      </c>
-      <c r="K50" s="5">
-        <v>60</v>
-      </c>
-      <c r="L50" s="5">
-        <v>80</v>
-      </c>
-      <c r="M50" s="5">
-        <v>74</v>
-      </c>
-      <c r="N50" s="5">
-        <v>40</v>
-      </c>
-      <c r="O50" s="5">
-        <v>8</v>
-      </c>
-      <c r="P50" s="5">
-        <v>10</v>
-      </c>
-      <c r="Q50" s="5">
-        <v>10</v>
-      </c>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
+      <c r="O50" s="5"/>
+      <c r="P50" s="5"/>
+      <c r="Q50" s="5"/>
       <c r="R50" s="5"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
@@ -4528,36 +3627,16 @@
       </c>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
-      <c r="I51" s="5">
-        <v>20</v>
-      </c>
-      <c r="J51" s="5">
-        <v>60</v>
-      </c>
-      <c r="K51" s="5">
-        <v>80</v>
-      </c>
-      <c r="L51" s="5">
-        <v>80</v>
-      </c>
-      <c r="M51" s="5">
-        <v>70</v>
-      </c>
-      <c r="N51" s="5">
-        <v>45</v>
-      </c>
-      <c r="O51" s="5">
-        <v>50</v>
-      </c>
-      <c r="P51" s="5">
-        <v>50</v>
-      </c>
-      <c r="Q51" s="5">
-        <v>8</v>
-      </c>
-      <c r="R51" s="5">
-        <v>8</v>
-      </c>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="5"/>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="5"/>
+      <c r="R51" s="5"/>
     </row>
     <row r="52" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
@@ -4612,33 +3691,15 @@
       </c>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
-      <c r="I53" s="5">
-        <v>14</v>
-      </c>
-      <c r="J53" s="5">
-        <v>25</v>
-      </c>
-      <c r="K53" s="5">
-        <v>21</v>
-      </c>
-      <c r="L53" s="5">
-        <v>19</v>
-      </c>
-      <c r="M53" s="5">
-        <v>11</v>
-      </c>
-      <c r="N53" s="5">
-        <v>2</v>
-      </c>
-      <c r="O53" s="5">
-        <v>2</v>
-      </c>
-      <c r="P53" s="5">
-        <v>2</v>
-      </c>
-      <c r="Q53" s="5">
-        <v>2</v>
-      </c>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+      <c r="P53" s="5"/>
+      <c r="Q53" s="5"/>
       <c r="R53" s="5"/>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
@@ -4660,42 +3721,18 @@
       <c r="F54" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="G54" s="5">
-        <v>5</v>
-      </c>
-      <c r="H54" s="5">
-        <v>10</v>
-      </c>
-      <c r="I54" s="5">
-        <v>18</v>
-      </c>
-      <c r="J54" s="5">
-        <v>30</v>
-      </c>
-      <c r="K54" s="5">
-        <v>35</v>
-      </c>
-      <c r="L54" s="5">
-        <v>15</v>
-      </c>
-      <c r="M54" s="5">
-        <v>12</v>
-      </c>
-      <c r="N54" s="5">
-        <v>4</v>
-      </c>
-      <c r="O54" s="5">
-        <v>2</v>
-      </c>
-      <c r="P54" s="5">
-        <v>2</v>
-      </c>
-      <c r="Q54" s="5">
-        <v>2</v>
-      </c>
-      <c r="R54" s="5">
-        <v>2</v>
-      </c>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="5"/>
+      <c r="Q54" s="5"/>
+      <c r="R54" s="5"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
@@ -4718,36 +3755,16 @@
       </c>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
-      <c r="I55" s="5">
-        <v>24</v>
-      </c>
-      <c r="J55" s="5">
-        <v>38</v>
-      </c>
-      <c r="K55" s="5">
-        <v>33</v>
-      </c>
-      <c r="L55" s="5">
-        <v>50</v>
-      </c>
-      <c r="M55" s="5">
-        <v>63</v>
-      </c>
-      <c r="N55" s="5">
-        <v>80</v>
-      </c>
-      <c r="O55" s="5">
-        <v>60</v>
-      </c>
-      <c r="P55" s="5">
-        <v>48</v>
-      </c>
-      <c r="Q55" s="5">
-        <v>20</v>
-      </c>
-      <c r="R55" s="5">
-        <v>6</v>
-      </c>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="5"/>
+      <c r="O55" s="5"/>
+      <c r="P55" s="5"/>
+      <c r="Q55" s="5"/>
+      <c r="R55" s="5"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
@@ -4770,36 +3787,16 @@
       </c>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
-      <c r="I56" s="5">
-        <v>53</v>
-      </c>
-      <c r="J56" s="5">
-        <v>77</v>
-      </c>
-      <c r="K56" s="5">
-        <v>131</v>
-      </c>
-      <c r="L56" s="5">
-        <v>76</v>
-      </c>
-      <c r="M56" s="5">
-        <v>93</v>
-      </c>
-      <c r="N56" s="5">
-        <v>63</v>
-      </c>
-      <c r="O56" s="5">
-        <v>34</v>
-      </c>
-      <c r="P56" s="5">
-        <v>25</v>
-      </c>
-      <c r="Q56" s="5">
-        <v>28</v>
-      </c>
-      <c r="R56" s="5">
-        <v>14</v>
-      </c>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5"/>
+      <c r="O56" s="5"/>
+      <c r="P56" s="5"/>
+      <c r="Q56" s="5"/>
+      <c r="R56" s="5"/>
     </row>
     <row r="57" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="18" t="s">
@@ -4853,39 +3850,17 @@
         <v>74</v>
       </c>
       <c r="G58" s="5"/>
-      <c r="H58" s="5">
-        <v>2</v>
-      </c>
-      <c r="I58" s="5">
-        <v>34</v>
-      </c>
-      <c r="J58" s="5">
-        <v>44</v>
-      </c>
-      <c r="K58" s="5">
-        <v>60</v>
-      </c>
-      <c r="L58" s="5">
-        <v>60</v>
-      </c>
-      <c r="M58" s="5">
-        <v>65</v>
-      </c>
-      <c r="N58" s="5">
-        <v>50</v>
-      </c>
-      <c r="O58" s="5">
-        <v>50</v>
-      </c>
-      <c r="P58" s="5">
-        <v>40</v>
-      </c>
-      <c r="Q58" s="5">
-        <v>20</v>
-      </c>
-      <c r="R58" s="5">
-        <v>5</v>
-      </c>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="5"/>
+      <c r="N58" s="5"/>
+      <c r="O58" s="5"/>
+      <c r="P58" s="5"/>
+      <c r="Q58" s="5"/>
+      <c r="R58" s="5"/>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
@@ -4906,42 +3881,18 @@
       <c r="F59" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="G59" s="5">
-        <v>0</v>
-      </c>
-      <c r="H59" s="5">
-        <v>10</v>
-      </c>
-      <c r="I59" s="5">
-        <v>140</v>
-      </c>
-      <c r="J59" s="5">
-        <v>73</v>
-      </c>
-      <c r="K59" s="5">
-        <v>72</v>
-      </c>
-      <c r="L59" s="5">
-        <v>28</v>
-      </c>
-      <c r="M59" s="5">
-        <v>10</v>
-      </c>
-      <c r="N59" s="5">
-        <v>0</v>
-      </c>
-      <c r="O59" s="5">
-        <v>1</v>
-      </c>
-      <c r="P59" s="5">
-        <v>4</v>
-      </c>
-      <c r="Q59" s="5">
-        <v>1</v>
-      </c>
-      <c r="R59" s="5">
-        <v>0</v>
-      </c>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="5"/>
+      <c r="M59" s="5"/>
+      <c r="N59" s="5"/>
+      <c r="O59" s="5"/>
+      <c r="P59" s="5"/>
+      <c r="Q59" s="5"/>
+      <c r="R59" s="5"/>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
@@ -4963,39 +3914,17 @@
         <v>76</v>
       </c>
       <c r="G60" s="5"/>
-      <c r="H60" s="5">
-        <v>20</v>
-      </c>
-      <c r="I60" s="5">
-        <v>197</v>
-      </c>
-      <c r="J60" s="5">
-        <v>160</v>
-      </c>
-      <c r="K60" s="5">
-        <v>130</v>
-      </c>
-      <c r="L60" s="5">
-        <v>100</v>
-      </c>
-      <c r="M60" s="5">
-        <v>200</v>
-      </c>
-      <c r="N60" s="5">
-        <v>140</v>
-      </c>
-      <c r="O60" s="5">
-        <v>140</v>
-      </c>
-      <c r="P60" s="5">
-        <v>150</v>
-      </c>
-      <c r="Q60" s="5">
-        <v>100</v>
-      </c>
-      <c r="R60" s="5">
-        <v>30</v>
-      </c>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="5"/>
+      <c r="M60" s="5"/>
+      <c r="N60" s="5"/>
+      <c r="O60" s="5"/>
+      <c r="P60" s="5"/>
+      <c r="Q60" s="5"/>
+      <c r="R60" s="5"/>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
@@ -5017,33 +3946,15 @@
         <v>77</v>
       </c>
       <c r="G61" s="5"/>
-      <c r="H61" s="5">
-        <v>5</v>
-      </c>
-      <c r="I61" s="5">
-        <v>12</v>
-      </c>
-      <c r="J61" s="5">
-        <v>12</v>
-      </c>
-      <c r="K61" s="5">
-        <v>8</v>
-      </c>
-      <c r="L61" s="5">
-        <v>8</v>
-      </c>
-      <c r="M61" s="5">
-        <v>5</v>
-      </c>
-      <c r="N61" s="5">
-        <v>5</v>
-      </c>
-      <c r="O61" s="5">
-        <v>0</v>
-      </c>
-      <c r="P61" s="5">
-        <v>0</v>
-      </c>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="5"/>
+      <c r="M61" s="5"/>
+      <c r="N61" s="5"/>
+      <c r="O61" s="5"/>
+      <c r="P61" s="5"/>
       <c r="Q61" s="5"/>
       <c r="R61" s="5"/>
     </row>
@@ -5069,33 +3980,15 @@
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
-      <c r="J62" s="5">
-        <v>50</v>
-      </c>
-      <c r="K62" s="5">
-        <v>50</v>
-      </c>
-      <c r="L62" s="5">
-        <v>35</v>
-      </c>
-      <c r="M62" s="5">
-        <v>35</v>
-      </c>
-      <c r="N62" s="5">
-        <v>90</v>
-      </c>
-      <c r="O62" s="5">
-        <v>65</v>
-      </c>
-      <c r="P62" s="5">
-        <v>50</v>
-      </c>
-      <c r="Q62" s="5">
-        <v>20</v>
-      </c>
-      <c r="R62" s="5">
-        <v>25</v>
-      </c>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5"/>
+      <c r="M62" s="5"/>
+      <c r="N62" s="5"/>
+      <c r="O62" s="5"/>
+      <c r="P62" s="5"/>
+      <c r="Q62" s="5"/>
+      <c r="R62" s="5"/>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
@@ -5117,39 +4010,17 @@
         <v>79</v>
       </c>
       <c r="G63" s="5"/>
-      <c r="H63" s="5">
-        <v>10</v>
-      </c>
-      <c r="I63" s="5">
-        <v>110</v>
-      </c>
-      <c r="J63" s="5">
-        <v>120</v>
-      </c>
-      <c r="K63" s="5">
-        <v>152</v>
-      </c>
-      <c r="L63" s="5">
-        <v>100</v>
-      </c>
-      <c r="M63" s="5">
-        <v>60</v>
-      </c>
-      <c r="N63" s="5">
-        <v>94</v>
-      </c>
-      <c r="O63" s="5">
-        <v>68</v>
-      </c>
-      <c r="P63" s="5">
-        <v>18</v>
-      </c>
-      <c r="Q63" s="5">
-        <v>15</v>
-      </c>
-      <c r="R63" s="5">
-        <v>10</v>
-      </c>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="5"/>
+      <c r="M63" s="5"/>
+      <c r="N63" s="5"/>
+      <c r="O63" s="5"/>
+      <c r="P63" s="5"/>
+      <c r="Q63" s="5"/>
+      <c r="R63" s="5"/>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
@@ -5170,42 +4041,18 @@
       <c r="F64" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G64" s="5">
-        <v>0</v>
-      </c>
-      <c r="H64" s="5">
-        <v>0</v>
-      </c>
-      <c r="I64" s="5">
-        <v>10</v>
-      </c>
-      <c r="J64" s="5">
-        <v>50</v>
-      </c>
-      <c r="K64" s="5">
-        <v>60</v>
-      </c>
-      <c r="L64" s="5">
-        <v>50</v>
-      </c>
-      <c r="M64" s="5">
-        <v>60</v>
-      </c>
-      <c r="N64" s="5">
-        <v>60</v>
-      </c>
-      <c r="O64" s="5">
-        <v>40</v>
-      </c>
-      <c r="P64" s="5">
-        <v>30</v>
-      </c>
-      <c r="Q64" s="5">
-        <v>20</v>
-      </c>
-      <c r="R64" s="5">
-        <v>10</v>
-      </c>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="5"/>
+      <c r="M64" s="5"/>
+      <c r="N64" s="5"/>
+      <c r="O64" s="5"/>
+      <c r="P64" s="5"/>
+      <c r="Q64" s="5"/>
+      <c r="R64" s="5"/>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
@@ -5227,39 +4074,17 @@
         <v>81</v>
       </c>
       <c r="G65" s="5"/>
-      <c r="H65" s="5">
-        <v>2</v>
-      </c>
-      <c r="I65" s="5">
-        <v>40</v>
-      </c>
-      <c r="J65" s="5">
-        <v>43</v>
-      </c>
-      <c r="K65" s="5">
-        <v>50</v>
-      </c>
-      <c r="L65" s="5">
-        <v>50</v>
-      </c>
-      <c r="M65" s="5">
-        <v>50</v>
-      </c>
-      <c r="N65" s="5">
-        <v>60</v>
-      </c>
-      <c r="O65" s="5">
-        <v>60</v>
-      </c>
-      <c r="P65" s="5">
-        <v>80</v>
-      </c>
-      <c r="Q65" s="5">
-        <v>70</v>
-      </c>
-      <c r="R65" s="5">
-        <v>40</v>
-      </c>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="5"/>
+      <c r="M65" s="5"/>
+      <c r="N65" s="5"/>
+      <c r="O65" s="5"/>
+      <c r="P65" s="5"/>
+      <c r="Q65" s="5"/>
+      <c r="R65" s="5"/>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
@@ -5282,36 +4107,16 @@
       </c>
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
-      <c r="I66" s="5">
-        <v>80</v>
-      </c>
-      <c r="J66" s="5">
-        <v>120</v>
-      </c>
-      <c r="K66" s="5">
-        <v>100</v>
-      </c>
-      <c r="L66" s="5">
-        <v>100</v>
-      </c>
-      <c r="M66" s="5">
-        <v>50</v>
-      </c>
-      <c r="N66" s="5">
-        <v>50</v>
-      </c>
-      <c r="O66" s="5">
-        <v>50</v>
-      </c>
-      <c r="P66" s="5">
-        <v>10</v>
-      </c>
-      <c r="Q66" s="5">
-        <v>5</v>
-      </c>
-      <c r="R66" s="5">
-        <v>5</v>
-      </c>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="5"/>
+      <c r="M66" s="5"/>
+      <c r="N66" s="5"/>
+      <c r="O66" s="5"/>
+      <c r="P66" s="5"/>
+      <c r="Q66" s="5"/>
+      <c r="R66" s="5"/>
     </row>
     <row r="67" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="18" t="s">
@@ -5370,20 +4175,12 @@
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
       <c r="L68" s="5"/>
-      <c r="M68" s="5">
-        <v>80</v>
-      </c>
-      <c r="N68" s="5">
-        <v>200</v>
-      </c>
-      <c r="O68" s="5">
-        <v>100</v>
-      </c>
+      <c r="M68" s="5"/>
+      <c r="N68" s="5"/>
+      <c r="O68" s="5"/>
       <c r="P68" s="5"/>
       <c r="Q68" s="5"/>
-      <c r="R68" s="5">
-        <v>20</v>
-      </c>
+      <c r="R68" s="5"/>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
@@ -5406,33 +4203,15 @@
       </c>
       <c r="G69" s="5"/>
       <c r="H69" s="5"/>
-      <c r="I69" s="5">
-        <v>106</v>
-      </c>
-      <c r="J69" s="5">
-        <v>123</v>
-      </c>
-      <c r="K69" s="5">
-        <v>90</v>
-      </c>
-      <c r="L69" s="5">
-        <v>81</v>
-      </c>
-      <c r="M69" s="5">
-        <v>94</v>
-      </c>
-      <c r="N69" s="5">
-        <v>47</v>
-      </c>
-      <c r="O69" s="5">
-        <v>36</v>
-      </c>
-      <c r="P69" s="5">
-        <v>28</v>
-      </c>
-      <c r="Q69" s="5">
-        <v>14</v>
-      </c>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5"/>
+      <c r="L69" s="5"/>
+      <c r="M69" s="5"/>
+      <c r="N69" s="5"/>
+      <c r="O69" s="5"/>
+      <c r="P69" s="5"/>
+      <c r="Q69" s="5"/>
       <c r="R69" s="5"/>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
@@ -5456,36 +4235,16 @@
       </c>
       <c r="G70" s="5"/>
       <c r="H70" s="5"/>
-      <c r="I70" s="5">
-        <v>10</v>
-      </c>
-      <c r="J70" s="5">
-        <v>45</v>
-      </c>
-      <c r="K70" s="5">
-        <v>55</v>
-      </c>
-      <c r="L70" s="5">
-        <v>65</v>
-      </c>
-      <c r="M70" s="5">
-        <v>40</v>
-      </c>
-      <c r="N70" s="5">
-        <v>65</v>
-      </c>
-      <c r="O70" s="5">
-        <v>20</v>
-      </c>
-      <c r="P70" s="5">
-        <v>20</v>
-      </c>
-      <c r="Q70" s="5">
-        <v>30</v>
-      </c>
-      <c r="R70" s="5">
-        <v>10</v>
-      </c>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5"/>
+      <c r="L70" s="5"/>
+      <c r="M70" s="5"/>
+      <c r="N70" s="5"/>
+      <c r="O70" s="5"/>
+      <c r="P70" s="5"/>
+      <c r="Q70" s="5"/>
+      <c r="R70" s="5"/>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
@@ -5506,33 +4265,15 @@
       <c r="F71" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="G71" s="5">
-        <v>2</v>
-      </c>
-      <c r="H71" s="5">
-        <v>15</v>
-      </c>
-      <c r="I71" s="5">
-        <v>15</v>
-      </c>
-      <c r="J71" s="5">
-        <v>15</v>
-      </c>
-      <c r="K71" s="5">
-        <v>24</v>
-      </c>
-      <c r="L71" s="5">
-        <v>18</v>
-      </c>
-      <c r="M71" s="5">
-        <v>10</v>
-      </c>
-      <c r="N71" s="5">
-        <v>5</v>
-      </c>
-      <c r="O71" s="5">
-        <v>2</v>
-      </c>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5"/>
+      <c r="L71" s="5"/>
+      <c r="M71" s="5"/>
+      <c r="N71" s="5"/>
+      <c r="O71" s="5"/>
       <c r="P71" s="5"/>
       <c r="Q71" s="5"/>
       <c r="R71" s="5"/>
@@ -5558,36 +4299,16 @@
       </c>
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
-      <c r="I72" s="5">
-        <v>20</v>
-      </c>
-      <c r="J72" s="5">
-        <v>80</v>
-      </c>
-      <c r="K72" s="5">
-        <v>80</v>
-      </c>
-      <c r="L72" s="5">
-        <v>80</v>
-      </c>
-      <c r="M72" s="5">
-        <v>80</v>
-      </c>
-      <c r="N72" s="5">
-        <v>80</v>
-      </c>
-      <c r="O72" s="5">
-        <v>80</v>
-      </c>
-      <c r="P72" s="5">
-        <v>80</v>
-      </c>
-      <c r="Q72" s="5">
-        <v>20</v>
-      </c>
-      <c r="R72" s="5">
-        <v>10</v>
-      </c>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="5"/>
+      <c r="L72" s="5"/>
+      <c r="M72" s="5"/>
+      <c r="N72" s="5"/>
+      <c r="O72" s="5"/>
+      <c r="P72" s="5"/>
+      <c r="Q72" s="5"/>
+      <c r="R72" s="5"/>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
@@ -5609,39 +4330,17 @@
         <v>394</v>
       </c>
       <c r="G73" s="5"/>
-      <c r="H73" s="5">
-        <v>15</v>
-      </c>
-      <c r="I73" s="5">
-        <v>61</v>
-      </c>
-      <c r="J73" s="5">
-        <v>83</v>
-      </c>
-      <c r="K73" s="5">
-        <v>86</v>
-      </c>
-      <c r="L73" s="5">
-        <v>80</v>
-      </c>
-      <c r="M73" s="5">
-        <v>61</v>
-      </c>
-      <c r="N73" s="5">
-        <v>57</v>
-      </c>
-      <c r="O73" s="5">
-        <v>49</v>
-      </c>
-      <c r="P73" s="5">
-        <v>40</v>
-      </c>
-      <c r="Q73" s="5">
-        <v>27</v>
-      </c>
-      <c r="R73" s="5">
-        <v>10</v>
-      </c>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="5"/>
+      <c r="K73" s="5"/>
+      <c r="L73" s="5"/>
+      <c r="M73" s="5"/>
+      <c r="N73" s="5"/>
+      <c r="O73" s="5"/>
+      <c r="P73" s="5"/>
+      <c r="Q73" s="5"/>
+      <c r="R73" s="5"/>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
@@ -5664,36 +4363,16 @@
       </c>
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
-      <c r="I74" s="5">
-        <v>25</v>
-      </c>
-      <c r="J74" s="5">
-        <v>75</v>
-      </c>
-      <c r="K74" s="5">
-        <v>70</v>
-      </c>
-      <c r="L74" s="5">
-        <v>84</v>
-      </c>
-      <c r="M74" s="5">
-        <v>100</v>
-      </c>
-      <c r="N74" s="5">
-        <v>80</v>
-      </c>
-      <c r="O74" s="5">
-        <v>60</v>
-      </c>
-      <c r="P74" s="5">
-        <v>60</v>
-      </c>
-      <c r="Q74" s="5">
-        <v>30</v>
-      </c>
-      <c r="R74" s="5">
-        <v>16</v>
-      </c>
+      <c r="I74" s="5"/>
+      <c r="J74" s="5"/>
+      <c r="K74" s="5"/>
+      <c r="L74" s="5"/>
+      <c r="M74" s="5"/>
+      <c r="N74" s="5"/>
+      <c r="O74" s="5"/>
+      <c r="P74" s="5"/>
+      <c r="Q74" s="5"/>
+      <c r="R74" s="5"/>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
@@ -5719,27 +4398,13 @@
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
-      <c r="L75" s="5">
-        <v>10</v>
-      </c>
-      <c r="M75" s="5">
-        <v>70</v>
-      </c>
-      <c r="N75" s="5">
-        <v>70</v>
-      </c>
-      <c r="O75" s="5">
-        <v>50</v>
-      </c>
-      <c r="P75" s="5">
-        <v>60</v>
-      </c>
-      <c r="Q75" s="5">
-        <v>20</v>
-      </c>
-      <c r="R75" s="5">
-        <v>10</v>
-      </c>
+      <c r="L75" s="5"/>
+      <c r="M75" s="5"/>
+      <c r="N75" s="5"/>
+      <c r="O75" s="5"/>
+      <c r="P75" s="5"/>
+      <c r="Q75" s="5"/>
+      <c r="R75" s="5"/>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
@@ -5761,33 +4426,15 @@
         <v>397</v>
       </c>
       <c r="G76" s="5"/>
-      <c r="H76" s="5">
-        <v>10</v>
-      </c>
-      <c r="I76" s="5">
-        <v>14</v>
-      </c>
-      <c r="J76" s="5">
-        <v>15</v>
-      </c>
-      <c r="K76" s="5">
-        <v>15</v>
-      </c>
-      <c r="L76" s="5">
-        <v>20</v>
-      </c>
-      <c r="M76" s="5">
-        <v>20</v>
-      </c>
-      <c r="N76" s="5">
-        <v>10</v>
-      </c>
-      <c r="O76" s="5">
-        <v>1</v>
-      </c>
-      <c r="P76" s="5">
-        <v>1</v>
-      </c>
+      <c r="H76" s="5"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="5"/>
+      <c r="K76" s="5"/>
+      <c r="L76" s="5"/>
+      <c r="M76" s="5"/>
+      <c r="N76" s="5"/>
+      <c r="O76" s="5"/>
+      <c r="P76" s="5"/>
       <c r="Q76" s="5"/>
       <c r="R76" s="5"/>
     </row>
@@ -5814,27 +4461,13 @@
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
-      <c r="K77" s="5">
-        <v>50</v>
-      </c>
-      <c r="L77" s="5">
-        <v>50</v>
-      </c>
-      <c r="M77" s="5">
-        <v>100</v>
-      </c>
-      <c r="N77" s="5">
-        <v>100</v>
-      </c>
-      <c r="O77" s="5">
-        <v>200</v>
-      </c>
-      <c r="P77" s="5">
-        <v>150</v>
-      </c>
-      <c r="Q77" s="5">
-        <v>100</v>
-      </c>
+      <c r="K77" s="5"/>
+      <c r="L77" s="5"/>
+      <c r="M77" s="5"/>
+      <c r="N77" s="5"/>
+      <c r="O77" s="5"/>
+      <c r="P77" s="5"/>
+      <c r="Q77" s="5"/>
       <c r="R77" s="5"/>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
@@ -5856,42 +4489,18 @@
       <c r="F78" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="G78" s="5">
-        <v>0</v>
-      </c>
-      <c r="H78" s="5">
-        <v>70</v>
-      </c>
-      <c r="I78" s="5">
-        <v>90</v>
-      </c>
-      <c r="J78" s="5">
-        <v>65</v>
-      </c>
-      <c r="K78" s="5">
-        <v>125</v>
-      </c>
-      <c r="L78" s="5">
-        <v>140</v>
-      </c>
-      <c r="M78" s="5">
-        <v>70</v>
-      </c>
-      <c r="N78" s="5">
-        <v>100</v>
-      </c>
-      <c r="O78" s="5">
-        <v>50</v>
-      </c>
-      <c r="P78" s="5">
-        <v>50</v>
-      </c>
-      <c r="Q78" s="5">
-        <v>50</v>
-      </c>
-      <c r="R78" s="5">
-        <v>3</v>
-      </c>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5"/>
+      <c r="K78" s="5"/>
+      <c r="L78" s="5"/>
+      <c r="M78" s="5"/>
+      <c r="N78" s="5"/>
+      <c r="O78" s="5"/>
+      <c r="P78" s="5"/>
+      <c r="Q78" s="5"/>
+      <c r="R78" s="5"/>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
@@ -5913,39 +4522,17 @@
         <v>400</v>
       </c>
       <c r="G79" s="5"/>
-      <c r="H79" s="5">
-        <v>4</v>
-      </c>
-      <c r="I79" s="5">
-        <v>14</v>
-      </c>
-      <c r="J79" s="5">
-        <v>39</v>
-      </c>
-      <c r="K79" s="5">
-        <v>55</v>
-      </c>
-      <c r="L79" s="5">
-        <v>71</v>
-      </c>
-      <c r="M79" s="5">
-        <v>70</v>
-      </c>
-      <c r="N79" s="5">
-        <v>40</v>
-      </c>
-      <c r="O79" s="5">
-        <v>15</v>
-      </c>
-      <c r="P79" s="5">
-        <v>80</v>
-      </c>
-      <c r="Q79" s="5">
-        <v>40</v>
-      </c>
-      <c r="R79" s="5">
-        <v>4</v>
-      </c>
+      <c r="H79" s="5"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="5"/>
+      <c r="K79" s="5"/>
+      <c r="L79" s="5"/>
+      <c r="M79" s="5"/>
+      <c r="N79" s="5"/>
+      <c r="O79" s="5"/>
+      <c r="P79" s="5"/>
+      <c r="Q79" s="5"/>
+      <c r="R79" s="5"/>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
@@ -5967,39 +4554,17 @@
         <v>401</v>
       </c>
       <c r="G80" s="5"/>
-      <c r="H80" s="5">
-        <v>5</v>
-      </c>
-      <c r="I80" s="5">
-        <v>50</v>
-      </c>
-      <c r="J80" s="5">
-        <v>50</v>
-      </c>
-      <c r="K80" s="5">
-        <v>50</v>
-      </c>
-      <c r="L80" s="5">
-        <v>50</v>
-      </c>
-      <c r="M80" s="5">
-        <v>50</v>
-      </c>
-      <c r="N80" s="5">
-        <v>60</v>
-      </c>
-      <c r="O80" s="5">
-        <v>60</v>
-      </c>
-      <c r="P80" s="5">
-        <v>50</v>
-      </c>
-      <c r="Q80" s="5">
-        <v>40</v>
-      </c>
-      <c r="R80" s="5">
-        <v>30</v>
-      </c>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="5"/>
+      <c r="K80" s="5"/>
+      <c r="L80" s="5"/>
+      <c r="M80" s="5"/>
+      <c r="N80" s="5"/>
+      <c r="O80" s="5"/>
+      <c r="P80" s="5"/>
+      <c r="Q80" s="5"/>
+      <c r="R80" s="5"/>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
@@ -6020,30 +4585,14 @@
       <c r="F81" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="G81" s="5">
-        <v>0</v>
-      </c>
-      <c r="H81" s="5">
-        <v>0</v>
-      </c>
-      <c r="I81" s="5">
-        <v>80</v>
-      </c>
-      <c r="J81" s="5">
-        <v>80</v>
-      </c>
-      <c r="K81" s="5">
-        <v>80</v>
-      </c>
-      <c r="L81" s="5">
-        <v>100</v>
-      </c>
-      <c r="M81" s="5">
-        <v>50</v>
-      </c>
-      <c r="N81" s="5">
-        <v>30</v>
-      </c>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="5"/>
+      <c r="J81" s="5"/>
+      <c r="K81" s="5"/>
+      <c r="L81" s="5"/>
+      <c r="M81" s="5"/>
+      <c r="N81" s="5"/>
       <c r="O81" s="5"/>
       <c r="P81" s="5"/>
       <c r="Q81" s="5"/>
@@ -6068,35 +4617,17 @@
       <c r="F82" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="G82" s="5">
-        <v>1</v>
-      </c>
-      <c r="H82" s="5">
-        <v>5</v>
-      </c>
-      <c r="I82" s="5">
-        <v>22</v>
-      </c>
-      <c r="J82" s="5">
-        <v>29</v>
-      </c>
-      <c r="K82" s="5">
-        <v>21</v>
-      </c>
-      <c r="L82" s="5">
-        <v>13</v>
-      </c>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="5"/>
+      <c r="J82" s="5"/>
+      <c r="K82" s="5"/>
+      <c r="L82" s="5"/>
       <c r="M82" s="5"/>
-      <c r="N82" s="5">
-        <v>2</v>
-      </c>
-      <c r="O82" s="5">
-        <v>2</v>
-      </c>
+      <c r="N82" s="5"/>
+      <c r="O82" s="5"/>
       <c r="P82" s="5"/>
-      <c r="Q82" s="5">
-        <v>1</v>
-      </c>
+      <c r="Q82" s="5"/>
       <c r="R82" s="5"/>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.25">
@@ -6119,39 +4650,17 @@
         <v>404</v>
       </c>
       <c r="G83" s="5"/>
-      <c r="H83" s="5">
-        <v>1</v>
-      </c>
-      <c r="I83" s="5">
-        <v>75</v>
-      </c>
-      <c r="J83" s="5">
-        <v>60</v>
-      </c>
-      <c r="K83" s="5">
-        <v>32</v>
-      </c>
-      <c r="L83" s="5">
-        <v>60</v>
-      </c>
-      <c r="M83" s="5">
-        <v>70</v>
-      </c>
-      <c r="N83" s="5">
-        <v>80</v>
-      </c>
-      <c r="O83" s="5">
-        <v>50</v>
-      </c>
-      <c r="P83" s="5">
-        <v>60</v>
-      </c>
-      <c r="Q83" s="5">
-        <v>40</v>
-      </c>
-      <c r="R83" s="5">
-        <v>0</v>
-      </c>
+      <c r="H83" s="5"/>
+      <c r="I83" s="5"/>
+      <c r="J83" s="5"/>
+      <c r="K83" s="5"/>
+      <c r="L83" s="5"/>
+      <c r="M83" s="5"/>
+      <c r="N83" s="5"/>
+      <c r="O83" s="5"/>
+      <c r="P83" s="5"/>
+      <c r="Q83" s="5"/>
+      <c r="R83" s="5"/>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -6173,39 +4682,17 @@
         <v>405</v>
       </c>
       <c r="G84" s="5"/>
-      <c r="H84" s="5">
-        <v>50</v>
-      </c>
-      <c r="I84" s="5">
-        <v>200</v>
-      </c>
-      <c r="J84" s="5">
-        <v>220</v>
-      </c>
-      <c r="K84" s="5">
-        <v>120</v>
-      </c>
-      <c r="L84" s="5">
-        <v>150</v>
-      </c>
-      <c r="M84" s="5">
-        <v>100</v>
-      </c>
-      <c r="N84" s="5">
-        <v>100</v>
-      </c>
-      <c r="O84" s="5">
-        <v>120</v>
-      </c>
-      <c r="P84" s="5">
-        <v>120</v>
-      </c>
-      <c r="Q84" s="5">
-        <v>150</v>
-      </c>
-      <c r="R84" s="5">
-        <v>50</v>
-      </c>
+      <c r="H84" s="5"/>
+      <c r="I84" s="5"/>
+      <c r="J84" s="5"/>
+      <c r="K84" s="5"/>
+      <c r="L84" s="5"/>
+      <c r="M84" s="5"/>
+      <c r="N84" s="5"/>
+      <c r="O84" s="5"/>
+      <c r="P84" s="5"/>
+      <c r="Q84" s="5"/>
+      <c r="R84" s="5"/>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -6228,36 +4715,16 @@
       </c>
       <c r="G85" s="5"/>
       <c r="H85" s="5"/>
-      <c r="I85" s="5">
-        <v>28</v>
-      </c>
-      <c r="J85" s="5">
-        <v>60</v>
-      </c>
-      <c r="K85" s="5">
-        <v>80</v>
-      </c>
-      <c r="L85" s="5">
-        <v>92</v>
-      </c>
-      <c r="M85" s="5">
-        <v>70</v>
-      </c>
-      <c r="N85" s="5">
-        <v>60</v>
-      </c>
-      <c r="O85" s="5">
-        <v>44</v>
-      </c>
-      <c r="P85" s="5">
-        <v>40</v>
-      </c>
-      <c r="Q85" s="5">
-        <v>24</v>
-      </c>
-      <c r="R85" s="5">
-        <v>16</v>
-      </c>
+      <c r="I85" s="5"/>
+      <c r="J85" s="5"/>
+      <c r="K85" s="5"/>
+      <c r="L85" s="5"/>
+      <c r="M85" s="5"/>
+      <c r="N85" s="5"/>
+      <c r="O85" s="5"/>
+      <c r="P85" s="5"/>
+      <c r="Q85" s="5"/>
+      <c r="R85" s="5"/>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
@@ -6280,36 +4747,16 @@
       </c>
       <c r="G86" s="5"/>
       <c r="H86" s="5"/>
-      <c r="I86" s="5">
-        <v>60</v>
-      </c>
-      <c r="J86" s="5">
-        <v>60</v>
-      </c>
-      <c r="K86" s="5">
-        <v>60</v>
-      </c>
-      <c r="L86" s="5">
-        <v>90</v>
-      </c>
-      <c r="M86" s="5">
-        <v>100</v>
-      </c>
-      <c r="N86" s="5">
-        <v>80</v>
-      </c>
-      <c r="O86" s="5">
-        <v>80</v>
-      </c>
-      <c r="P86" s="5">
-        <v>80</v>
-      </c>
-      <c r="Q86" s="5">
-        <v>50</v>
-      </c>
-      <c r="R86" s="5">
-        <v>50</v>
-      </c>
+      <c r="I86" s="5"/>
+      <c r="J86" s="5"/>
+      <c r="K86" s="5"/>
+      <c r="L86" s="5"/>
+      <c r="M86" s="5"/>
+      <c r="N86" s="5"/>
+      <c r="O86" s="5"/>
+      <c r="P86" s="5"/>
+      <c r="Q86" s="5"/>
+      <c r="R86" s="5"/>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
@@ -6331,16 +4778,10 @@
         <v>408</v>
       </c>
       <c r="G87" s="5"/>
-      <c r="H87" s="5">
-        <v>1</v>
-      </c>
+      <c r="H87" s="5"/>
       <c r="I87" s="5"/>
-      <c r="J87" s="5">
-        <v>4</v>
-      </c>
-      <c r="K87" s="5">
-        <v>2</v>
-      </c>
+      <c r="J87" s="5"/>
+      <c r="K87" s="5"/>
       <c r="L87" s="5"/>
       <c r="M87" s="5"/>
       <c r="N87" s="5"/>
@@ -6370,36 +4811,16 @@
       </c>
       <c r="G88" s="5"/>
       <c r="H88" s="5"/>
-      <c r="I88" s="5">
-        <v>32</v>
-      </c>
-      <c r="J88" s="5">
-        <v>50</v>
-      </c>
-      <c r="K88" s="5">
-        <v>80</v>
-      </c>
-      <c r="L88" s="5">
-        <v>75</v>
-      </c>
-      <c r="M88" s="5">
-        <v>56</v>
-      </c>
-      <c r="N88" s="5">
-        <v>50</v>
-      </c>
-      <c r="O88" s="5">
-        <v>30</v>
-      </c>
-      <c r="P88" s="5">
-        <v>30</v>
-      </c>
-      <c r="Q88" s="5">
-        <v>15</v>
-      </c>
-      <c r="R88" s="5">
-        <v>10</v>
-      </c>
+      <c r="I88" s="5"/>
+      <c r="J88" s="5"/>
+      <c r="K88" s="5"/>
+      <c r="L88" s="5"/>
+      <c r="M88" s="5"/>
+      <c r="N88" s="5"/>
+      <c r="O88" s="5"/>
+      <c r="P88" s="5"/>
+      <c r="Q88" s="5"/>
+      <c r="R88" s="5"/>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
@@ -6420,42 +4841,18 @@
       <c r="F89" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="G89" s="5">
-        <v>0</v>
-      </c>
-      <c r="H89" s="5">
-        <v>25</v>
-      </c>
-      <c r="I89" s="5">
-        <v>35</v>
-      </c>
-      <c r="J89" s="5">
-        <v>63</v>
-      </c>
-      <c r="K89" s="5">
-        <v>24</v>
-      </c>
-      <c r="L89" s="5">
-        <v>70</v>
-      </c>
-      <c r="M89" s="5">
-        <v>80</v>
-      </c>
-      <c r="N89" s="5">
-        <v>100</v>
-      </c>
-      <c r="O89" s="5">
-        <v>55</v>
-      </c>
-      <c r="P89" s="5">
-        <v>45</v>
-      </c>
-      <c r="Q89" s="5">
-        <v>35</v>
-      </c>
-      <c r="R89" s="5">
-        <v>3</v>
-      </c>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="5"/>
+      <c r="J89" s="5"/>
+      <c r="K89" s="5"/>
+      <c r="L89" s="5"/>
+      <c r="M89" s="5"/>
+      <c r="N89" s="5"/>
+      <c r="O89" s="5"/>
+      <c r="P89" s="5"/>
+      <c r="Q89" s="5"/>
+      <c r="R89" s="5"/>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
@@ -6478,36 +4875,16 @@
       </c>
       <c r="G90" s="5"/>
       <c r="H90" s="5"/>
-      <c r="I90" s="5">
-        <v>10</v>
-      </c>
-      <c r="J90" s="5">
-        <v>60</v>
-      </c>
-      <c r="K90" s="5">
-        <v>40</v>
-      </c>
-      <c r="L90" s="5">
-        <v>60</v>
-      </c>
-      <c r="M90" s="5">
-        <v>60</v>
-      </c>
-      <c r="N90" s="5">
-        <v>55</v>
-      </c>
-      <c r="O90" s="5">
-        <v>55</v>
-      </c>
-      <c r="P90" s="5">
-        <v>30</v>
-      </c>
-      <c r="Q90" s="5">
-        <v>10</v>
-      </c>
-      <c r="R90" s="5">
-        <v>1</v>
-      </c>
+      <c r="I90" s="5"/>
+      <c r="J90" s="5"/>
+      <c r="K90" s="5"/>
+      <c r="L90" s="5"/>
+      <c r="M90" s="5"/>
+      <c r="N90" s="5"/>
+      <c r="O90" s="5"/>
+      <c r="P90" s="5"/>
+      <c r="Q90" s="5"/>
+      <c r="R90" s="5"/>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
@@ -6531,18 +4908,10 @@
       <c r="G91" s="5"/>
       <c r="H91" s="5"/>
       <c r="I91" s="5"/>
-      <c r="J91" s="5">
-        <v>5</v>
-      </c>
-      <c r="K91" s="5">
-        <v>4</v>
-      </c>
-      <c r="L91" s="5">
-        <v>5</v>
-      </c>
-      <c r="M91" s="5">
-        <v>2</v>
-      </c>
+      <c r="J91" s="5"/>
+      <c r="K91" s="5"/>
+      <c r="L91" s="5"/>
+      <c r="M91" s="5"/>
       <c r="N91" s="5"/>
       <c r="O91" s="5"/>
       <c r="P91" s="5"/>
@@ -6569,33 +4938,15 @@
         <v>413</v>
       </c>
       <c r="G92" s="5"/>
-      <c r="H92" s="5">
-        <v>12</v>
-      </c>
-      <c r="I92" s="5">
-        <v>11</v>
-      </c>
-      <c r="J92" s="5">
-        <v>20</v>
-      </c>
-      <c r="K92" s="5">
-        <v>16</v>
-      </c>
-      <c r="L92" s="5">
-        <v>14</v>
-      </c>
-      <c r="M92" s="5">
-        <v>4</v>
-      </c>
-      <c r="N92" s="5">
-        <v>4</v>
-      </c>
-      <c r="O92" s="5">
-        <v>3</v>
-      </c>
-      <c r="P92" s="5">
-        <v>3</v>
-      </c>
+      <c r="H92" s="5"/>
+      <c r="I92" s="5"/>
+      <c r="J92" s="5"/>
+      <c r="K92" s="5"/>
+      <c r="L92" s="5"/>
+      <c r="M92" s="5"/>
+      <c r="N92" s="5"/>
+      <c r="O92" s="5"/>
+      <c r="P92" s="5"/>
       <c r="Q92" s="5"/>
       <c r="R92" s="5"/>
     </row>
@@ -6625,21 +4976,11 @@
       <c r="K93" s="5"/>
       <c r="L93" s="5"/>
       <c r="M93" s="5"/>
-      <c r="N93" s="5">
-        <v>10</v>
-      </c>
-      <c r="O93" s="5">
-        <v>28</v>
-      </c>
-      <c r="P93" s="5">
-        <v>65</v>
-      </c>
-      <c r="Q93" s="5">
-        <v>55</v>
-      </c>
-      <c r="R93" s="5">
-        <v>12</v>
-      </c>
+      <c r="N93" s="5"/>
+      <c r="O93" s="5"/>
+      <c r="P93" s="5"/>
+      <c r="Q93" s="5"/>
+      <c r="R93" s="5"/>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
@@ -6660,24 +5001,12 @@
       <c r="F94" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="G94" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="H94" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="I94" s="5">
-        <v>55</v>
-      </c>
-      <c r="J94" s="5">
-        <v>54</v>
-      </c>
-      <c r="K94" s="5">
-        <v>7</v>
-      </c>
-      <c r="L94" s="5">
-        <v>2</v>
-      </c>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
+      <c r="I94" s="5"/>
+      <c r="J94" s="5"/>
+      <c r="K94" s="5"/>
+      <c r="L94" s="5"/>
       <c r="M94" s="5"/>
       <c r="N94" s="5"/>
       <c r="O94" s="5"/>
@@ -6705,21 +5034,11 @@
         <v>416</v>
       </c>
       <c r="G95" s="5"/>
-      <c r="H95" s="5">
-        <v>18</v>
-      </c>
-      <c r="I95" s="5">
-        <v>69</v>
-      </c>
-      <c r="J95" s="5">
-        <v>30</v>
-      </c>
-      <c r="K95" s="5">
-        <v>11</v>
-      </c>
-      <c r="L95" s="5">
-        <v>2</v>
-      </c>
+      <c r="H95" s="5"/>
+      <c r="I95" s="5"/>
+      <c r="J95" s="5"/>
+      <c r="K95" s="5"/>
+      <c r="L95" s="5"/>
       <c r="M95" s="5"/>
       <c r="N95" s="5"/>
       <c r="O95" s="5"/>
@@ -6747,18 +5066,10 @@
         <v>417</v>
       </c>
       <c r="G96" s="5"/>
-      <c r="H96" s="5">
-        <v>30</v>
-      </c>
-      <c r="I96" s="5">
-        <v>60</v>
-      </c>
-      <c r="J96" s="5">
-        <v>30</v>
-      </c>
-      <c r="K96" s="5">
-        <v>10</v>
-      </c>
+      <c r="H96" s="5"/>
+      <c r="I96" s="5"/>
+      <c r="J96" s="5"/>
+      <c r="K96" s="5"/>
       <c r="L96" s="5"/>
       <c r="M96" s="5"/>
       <c r="N96" s="5"/>
@@ -6787,18 +5098,10 @@
         <v>418</v>
       </c>
       <c r="G97" s="5"/>
-      <c r="H97" s="5">
-        <v>70</v>
-      </c>
-      <c r="I97" s="5">
-        <v>60</v>
-      </c>
-      <c r="J97" s="5">
-        <v>30</v>
-      </c>
-      <c r="K97" s="5">
-        <v>20</v>
-      </c>
+      <c r="H97" s="5"/>
+      <c r="I97" s="5"/>
+      <c r="J97" s="5"/>
+      <c r="K97" s="5"/>
       <c r="L97" s="5"/>
       <c r="M97" s="5"/>
       <c r="N97" s="5"/>
@@ -6827,21 +5130,11 @@
         <v>419</v>
       </c>
       <c r="G98" s="5"/>
-      <c r="H98" s="5">
-        <v>15</v>
-      </c>
-      <c r="I98" s="5">
-        <v>27</v>
-      </c>
-      <c r="J98" s="5">
-        <v>10</v>
-      </c>
-      <c r="K98" s="5">
-        <v>3</v>
-      </c>
-      <c r="L98" s="5">
-        <v>1</v>
-      </c>
+      <c r="H98" s="5"/>
+      <c r="I98" s="5"/>
+      <c r="J98" s="5"/>
+      <c r="K98" s="5"/>
+      <c r="L98" s="5"/>
       <c r="M98" s="5"/>
       <c r="N98" s="5"/>
       <c r="O98" s="5"/>
@@ -6868,24 +5161,12 @@
       <c r="F99" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="G99" s="5">
-        <v>2</v>
-      </c>
-      <c r="H99" s="5">
-        <v>12</v>
-      </c>
-      <c r="I99" s="5">
-        <v>34</v>
-      </c>
-      <c r="J99" s="5">
-        <v>30</v>
-      </c>
-      <c r="K99" s="5">
-        <v>2</v>
-      </c>
-      <c r="L99" s="5">
-        <v>2</v>
-      </c>
+      <c r="G99" s="5"/>
+      <c r="H99" s="5"/>
+      <c r="I99" s="5"/>
+      <c r="J99" s="5"/>
+      <c r="K99" s="5"/>
+      <c r="L99" s="5"/>
       <c r="M99" s="5"/>
       <c r="N99" s="5"/>
       <c r="O99" s="5"/>
@@ -6914,12 +5195,8 @@
       </c>
       <c r="G100" s="5"/>
       <c r="H100" s="5"/>
-      <c r="I100" s="5">
-        <v>100</v>
-      </c>
-      <c r="J100" s="5">
-        <v>53</v>
-      </c>
+      <c r="I100" s="5"/>
+      <c r="J100" s="5"/>
       <c r="K100" s="5"/>
       <c r="L100" s="5"/>
       <c r="M100" s="5"/>
@@ -6949,15 +5226,9 @@
         <v>422</v>
       </c>
       <c r="G101" s="5"/>
-      <c r="H101" s="5">
-        <v>2</v>
-      </c>
-      <c r="I101" s="5">
-        <v>44</v>
-      </c>
-      <c r="J101" s="5">
-        <v>32</v>
-      </c>
+      <c r="H101" s="5"/>
+      <c r="I101" s="5"/>
+      <c r="J101" s="5"/>
       <c r="K101" s="5"/>
       <c r="L101" s="5"/>
       <c r="M101" s="5"/>
@@ -6987,15 +5258,9 @@
         <v>423</v>
       </c>
       <c r="G102" s="5"/>
-      <c r="H102" s="5">
-        <v>29</v>
-      </c>
-      <c r="I102" s="5">
-        <v>43</v>
-      </c>
-      <c r="J102" s="5">
-        <v>10</v>
-      </c>
+      <c r="H102" s="5"/>
+      <c r="I102" s="5"/>
+      <c r="J102" s="5"/>
       <c r="K102" s="5"/>
       <c r="L102" s="5"/>
       <c r="M102" s="5"/>
@@ -7025,18 +5290,10 @@
         <v>424</v>
       </c>
       <c r="G103" s="5"/>
-      <c r="H103" s="5">
-        <v>15</v>
-      </c>
-      <c r="I103" s="5">
-        <v>40</v>
-      </c>
-      <c r="J103" s="5">
-        <v>40</v>
-      </c>
-      <c r="K103" s="5">
-        <v>5</v>
-      </c>
+      <c r="H103" s="5"/>
+      <c r="I103" s="5"/>
+      <c r="J103" s="5"/>
+      <c r="K103" s="5"/>
       <c r="L103" s="5"/>
       <c r="M103" s="5"/>
       <c r="N103" s="5"/>
@@ -7065,21 +5322,11 @@
         <v>425</v>
       </c>
       <c r="G104" s="5"/>
-      <c r="H104" s="5">
-        <v>30</v>
-      </c>
-      <c r="I104" s="5">
-        <v>30</v>
-      </c>
-      <c r="J104" s="5">
-        <v>30</v>
-      </c>
-      <c r="K104" s="5">
-        <v>5</v>
-      </c>
-      <c r="L104" s="5">
-        <v>5</v>
-      </c>
+      <c r="H104" s="5"/>
+      <c r="I104" s="5"/>
+      <c r="J104" s="5"/>
+      <c r="K104" s="5"/>
+      <c r="L104" s="5"/>
       <c r="M104" s="5"/>
       <c r="N104" s="5"/>
       <c r="O104" s="5"/>
@@ -7108,15 +5355,9 @@
       </c>
       <c r="G105" s="5"/>
       <c r="H105" s="5"/>
-      <c r="I105" s="5">
-        <v>15</v>
-      </c>
-      <c r="J105" s="5">
-        <v>16</v>
-      </c>
-      <c r="K105" s="5">
-        <v>4</v>
-      </c>
+      <c r="I105" s="5"/>
+      <c r="J105" s="5"/>
+      <c r="K105" s="5"/>
       <c r="L105" s="5"/>
       <c r="M105" s="5"/>
       <c r="N105" s="5"/>
@@ -7145,18 +5386,10 @@
         <v>427</v>
       </c>
       <c r="G106" s="5"/>
-      <c r="H106" s="5">
-        <v>10</v>
-      </c>
-      <c r="I106" s="5">
-        <v>45</v>
-      </c>
-      <c r="J106" s="5">
-        <v>35</v>
-      </c>
-      <c r="K106" s="5">
-        <v>10</v>
-      </c>
+      <c r="H106" s="5"/>
+      <c r="I106" s="5"/>
+      <c r="J106" s="5"/>
+      <c r="K106" s="5"/>
       <c r="L106" s="5"/>
       <c r="M106" s="5"/>
       <c r="N106" s="5"/>
@@ -7187,21 +5420,11 @@
       <c r="G107" s="5"/>
       <c r="H107" s="5"/>
       <c r="I107" s="5"/>
-      <c r="J107" s="5">
-        <v>10</v>
-      </c>
-      <c r="K107" s="5">
-        <v>20</v>
-      </c>
-      <c r="L107" s="5">
-        <v>10</v>
-      </c>
-      <c r="M107" s="5">
-        <v>10</v>
-      </c>
-      <c r="N107" s="5">
-        <v>10</v>
-      </c>
+      <c r="J107" s="5"/>
+      <c r="K107" s="5"/>
+      <c r="L107" s="5"/>
+      <c r="M107" s="5"/>
+      <c r="N107" s="5"/>
       <c r="O107" s="5"/>
       <c r="P107" s="5"/>
       <c r="Q107" s="5"/>
@@ -7228,15 +5451,9 @@
       </c>
       <c r="G108" s="5"/>
       <c r="H108" s="5"/>
-      <c r="I108" s="5">
-        <v>30</v>
-      </c>
-      <c r="J108" s="5">
-        <v>15</v>
-      </c>
-      <c r="K108" s="5">
-        <v>10</v>
-      </c>
+      <c r="I108" s="5"/>
+      <c r="J108" s="5"/>
+      <c r="K108" s="5"/>
       <c r="L108" s="5"/>
       <c r="M108" s="5"/>
       <c r="N108" s="5"/>
@@ -7265,18 +5482,10 @@
         <v>430</v>
       </c>
       <c r="G109" s="5"/>
-      <c r="H109" s="5">
-        <v>50</v>
-      </c>
-      <c r="I109" s="5">
-        <v>50</v>
-      </c>
-      <c r="J109" s="5">
-        <v>30</v>
-      </c>
-      <c r="K109" s="5">
-        <v>6</v>
-      </c>
+      <c r="H109" s="5"/>
+      <c r="I109" s="5"/>
+      <c r="J109" s="5"/>
+      <c r="K109" s="5"/>
       <c r="L109" s="5"/>
       <c r="M109" s="5"/>
       <c r="N109" s="5"/>
@@ -7305,18 +5514,10 @@
         <v>431</v>
       </c>
       <c r="G110" s="5"/>
-      <c r="H110" s="5">
-        <v>12</v>
-      </c>
-      <c r="I110" s="5">
-        <v>16</v>
-      </c>
-      <c r="J110" s="5">
-        <v>4</v>
-      </c>
-      <c r="K110" s="5">
-        <v>2</v>
-      </c>
+      <c r="H110" s="5"/>
+      <c r="I110" s="5"/>
+      <c r="J110" s="5"/>
+      <c r="K110" s="5"/>
       <c r="L110" s="5"/>
       <c r="M110" s="5"/>
       <c r="N110" s="5"/>
@@ -7345,15 +5546,9 @@
         <v>432</v>
       </c>
       <c r="G111" s="5"/>
-      <c r="H111" s="5">
-        <v>15</v>
-      </c>
-      <c r="I111" s="5">
-        <v>40</v>
-      </c>
-      <c r="J111" s="5">
-        <v>5</v>
-      </c>
+      <c r="H111" s="5"/>
+      <c r="I111" s="5"/>
+      <c r="J111" s="5"/>
       <c r="K111" s="5"/>
       <c r="L111" s="5"/>
       <c r="M111" s="5"/>
@@ -7383,18 +5578,10 @@
         <v>433</v>
       </c>
       <c r="G112" s="5"/>
-      <c r="H112" s="5">
-        <v>110</v>
-      </c>
-      <c r="I112" s="5">
-        <v>50</v>
-      </c>
-      <c r="J112" s="5">
-        <v>6</v>
-      </c>
-      <c r="K112" s="5">
-        <v>4</v>
-      </c>
+      <c r="H112" s="5"/>
+      <c r="I112" s="5"/>
+      <c r="J112" s="5"/>
+      <c r="K112" s="5"/>
       <c r="L112" s="5"/>
       <c r="M112" s="5"/>
       <c r="N112" s="5"/>
@@ -7423,12 +5610,8 @@
         <v>434</v>
       </c>
       <c r="G113" s="5"/>
-      <c r="H113" s="5">
-        <v>40</v>
-      </c>
-      <c r="I113" s="5">
-        <v>20</v>
-      </c>
+      <c r="H113" s="5"/>
+      <c r="I113" s="5"/>
       <c r="J113" s="5"/>
       <c r="K113" s="5"/>
       <c r="L113" s="5"/>
@@ -7459,21 +5642,11 @@
         <v>435</v>
       </c>
       <c r="G114" s="5"/>
-      <c r="H114" s="5">
-        <v>30</v>
-      </c>
-      <c r="I114" s="5">
-        <v>50</v>
-      </c>
-      <c r="J114" s="5">
-        <v>50</v>
-      </c>
-      <c r="K114" s="5">
-        <v>8</v>
-      </c>
-      <c r="L114" s="5">
-        <v>5</v>
-      </c>
+      <c r="H114" s="5"/>
+      <c r="I114" s="5"/>
+      <c r="J114" s="5"/>
+      <c r="K114" s="5"/>
+      <c r="L114" s="5"/>
       <c r="M114" s="5"/>
       <c r="N114" s="5"/>
       <c r="O114" s="5"/>
@@ -7501,18 +5674,10 @@
         <v>436</v>
       </c>
       <c r="G115" s="5"/>
-      <c r="H115" s="5">
-        <v>20</v>
-      </c>
-      <c r="I115" s="5">
-        <v>80</v>
-      </c>
-      <c r="J115" s="5">
-        <v>80</v>
-      </c>
-      <c r="K115" s="5">
-        <v>15</v>
-      </c>
+      <c r="H115" s="5"/>
+      <c r="I115" s="5"/>
+      <c r="J115" s="5"/>
+      <c r="K115" s="5"/>
       <c r="L115" s="5"/>
       <c r="M115" s="5"/>
       <c r="N115" s="5"/>
@@ -7541,21 +5706,11 @@
         <v>437</v>
       </c>
       <c r="G116" s="5"/>
-      <c r="H116" s="5">
-        <v>10</v>
-      </c>
-      <c r="I116" s="5">
-        <v>55</v>
-      </c>
-      <c r="J116" s="5">
-        <v>80</v>
-      </c>
-      <c r="K116" s="5">
-        <v>10</v>
-      </c>
-      <c r="L116" s="5">
-        <v>5</v>
-      </c>
+      <c r="H116" s="5"/>
+      <c r="I116" s="5"/>
+      <c r="J116" s="5"/>
+      <c r="K116" s="5"/>
+      <c r="L116" s="5"/>
       <c r="M116" s="5"/>
       <c r="N116" s="5"/>
       <c r="O116" s="5"/>
@@ -7583,15 +5738,9 @@
         <v>438</v>
       </c>
       <c r="G117" s="5"/>
-      <c r="H117" s="5">
-        <v>40</v>
-      </c>
-      <c r="I117" s="5">
-        <v>50</v>
-      </c>
-      <c r="J117" s="5">
-        <v>3</v>
-      </c>
+      <c r="H117" s="5"/>
+      <c r="I117" s="5"/>
+      <c r="J117" s="5"/>
       <c r="K117" s="5"/>
       <c r="L117" s="5"/>
       <c r="M117" s="5"/>
@@ -7621,18 +5770,10 @@
         <v>439</v>
       </c>
       <c r="G118" s="5"/>
-      <c r="H118" s="5">
-        <v>30</v>
-      </c>
-      <c r="I118" s="5">
-        <v>45</v>
-      </c>
-      <c r="J118" s="5">
-        <v>30</v>
-      </c>
-      <c r="K118" s="5">
-        <v>10</v>
-      </c>
+      <c r="H118" s="5"/>
+      <c r="I118" s="5"/>
+      <c r="J118" s="5"/>
+      <c r="K118" s="5"/>
       <c r="L118" s="5"/>
       <c r="M118" s="5"/>
       <c r="N118" s="5"/>
@@ -7661,18 +5802,10 @@
         <v>440</v>
       </c>
       <c r="G119" s="5"/>
-      <c r="H119" s="5">
-        <v>19</v>
-      </c>
-      <c r="I119" s="5">
-        <v>53</v>
-      </c>
-      <c r="J119" s="5">
-        <v>6</v>
-      </c>
-      <c r="K119" s="5">
-        <v>1</v>
-      </c>
+      <c r="H119" s="5"/>
+      <c r="I119" s="5"/>
+      <c r="J119" s="5"/>
+      <c r="K119" s="5"/>
       <c r="L119" s="5"/>
       <c r="M119" s="5"/>
       <c r="N119" s="5"/>
@@ -7700,24 +5833,12 @@
       <c r="F120" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="G120" s="5">
-        <v>2</v>
-      </c>
-      <c r="H120" s="5">
-        <v>25</v>
-      </c>
-      <c r="I120" s="5">
-        <v>40</v>
-      </c>
-      <c r="J120" s="5">
-        <v>25</v>
-      </c>
-      <c r="K120" s="5">
-        <v>5</v>
-      </c>
-      <c r="L120" s="5">
-        <v>2</v>
-      </c>
+      <c r="G120" s="5"/>
+      <c r="H120" s="5"/>
+      <c r="I120" s="5"/>
+      <c r="J120" s="5"/>
+      <c r="K120" s="5"/>
+      <c r="L120" s="5"/>
       <c r="M120" s="5"/>
       <c r="N120" s="5"/>
       <c r="O120" s="5"/>
@@ -7744,24 +5865,12 @@
       <c r="F121" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="G121" s="5">
-        <v>0</v>
-      </c>
-      <c r="H121" s="5">
-        <v>26</v>
-      </c>
-      <c r="I121" s="5">
-        <v>35</v>
-      </c>
-      <c r="J121" s="5">
-        <v>12</v>
-      </c>
-      <c r="K121" s="5">
-        <v>4</v>
-      </c>
-      <c r="L121" s="5">
-        <v>2</v>
-      </c>
+      <c r="G121" s="5"/>
+      <c r="H121" s="5"/>
+      <c r="I121" s="5"/>
+      <c r="J121" s="5"/>
+      <c r="K121" s="5"/>
+      <c r="L121" s="5"/>
       <c r="M121" s="5"/>
       <c r="N121" s="5"/>
       <c r="O121" s="5"/>
@@ -7789,18 +5898,10 @@
         <v>443</v>
       </c>
       <c r="G122" s="5"/>
-      <c r="H122" s="5">
-        <v>26</v>
-      </c>
-      <c r="I122" s="5">
-        <v>58</v>
-      </c>
-      <c r="J122" s="5">
-        <v>15</v>
-      </c>
-      <c r="K122" s="5">
-        <v>2</v>
-      </c>
+      <c r="H122" s="5"/>
+      <c r="I122" s="5"/>
+      <c r="J122" s="5"/>
+      <c r="K122" s="5"/>
       <c r="L122" s="5"/>
       <c r="M122" s="5"/>
       <c r="N122" s="5"/>
@@ -7829,27 +5930,13 @@
         <v>444</v>
       </c>
       <c r="G123" s="5"/>
-      <c r="H123" s="5">
-        <v>35</v>
-      </c>
-      <c r="I123" s="5">
-        <v>50</v>
-      </c>
-      <c r="J123" s="5">
-        <v>9</v>
-      </c>
-      <c r="K123" s="5">
-        <v>2</v>
-      </c>
-      <c r="L123" s="5">
-        <v>1</v>
-      </c>
-      <c r="M123" s="5">
-        <v>1</v>
-      </c>
-      <c r="N123" s="5">
-        <v>1</v>
-      </c>
+      <c r="H123" s="5"/>
+      <c r="I123" s="5"/>
+      <c r="J123" s="5"/>
+      <c r="K123" s="5"/>
+      <c r="L123" s="5"/>
+      <c r="M123" s="5"/>
+      <c r="N123" s="5"/>
       <c r="O123" s="5"/>
       <c r="P123" s="5"/>
       <c r="Q123" s="5"/>
@@ -7875,21 +5962,11 @@
         <v>445</v>
       </c>
       <c r="G124" s="5"/>
-      <c r="H124" s="5">
-        <v>20</v>
-      </c>
-      <c r="I124" s="5">
-        <v>50</v>
-      </c>
-      <c r="J124" s="5">
-        <v>20</v>
-      </c>
-      <c r="K124" s="5">
-        <v>3</v>
-      </c>
-      <c r="L124" s="5">
-        <v>3</v>
-      </c>
+      <c r="H124" s="5"/>
+      <c r="I124" s="5"/>
+      <c r="J124" s="5"/>
+      <c r="K124" s="5"/>
+      <c r="L124" s="5"/>
       <c r="M124" s="5"/>
       <c r="N124" s="5"/>
       <c r="O124" s="5"/>
@@ -7917,21 +5994,11 @@
         <v>446</v>
       </c>
       <c r="G125" s="5"/>
-      <c r="H125" s="5">
-        <v>25</v>
-      </c>
-      <c r="I125" s="5">
-        <v>30</v>
-      </c>
-      <c r="J125" s="5">
-        <v>20</v>
-      </c>
-      <c r="K125" s="5">
-        <v>2</v>
-      </c>
-      <c r="L125" s="5">
-        <v>2</v>
-      </c>
+      <c r="H125" s="5"/>
+      <c r="I125" s="5"/>
+      <c r="J125" s="5"/>
+      <c r="K125" s="5"/>
+      <c r="L125" s="5"/>
       <c r="M125" s="5"/>
       <c r="N125" s="5"/>
       <c r="O125" s="5"/>
@@ -7961,12 +6028,8 @@
       <c r="G126" s="5"/>
       <c r="H126" s="5"/>
       <c r="I126" s="5"/>
-      <c r="J126" s="5">
-        <v>47</v>
-      </c>
-      <c r="K126" s="5">
-        <v>3</v>
-      </c>
+      <c r="J126" s="5"/>
+      <c r="K126" s="5"/>
       <c r="L126" s="5"/>
       <c r="M126" s="5"/>
       <c r="N126" s="5"/>
@@ -7995,18 +6058,10 @@
         <v>448</v>
       </c>
       <c r="G127" s="5"/>
-      <c r="H127" s="5">
-        <v>30</v>
-      </c>
-      <c r="I127" s="5">
-        <v>36</v>
-      </c>
-      <c r="J127" s="5">
-        <v>49</v>
-      </c>
-      <c r="K127" s="5">
-        <v>5</v>
-      </c>
+      <c r="H127" s="5"/>
+      <c r="I127" s="5"/>
+      <c r="J127" s="5"/>
+      <c r="K127" s="5"/>
       <c r="L127" s="5"/>
       <c r="M127" s="5"/>
       <c r="N127" s="5"/>
@@ -8035,18 +6090,10 @@
         <v>449</v>
       </c>
       <c r="G128" s="5"/>
-      <c r="H128" s="5">
-        <v>7</v>
-      </c>
-      <c r="I128" s="5">
-        <v>28</v>
-      </c>
-      <c r="J128" s="5">
-        <v>25</v>
-      </c>
-      <c r="K128" s="5">
-        <v>3</v>
-      </c>
+      <c r="H128" s="5"/>
+      <c r="I128" s="5"/>
+      <c r="J128" s="5"/>
+      <c r="K128" s="5"/>
       <c r="L128" s="5"/>
       <c r="M128" s="5"/>
       <c r="N128" s="5"/>
@@ -8075,15 +6122,9 @@
         <v>450</v>
       </c>
       <c r="G129" s="5"/>
-      <c r="H129" s="5">
-        <v>15</v>
-      </c>
-      <c r="I129" s="5">
-        <v>25</v>
-      </c>
-      <c r="J129" s="5">
-        <v>25</v>
-      </c>
+      <c r="H129" s="5"/>
+      <c r="I129" s="5"/>
+      <c r="J129" s="5"/>
       <c r="K129" s="5"/>
       <c r="L129" s="5"/>
       <c r="M129" s="5"/>
@@ -8113,18 +6154,10 @@
         <v>451</v>
       </c>
       <c r="G130" s="5"/>
-      <c r="H130" s="5">
-        <v>10</v>
-      </c>
-      <c r="I130" s="5">
-        <v>35</v>
-      </c>
-      <c r="J130" s="5">
-        <v>46</v>
-      </c>
-      <c r="K130" s="5">
-        <v>5</v>
-      </c>
+      <c r="H130" s="5"/>
+      <c r="I130" s="5"/>
+      <c r="J130" s="5"/>
+      <c r="K130" s="5"/>
       <c r="L130" s="5"/>
       <c r="M130" s="5"/>
       <c r="N130" s="5"/>
@@ -8154,12 +6187,8 @@
       </c>
       <c r="G131" s="5"/>
       <c r="H131" s="5"/>
-      <c r="I131" s="5">
-        <v>49</v>
-      </c>
-      <c r="J131" s="5">
-        <v>22</v>
-      </c>
+      <c r="I131" s="5"/>
+      <c r="J131" s="5"/>
       <c r="K131" s="5"/>
       <c r="L131" s="5"/>
       <c r="M131" s="5"/>
@@ -8189,21 +6218,11 @@
         <v>453</v>
       </c>
       <c r="G132" s="5"/>
-      <c r="H132" s="5">
-        <v>36</v>
-      </c>
-      <c r="I132" s="5">
-        <v>52</v>
-      </c>
-      <c r="J132" s="5">
-        <v>35</v>
-      </c>
-      <c r="K132" s="5">
-        <v>6</v>
-      </c>
-      <c r="L132" s="5">
-        <v>1</v>
-      </c>
+      <c r="H132" s="5"/>
+      <c r="I132" s="5"/>
+      <c r="J132" s="5"/>
+      <c r="K132" s="5"/>
+      <c r="L132" s="5"/>
       <c r="M132" s="5"/>
       <c r="N132" s="5"/>
       <c r="O132" s="5"/>
@@ -8231,18 +6250,10 @@
         <v>454</v>
       </c>
       <c r="G133" s="5"/>
-      <c r="H133" s="5">
-        <v>80</v>
-      </c>
-      <c r="I133" s="5">
-        <v>200</v>
-      </c>
-      <c r="J133" s="5">
-        <v>20</v>
-      </c>
-      <c r="K133" s="5">
-        <v>10</v>
-      </c>
+      <c r="H133" s="5"/>
+      <c r="I133" s="5"/>
+      <c r="J133" s="5"/>
+      <c r="K133" s="5"/>
       <c r="L133" s="5"/>
       <c r="M133" s="5"/>
       <c r="N133" s="5"/>
@@ -8271,21 +6282,11 @@
         <v>455</v>
       </c>
       <c r="G134" s="5"/>
-      <c r="H134" s="5">
-        <v>30</v>
-      </c>
-      <c r="I134" s="5">
-        <v>70</v>
-      </c>
-      <c r="J134" s="5">
-        <v>20</v>
-      </c>
-      <c r="K134" s="5">
-        <v>5</v>
-      </c>
-      <c r="L134" s="5">
-        <v>2</v>
-      </c>
+      <c r="H134" s="5"/>
+      <c r="I134" s="5"/>
+      <c r="J134" s="5"/>
+      <c r="K134" s="5"/>
+      <c r="L134" s="5"/>
       <c r="M134" s="5"/>
       <c r="N134" s="5"/>
       <c r="O134" s="5"/>
@@ -8314,15 +6315,9 @@
       </c>
       <c r="G135" s="5"/>
       <c r="H135" s="5"/>
-      <c r="I135" s="5">
-        <v>90</v>
-      </c>
-      <c r="J135" s="5">
-        <v>90</v>
-      </c>
-      <c r="K135" s="5">
-        <v>5</v>
-      </c>
+      <c r="I135" s="5"/>
+      <c r="J135" s="5"/>
+      <c r="K135" s="5"/>
       <c r="L135" s="5"/>
       <c r="M135" s="5"/>
       <c r="N135" s="5"/>
@@ -8351,15 +6346,9 @@
         <v>457</v>
       </c>
       <c r="G136" s="5"/>
-      <c r="H136" s="5">
-        <v>5</v>
-      </c>
-      <c r="I136" s="5">
-        <v>24</v>
-      </c>
-      <c r="J136" s="5">
-        <v>5</v>
-      </c>
+      <c r="H136" s="5"/>
+      <c r="I136" s="5"/>
+      <c r="J136" s="5"/>
       <c r="K136" s="5"/>
       <c r="L136" s="5"/>
       <c r="M136" s="5"/>
@@ -8389,21 +6378,11 @@
         <v>458</v>
       </c>
       <c r="G137" s="5"/>
-      <c r="H137" s="5">
-        <v>24</v>
-      </c>
-      <c r="I137" s="5">
-        <v>65</v>
-      </c>
-      <c r="J137" s="5">
-        <v>23</v>
-      </c>
-      <c r="K137" s="5">
-        <v>2</v>
-      </c>
-      <c r="L137" s="5">
-        <v>1</v>
-      </c>
+      <c r="H137" s="5"/>
+      <c r="I137" s="5"/>
+      <c r="J137" s="5"/>
+      <c r="K137" s="5"/>
+      <c r="L137" s="5"/>
       <c r="M137" s="5"/>
       <c r="N137" s="5"/>
       <c r="O137" s="5"/>
@@ -8430,24 +6409,12 @@
       <c r="F138" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="G138" s="5">
-        <v>4</v>
-      </c>
-      <c r="H138" s="5">
-        <v>30</v>
-      </c>
-      <c r="I138" s="5">
-        <v>30</v>
-      </c>
-      <c r="J138" s="5">
-        <v>40</v>
-      </c>
-      <c r="K138" s="5">
-        <v>10</v>
-      </c>
-      <c r="L138" s="5">
-        <v>10</v>
-      </c>
+      <c r="G138" s="5"/>
+      <c r="H138" s="5"/>
+      <c r="I138" s="5"/>
+      <c r="J138" s="5"/>
+      <c r="K138" s="5"/>
+      <c r="L138" s="5"/>
       <c r="M138" s="5"/>
       <c r="N138" s="5"/>
       <c r="O138" s="5"/>
@@ -8475,19 +6442,11 @@
         <v>460</v>
       </c>
       <c r="G139" s="5"/>
-      <c r="H139" s="5">
-        <v>60</v>
-      </c>
-      <c r="I139" s="5">
-        <v>50</v>
-      </c>
-      <c r="J139" s="5">
-        <v>10</v>
-      </c>
+      <c r="H139" s="5"/>
+      <c r="I139" s="5"/>
+      <c r="J139" s="5"/>
       <c r="K139" s="5"/>
-      <c r="L139" s="5">
-        <v>4</v>
-      </c>
+      <c r="L139" s="5"/>
       <c r="M139" s="5"/>
       <c r="N139" s="5"/>
       <c r="O139" s="5"/>
@@ -8515,24 +6474,12 @@
         <v>461</v>
       </c>
       <c r="G140" s="5"/>
-      <c r="H140" s="5">
-        <v>75</v>
-      </c>
-      <c r="I140" s="5">
-        <v>75</v>
-      </c>
-      <c r="J140" s="5">
-        <v>20</v>
-      </c>
-      <c r="K140" s="5">
-        <v>5</v>
-      </c>
-      <c r="L140" s="5">
-        <v>5</v>
-      </c>
-      <c r="M140" s="5">
-        <v>5</v>
-      </c>
+      <c r="H140" s="5"/>
+      <c r="I140" s="5"/>
+      <c r="J140" s="5"/>
+      <c r="K140" s="5"/>
+      <c r="L140" s="5"/>
+      <c r="M140" s="5"/>
       <c r="N140" s="5"/>
       <c r="O140" s="5"/>
       <c r="P140" s="5"/>
@@ -8558,21 +6505,11 @@
       <c r="F141" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="G141" s="5">
-        <v>3</v>
-      </c>
-      <c r="H141" s="5">
-        <v>43</v>
-      </c>
-      <c r="I141" s="5">
-        <v>50</v>
-      </c>
-      <c r="J141" s="5">
-        <v>14</v>
-      </c>
-      <c r="K141" s="5">
-        <v>2</v>
-      </c>
+      <c r="G141" s="5"/>
+      <c r="H141" s="5"/>
+      <c r="I141" s="5"/>
+      <c r="J141" s="5"/>
+      <c r="K141" s="5"/>
       <c r="L141" s="5"/>
       <c r="M141" s="5"/>
       <c r="N141" s="5"/>
@@ -8600,27 +6537,13 @@
       <c r="F142" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="G142" s="5">
-        <v>2</v>
-      </c>
-      <c r="H142" s="5">
-        <v>50</v>
-      </c>
-      <c r="I142" s="5">
-        <v>82</v>
-      </c>
-      <c r="J142" s="5">
-        <v>45</v>
-      </c>
-      <c r="K142" s="5">
-        <v>4</v>
-      </c>
-      <c r="L142" s="5">
-        <v>1</v>
-      </c>
-      <c r="M142" s="5">
-        <v>1</v>
-      </c>
+      <c r="G142" s="5"/>
+      <c r="H142" s="5"/>
+      <c r="I142" s="5"/>
+      <c r="J142" s="5"/>
+      <c r="K142" s="5"/>
+      <c r="L142" s="5"/>
+      <c r="M142" s="5"/>
       <c r="N142" s="5"/>
       <c r="O142" s="5"/>
       <c r="P142" s="5"/>
@@ -8647,21 +6570,11 @@
         <v>464</v>
       </c>
       <c r="G143" s="5"/>
-      <c r="H143" s="5">
-        <v>12</v>
-      </c>
-      <c r="I143" s="5">
-        <v>60</v>
-      </c>
-      <c r="J143" s="5">
-        <v>60</v>
-      </c>
-      <c r="K143" s="5">
-        <v>15</v>
-      </c>
-      <c r="L143" s="5">
-        <v>3</v>
-      </c>
+      <c r="H143" s="5"/>
+      <c r="I143" s="5"/>
+      <c r="J143" s="5"/>
+      <c r="K143" s="5"/>
+      <c r="L143" s="5"/>
       <c r="M143" s="5"/>
       <c r="N143" s="5"/>
       <c r="O143" s="5"/>
@@ -8689,18 +6602,10 @@
         <v>465</v>
       </c>
       <c r="G144" s="5"/>
-      <c r="H144" s="5">
-        <v>15</v>
-      </c>
-      <c r="I144" s="5">
-        <v>150</v>
-      </c>
-      <c r="J144" s="5">
-        <v>30</v>
-      </c>
-      <c r="K144" s="5">
-        <v>5</v>
-      </c>
+      <c r="H144" s="5"/>
+      <c r="I144" s="5"/>
+      <c r="J144" s="5"/>
+      <c r="K144" s="5"/>
       <c r="L144" s="5"/>
       <c r="M144" s="5"/>
       <c r="N144" s="5"/>
@@ -8762,15 +6667,9 @@
       </c>
       <c r="G146" s="5"/>
       <c r="H146" s="5"/>
-      <c r="I146" s="5">
-        <v>30</v>
-      </c>
-      <c r="J146" s="5">
-        <v>30</v>
-      </c>
-      <c r="K146" s="5">
-        <v>5</v>
-      </c>
+      <c r="I146" s="5"/>
+      <c r="J146" s="5"/>
+      <c r="K146" s="5"/>
       <c r="L146" s="5"/>
       <c r="M146" s="5"/>
       <c r="N146" s="5"/>
@@ -8798,26 +6697,14 @@
       <c r="F147" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="G147" s="5">
-        <v>0</v>
-      </c>
-      <c r="H147" s="5">
-        <v>10</v>
-      </c>
-      <c r="I147" s="5">
-        <v>44</v>
-      </c>
-      <c r="J147" s="5">
-        <v>15</v>
-      </c>
+      <c r="G147" s="5"/>
+      <c r="H147" s="5"/>
+      <c r="I147" s="5"/>
+      <c r="J147" s="5"/>
       <c r="K147" s="5"/>
       <c r="L147" s="5"/>
-      <c r="M147" s="5">
-        <v>0</v>
-      </c>
-      <c r="N147" s="5">
-        <v>0</v>
-      </c>
+      <c r="M147" s="5"/>
+      <c r="N147" s="5"/>
       <c r="O147" s="5"/>
       <c r="P147" s="5"/>
       <c r="Q147" s="5"/>
@@ -8843,21 +6730,11 @@
         <v>469</v>
       </c>
       <c r="G148" s="5"/>
-      <c r="H148" s="5">
-        <v>10</v>
-      </c>
-      <c r="I148" s="5">
-        <v>10</v>
-      </c>
-      <c r="J148" s="5">
-        <v>15</v>
-      </c>
-      <c r="K148" s="5">
-        <v>6</v>
-      </c>
-      <c r="L148" s="5">
-        <v>5</v>
-      </c>
+      <c r="H148" s="5"/>
+      <c r="I148" s="5"/>
+      <c r="J148" s="5"/>
+      <c r="K148" s="5"/>
+      <c r="L148" s="5"/>
       <c r="M148" s="5"/>
       <c r="N148" s="5"/>
       <c r="O148" s="5"/>
@@ -8884,24 +6761,12 @@
       <c r="F149" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="G149" s="5">
-        <v>26</v>
-      </c>
-      <c r="H149" s="5">
-        <v>67</v>
-      </c>
-      <c r="I149" s="5">
-        <v>70</v>
-      </c>
-      <c r="J149" s="5">
-        <v>50</v>
-      </c>
-      <c r="K149" s="5">
-        <v>10</v>
-      </c>
-      <c r="L149" s="5">
-        <v>3</v>
-      </c>
+      <c r="G149" s="5"/>
+      <c r="H149" s="5"/>
+      <c r="I149" s="5"/>
+      <c r="J149" s="5"/>
+      <c r="K149" s="5"/>
+      <c r="L149" s="5"/>
       <c r="M149" s="5"/>
       <c r="N149" s="5"/>
       <c r="O149" s="5"/>
@@ -8929,18 +6794,10 @@
         <v>471</v>
       </c>
       <c r="G150" s="5"/>
-      <c r="H150" s="5">
-        <v>30</v>
-      </c>
-      <c r="I150" s="5">
-        <v>50</v>
-      </c>
-      <c r="J150" s="5">
-        <v>50</v>
-      </c>
-      <c r="K150" s="5">
-        <v>20</v>
-      </c>
+      <c r="H150" s="5"/>
+      <c r="I150" s="5"/>
+      <c r="J150" s="5"/>
+      <c r="K150" s="5"/>
       <c r="L150" s="5"/>
       <c r="M150" s="5"/>
       <c r="N150" s="5"/>
@@ -8969,15 +6826,9 @@
         <v>472</v>
       </c>
       <c r="G151" s="5"/>
-      <c r="H151" s="5">
-        <v>50</v>
-      </c>
-      <c r="I151" s="5">
-        <v>50</v>
-      </c>
-      <c r="J151" s="5">
-        <v>28</v>
-      </c>
+      <c r="H151" s="5"/>
+      <c r="I151" s="5"/>
+      <c r="J151" s="5"/>
       <c r="K151" s="5"/>
       <c r="L151" s="5"/>
       <c r="M151" s="5"/>
@@ -9006,24 +6857,12 @@
       <c r="F152" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="G152" s="5">
-        <v>3</v>
-      </c>
-      <c r="H152" s="5">
-        <v>8</v>
-      </c>
-      <c r="I152" s="5">
-        <v>44</v>
-      </c>
-      <c r="J152" s="5">
-        <v>18</v>
-      </c>
-      <c r="K152" s="5">
-        <v>4</v>
-      </c>
-      <c r="L152" s="5">
-        <v>2</v>
-      </c>
+      <c r="G152" s="5"/>
+      <c r="H152" s="5"/>
+      <c r="I152" s="5"/>
+      <c r="J152" s="5"/>
+      <c r="K152" s="5"/>
+      <c r="L152" s="5"/>
       <c r="M152" s="5"/>
       <c r="N152" s="5"/>
       <c r="O152" s="5"/>
@@ -9050,18 +6889,10 @@
       <c r="F153" s="7" t="s">
         <v>474</v>
       </c>
-      <c r="G153" s="5">
-        <v>10</v>
-      </c>
-      <c r="H153" s="5">
-        <v>23</v>
-      </c>
-      <c r="I153" s="5">
-        <v>20</v>
-      </c>
-      <c r="J153" s="5">
-        <v>2</v>
-      </c>
+      <c r="G153" s="5"/>
+      <c r="H153" s="5"/>
+      <c r="I153" s="5"/>
+      <c r="J153" s="5"/>
       <c r="K153" s="5"/>
       <c r="L153" s="5"/>
       <c r="M153" s="5"/>
@@ -9091,24 +6922,12 @@
         <v>475</v>
       </c>
       <c r="G154" s="5"/>
-      <c r="H154" s="5">
-        <v>50</v>
-      </c>
-      <c r="I154" s="5">
-        <v>150</v>
-      </c>
-      <c r="J154" s="5">
-        <v>50</v>
-      </c>
-      <c r="K154" s="5">
-        <v>2</v>
-      </c>
-      <c r="L154" s="5">
-        <v>1</v>
-      </c>
-      <c r="M154" s="5">
-        <v>1</v>
-      </c>
+      <c r="H154" s="5"/>
+      <c r="I154" s="5"/>
+      <c r="J154" s="5"/>
+      <c r="K154" s="5"/>
+      <c r="L154" s="5"/>
+      <c r="M154" s="5"/>
       <c r="N154" s="5"/>
       <c r="O154" s="5"/>
       <c r="P154" s="5"/>
@@ -9135,15 +6954,9 @@
         <v>476</v>
       </c>
       <c r="G155" s="5"/>
-      <c r="H155" s="5">
-        <v>40</v>
-      </c>
-      <c r="I155" s="5">
-        <v>60</v>
-      </c>
-      <c r="J155" s="5">
-        <v>5</v>
-      </c>
+      <c r="H155" s="5"/>
+      <c r="I155" s="5"/>
+      <c r="J155" s="5"/>
       <c r="K155" s="5"/>
       <c r="L155" s="5"/>
       <c r="M155" s="5"/>
@@ -9174,15 +6987,9 @@
       </c>
       <c r="G156" s="5"/>
       <c r="H156" s="5"/>
-      <c r="I156" s="5">
-        <v>50</v>
-      </c>
-      <c r="J156" s="5">
-        <v>35</v>
-      </c>
-      <c r="K156" s="5">
-        <v>3</v>
-      </c>
+      <c r="I156" s="5"/>
+      <c r="J156" s="5"/>
+      <c r="K156" s="5"/>
       <c r="L156" s="5"/>
       <c r="M156" s="5"/>
       <c r="N156" s="5"/>
@@ -9196,7 +7003,7 @@
         <v>143</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C157" s="8" t="s">
         <v>388</v>
@@ -9212,33 +7019,15 @@
       </c>
       <c r="G157" s="5"/>
       <c r="H157" s="5"/>
-      <c r="I157" s="5">
-        <v>75</v>
-      </c>
-      <c r="J157" s="5">
-        <v>150</v>
-      </c>
-      <c r="K157" s="5">
-        <v>200</v>
-      </c>
-      <c r="L157" s="5">
-        <v>150</v>
-      </c>
-      <c r="M157" s="5">
-        <v>50</v>
-      </c>
-      <c r="N157" s="5">
-        <v>50</v>
-      </c>
-      <c r="O157" s="5">
-        <v>50</v>
-      </c>
-      <c r="P157" s="5">
-        <v>50</v>
-      </c>
-      <c r="Q157" s="5">
-        <v>50</v>
-      </c>
+      <c r="I157" s="5"/>
+      <c r="J157" s="5"/>
+      <c r="K157" s="5"/>
+      <c r="L157" s="5"/>
+      <c r="M157" s="5"/>
+      <c r="N157" s="5"/>
+      <c r="O157" s="5"/>
+      <c r="P157" s="5"/>
+      <c r="Q157" s="5"/>
       <c r="R157" s="5"/>
     </row>
     <row r="158" spans="1:18" x14ac:dyDescent="0.25">

--- a/core/utils/distgradeunificadaJOINVILLE.xlsx
+++ b/core/utils/distgradeunificadaJOINVILLE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02CF5A65-850A-4C9C-8E01-F03E0EAFD1D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1980A02F-17AE-4D6D-86E9-DD203E84232D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A7D8F346-A79E-4C25-BB45-DA9F96A70FA9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7D8F346-A79E-4C25-BB45-DA9F96A70FA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="486">
   <si>
     <t>PROJETO</t>
   </si>
@@ -279,9 +279,6 @@
     <t>RM 66</t>
   </si>
   <si>
-    <t>MASCULINO</t>
-  </si>
-  <si>
     <t>01</t>
   </si>
   <si>
@@ -732,9 +729,6 @@
     <t>9 DE MARÇO (E.M.) (U)</t>
   </si>
   <si>
-    <t>CESITA - Centro Educacional e Social do Itaum - Uniforme - 2022</t>
-  </si>
-  <si>
     <t>ABDON DA SILVEIRA CEI (U)</t>
   </si>
   <si>
@@ -1464,9 +1458,6 @@
     <t>RM 156</t>
   </si>
   <si>
-    <t>BERMUDA TACTEL</t>
-  </si>
-  <si>
     <t>CIAD - BRANET</t>
   </si>
   <si>
@@ -1474,6 +1465,24 @@
   </si>
   <si>
     <t>EXG</t>
+  </si>
+  <si>
+    <t>CESITA - CENTRO EDUCACIONAL E SOCIAL DO ITAUM</t>
+  </si>
+  <si>
+    <t>MANOEL ANTONIO DA ROSA CEI (U) (COMASA)</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>RM 157</t>
+  </si>
+  <si>
+    <t>CALÇA SUPLEX</t>
+  </si>
+  <si>
+    <t>FEMININO</t>
   </si>
 </sst>
 </file>
@@ -1544,7 +1553,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1583,13 +1592,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1635,7 +1650,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1656,10 +1671,11 @@
     <xf numFmtId="49" fontId="6" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1977,22 +1993,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{414053F0-9035-4345-833E-9715016AA804}">
-  <dimension ref="A1:T201"/>
+  <dimension ref="A1:T199"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G92" sqref="G92:T92"/>
+      <selection pane="bottomLeft" activeCell="Q163" sqref="Q163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="48.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="2.42578125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="5.28515625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="4.85546875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="13" style="5" customWidth="1"/>
+    <col min="5" max="5" width="11" style="5" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" style="5" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
@@ -2052,5352 +2068,5349 @@
         <v>17</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>144</v>
-      </c>
       <c r="C2" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>145</v>
+        <v>142</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>144</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
     </row>
     <row r="4" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>146</v>
+        <v>142</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
     </row>
     <row r="5" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>147</v>
+        <v>142</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>146</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
     </row>
     <row r="6" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>148</v>
+        <v>142</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>147</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
     </row>
     <row r="7" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>149</v>
+        <v>142</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>148</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
     </row>
     <row r="8" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>150</v>
+        <v>142</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>149</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
     </row>
     <row r="9" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>151</v>
+        <v>142</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>150</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
     </row>
     <row r="10" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>152</v>
+        <v>142</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>151</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
     </row>
     <row r="11" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>153</v>
+        <v>142</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>152</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
     </row>
     <row r="12" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>154</v>
+        <v>142</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>153</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
     </row>
     <row r="13" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>155</v>
+        <v>142</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>154</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
     </row>
     <row r="14" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>156</v>
+        <v>142</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>155</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
     </row>
     <row r="15" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>157</v>
+        <v>142</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>156</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
     </row>
     <row r="16" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>158</v>
+        <v>142</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>157</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
     </row>
     <row r="17" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>159</v>
+        <v>142</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>158</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
     </row>
     <row r="18" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>160</v>
+        <v>142</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>159</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
     </row>
     <row r="19" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>161</v>
+        <v>142</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>160</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
     </row>
     <row r="20" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>162</v>
+        <v>142</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>161</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
     </row>
     <row r="21" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>163</v>
+        <v>142</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>162</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
-      <c r="T21" s="12"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
     </row>
     <row r="22" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>164</v>
+        <v>142</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>163</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
     </row>
     <row r="23" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>165</v>
+        <v>142</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>164</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
-      <c r="T23" s="12"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="14"/>
     </row>
     <row r="24" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>166</v>
+        <v>142</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>165</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="12"/>
-      <c r="T24" s="12"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="14"/>
     </row>
     <row r="25" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>167</v>
+        <v>142</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>166</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="12"/>
-      <c r="T25" s="12"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="14"/>
     </row>
     <row r="26" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>168</v>
+        <v>142</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>167</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="12"/>
-      <c r="T26" s="12"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="14"/>
     </row>
     <row r="27" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>169</v>
+        <v>142</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>168</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="12"/>
-      <c r="S27" s="12"/>
-      <c r="T27" s="12"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="14"/>
     </row>
     <row r="28" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>170</v>
+        <v>142</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>169</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F28" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="12"/>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="12"/>
-      <c r="R28" s="12"/>
-      <c r="S28" s="12"/>
-      <c r="T28" s="12"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="14"/>
     </row>
     <row r="29" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>171</v>
+        <v>142</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>170</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F29" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="12"/>
-      <c r="R29" s="12"/>
-      <c r="S29" s="12"/>
-      <c r="T29" s="12"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="14"/>
     </row>
     <row r="30" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>172</v>
+        <v>142</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>171</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="12"/>
-      <c r="R30" s="12"/>
-      <c r="S30" s="12"/>
-      <c r="T30" s="12"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="14"/>
     </row>
     <row r="31" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>173</v>
+        <v>142</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>172</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F31" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="12"/>
-      <c r="P31" s="12"/>
-      <c r="Q31" s="12"/>
-      <c r="R31" s="12"/>
-      <c r="S31" s="12"/>
-      <c r="T31" s="12"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="14"/>
     </row>
     <row r="32" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>174</v>
+        <v>142</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>173</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F32" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
-      <c r="O32" s="12"/>
-      <c r="P32" s="12"/>
-      <c r="Q32" s="12"/>
-      <c r="R32" s="12"/>
-      <c r="S32" s="12"/>
-      <c r="T32" s="12"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="14"/>
     </row>
     <row r="33" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>175</v>
+        <v>142</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>174</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F33" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="12"/>
-      <c r="O33" s="12"/>
-      <c r="P33" s="12"/>
-      <c r="Q33" s="12"/>
-      <c r="R33" s="12"/>
-      <c r="S33" s="12"/>
-      <c r="T33" s="12"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="14"/>
+      <c r="S33" s="14"/>
+      <c r="T33" s="14"/>
     </row>
     <row r="34" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>176</v>
+        <v>142</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>175</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F34" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="12"/>
-      <c r="O34" s="12"/>
-      <c r="P34" s="12"/>
-      <c r="Q34" s="12"/>
-      <c r="R34" s="12"/>
-      <c r="S34" s="12"/>
-      <c r="T34" s="12"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="14"/>
+      <c r="S34" s="14"/>
+      <c r="T34" s="14"/>
     </row>
     <row r="35" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>177</v>
+        <v>142</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>176</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F35" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="12"/>
-      <c r="O35" s="12"/>
-      <c r="P35" s="12"/>
-      <c r="Q35" s="12"/>
-      <c r="R35" s="12"/>
-      <c r="S35" s="12"/>
-      <c r="T35" s="12"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="14"/>
+      <c r="R35" s="14"/>
+      <c r="S35" s="14"/>
+      <c r="T35" s="14"/>
     </row>
     <row r="36" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>178</v>
+        <v>142</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>177</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F36" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="12"/>
-      <c r="O36" s="12"/>
-      <c r="P36" s="12"/>
-      <c r="Q36" s="12"/>
-      <c r="R36" s="12"/>
-      <c r="S36" s="12"/>
-      <c r="T36" s="12"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="14"/>
+      <c r="R36" s="14"/>
+      <c r="S36" s="14"/>
+      <c r="T36" s="14"/>
     </row>
     <row r="37" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>179</v>
+        <v>142</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>178</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F37" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="12"/>
-      <c r="P37" s="12"/>
-      <c r="Q37" s="12"/>
-      <c r="R37" s="12"/>
-      <c r="S37" s="12"/>
-      <c r="T37" s="12"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="14"/>
+      <c r="Q37" s="14"/>
+      <c r="R37" s="14"/>
+      <c r="S37" s="14"/>
+      <c r="T37" s="14"/>
     </row>
     <row r="38" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>180</v>
+        <v>142</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>179</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F38" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="12"/>
-      <c r="O38" s="12"/>
-      <c r="P38" s="12"/>
-      <c r="Q38" s="12"/>
-      <c r="R38" s="12"/>
-      <c r="S38" s="12"/>
-      <c r="T38" s="12"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="14"/>
+      <c r="T38" s="14"/>
     </row>
     <row r="39" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>181</v>
+        <v>142</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>180</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F39" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="12"/>
-      <c r="N39" s="12"/>
-      <c r="O39" s="12"/>
-      <c r="P39" s="12"/>
-      <c r="Q39" s="12"/>
-      <c r="R39" s="12"/>
-      <c r="S39" s="12"/>
-      <c r="T39" s="12"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="14"/>
+      <c r="Q39" s="14"/>
+      <c r="R39" s="14"/>
+      <c r="S39" s="14"/>
+      <c r="T39" s="14"/>
     </row>
     <row r="40" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>182</v>
+        <v>142</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>181</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F40" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="12"/>
-      <c r="N40" s="12"/>
-      <c r="O40" s="12"/>
-      <c r="P40" s="12"/>
-      <c r="Q40" s="12"/>
-      <c r="R40" s="12"/>
-      <c r="S40" s="12"/>
-      <c r="T40" s="12"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="14"/>
+      <c r="Q40" s="14"/>
+      <c r="R40" s="14"/>
+      <c r="S40" s="14"/>
+      <c r="T40" s="14"/>
     </row>
     <row r="41" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>183</v>
+        <v>142</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>182</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F41" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
-      <c r="M41" s="12"/>
-      <c r="N41" s="12"/>
-      <c r="O41" s="12"/>
-      <c r="P41" s="12"/>
-      <c r="Q41" s="12"/>
-      <c r="R41" s="12"/>
-      <c r="S41" s="12"/>
-      <c r="T41" s="12"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="14"/>
+      <c r="O41" s="14"/>
+      <c r="P41" s="14"/>
+      <c r="Q41" s="14"/>
+      <c r="R41" s="14"/>
+      <c r="S41" s="14"/>
+      <c r="T41" s="14"/>
     </row>
     <row r="42" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>184</v>
+        <v>142</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>183</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F42" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="12"/>
-      <c r="M42" s="12"/>
-      <c r="N42" s="12"/>
-      <c r="O42" s="12"/>
-      <c r="P42" s="12"/>
-      <c r="Q42" s="12"/>
-      <c r="R42" s="12"/>
-      <c r="S42" s="12"/>
-      <c r="T42" s="12"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="14"/>
+      <c r="P42" s="14"/>
+      <c r="Q42" s="14"/>
+      <c r="R42" s="14"/>
+      <c r="S42" s="14"/>
+      <c r="T42" s="14"/>
     </row>
     <row r="43" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>185</v>
+        <v>142</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>184</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F43" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="12"/>
-      <c r="M43" s="12"/>
-      <c r="N43" s="12"/>
-      <c r="O43" s="12"/>
-      <c r="P43" s="12"/>
-      <c r="Q43" s="12"/>
-      <c r="R43" s="12"/>
-      <c r="S43" s="12"/>
-      <c r="T43" s="12"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="14"/>
+      <c r="O43" s="14"/>
+      <c r="P43" s="14"/>
+      <c r="Q43" s="14"/>
+      <c r="R43" s="14"/>
+      <c r="S43" s="14"/>
+      <c r="T43" s="14"/>
     </row>
     <row r="44" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>186</v>
+        <v>142</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>185</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F44" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="12"/>
-      <c r="M44" s="12"/>
-      <c r="N44" s="12"/>
-      <c r="O44" s="12"/>
-      <c r="P44" s="12"/>
-      <c r="Q44" s="12"/>
-      <c r="R44" s="12"/>
-      <c r="S44" s="12"/>
-      <c r="T44" s="12"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="14"/>
+      <c r="O44" s="14"/>
+      <c r="P44" s="14"/>
+      <c r="Q44" s="14"/>
+      <c r="R44" s="14"/>
+      <c r="S44" s="14"/>
+      <c r="T44" s="14"/>
     </row>
     <row r="45" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>187</v>
+        <v>142</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>186</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F45" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="12"/>
-      <c r="L45" s="12"/>
-      <c r="M45" s="12"/>
-      <c r="N45" s="12"/>
-      <c r="O45" s="12"/>
-      <c r="P45" s="12"/>
-      <c r="Q45" s="12"/>
-      <c r="R45" s="12"/>
-      <c r="S45" s="12"/>
-      <c r="T45" s="12"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="14"/>
+      <c r="O45" s="14"/>
+      <c r="P45" s="14"/>
+      <c r="Q45" s="14"/>
+      <c r="R45" s="14"/>
+      <c r="S45" s="14"/>
+      <c r="T45" s="14"/>
     </row>
     <row r="46" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>188</v>
+        <v>142</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>187</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F46" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="12"/>
-      <c r="L46" s="12"/>
-      <c r="M46" s="12"/>
-      <c r="N46" s="12"/>
-      <c r="O46" s="12"/>
-      <c r="P46" s="12"/>
-      <c r="Q46" s="12"/>
-      <c r="R46" s="12"/>
-      <c r="S46" s="12"/>
-      <c r="T46" s="12"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="14"/>
+      <c r="O46" s="14"/>
+      <c r="P46" s="14"/>
+      <c r="Q46" s="14"/>
+      <c r="R46" s="14"/>
+      <c r="S46" s="14"/>
+      <c r="T46" s="14"/>
     </row>
     <row r="47" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>189</v>
+        <v>142</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>188</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F47" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="12"/>
-      <c r="K47" s="12"/>
-      <c r="L47" s="12"/>
-      <c r="M47" s="12"/>
-      <c r="N47" s="12"/>
-      <c r="O47" s="12"/>
-      <c r="P47" s="12"/>
-      <c r="Q47" s="12"/>
-      <c r="R47" s="12"/>
-      <c r="S47" s="12"/>
-      <c r="T47" s="12"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="14"/>
+      <c r="N47" s="14"/>
+      <c r="O47" s="14"/>
+      <c r="P47" s="14"/>
+      <c r="Q47" s="14"/>
+      <c r="R47" s="14"/>
+      <c r="S47" s="14"/>
+      <c r="T47" s="14"/>
     </row>
     <row r="48" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>190</v>
+        <v>142</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>189</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F48" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="12"/>
-      <c r="L48" s="12"/>
-      <c r="M48" s="12"/>
-      <c r="N48" s="12"/>
-      <c r="O48" s="12"/>
-      <c r="P48" s="12"/>
-      <c r="Q48" s="12"/>
-      <c r="R48" s="12"/>
-      <c r="S48" s="12"/>
-      <c r="T48" s="12"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="14"/>
+      <c r="N48" s="14"/>
+      <c r="O48" s="14"/>
+      <c r="P48" s="14"/>
+      <c r="Q48" s="14"/>
+      <c r="R48" s="14"/>
+      <c r="S48" s="14"/>
+      <c r="T48" s="14"/>
     </row>
     <row r="49" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>191</v>
+        <v>142</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>190</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F49" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="12"/>
-      <c r="K49" s="12"/>
-      <c r="L49" s="12"/>
-      <c r="M49" s="12"/>
-      <c r="N49" s="12"/>
-      <c r="O49" s="12"/>
-      <c r="P49" s="12"/>
-      <c r="Q49" s="12"/>
-      <c r="R49" s="12"/>
-      <c r="S49" s="12"/>
-      <c r="T49" s="12"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="14"/>
+      <c r="N49" s="14"/>
+      <c r="O49" s="14"/>
+      <c r="P49" s="14"/>
+      <c r="Q49" s="14"/>
+      <c r="R49" s="14"/>
+      <c r="S49" s="14"/>
+      <c r="T49" s="14"/>
     </row>
     <row r="50" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>192</v>
+        <v>142</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>191</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F50" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="12"/>
-      <c r="K50" s="12"/>
-      <c r="L50" s="12"/>
-      <c r="M50" s="12"/>
-      <c r="N50" s="12"/>
-      <c r="O50" s="12"/>
-      <c r="P50" s="12"/>
-      <c r="Q50" s="12"/>
-      <c r="R50" s="12"/>
-      <c r="S50" s="12"/>
-      <c r="T50" s="12"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="14"/>
+      <c r="K50" s="14"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="14"/>
+      <c r="N50" s="14"/>
+      <c r="O50" s="14"/>
+      <c r="P50" s="14"/>
+      <c r="Q50" s="14"/>
+      <c r="R50" s="14"/>
+      <c r="S50" s="14"/>
+      <c r="T50" s="14"/>
     </row>
     <row r="51" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>193</v>
+        <v>142</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>192</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F51" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="12"/>
-      <c r="K51" s="12"/>
-      <c r="L51" s="12"/>
-      <c r="M51" s="12"/>
-      <c r="N51" s="12"/>
-      <c r="O51" s="12"/>
-      <c r="P51" s="12"/>
-      <c r="Q51" s="12"/>
-      <c r="R51" s="12"/>
-      <c r="S51" s="12"/>
-      <c r="T51" s="12"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="14"/>
+      <c r="K51" s="14"/>
+      <c r="L51" s="14"/>
+      <c r="M51" s="14"/>
+      <c r="N51" s="14"/>
+      <c r="O51" s="14"/>
+      <c r="P51" s="14"/>
+      <c r="Q51" s="14"/>
+      <c r="R51" s="14"/>
+      <c r="S51" s="14"/>
+      <c r="T51" s="14"/>
     </row>
     <row r="52" spans="1:20" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>194</v>
+        <v>142</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>193</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F52" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="12"/>
-      <c r="J52" s="12"/>
-      <c r="K52" s="12"/>
-      <c r="L52" s="12"/>
-      <c r="M52" s="12"/>
-      <c r="N52" s="12"/>
-      <c r="O52" s="12"/>
-      <c r="P52" s="12"/>
-      <c r="Q52" s="12"/>
-      <c r="R52" s="12"/>
-      <c r="S52" s="12"/>
-      <c r="T52" s="12"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="14"/>
+      <c r="K52" s="14"/>
+      <c r="L52" s="14"/>
+      <c r="M52" s="14"/>
+      <c r="N52" s="14"/>
+      <c r="O52" s="14"/>
+      <c r="P52" s="14"/>
+      <c r="Q52" s="14"/>
+      <c r="R52" s="14"/>
+      <c r="S52" s="14"/>
+      <c r="T52" s="14"/>
     </row>
     <row r="53" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>195</v>
+        <v>142</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>194</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F53" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="G53" s="12"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="12"/>
-      <c r="J53" s="12"/>
-      <c r="K53" s="12"/>
-      <c r="L53" s="12"/>
-      <c r="M53" s="12"/>
-      <c r="N53" s="12"/>
-      <c r="O53" s="12"/>
-      <c r="P53" s="12"/>
-      <c r="Q53" s="12"/>
-      <c r="R53" s="12"/>
-      <c r="S53" s="12"/>
-      <c r="T53" s="12"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="14"/>
+      <c r="L53" s="14"/>
+      <c r="M53" s="14"/>
+      <c r="N53" s="14"/>
+      <c r="O53" s="14"/>
+      <c r="P53" s="14"/>
+      <c r="Q53" s="14"/>
+      <c r="R53" s="14"/>
+      <c r="S53" s="14"/>
+      <c r="T53" s="14"/>
     </row>
     <row r="54" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>196</v>
+        <v>142</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>195</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F54" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G54" s="12"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="12"/>
-      <c r="K54" s="12"/>
-      <c r="L54" s="12"/>
-      <c r="M54" s="12"/>
-      <c r="N54" s="12"/>
-      <c r="O54" s="12"/>
-      <c r="P54" s="12"/>
-      <c r="Q54" s="12"/>
-      <c r="R54" s="12"/>
-      <c r="S54" s="12"/>
-      <c r="T54" s="12"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14"/>
+      <c r="J54" s="14"/>
+      <c r="K54" s="14"/>
+      <c r="L54" s="14"/>
+      <c r="M54" s="14"/>
+      <c r="N54" s="14"/>
+      <c r="O54" s="14"/>
+      <c r="P54" s="14"/>
+      <c r="Q54" s="14"/>
+      <c r="R54" s="14"/>
+      <c r="S54" s="14"/>
+      <c r="T54" s="14"/>
     </row>
     <row r="55" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>197</v>
+        <v>142</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>196</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F55" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="G55" s="12"/>
-      <c r="H55" s="12"/>
-      <c r="I55" s="12"/>
-      <c r="J55" s="12"/>
-      <c r="K55" s="12"/>
-      <c r="L55" s="12"/>
-      <c r="M55" s="12"/>
-      <c r="N55" s="12"/>
-      <c r="O55" s="12"/>
-      <c r="P55" s="12"/>
-      <c r="Q55" s="12"/>
-      <c r="R55" s="12"/>
-      <c r="S55" s="12"/>
-      <c r="T55" s="12"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="14"/>
+      <c r="K55" s="14"/>
+      <c r="L55" s="14"/>
+      <c r="M55" s="14"/>
+      <c r="N55" s="14"/>
+      <c r="O55" s="14"/>
+      <c r="P55" s="14"/>
+      <c r="Q55" s="14"/>
+      <c r="R55" s="14"/>
+      <c r="S55" s="14"/>
+      <c r="T55" s="14"/>
     </row>
     <row r="56" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>198</v>
+        <v>142</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>197</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F56" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="12"/>
-      <c r="J56" s="12"/>
-      <c r="K56" s="12"/>
-      <c r="L56" s="12"/>
-      <c r="M56" s="12"/>
-      <c r="N56" s="12"/>
-      <c r="O56" s="12"/>
-      <c r="P56" s="12"/>
-      <c r="Q56" s="12"/>
-      <c r="R56" s="12"/>
-      <c r="S56" s="12"/>
-      <c r="T56" s="12"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="14"/>
+      <c r="K56" s="14"/>
+      <c r="L56" s="14"/>
+      <c r="M56" s="14"/>
+      <c r="N56" s="14"/>
+      <c r="O56" s="14"/>
+      <c r="P56" s="14"/>
+      <c r="Q56" s="14"/>
+      <c r="R56" s="14"/>
+      <c r="S56" s="14"/>
+      <c r="T56" s="14"/>
     </row>
     <row r="57" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>199</v>
+        <v>142</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>198</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F57" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="G57" s="12"/>
-      <c r="H57" s="12"/>
-      <c r="I57" s="12"/>
-      <c r="J57" s="12"/>
-      <c r="K57" s="12"/>
-      <c r="L57" s="12"/>
-      <c r="M57" s="12"/>
-      <c r="N57" s="12"/>
-      <c r="O57" s="12"/>
-      <c r="P57" s="12"/>
-      <c r="Q57" s="12"/>
-      <c r="R57" s="12"/>
-      <c r="S57" s="12"/>
-      <c r="T57" s="12"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="13"/>
+      <c r="K57" s="13"/>
+      <c r="L57" s="13"/>
+      <c r="M57" s="13"/>
+      <c r="N57" s="13"/>
+      <c r="O57" s="13"/>
+      <c r="P57" s="13"/>
+      <c r="Q57" s="13"/>
+      <c r="R57" s="13"/>
+      <c r="S57" s="13"/>
+      <c r="T57" s="13"/>
     </row>
     <row r="58" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>200</v>
+        <v>142</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>199</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F58" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="G58" s="12"/>
-      <c r="H58" s="12"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="12"/>
-      <c r="K58" s="12"/>
-      <c r="L58" s="12"/>
-      <c r="M58" s="12"/>
-      <c r="N58" s="12"/>
-      <c r="O58" s="12"/>
-      <c r="P58" s="12"/>
-      <c r="Q58" s="12"/>
-      <c r="R58" s="12"/>
-      <c r="S58" s="12"/>
-      <c r="T58" s="12"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="14"/>
+      <c r="J58" s="14"/>
+      <c r="K58" s="14"/>
+      <c r="L58" s="14"/>
+      <c r="M58" s="14"/>
+      <c r="N58" s="14"/>
+      <c r="O58" s="14"/>
+      <c r="P58" s="14"/>
+      <c r="Q58" s="14"/>
+      <c r="R58" s="14"/>
+      <c r="S58" s="14"/>
+      <c r="T58" s="14"/>
     </row>
     <row r="59" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>201</v>
+        <v>142</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>200</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F59" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="G59" s="12"/>
-      <c r="H59" s="12"/>
-      <c r="I59" s="12"/>
-      <c r="J59" s="12"/>
-      <c r="K59" s="12"/>
-      <c r="L59" s="12"/>
-      <c r="M59" s="12"/>
-      <c r="N59" s="12"/>
-      <c r="O59" s="12"/>
-      <c r="P59" s="12"/>
-      <c r="Q59" s="12"/>
-      <c r="R59" s="12"/>
-      <c r="S59" s="12"/>
-      <c r="T59" s="12"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="14"/>
+      <c r="J59" s="14"/>
+      <c r="K59" s="14"/>
+      <c r="L59" s="14"/>
+      <c r="M59" s="14"/>
+      <c r="N59" s="14"/>
+      <c r="O59" s="14"/>
+      <c r="P59" s="14"/>
+      <c r="Q59" s="14"/>
+      <c r="R59" s="14"/>
+      <c r="S59" s="14"/>
+      <c r="T59" s="14"/>
     </row>
     <row r="60" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>202</v>
+        <v>142</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>201</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F60" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="G60" s="12"/>
-      <c r="H60" s="12"/>
-      <c r="I60" s="12"/>
-      <c r="J60" s="12"/>
-      <c r="K60" s="12"/>
-      <c r="L60" s="12"/>
-      <c r="M60" s="12"/>
-      <c r="N60" s="12"/>
-      <c r="O60" s="12"/>
-      <c r="P60" s="12"/>
-      <c r="Q60" s="12"/>
-      <c r="R60" s="12"/>
-      <c r="S60" s="12"/>
-      <c r="T60" s="12"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="14"/>
+      <c r="J60" s="14"/>
+      <c r="K60" s="14"/>
+      <c r="L60" s="14"/>
+      <c r="M60" s="14"/>
+      <c r="N60" s="14"/>
+      <c r="O60" s="14"/>
+      <c r="P60" s="14"/>
+      <c r="Q60" s="14"/>
+      <c r="R60" s="14"/>
+      <c r="S60" s="14"/>
+      <c r="T60" s="14"/>
     </row>
     <row r="61" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>203</v>
+        <v>142</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>202</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F61" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="G61" s="12"/>
-      <c r="H61" s="12"/>
-      <c r="I61" s="12"/>
-      <c r="J61" s="12"/>
-      <c r="K61" s="12"/>
-      <c r="L61" s="12"/>
-      <c r="M61" s="12"/>
-      <c r="N61" s="12"/>
-      <c r="O61" s="12"/>
-      <c r="P61" s="12"/>
-      <c r="Q61" s="12"/>
-      <c r="R61" s="12"/>
-      <c r="S61" s="12"/>
-      <c r="T61" s="12"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="14"/>
+      <c r="J61" s="14"/>
+      <c r="K61" s="14"/>
+      <c r="L61" s="14"/>
+      <c r="M61" s="14"/>
+      <c r="N61" s="14"/>
+      <c r="O61" s="14"/>
+      <c r="P61" s="14"/>
+      <c r="Q61" s="14"/>
+      <c r="R61" s="14"/>
+      <c r="S61" s="14"/>
+      <c r="T61" s="14"/>
     </row>
     <row r="62" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>204</v>
+        <v>142</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>203</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F62" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="G62" s="12"/>
-      <c r="H62" s="12"/>
-      <c r="I62" s="12"/>
-      <c r="J62" s="12"/>
-      <c r="K62" s="12"/>
-      <c r="L62" s="12"/>
-      <c r="M62" s="12"/>
-      <c r="N62" s="12"/>
-      <c r="O62" s="12"/>
-      <c r="P62" s="12"/>
-      <c r="Q62" s="12"/>
-      <c r="R62" s="12"/>
-      <c r="S62" s="12"/>
-      <c r="T62" s="12"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="14"/>
+      <c r="J62" s="14"/>
+      <c r="K62" s="14"/>
+      <c r="L62" s="14"/>
+      <c r="M62" s="14"/>
+      <c r="N62" s="14"/>
+      <c r="O62" s="14"/>
+      <c r="P62" s="14"/>
+      <c r="Q62" s="14"/>
+      <c r="R62" s="14"/>
+      <c r="S62" s="14"/>
+      <c r="T62" s="14"/>
     </row>
     <row r="63" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>205</v>
+        <v>142</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>204</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F63" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="G63" s="12"/>
-      <c r="H63" s="12"/>
-      <c r="I63" s="12"/>
-      <c r="J63" s="12"/>
-      <c r="K63" s="12"/>
-      <c r="L63" s="12"/>
-      <c r="M63" s="12"/>
-      <c r="N63" s="12"/>
-      <c r="O63" s="12"/>
-      <c r="P63" s="12"/>
-      <c r="Q63" s="12"/>
-      <c r="R63" s="12"/>
-      <c r="S63" s="12"/>
-      <c r="T63" s="12"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="14"/>
+      <c r="J63" s="14"/>
+      <c r="K63" s="14"/>
+      <c r="L63" s="14"/>
+      <c r="M63" s="14"/>
+      <c r="N63" s="14"/>
+      <c r="O63" s="14"/>
+      <c r="P63" s="14"/>
+      <c r="Q63" s="14"/>
+      <c r="R63" s="14"/>
+      <c r="S63" s="14"/>
+      <c r="T63" s="14"/>
     </row>
     <row r="64" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>206</v>
+        <v>142</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>205</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F64" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="G64" s="12"/>
-      <c r="H64" s="12"/>
-      <c r="I64" s="12"/>
-      <c r="J64" s="12"/>
-      <c r="K64" s="12"/>
-      <c r="L64" s="12"/>
-      <c r="M64" s="12"/>
-      <c r="N64" s="12"/>
-      <c r="O64" s="12"/>
-      <c r="P64" s="12"/>
-      <c r="Q64" s="12"/>
-      <c r="R64" s="12"/>
-      <c r="S64" s="12"/>
-      <c r="T64" s="12"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="14"/>
+      <c r="J64" s="14"/>
+      <c r="K64" s="14"/>
+      <c r="L64" s="14"/>
+      <c r="M64" s="14"/>
+      <c r="N64" s="14"/>
+      <c r="O64" s="14"/>
+      <c r="P64" s="14"/>
+      <c r="Q64" s="14"/>
+      <c r="R64" s="14"/>
+      <c r="S64" s="14"/>
+      <c r="T64" s="14"/>
     </row>
     <row r="65" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>207</v>
+        <v>142</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>206</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F65" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="G65" s="12"/>
-      <c r="H65" s="12"/>
-      <c r="I65" s="12"/>
-      <c r="J65" s="12"/>
-      <c r="K65" s="12"/>
-      <c r="L65" s="12"/>
-      <c r="M65" s="12"/>
-      <c r="N65" s="12"/>
-      <c r="O65" s="12"/>
-      <c r="P65" s="12"/>
-      <c r="Q65" s="12"/>
-      <c r="R65" s="12"/>
-      <c r="S65" s="12"/>
-      <c r="T65" s="12"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="14"/>
+      <c r="I65" s="14"/>
+      <c r="J65" s="14"/>
+      <c r="K65" s="14"/>
+      <c r="L65" s="14"/>
+      <c r="M65" s="14"/>
+      <c r="N65" s="14"/>
+      <c r="O65" s="14"/>
+      <c r="P65" s="14"/>
+      <c r="Q65" s="14"/>
+      <c r="R65" s="14"/>
+      <c r="S65" s="14"/>
+      <c r="T65" s="14"/>
     </row>
     <row r="66" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>208</v>
+        <v>142</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>207</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F66" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="G66" s="12"/>
-      <c r="H66" s="12"/>
-      <c r="I66" s="12"/>
-      <c r="J66" s="12"/>
-      <c r="K66" s="12"/>
-      <c r="L66" s="12"/>
-      <c r="M66" s="12"/>
-      <c r="N66" s="12"/>
-      <c r="O66" s="12"/>
-      <c r="P66" s="12"/>
-      <c r="Q66" s="12"/>
-      <c r="R66" s="12"/>
-      <c r="S66" s="12"/>
-      <c r="T66" s="12"/>
+      <c r="G66" s="14"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="14"/>
+      <c r="J66" s="14"/>
+      <c r="K66" s="14"/>
+      <c r="L66" s="14"/>
+      <c r="M66" s="14"/>
+      <c r="N66" s="14"/>
+      <c r="O66" s="14"/>
+      <c r="P66" s="14"/>
+      <c r="Q66" s="14"/>
+      <c r="R66" s="14"/>
+      <c r="S66" s="14"/>
+      <c r="T66" s="14"/>
     </row>
     <row r="67" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>209</v>
+        <v>142</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>208</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F67" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="G67" s="12"/>
-      <c r="H67" s="12"/>
-      <c r="I67" s="12"/>
-      <c r="J67" s="12"/>
-      <c r="K67" s="12"/>
-      <c r="L67" s="12"/>
-      <c r="M67" s="12"/>
-      <c r="N67" s="12"/>
-      <c r="O67" s="12"/>
-      <c r="P67" s="12"/>
-      <c r="Q67" s="12"/>
-      <c r="R67" s="12"/>
-      <c r="S67" s="12"/>
-      <c r="T67" s="12"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="13"/>
+      <c r="I67" s="13"/>
+      <c r="J67" s="13"/>
+      <c r="K67" s="13"/>
+      <c r="L67" s="13"/>
+      <c r="M67" s="13"/>
+      <c r="N67" s="13"/>
+      <c r="O67" s="13"/>
+      <c r="P67" s="13"/>
+      <c r="Q67" s="13"/>
+      <c r="R67" s="13"/>
+      <c r="S67" s="13"/>
+      <c r="T67" s="13"/>
     </row>
     <row r="68" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>210</v>
+        <v>142</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>209</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="G68" s="12"/>
-      <c r="H68" s="12"/>
-      <c r="I68" s="12"/>
-      <c r="J68" s="12"/>
-      <c r="K68" s="12"/>
-      <c r="L68" s="12"/>
-      <c r="M68" s="12"/>
-      <c r="N68" s="12"/>
-      <c r="O68" s="12"/>
-      <c r="P68" s="12"/>
-      <c r="Q68" s="12"/>
-      <c r="R68" s="12"/>
-      <c r="S68" s="12"/>
-      <c r="T68" s="12"/>
+        <v>387</v>
+      </c>
+      <c r="G68" s="14"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="14"/>
+      <c r="J68" s="14"/>
+      <c r="K68" s="14"/>
+      <c r="L68" s="14"/>
+      <c r="M68" s="14"/>
+      <c r="N68" s="14"/>
+      <c r="O68" s="14"/>
+      <c r="P68" s="14"/>
+      <c r="Q68" s="14"/>
+      <c r="R68" s="14"/>
+      <c r="S68" s="14"/>
+      <c r="T68" s="14"/>
     </row>
     <row r="69" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>211</v>
+        <v>142</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>210</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="G69" s="12"/>
-      <c r="H69" s="12"/>
-      <c r="I69" s="12"/>
-      <c r="J69" s="12"/>
-      <c r="K69" s="12"/>
-      <c r="L69" s="12"/>
-      <c r="M69" s="12"/>
-      <c r="N69" s="12"/>
-      <c r="O69" s="12"/>
-      <c r="P69" s="12"/>
-      <c r="Q69" s="12"/>
-      <c r="R69" s="12"/>
-      <c r="S69" s="12"/>
-      <c r="T69" s="12"/>
+        <v>388</v>
+      </c>
+      <c r="G69" s="14"/>
+      <c r="H69" s="14"/>
+      <c r="I69" s="14"/>
+      <c r="J69" s="14"/>
+      <c r="K69" s="14"/>
+      <c r="L69" s="14"/>
+      <c r="M69" s="14"/>
+      <c r="N69" s="14"/>
+      <c r="O69" s="14"/>
+      <c r="P69" s="14"/>
+      <c r="Q69" s="14"/>
+      <c r="R69" s="14"/>
+      <c r="S69" s="14"/>
+      <c r="T69" s="14"/>
     </row>
     <row r="70" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>212</v>
+        <v>142</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>211</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="G70" s="12"/>
-      <c r="H70" s="12"/>
-      <c r="I70" s="12"/>
-      <c r="J70" s="12"/>
-      <c r="K70" s="12"/>
-      <c r="L70" s="12"/>
-      <c r="M70" s="12"/>
-      <c r="N70" s="12"/>
-      <c r="O70" s="12"/>
-      <c r="P70" s="12"/>
-      <c r="Q70" s="12"/>
-      <c r="R70" s="12"/>
-      <c r="S70" s="12"/>
-      <c r="T70" s="12"/>
+        <v>389</v>
+      </c>
+      <c r="G70" s="14"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="14"/>
+      <c r="J70" s="14"/>
+      <c r="K70" s="14"/>
+      <c r="L70" s="14"/>
+      <c r="M70" s="14"/>
+      <c r="N70" s="14"/>
+      <c r="O70" s="14"/>
+      <c r="P70" s="14"/>
+      <c r="Q70" s="14"/>
+      <c r="R70" s="14"/>
+      <c r="S70" s="14"/>
+      <c r="T70" s="14"/>
     </row>
     <row r="71" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>213</v>
+        <v>142</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>212</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="G71" s="12"/>
-      <c r="H71" s="12"/>
-      <c r="I71" s="12"/>
-      <c r="J71" s="12"/>
-      <c r="K71" s="12"/>
-      <c r="L71" s="12"/>
-      <c r="M71" s="12"/>
-      <c r="N71" s="12"/>
-      <c r="O71" s="12"/>
-      <c r="P71" s="12"/>
-      <c r="Q71" s="12"/>
-      <c r="R71" s="12"/>
-      <c r="S71" s="12"/>
-      <c r="T71" s="12"/>
+        <v>390</v>
+      </c>
+      <c r="G71" s="14"/>
+      <c r="H71" s="14"/>
+      <c r="I71" s="14"/>
+      <c r="J71" s="14"/>
+      <c r="K71" s="14"/>
+      <c r="L71" s="14"/>
+      <c r="M71" s="14"/>
+      <c r="N71" s="14"/>
+      <c r="O71" s="14"/>
+      <c r="P71" s="14"/>
+      <c r="Q71" s="14"/>
+      <c r="R71" s="14"/>
+      <c r="S71" s="14"/>
+      <c r="T71" s="14"/>
     </row>
     <row r="72" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>214</v>
+        <v>142</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>213</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="G72" s="12"/>
-      <c r="H72" s="12"/>
-      <c r="I72" s="12"/>
-      <c r="J72" s="12"/>
-      <c r="K72" s="12"/>
-      <c r="L72" s="12"/>
-      <c r="M72" s="12"/>
-      <c r="N72" s="12"/>
-      <c r="O72" s="12"/>
-      <c r="P72" s="12"/>
-      <c r="Q72" s="12"/>
-      <c r="R72" s="12"/>
-      <c r="S72" s="12"/>
-      <c r="T72" s="12"/>
+        <v>391</v>
+      </c>
+      <c r="G72" s="14"/>
+      <c r="H72" s="14"/>
+      <c r="I72" s="14"/>
+      <c r="J72" s="14"/>
+      <c r="K72" s="14"/>
+      <c r="L72" s="14"/>
+      <c r="M72" s="14"/>
+      <c r="N72" s="14"/>
+      <c r="O72" s="14"/>
+      <c r="P72" s="14"/>
+      <c r="Q72" s="14"/>
+      <c r="R72" s="14"/>
+      <c r="S72" s="14"/>
+      <c r="T72" s="14"/>
     </row>
     <row r="73" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>215</v>
+        <v>142</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>214</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>394</v>
-      </c>
-      <c r="G73" s="12"/>
-      <c r="H73" s="12"/>
-      <c r="I73" s="12"/>
-      <c r="J73" s="12"/>
-      <c r="K73" s="12"/>
-      <c r="L73" s="12"/>
-      <c r="M73" s="12"/>
-      <c r="N73" s="12"/>
-      <c r="O73" s="12"/>
-      <c r="P73" s="12"/>
-      <c r="Q73" s="12"/>
-      <c r="R73" s="12"/>
-      <c r="S73" s="12"/>
-      <c r="T73" s="12"/>
+        <v>392</v>
+      </c>
+      <c r="G73" s="14"/>
+      <c r="H73" s="14"/>
+      <c r="I73" s="14"/>
+      <c r="J73" s="14"/>
+      <c r="K73" s="14"/>
+      <c r="L73" s="14"/>
+      <c r="M73" s="14"/>
+      <c r="N73" s="14"/>
+      <c r="O73" s="14"/>
+      <c r="P73" s="14"/>
+      <c r="Q73" s="14"/>
+      <c r="R73" s="14"/>
+      <c r="S73" s="14"/>
+      <c r="T73" s="14"/>
     </row>
     <row r="74" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>216</v>
+        <v>142</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>215</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>395</v>
-      </c>
-      <c r="G74" s="12"/>
-      <c r="H74" s="12"/>
-      <c r="I74" s="12"/>
-      <c r="J74" s="12"/>
-      <c r="K74" s="12"/>
-      <c r="L74" s="12"/>
-      <c r="M74" s="12"/>
-      <c r="N74" s="12"/>
-      <c r="O74" s="12"/>
-      <c r="P74" s="12"/>
-      <c r="Q74" s="12"/>
-      <c r="R74" s="12"/>
-      <c r="S74" s="12"/>
-      <c r="T74" s="12"/>
+        <v>393</v>
+      </c>
+      <c r="G74" s="14"/>
+      <c r="H74" s="14"/>
+      <c r="I74" s="14"/>
+      <c r="J74" s="14"/>
+      <c r="K74" s="14"/>
+      <c r="L74" s="14"/>
+      <c r="M74" s="14"/>
+      <c r="N74" s="14"/>
+      <c r="O74" s="14"/>
+      <c r="P74" s="14"/>
+      <c r="Q74" s="14"/>
+      <c r="R74" s="14"/>
+      <c r="S74" s="14"/>
+      <c r="T74" s="14"/>
     </row>
     <row r="75" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>217</v>
+        <v>142</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>216</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="G75" s="12"/>
-      <c r="H75" s="12"/>
-      <c r="I75" s="12"/>
-      <c r="J75" s="12"/>
-      <c r="K75" s="12"/>
-      <c r="L75" s="12"/>
-      <c r="M75" s="12"/>
-      <c r="N75" s="12"/>
-      <c r="O75" s="12"/>
-      <c r="P75" s="12"/>
-      <c r="Q75" s="12"/>
-      <c r="R75" s="12"/>
-      <c r="S75" s="12"/>
-      <c r="T75" s="12"/>
+        <v>394</v>
+      </c>
+      <c r="G75" s="14"/>
+      <c r="H75" s="14"/>
+      <c r="I75" s="14"/>
+      <c r="J75" s="14"/>
+      <c r="K75" s="14"/>
+      <c r="L75" s="14"/>
+      <c r="M75" s="14"/>
+      <c r="N75" s="14"/>
+      <c r="O75" s="14"/>
+      <c r="P75" s="14"/>
+      <c r="Q75" s="14"/>
+      <c r="R75" s="14"/>
+      <c r="S75" s="14"/>
+      <c r="T75" s="14"/>
     </row>
     <row r="76" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>218</v>
+        <v>142</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>217</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="G76" s="12"/>
-      <c r="H76" s="12"/>
-      <c r="I76" s="12"/>
-      <c r="J76" s="12"/>
-      <c r="K76" s="12"/>
-      <c r="L76" s="12"/>
-      <c r="M76" s="12"/>
-      <c r="N76" s="12"/>
-      <c r="O76" s="12"/>
-      <c r="P76" s="12"/>
-      <c r="Q76" s="12"/>
-      <c r="R76" s="12"/>
-      <c r="S76" s="12"/>
-      <c r="T76" s="12"/>
+        <v>395</v>
+      </c>
+      <c r="G76" s="14"/>
+      <c r="H76" s="14"/>
+      <c r="I76" s="14"/>
+      <c r="J76" s="14"/>
+      <c r="K76" s="14"/>
+      <c r="L76" s="14"/>
+      <c r="M76" s="14"/>
+      <c r="N76" s="14"/>
+      <c r="O76" s="14"/>
+      <c r="P76" s="14"/>
+      <c r="Q76" s="14"/>
+      <c r="R76" s="14"/>
+      <c r="S76" s="14"/>
+      <c r="T76" s="14"/>
     </row>
     <row r="77" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>219</v>
+        <v>142</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>218</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>398</v>
-      </c>
-      <c r="G77" s="12"/>
-      <c r="H77" s="12"/>
-      <c r="I77" s="12"/>
-      <c r="J77" s="12"/>
-      <c r="K77" s="12"/>
-      <c r="L77" s="12"/>
-      <c r="M77" s="12"/>
-      <c r="N77" s="12"/>
-      <c r="O77" s="12"/>
-      <c r="P77" s="12"/>
-      <c r="Q77" s="12"/>
-      <c r="R77" s="12"/>
-      <c r="S77" s="12"/>
-      <c r="T77" s="12"/>
+        <v>396</v>
+      </c>
+      <c r="G77" s="14"/>
+      <c r="H77" s="14"/>
+      <c r="I77" s="14"/>
+      <c r="J77" s="14"/>
+      <c r="K77" s="14"/>
+      <c r="L77" s="14"/>
+      <c r="M77" s="14"/>
+      <c r="N77" s="14"/>
+      <c r="O77" s="14"/>
+      <c r="P77" s="14"/>
+      <c r="Q77" s="14"/>
+      <c r="R77" s="14"/>
+      <c r="S77" s="14"/>
+      <c r="T77" s="14"/>
     </row>
     <row r="78" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B78" s="8" t="s">
-        <v>220</v>
+        <v>142</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>219</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="G78" s="12"/>
-      <c r="H78" s="12"/>
-      <c r="I78" s="12"/>
-      <c r="J78" s="12"/>
-      <c r="K78" s="12"/>
-      <c r="L78" s="12"/>
-      <c r="M78" s="12"/>
-      <c r="N78" s="12"/>
-      <c r="O78" s="12"/>
-      <c r="P78" s="12"/>
-      <c r="Q78" s="12"/>
-      <c r="R78" s="12"/>
-      <c r="S78" s="12"/>
-      <c r="T78" s="12"/>
+        <v>397</v>
+      </c>
+      <c r="G78" s="14"/>
+      <c r="H78" s="14"/>
+      <c r="I78" s="14"/>
+      <c r="J78" s="14"/>
+      <c r="K78" s="14"/>
+      <c r="L78" s="14"/>
+      <c r="M78" s="14"/>
+      <c r="N78" s="14"/>
+      <c r="O78" s="14"/>
+      <c r="P78" s="14"/>
+      <c r="Q78" s="14"/>
+      <c r="R78" s="14"/>
+      <c r="S78" s="14"/>
+      <c r="T78" s="14"/>
     </row>
     <row r="79" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>221</v>
+        <v>142</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>220</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>400</v>
-      </c>
-      <c r="G79" s="12"/>
-      <c r="H79" s="12"/>
-      <c r="I79" s="12"/>
-      <c r="J79" s="12"/>
-      <c r="K79" s="12"/>
-      <c r="L79" s="12"/>
-      <c r="M79" s="12"/>
-      <c r="N79" s="12"/>
-      <c r="O79" s="12"/>
-      <c r="P79" s="12"/>
-      <c r="Q79" s="12"/>
-      <c r="R79" s="12"/>
-      <c r="S79" s="12"/>
-      <c r="T79" s="12"/>
+        <v>398</v>
+      </c>
+      <c r="G79" s="14"/>
+      <c r="H79" s="14"/>
+      <c r="I79" s="14"/>
+      <c r="J79" s="14"/>
+      <c r="K79" s="14"/>
+      <c r="L79" s="14"/>
+      <c r="M79" s="14"/>
+      <c r="N79" s="14"/>
+      <c r="O79" s="14"/>
+      <c r="P79" s="14"/>
+      <c r="Q79" s="14"/>
+      <c r="R79" s="14"/>
+      <c r="S79" s="14"/>
+      <c r="T79" s="14"/>
     </row>
     <row r="80" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B80" s="8" t="s">
-        <v>222</v>
+        <v>142</v>
+      </c>
+      <c r="B80" s="12" t="s">
+        <v>221</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>401</v>
-      </c>
-      <c r="G80" s="12"/>
-      <c r="H80" s="12"/>
-      <c r="I80" s="12"/>
-      <c r="J80" s="12"/>
-      <c r="K80" s="12"/>
-      <c r="L80" s="12"/>
-      <c r="M80" s="12"/>
-      <c r="N80" s="12"/>
-      <c r="O80" s="12"/>
-      <c r="P80" s="12"/>
-      <c r="Q80" s="12"/>
-      <c r="R80" s="12"/>
-      <c r="S80" s="12"/>
-      <c r="T80" s="12"/>
+        <v>399</v>
+      </c>
+      <c r="G80" s="14"/>
+      <c r="H80" s="14"/>
+      <c r="I80" s="14"/>
+      <c r="J80" s="14"/>
+      <c r="K80" s="14"/>
+      <c r="L80" s="14"/>
+      <c r="M80" s="14"/>
+      <c r="N80" s="14"/>
+      <c r="O80" s="14"/>
+      <c r="P80" s="14"/>
+      <c r="Q80" s="14"/>
+      <c r="R80" s="14"/>
+      <c r="S80" s="14"/>
+      <c r="T80" s="14"/>
     </row>
     <row r="81" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>223</v>
+        <v>142</v>
+      </c>
+      <c r="B81" s="12" t="s">
+        <v>222</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="G81" s="12"/>
-      <c r="H81" s="12"/>
-      <c r="I81" s="12"/>
-      <c r="J81" s="12"/>
-      <c r="K81" s="12"/>
-      <c r="L81" s="12"/>
-      <c r="M81" s="12"/>
-      <c r="N81" s="12"/>
-      <c r="O81" s="12"/>
-      <c r="P81" s="12"/>
-      <c r="Q81" s="12"/>
-      <c r="R81" s="12"/>
-      <c r="S81" s="12"/>
-      <c r="T81" s="12"/>
+        <v>400</v>
+      </c>
+      <c r="G81" s="14"/>
+      <c r="H81" s="14"/>
+      <c r="I81" s="14"/>
+      <c r="J81" s="14"/>
+      <c r="K81" s="14"/>
+      <c r="L81" s="14"/>
+      <c r="M81" s="14"/>
+      <c r="N81" s="14"/>
+      <c r="O81" s="14"/>
+      <c r="P81" s="14"/>
+      <c r="Q81" s="14"/>
+      <c r="R81" s="14"/>
+      <c r="S81" s="14"/>
+      <c r="T81" s="14"/>
     </row>
     <row r="82" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B82" s="8" t="s">
-        <v>224</v>
+        <v>142</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>223</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="G82" s="12"/>
-      <c r="H82" s="12"/>
-      <c r="I82" s="12"/>
-      <c r="J82" s="12"/>
-      <c r="K82" s="12"/>
-      <c r="L82" s="12"/>
-      <c r="M82" s="12"/>
-      <c r="N82" s="12"/>
-      <c r="O82" s="12"/>
-      <c r="P82" s="12"/>
-      <c r="Q82" s="12"/>
-      <c r="R82" s="12"/>
-      <c r="S82" s="12"/>
-      <c r="T82" s="12"/>
+        <v>401</v>
+      </c>
+      <c r="G82" s="14"/>
+      <c r="H82" s="14"/>
+      <c r="I82" s="14"/>
+      <c r="J82" s="14"/>
+      <c r="K82" s="14"/>
+      <c r="L82" s="14"/>
+      <c r="M82" s="14"/>
+      <c r="N82" s="14"/>
+      <c r="O82" s="14"/>
+      <c r="P82" s="14"/>
+      <c r="Q82" s="14"/>
+      <c r="R82" s="14"/>
+      <c r="S82" s="14"/>
+      <c r="T82" s="14"/>
     </row>
     <row r="83" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B83" s="8" t="s">
-        <v>225</v>
+        <v>142</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>224</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="G83" s="12"/>
-      <c r="H83" s="12"/>
-      <c r="I83" s="12"/>
-      <c r="J83" s="12"/>
-      <c r="K83" s="12"/>
-      <c r="L83" s="12"/>
-      <c r="M83" s="12"/>
-      <c r="N83" s="12"/>
-      <c r="O83" s="12"/>
-      <c r="P83" s="12"/>
-      <c r="Q83" s="12"/>
-      <c r="R83" s="12"/>
-      <c r="S83" s="12"/>
-      <c r="T83" s="12"/>
+        <v>402</v>
+      </c>
+      <c r="G83" s="14"/>
+      <c r="H83" s="14"/>
+      <c r="I83" s="14"/>
+      <c r="J83" s="14"/>
+      <c r="K83" s="14"/>
+      <c r="L83" s="14"/>
+      <c r="M83" s="14"/>
+      <c r="N83" s="14"/>
+      <c r="O83" s="14"/>
+      <c r="P83" s="14"/>
+      <c r="Q83" s="14"/>
+      <c r="R83" s="14"/>
+      <c r="S83" s="14"/>
+      <c r="T83" s="14"/>
     </row>
     <row r="84" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B84" s="8" t="s">
-        <v>226</v>
+        <v>142</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>225</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="G84" s="12"/>
-      <c r="H84" s="12"/>
-      <c r="I84" s="12"/>
-      <c r="J84" s="12"/>
-      <c r="K84" s="12"/>
-      <c r="L84" s="12"/>
-      <c r="M84" s="12"/>
-      <c r="N84" s="12"/>
-      <c r="O84" s="12"/>
-      <c r="P84" s="12"/>
-      <c r="Q84" s="12"/>
-      <c r="R84" s="12"/>
-      <c r="S84" s="12"/>
-      <c r="T84" s="12"/>
+        <v>403</v>
+      </c>
+      <c r="G84" s="14"/>
+      <c r="H84" s="14"/>
+      <c r="I84" s="14"/>
+      <c r="J84" s="14"/>
+      <c r="K84" s="14"/>
+      <c r="L84" s="14"/>
+      <c r="M84" s="14"/>
+      <c r="N84" s="14"/>
+      <c r="O84" s="14"/>
+      <c r="P84" s="14"/>
+      <c r="Q84" s="14"/>
+      <c r="R84" s="14"/>
+      <c r="S84" s="14"/>
+      <c r="T84" s="14"/>
     </row>
     <row r="85" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B85" s="8" t="s">
-        <v>227</v>
+        <v>142</v>
+      </c>
+      <c r="B85" s="12" t="s">
+        <v>226</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="G85" s="12"/>
-      <c r="H85" s="12"/>
-      <c r="I85" s="12"/>
-      <c r="J85" s="12"/>
-      <c r="K85" s="12"/>
-      <c r="L85" s="12"/>
-      <c r="M85" s="12"/>
-      <c r="N85" s="12"/>
-      <c r="O85" s="12"/>
-      <c r="P85" s="12"/>
-      <c r="Q85" s="12"/>
-      <c r="R85" s="12"/>
-      <c r="S85" s="12"/>
-      <c r="T85" s="12"/>
+        <v>404</v>
+      </c>
+      <c r="G85" s="14"/>
+      <c r="H85" s="14"/>
+      <c r="I85" s="14"/>
+      <c r="J85" s="14"/>
+      <c r="K85" s="14"/>
+      <c r="L85" s="14"/>
+      <c r="M85" s="14"/>
+      <c r="N85" s="14"/>
+      <c r="O85" s="14"/>
+      <c r="P85" s="14"/>
+      <c r="Q85" s="14"/>
+      <c r="R85" s="14"/>
+      <c r="S85" s="14"/>
+      <c r="T85" s="14"/>
     </row>
     <row r="86" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B86" s="8" t="s">
-        <v>228</v>
+        <v>142</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>227</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>407</v>
-      </c>
-      <c r="G86" s="12"/>
-      <c r="H86" s="12"/>
-      <c r="I86" s="12"/>
-      <c r="J86" s="12"/>
-      <c r="K86" s="12"/>
-      <c r="L86" s="12"/>
-      <c r="M86" s="12"/>
-      <c r="N86" s="12"/>
-      <c r="O86" s="12"/>
-      <c r="P86" s="12"/>
-      <c r="Q86" s="12"/>
-      <c r="R86" s="12"/>
-      <c r="S86" s="12"/>
-      <c r="T86" s="12"/>
+        <v>405</v>
+      </c>
+      <c r="G86" s="14"/>
+      <c r="H86" s="14"/>
+      <c r="I86" s="14"/>
+      <c r="J86" s="14"/>
+      <c r="K86" s="14"/>
+      <c r="L86" s="14"/>
+      <c r="M86" s="14"/>
+      <c r="N86" s="14"/>
+      <c r="O86" s="14"/>
+      <c r="P86" s="14"/>
+      <c r="Q86" s="14"/>
+      <c r="R86" s="14"/>
+      <c r="S86" s="14"/>
+      <c r="T86" s="14"/>
     </row>
     <row r="87" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B87" s="8" t="s">
-        <v>229</v>
+        <v>142</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>228</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="G87" s="12"/>
-      <c r="H87" s="12"/>
-      <c r="I87" s="12"/>
-      <c r="J87" s="12"/>
-      <c r="K87" s="12"/>
-      <c r="L87" s="12"/>
-      <c r="M87" s="12"/>
-      <c r="N87" s="12"/>
-      <c r="O87" s="12"/>
-      <c r="P87" s="12"/>
-      <c r="Q87" s="12"/>
-      <c r="R87" s="12"/>
-      <c r="S87" s="12"/>
-      <c r="T87" s="12"/>
+        <v>406</v>
+      </c>
+      <c r="G87" s="14"/>
+      <c r="H87" s="14"/>
+      <c r="I87" s="14"/>
+      <c r="J87" s="14"/>
+      <c r="K87" s="14"/>
+      <c r="L87" s="14"/>
+      <c r="M87" s="14"/>
+      <c r="N87" s="14"/>
+      <c r="O87" s="14"/>
+      <c r="P87" s="14"/>
+      <c r="Q87" s="14"/>
+      <c r="R87" s="14"/>
+      <c r="S87" s="14"/>
+      <c r="T87" s="14"/>
     </row>
     <row r="88" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B88" s="8" t="s">
-        <v>230</v>
+        <v>142</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>229</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="G88" s="12"/>
-      <c r="H88" s="12"/>
-      <c r="I88" s="12"/>
-      <c r="J88" s="12"/>
-      <c r="K88" s="12"/>
-      <c r="L88" s="12"/>
-      <c r="M88" s="12"/>
-      <c r="N88" s="12"/>
-      <c r="O88" s="12"/>
-      <c r="P88" s="12"/>
-      <c r="Q88" s="12"/>
-      <c r="R88" s="12"/>
-      <c r="S88" s="12"/>
-      <c r="T88" s="12"/>
+        <v>407</v>
+      </c>
+      <c r="G88" s="14"/>
+      <c r="H88" s="14"/>
+      <c r="I88" s="14"/>
+      <c r="J88" s="14"/>
+      <c r="K88" s="14"/>
+      <c r="L88" s="14"/>
+      <c r="M88" s="14"/>
+      <c r="N88" s="14"/>
+      <c r="O88" s="14"/>
+      <c r="P88" s="14"/>
+      <c r="Q88" s="14"/>
+      <c r="R88" s="14"/>
+      <c r="S88" s="14"/>
+      <c r="T88" s="14"/>
     </row>
     <row r="89" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>231</v>
+        <v>142</v>
+      </c>
+      <c r="B89" s="12" t="s">
+        <v>230</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="G89" s="12"/>
-      <c r="H89" s="12"/>
-      <c r="I89" s="12"/>
-      <c r="J89" s="12"/>
-      <c r="K89" s="12"/>
-      <c r="L89" s="12"/>
-      <c r="M89" s="12"/>
-      <c r="N89" s="12"/>
-      <c r="O89" s="12"/>
-      <c r="P89" s="12"/>
-      <c r="Q89" s="12"/>
-      <c r="R89" s="12"/>
-      <c r="S89" s="12"/>
-      <c r="T89" s="12"/>
+        <v>408</v>
+      </c>
+      <c r="G89" s="14"/>
+      <c r="H89" s="14"/>
+      <c r="I89" s="14"/>
+      <c r="J89" s="14"/>
+      <c r="K89" s="14"/>
+      <c r="L89" s="14"/>
+      <c r="M89" s="14"/>
+      <c r="N89" s="14"/>
+      <c r="O89" s="14"/>
+      <c r="P89" s="14"/>
+      <c r="Q89" s="14"/>
+      <c r="R89" s="14"/>
+      <c r="S89" s="14"/>
+      <c r="T89" s="14"/>
     </row>
     <row r="90" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B90" s="8" t="s">
-        <v>232</v>
+        <v>142</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>231</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="G90" s="12"/>
-      <c r="H90" s="12"/>
-      <c r="I90" s="12"/>
-      <c r="J90" s="12"/>
-      <c r="K90" s="12"/>
-      <c r="L90" s="12"/>
-      <c r="M90" s="12"/>
-      <c r="N90" s="12"/>
-      <c r="O90" s="12"/>
-      <c r="P90" s="12"/>
-      <c r="Q90" s="12"/>
-      <c r="R90" s="12"/>
-      <c r="S90" s="12"/>
-      <c r="T90" s="12"/>
+        <v>409</v>
+      </c>
+      <c r="G90" s="14"/>
+      <c r="H90" s="14"/>
+      <c r="I90" s="14"/>
+      <c r="J90" s="14"/>
+      <c r="K90" s="14"/>
+      <c r="L90" s="14"/>
+      <c r="M90" s="14"/>
+      <c r="N90" s="14"/>
+      <c r="O90" s="14"/>
+      <c r="P90" s="14"/>
+      <c r="Q90" s="14"/>
+      <c r="R90" s="14"/>
+      <c r="S90" s="14"/>
+      <c r="T90" s="14"/>
     </row>
     <row r="91" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B91" s="8" t="s">
-        <v>233</v>
+        <v>142</v>
+      </c>
+      <c r="B91" s="12" t="s">
+        <v>232</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E91" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>412</v>
-      </c>
-      <c r="G91" s="13"/>
-      <c r="H91" s="13"/>
-      <c r="I91" s="13">
-        <v>1</v>
-      </c>
-      <c r="J91" s="13">
-        <v>10</v>
-      </c>
-      <c r="K91" s="13">
-        <v>4</v>
-      </c>
-      <c r="L91" s="13">
-        <v>2</v>
-      </c>
-      <c r="M91" s="13">
-        <v>2</v>
-      </c>
-      <c r="N91" s="13">
-        <v>2</v>
-      </c>
-      <c r="O91" s="13"/>
-      <c r="P91" s="13"/>
-      <c r="Q91" s="13"/>
-      <c r="R91" s="13"/>
-      <c r="S91" s="13"/>
-      <c r="T91" s="13"/>
+        <v>410</v>
+      </c>
+      <c r="G91" s="14"/>
+      <c r="H91" s="14"/>
+      <c r="I91" s="14"/>
+      <c r="J91" s="14"/>
+      <c r="K91" s="14"/>
+      <c r="L91" s="14"/>
+      <c r="M91" s="14"/>
+      <c r="N91" s="14"/>
+      <c r="O91" s="14"/>
+      <c r="P91" s="14"/>
+      <c r="Q91" s="14"/>
+      <c r="R91" s="14"/>
+      <c r="S91" s="14"/>
+      <c r="T91" s="14"/>
     </row>
     <row r="92" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A92" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B92" s="8" t="s">
-        <v>234</v>
+        <v>142</v>
+      </c>
+      <c r="B92" s="12" t="s">
+        <v>233</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="G92" s="13"/>
-      <c r="H92" s="13">
-        <v>10</v>
-      </c>
-      <c r="I92" s="13">
-        <v>10</v>
-      </c>
-      <c r="J92" s="13">
-        <v>10</v>
-      </c>
-      <c r="K92" s="13">
-        <v>10</v>
-      </c>
-      <c r="L92" s="13">
-        <v>15</v>
-      </c>
-      <c r="M92" s="13">
-        <v>10</v>
-      </c>
-      <c r="N92" s="13">
-        <v>10</v>
-      </c>
-      <c r="O92" s="13">
-        <v>2</v>
-      </c>
-      <c r="P92" s="13">
-        <v>2</v>
-      </c>
-      <c r="Q92" s="13">
-        <v>2</v>
-      </c>
-      <c r="R92" s="13">
-        <v>2</v>
-      </c>
-      <c r="S92" s="13"/>
-      <c r="T92" s="13"/>
+        <v>411</v>
+      </c>
+      <c r="G92" s="14"/>
+      <c r="H92" s="14"/>
+      <c r="I92" s="14"/>
+      <c r="J92" s="14"/>
+      <c r="K92" s="14"/>
+      <c r="L92" s="14"/>
+      <c r="M92" s="14"/>
+      <c r="N92" s="14"/>
+      <c r="O92" s="14"/>
+      <c r="P92" s="14"/>
+      <c r="Q92" s="14"/>
+      <c r="R92" s="14"/>
+      <c r="S92" s="14"/>
+      <c r="T92" s="14"/>
     </row>
     <row r="93" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B93" s="8" t="s">
-        <v>235</v>
+        <v>142</v>
+      </c>
+      <c r="B93" s="12" t="s">
+        <v>480</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>414</v>
-      </c>
-      <c r="G93" s="12"/>
-      <c r="H93" s="12"/>
-      <c r="I93" s="12"/>
-      <c r="J93" s="12"/>
-      <c r="K93" s="12"/>
-      <c r="L93" s="12"/>
-      <c r="M93" s="12"/>
-      <c r="N93" s="12"/>
-      <c r="O93" s="12"/>
-      <c r="P93" s="12"/>
-      <c r="Q93" s="12"/>
-      <c r="R93" s="12"/>
-      <c r="S93" s="12"/>
-      <c r="T93" s="12"/>
+        <v>412</v>
+      </c>
+      <c r="G93" s="14"/>
+      <c r="H93" s="14"/>
+      <c r="I93" s="14"/>
+      <c r="J93" s="14"/>
+      <c r="K93" s="14"/>
+      <c r="L93" s="14"/>
+      <c r="M93" s="14"/>
+      <c r="N93" s="14"/>
+      <c r="O93" s="14"/>
+      <c r="P93" s="14"/>
+      <c r="Q93" s="14"/>
+      <c r="R93" s="14"/>
+      <c r="S93" s="14"/>
+      <c r="T93" s="14"/>
     </row>
     <row r="94" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B94" s="8" t="s">
-        <v>236</v>
+        <v>142</v>
+      </c>
+      <c r="B94" s="12" t="s">
+        <v>234</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>415</v>
-      </c>
-      <c r="G94" s="12"/>
-      <c r="H94" s="12"/>
-      <c r="I94" s="12"/>
-      <c r="J94" s="12"/>
-      <c r="K94" s="12"/>
-      <c r="L94" s="12"/>
-      <c r="M94" s="12"/>
-      <c r="N94" s="12"/>
-      <c r="O94" s="12"/>
-      <c r="P94" s="12"/>
-      <c r="Q94" s="12"/>
-      <c r="R94" s="12"/>
-      <c r="S94" s="12"/>
-      <c r="T94" s="12"/>
+        <v>413</v>
+      </c>
+      <c r="G94" s="14"/>
+      <c r="H94" s="14"/>
+      <c r="I94" s="14"/>
+      <c r="J94" s="14"/>
+      <c r="K94" s="14"/>
+      <c r="L94" s="14"/>
+      <c r="M94" s="14"/>
+      <c r="N94" s="14"/>
+      <c r="O94" s="14"/>
+      <c r="P94" s="14"/>
+      <c r="Q94" s="14"/>
+      <c r="R94" s="14"/>
+      <c r="S94" s="14"/>
+      <c r="T94" s="14"/>
     </row>
     <row r="95" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B95" s="8" t="s">
-        <v>237</v>
+        <v>142</v>
+      </c>
+      <c r="B95" s="12" t="s">
+        <v>235</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="G95" s="12"/>
-      <c r="H95" s="12"/>
-      <c r="I95" s="12"/>
-      <c r="J95" s="12"/>
-      <c r="K95" s="12"/>
-      <c r="L95" s="12"/>
-      <c r="M95" s="12"/>
-      <c r="N95" s="12"/>
-      <c r="O95" s="12"/>
-      <c r="P95" s="12"/>
-      <c r="Q95" s="12"/>
-      <c r="R95" s="12"/>
-      <c r="S95" s="12"/>
-      <c r="T95" s="12"/>
+        <v>414</v>
+      </c>
+      <c r="G95" s="14"/>
+      <c r="H95" s="14"/>
+      <c r="I95" s="14"/>
+      <c r="J95" s="14"/>
+      <c r="K95" s="14"/>
+      <c r="L95" s="14"/>
+      <c r="M95" s="14"/>
+      <c r="N95" s="14"/>
+      <c r="O95" s="14"/>
+      <c r="P95" s="14"/>
+      <c r="Q95" s="14"/>
+      <c r="R95" s="14"/>
+      <c r="S95" s="14"/>
+      <c r="T95" s="14"/>
     </row>
     <row r="96" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B96" s="8" t="s">
-        <v>238</v>
+        <v>142</v>
+      </c>
+      <c r="B96" s="12" t="s">
+        <v>236</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E96" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="G96" s="12"/>
-      <c r="H96" s="12"/>
-      <c r="I96" s="12"/>
-      <c r="J96" s="12"/>
-      <c r="K96" s="12"/>
-      <c r="L96" s="12"/>
-      <c r="M96" s="12"/>
-      <c r="N96" s="12"/>
-      <c r="O96" s="12"/>
-      <c r="P96" s="12"/>
-      <c r="Q96" s="12"/>
-      <c r="R96" s="12"/>
-      <c r="S96" s="12"/>
-      <c r="T96" s="12"/>
+        <v>415</v>
+      </c>
+      <c r="G96" s="14"/>
+      <c r="H96" s="14"/>
+      <c r="I96" s="14"/>
+      <c r="J96" s="14"/>
+      <c r="K96" s="14"/>
+      <c r="L96" s="14"/>
+      <c r="M96" s="14"/>
+      <c r="N96" s="14"/>
+      <c r="O96" s="14"/>
+      <c r="P96" s="14"/>
+      <c r="Q96" s="14"/>
+      <c r="R96" s="14"/>
+      <c r="S96" s="14"/>
+      <c r="T96" s="14"/>
     </row>
     <row r="97" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B97" s="8" t="s">
-        <v>239</v>
+        <v>142</v>
+      </c>
+      <c r="B97" s="12" t="s">
+        <v>237</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>418</v>
-      </c>
-      <c r="G97" s="12"/>
-      <c r="H97" s="12"/>
-      <c r="I97" s="12"/>
-      <c r="J97" s="12"/>
-      <c r="K97" s="12"/>
-      <c r="L97" s="12"/>
-      <c r="M97" s="12"/>
-      <c r="N97" s="12"/>
-      <c r="O97" s="12"/>
-      <c r="P97" s="12"/>
-      <c r="Q97" s="12"/>
-      <c r="R97" s="12"/>
-      <c r="S97" s="12"/>
-      <c r="T97" s="12"/>
+        <v>416</v>
+      </c>
+      <c r="G97" s="14"/>
+      <c r="H97" s="14"/>
+      <c r="I97" s="14"/>
+      <c r="J97" s="14"/>
+      <c r="K97" s="14"/>
+      <c r="L97" s="14"/>
+      <c r="M97" s="14"/>
+      <c r="N97" s="14"/>
+      <c r="O97" s="14"/>
+      <c r="P97" s="14"/>
+      <c r="Q97" s="14"/>
+      <c r="R97" s="14"/>
+      <c r="S97" s="14"/>
+      <c r="T97" s="14"/>
     </row>
     <row r="98" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B98" s="8" t="s">
-        <v>240</v>
+        <v>142</v>
+      </c>
+      <c r="B98" s="12" t="s">
+        <v>238</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>419</v>
-      </c>
-      <c r="G98" s="12"/>
-      <c r="H98" s="12"/>
-      <c r="I98" s="12"/>
-      <c r="J98" s="12"/>
-      <c r="K98" s="12"/>
-      <c r="L98" s="12"/>
-      <c r="M98" s="12"/>
-      <c r="N98" s="12"/>
-      <c r="O98" s="12"/>
-      <c r="P98" s="12"/>
-      <c r="Q98" s="12"/>
-      <c r="R98" s="12"/>
-      <c r="S98" s="12"/>
-      <c r="T98" s="12"/>
+        <v>417</v>
+      </c>
+      <c r="G98" s="14"/>
+      <c r="H98" s="14"/>
+      <c r="I98" s="14"/>
+      <c r="J98" s="14"/>
+      <c r="K98" s="14"/>
+      <c r="L98" s="14"/>
+      <c r="M98" s="14"/>
+      <c r="N98" s="14"/>
+      <c r="O98" s="14"/>
+      <c r="P98" s="14"/>
+      <c r="Q98" s="14"/>
+      <c r="R98" s="14"/>
+      <c r="S98" s="14"/>
+      <c r="T98" s="14"/>
     </row>
     <row r="99" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B99" s="8" t="s">
-        <v>241</v>
+        <v>142</v>
+      </c>
+      <c r="B99" s="12" t="s">
+        <v>239</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E99" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>420</v>
-      </c>
-      <c r="G99" s="12"/>
-      <c r="H99" s="12"/>
-      <c r="I99" s="12"/>
-      <c r="J99" s="12"/>
-      <c r="K99" s="12"/>
-      <c r="L99" s="12"/>
-      <c r="M99" s="12"/>
-      <c r="N99" s="12"/>
-      <c r="O99" s="12"/>
-      <c r="P99" s="12"/>
-      <c r="Q99" s="12"/>
-      <c r="R99" s="12"/>
-      <c r="S99" s="12"/>
-      <c r="T99" s="12"/>
+        <v>418</v>
+      </c>
+      <c r="G99" s="14"/>
+      <c r="H99" s="14"/>
+      <c r="I99" s="14"/>
+      <c r="J99" s="14"/>
+      <c r="K99" s="14"/>
+      <c r="L99" s="14"/>
+      <c r="M99" s="14"/>
+      <c r="N99" s="14"/>
+      <c r="O99" s="14"/>
+      <c r="P99" s="14"/>
+      <c r="Q99" s="14"/>
+      <c r="R99" s="14"/>
+      <c r="S99" s="14"/>
+      <c r="T99" s="14"/>
     </row>
     <row r="100" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B100" s="8" t="s">
-        <v>242</v>
+        <v>142</v>
+      </c>
+      <c r="B100" s="12" t="s">
+        <v>240</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E100" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>421</v>
-      </c>
-      <c r="G100" s="12"/>
-      <c r="H100" s="12"/>
-      <c r="I100" s="12"/>
-      <c r="J100" s="12"/>
-      <c r="K100" s="12"/>
-      <c r="L100" s="12"/>
-      <c r="M100" s="12"/>
-      <c r="N100" s="12"/>
-      <c r="O100" s="12"/>
-      <c r="P100" s="12"/>
-      <c r="Q100" s="12"/>
-      <c r="R100" s="12"/>
-      <c r="S100" s="12"/>
-      <c r="T100" s="12"/>
+        <v>419</v>
+      </c>
+      <c r="G100" s="14"/>
+      <c r="H100" s="14"/>
+      <c r="I100" s="14"/>
+      <c r="J100" s="14"/>
+      <c r="K100" s="14"/>
+      <c r="L100" s="14"/>
+      <c r="M100" s="14"/>
+      <c r="N100" s="14"/>
+      <c r="O100" s="14"/>
+      <c r="P100" s="14"/>
+      <c r="Q100" s="14"/>
+      <c r="R100" s="14"/>
+      <c r="S100" s="14"/>
+      <c r="T100" s="14"/>
     </row>
     <row r="101" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B101" s="8" t="s">
-        <v>243</v>
+        <v>142</v>
+      </c>
+      <c r="B101" s="12" t="s">
+        <v>241</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E101" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>422</v>
-      </c>
-      <c r="G101" s="12"/>
-      <c r="H101" s="12"/>
-      <c r="I101" s="12"/>
-      <c r="J101" s="12"/>
-      <c r="K101" s="12"/>
-      <c r="L101" s="12"/>
-      <c r="M101" s="12"/>
-      <c r="N101" s="12"/>
-      <c r="O101" s="12"/>
-      <c r="P101" s="12"/>
-      <c r="Q101" s="12"/>
-      <c r="R101" s="12"/>
-      <c r="S101" s="12"/>
-      <c r="T101" s="12"/>
+        <v>420</v>
+      </c>
+      <c r="G101" s="14"/>
+      <c r="H101" s="14"/>
+      <c r="I101" s="14"/>
+      <c r="J101" s="14"/>
+      <c r="K101" s="14"/>
+      <c r="L101" s="14"/>
+      <c r="M101" s="14"/>
+      <c r="N101" s="14"/>
+      <c r="O101" s="14"/>
+      <c r="P101" s="14"/>
+      <c r="Q101" s="14"/>
+      <c r="R101" s="14"/>
+      <c r="S101" s="14"/>
+      <c r="T101" s="14"/>
     </row>
     <row r="102" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B102" s="8" t="s">
-        <v>244</v>
+        <v>142</v>
+      </c>
+      <c r="B102" s="12" t="s">
+        <v>242</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E102" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>423</v>
-      </c>
-      <c r="G102" s="12"/>
-      <c r="H102" s="12"/>
-      <c r="I102" s="12"/>
-      <c r="J102" s="12"/>
-      <c r="K102" s="12"/>
-      <c r="L102" s="12"/>
-      <c r="M102" s="12"/>
-      <c r="N102" s="12"/>
-      <c r="O102" s="12"/>
-      <c r="P102" s="12"/>
-      <c r="Q102" s="12"/>
-      <c r="R102" s="12"/>
-      <c r="S102" s="12"/>
-      <c r="T102" s="12"/>
+        <v>421</v>
+      </c>
+      <c r="G102" s="14"/>
+      <c r="H102" s="14"/>
+      <c r="I102" s="14"/>
+      <c r="J102" s="14"/>
+      <c r="K102" s="14"/>
+      <c r="L102" s="14"/>
+      <c r="M102" s="14"/>
+      <c r="N102" s="14"/>
+      <c r="O102" s="14"/>
+      <c r="P102" s="14"/>
+      <c r="Q102" s="14"/>
+      <c r="R102" s="14"/>
+      <c r="S102" s="14"/>
+      <c r="T102" s="14"/>
     </row>
     <row r="103" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B103" s="8" t="s">
-        <v>245</v>
+        <v>142</v>
+      </c>
+      <c r="B103" s="12" t="s">
+        <v>243</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E103" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>424</v>
-      </c>
-      <c r="G103" s="12"/>
-      <c r="H103" s="12"/>
-      <c r="I103" s="12"/>
-      <c r="J103" s="12"/>
-      <c r="K103" s="12"/>
-      <c r="L103" s="12"/>
-      <c r="M103" s="12"/>
-      <c r="N103" s="12"/>
-      <c r="O103" s="12"/>
-      <c r="P103" s="12"/>
-      <c r="Q103" s="12"/>
-      <c r="R103" s="12"/>
-      <c r="S103" s="12"/>
-      <c r="T103" s="12"/>
+        <v>422</v>
+      </c>
+      <c r="G103" s="14"/>
+      <c r="H103" s="14"/>
+      <c r="I103" s="14"/>
+      <c r="J103" s="14"/>
+      <c r="K103" s="14"/>
+      <c r="L103" s="14"/>
+      <c r="M103" s="14"/>
+      <c r="N103" s="14"/>
+      <c r="O103" s="14"/>
+      <c r="P103" s="14"/>
+      <c r="Q103" s="14"/>
+      <c r="R103" s="14"/>
+      <c r="S103" s="14"/>
+      <c r="T103" s="14"/>
     </row>
     <row r="104" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A104" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B104" s="8" t="s">
-        <v>246</v>
+        <v>142</v>
+      </c>
+      <c r="B104" s="12" t="s">
+        <v>244</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E104" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>425</v>
-      </c>
-      <c r="G104" s="12"/>
-      <c r="H104" s="12"/>
-      <c r="I104" s="12"/>
-      <c r="J104" s="12"/>
-      <c r="K104" s="12"/>
-      <c r="L104" s="12"/>
-      <c r="M104" s="12"/>
-      <c r="N104" s="12"/>
-      <c r="O104" s="12"/>
-      <c r="P104" s="12"/>
-      <c r="Q104" s="12"/>
-      <c r="R104" s="12"/>
-      <c r="S104" s="12"/>
-      <c r="T104" s="12"/>
+        <v>423</v>
+      </c>
+      <c r="G104" s="14"/>
+      <c r="H104" s="14"/>
+      <c r="I104" s="14"/>
+      <c r="J104" s="14"/>
+      <c r="K104" s="14"/>
+      <c r="L104" s="14"/>
+      <c r="M104" s="14"/>
+      <c r="N104" s="14"/>
+      <c r="O104" s="14"/>
+      <c r="P104" s="14"/>
+      <c r="Q104" s="14"/>
+      <c r="R104" s="14"/>
+      <c r="S104" s="14"/>
+      <c r="T104" s="14"/>
     </row>
     <row r="105" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B105" s="8" t="s">
-        <v>247</v>
+        <v>142</v>
+      </c>
+      <c r="B105" s="12" t="s">
+        <v>245</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E105" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>426</v>
-      </c>
-      <c r="G105" s="12"/>
-      <c r="H105" s="12"/>
-      <c r="I105" s="12"/>
-      <c r="J105" s="12"/>
-      <c r="K105" s="12"/>
-      <c r="L105" s="12"/>
-      <c r="M105" s="12"/>
-      <c r="N105" s="12"/>
-      <c r="O105" s="12"/>
-      <c r="P105" s="12"/>
-      <c r="Q105" s="12"/>
-      <c r="R105" s="12"/>
-      <c r="S105" s="12"/>
-      <c r="T105" s="12"/>
+        <v>424</v>
+      </c>
+      <c r="G105" s="14"/>
+      <c r="H105" s="14"/>
+      <c r="I105" s="14"/>
+      <c r="J105" s="14"/>
+      <c r="K105" s="14"/>
+      <c r="L105" s="14"/>
+      <c r="M105" s="14"/>
+      <c r="N105" s="14"/>
+      <c r="O105" s="14"/>
+      <c r="P105" s="14"/>
+      <c r="Q105" s="14"/>
+      <c r="R105" s="14"/>
+      <c r="S105" s="14"/>
+      <c r="T105" s="14"/>
     </row>
     <row r="106" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A106" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B106" s="8" t="s">
-        <v>248</v>
+        <v>142</v>
+      </c>
+      <c r="B106" s="12" t="s">
+        <v>246</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E106" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>427</v>
-      </c>
-      <c r="G106" s="12"/>
-      <c r="H106" s="12"/>
-      <c r="I106" s="12"/>
-      <c r="J106" s="12"/>
-      <c r="K106" s="12"/>
-      <c r="L106" s="12"/>
-      <c r="M106" s="12"/>
-      <c r="N106" s="12"/>
-      <c r="O106" s="12"/>
-      <c r="P106" s="12"/>
-      <c r="Q106" s="12"/>
-      <c r="R106" s="12"/>
-      <c r="S106" s="12"/>
-      <c r="T106" s="12"/>
+        <v>425</v>
+      </c>
+      <c r="G106" s="14"/>
+      <c r="H106" s="14"/>
+      <c r="I106" s="14"/>
+      <c r="J106" s="14"/>
+      <c r="K106" s="14"/>
+      <c r="L106" s="14"/>
+      <c r="M106" s="14"/>
+      <c r="N106" s="14"/>
+      <c r="O106" s="14"/>
+      <c r="P106" s="14"/>
+      <c r="Q106" s="14"/>
+      <c r="R106" s="14"/>
+      <c r="S106" s="14"/>
+      <c r="T106" s="14"/>
     </row>
     <row r="107" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B107" s="8" t="s">
-        <v>249</v>
+        <v>142</v>
+      </c>
+      <c r="B107" s="12" t="s">
+        <v>247</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E107" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>428</v>
-      </c>
-      <c r="G107" s="12"/>
-      <c r="H107" s="12"/>
-      <c r="I107" s="12"/>
-      <c r="J107" s="12"/>
-      <c r="K107" s="12"/>
-      <c r="L107" s="12"/>
-      <c r="M107" s="12"/>
-      <c r="N107" s="12"/>
-      <c r="O107" s="12"/>
-      <c r="P107" s="12"/>
-      <c r="Q107" s="12"/>
-      <c r="R107" s="12"/>
-      <c r="S107" s="12"/>
-      <c r="T107" s="12"/>
+        <v>426</v>
+      </c>
+      <c r="G107" s="14"/>
+      <c r="H107" s="14"/>
+      <c r="I107" s="14"/>
+      <c r="J107" s="14"/>
+      <c r="K107" s="14"/>
+      <c r="L107" s="14"/>
+      <c r="M107" s="14"/>
+      <c r="N107" s="14"/>
+      <c r="O107" s="14"/>
+      <c r="P107" s="14"/>
+      <c r="Q107" s="14"/>
+      <c r="R107" s="14"/>
+      <c r="S107" s="14"/>
+      <c r="T107" s="14"/>
     </row>
     <row r="108" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A108" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B108" s="8" t="s">
-        <v>250</v>
+        <v>142</v>
+      </c>
+      <c r="B108" s="12" t="s">
+        <v>248</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E108" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>429</v>
-      </c>
-      <c r="G108" s="12"/>
-      <c r="H108" s="12"/>
-      <c r="I108" s="12"/>
-      <c r="J108" s="12"/>
-      <c r="K108" s="12"/>
-      <c r="L108" s="12"/>
-      <c r="M108" s="12"/>
-      <c r="N108" s="12"/>
-      <c r="O108" s="12"/>
-      <c r="P108" s="12"/>
-      <c r="Q108" s="12"/>
-      <c r="R108" s="12"/>
-      <c r="S108" s="12"/>
-      <c r="T108" s="12"/>
+        <v>427</v>
+      </c>
+      <c r="G108" s="14"/>
+      <c r="H108" s="14"/>
+      <c r="I108" s="14"/>
+      <c r="J108" s="14"/>
+      <c r="K108" s="14"/>
+      <c r="L108" s="14"/>
+      <c r="M108" s="14"/>
+      <c r="N108" s="14"/>
+      <c r="O108" s="14"/>
+      <c r="P108" s="14"/>
+      <c r="Q108" s="14"/>
+      <c r="R108" s="14"/>
+      <c r="S108" s="14"/>
+      <c r="T108" s="14"/>
     </row>
     <row r="109" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A109" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B109" s="8" t="s">
-        <v>251</v>
+        <v>142</v>
+      </c>
+      <c r="B109" s="12" t="s">
+        <v>249</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E109" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>430</v>
-      </c>
-      <c r="G109" s="12"/>
-      <c r="H109" s="12"/>
-      <c r="I109" s="12"/>
-      <c r="J109" s="12"/>
-      <c r="K109" s="12"/>
-      <c r="L109" s="12"/>
-      <c r="M109" s="12"/>
-      <c r="N109" s="12"/>
-      <c r="O109" s="12"/>
-      <c r="P109" s="12"/>
-      <c r="Q109" s="12"/>
-      <c r="R109" s="12"/>
-      <c r="S109" s="12"/>
-      <c r="T109" s="12"/>
+        <v>428</v>
+      </c>
+      <c r="G109" s="14"/>
+      <c r="H109" s="14"/>
+      <c r="I109" s="14"/>
+      <c r="J109" s="14"/>
+      <c r="K109" s="14"/>
+      <c r="L109" s="14"/>
+      <c r="M109" s="14"/>
+      <c r="N109" s="14"/>
+      <c r="O109" s="14"/>
+      <c r="P109" s="14"/>
+      <c r="Q109" s="14"/>
+      <c r="R109" s="14"/>
+      <c r="S109" s="14"/>
+      <c r="T109" s="14"/>
     </row>
     <row r="110" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A110" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B110" s="8" t="s">
-        <v>252</v>
+        <v>142</v>
+      </c>
+      <c r="B110" s="12" t="s">
+        <v>250</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E110" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F110" s="8" t="s">
-        <v>431</v>
-      </c>
-      <c r="G110" s="12"/>
-      <c r="H110" s="12"/>
-      <c r="I110" s="12"/>
-      <c r="J110" s="12"/>
-      <c r="K110" s="12"/>
-      <c r="L110" s="12"/>
-      <c r="M110" s="12"/>
-      <c r="N110" s="12"/>
-      <c r="O110" s="12"/>
-      <c r="P110" s="12"/>
-      <c r="Q110" s="12"/>
-      <c r="R110" s="12"/>
-      <c r="S110" s="12"/>
-      <c r="T110" s="12"/>
+        <v>429</v>
+      </c>
+      <c r="G110" s="14"/>
+      <c r="H110" s="14"/>
+      <c r="I110" s="14"/>
+      <c r="J110" s="14"/>
+      <c r="K110" s="14"/>
+      <c r="L110" s="14"/>
+      <c r="M110" s="14"/>
+      <c r="N110" s="14"/>
+      <c r="O110" s="14"/>
+      <c r="P110" s="14"/>
+      <c r="Q110" s="14"/>
+      <c r="R110" s="14"/>
+      <c r="S110" s="14"/>
+      <c r="T110" s="14"/>
     </row>
     <row r="111" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B111" s="8" t="s">
-        <v>253</v>
+        <v>142</v>
+      </c>
+      <c r="B111" s="12" t="s">
+        <v>251</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E111" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F111" s="8" t="s">
-        <v>432</v>
-      </c>
-      <c r="G111" s="12"/>
-      <c r="H111" s="12"/>
-      <c r="I111" s="12"/>
-      <c r="J111" s="12"/>
-      <c r="K111" s="12"/>
-      <c r="L111" s="12"/>
-      <c r="M111" s="12"/>
-      <c r="N111" s="12"/>
-      <c r="O111" s="12"/>
-      <c r="P111" s="12"/>
-      <c r="Q111" s="12"/>
-      <c r="R111" s="12"/>
-      <c r="S111" s="12"/>
-      <c r="T111" s="12"/>
+        <v>430</v>
+      </c>
+      <c r="G111" s="14"/>
+      <c r="H111" s="14"/>
+      <c r="I111" s="14"/>
+      <c r="J111" s="14"/>
+      <c r="K111" s="14"/>
+      <c r="L111" s="14"/>
+      <c r="M111" s="14"/>
+      <c r="N111" s="14"/>
+      <c r="O111" s="14"/>
+      <c r="P111" s="14"/>
+      <c r="Q111" s="14"/>
+      <c r="R111" s="14"/>
+      <c r="S111" s="14"/>
+      <c r="T111" s="14"/>
     </row>
     <row r="112" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A112" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B112" s="8" t="s">
-        <v>254</v>
+        <v>142</v>
+      </c>
+      <c r="B112" s="12" t="s">
+        <v>252</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E112" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F112" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="G112" s="12"/>
-      <c r="H112" s="12"/>
-      <c r="I112" s="12"/>
-      <c r="J112" s="12"/>
-      <c r="K112" s="12"/>
-      <c r="L112" s="12"/>
-      <c r="M112" s="12"/>
-      <c r="N112" s="12"/>
-      <c r="O112" s="12"/>
-      <c r="P112" s="12"/>
-      <c r="Q112" s="12"/>
-      <c r="R112" s="12"/>
-      <c r="S112" s="12"/>
-      <c r="T112" s="12"/>
+        <v>431</v>
+      </c>
+      <c r="G112" s="14"/>
+      <c r="H112" s="14"/>
+      <c r="I112" s="14"/>
+      <c r="J112" s="14"/>
+      <c r="K112" s="14"/>
+      <c r="L112" s="14"/>
+      <c r="M112" s="14"/>
+      <c r="N112" s="14"/>
+      <c r="O112" s="14"/>
+      <c r="P112" s="14"/>
+      <c r="Q112" s="14"/>
+      <c r="R112" s="14"/>
+      <c r="S112" s="14"/>
+      <c r="T112" s="14"/>
     </row>
     <row r="113" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A113" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B113" s="8" t="s">
-        <v>255</v>
+        <v>142</v>
+      </c>
+      <c r="B113" s="12" t="s">
+        <v>253</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E113" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F113" s="8" t="s">
-        <v>434</v>
-      </c>
-      <c r="G113" s="12"/>
-      <c r="H113" s="12"/>
-      <c r="I113" s="12"/>
-      <c r="J113" s="12"/>
-      <c r="K113" s="12"/>
-      <c r="L113" s="12"/>
-      <c r="M113" s="12"/>
-      <c r="N113" s="12"/>
-      <c r="O113" s="12"/>
-      <c r="P113" s="12"/>
-      <c r="Q113" s="12"/>
-      <c r="R113" s="12"/>
-      <c r="S113" s="12"/>
-      <c r="T113" s="12"/>
+        <v>432</v>
+      </c>
+      <c r="G113" s="14"/>
+      <c r="H113" s="14"/>
+      <c r="I113" s="14"/>
+      <c r="J113" s="14"/>
+      <c r="K113" s="14"/>
+      <c r="L113" s="14"/>
+      <c r="M113" s="14"/>
+      <c r="N113" s="14"/>
+      <c r="O113" s="14"/>
+      <c r="P113" s="14"/>
+      <c r="Q113" s="14"/>
+      <c r="R113" s="14"/>
+      <c r="S113" s="14"/>
+      <c r="T113" s="14"/>
     </row>
     <row r="114" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A114" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B114" s="8" t="s">
-        <v>256</v>
+        <v>142</v>
+      </c>
+      <c r="B114" s="12" t="s">
+        <v>254</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E114" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F114" s="8" t="s">
-        <v>435</v>
-      </c>
-      <c r="G114" s="12"/>
-      <c r="H114" s="12"/>
-      <c r="I114" s="12"/>
-      <c r="J114" s="12"/>
-      <c r="K114" s="12"/>
-      <c r="L114" s="12"/>
-      <c r="M114" s="12"/>
-      <c r="N114" s="12"/>
-      <c r="O114" s="12"/>
-      <c r="P114" s="12"/>
-      <c r="Q114" s="12"/>
-      <c r="R114" s="12"/>
-      <c r="S114" s="12"/>
-      <c r="T114" s="12"/>
+        <v>433</v>
+      </c>
+      <c r="G114" s="14"/>
+      <c r="H114" s="14"/>
+      <c r="I114" s="14"/>
+      <c r="J114" s="14"/>
+      <c r="K114" s="14"/>
+      <c r="L114" s="14"/>
+      <c r="M114" s="14"/>
+      <c r="N114" s="14"/>
+      <c r="O114" s="14"/>
+      <c r="P114" s="14"/>
+      <c r="Q114" s="14"/>
+      <c r="R114" s="14"/>
+      <c r="S114" s="14"/>
+      <c r="T114" s="14"/>
     </row>
     <row r="115" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A115" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B115" s="8" t="s">
-        <v>257</v>
+        <v>142</v>
+      </c>
+      <c r="B115" s="12" t="s">
+        <v>255</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E115" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F115" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="G115" s="12"/>
-      <c r="H115" s="12"/>
-      <c r="I115" s="12"/>
-      <c r="J115" s="12"/>
-      <c r="K115" s="12"/>
-      <c r="L115" s="12"/>
-      <c r="M115" s="12"/>
-      <c r="N115" s="12"/>
-      <c r="O115" s="12"/>
-      <c r="P115" s="12"/>
-      <c r="Q115" s="12"/>
-      <c r="R115" s="12"/>
-      <c r="S115" s="12"/>
-      <c r="T115" s="12"/>
+        <v>434</v>
+      </c>
+      <c r="G115" s="14"/>
+      <c r="H115" s="14"/>
+      <c r="I115" s="14"/>
+      <c r="J115" s="14"/>
+      <c r="K115" s="14"/>
+      <c r="L115" s="14"/>
+      <c r="M115" s="14"/>
+      <c r="N115" s="14"/>
+      <c r="O115" s="14"/>
+      <c r="P115" s="14"/>
+      <c r="Q115" s="14"/>
+      <c r="R115" s="14"/>
+      <c r="S115" s="14"/>
+      <c r="T115" s="14"/>
     </row>
     <row r="116" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B116" s="8" t="s">
-        <v>258</v>
+        <v>142</v>
+      </c>
+      <c r="B116" s="12" t="s">
+        <v>256</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E116" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F116" s="8" t="s">
-        <v>437</v>
-      </c>
-      <c r="G116" s="12"/>
-      <c r="H116" s="12"/>
-      <c r="I116" s="12"/>
-      <c r="J116" s="12"/>
-      <c r="K116" s="12"/>
-      <c r="L116" s="12"/>
-      <c r="M116" s="12"/>
-      <c r="N116" s="12"/>
-      <c r="O116" s="12"/>
-      <c r="P116" s="12"/>
-      <c r="Q116" s="12"/>
-      <c r="R116" s="12"/>
-      <c r="S116" s="12"/>
-      <c r="T116" s="12"/>
+        <v>435</v>
+      </c>
+      <c r="G116" s="14"/>
+      <c r="H116" s="14"/>
+      <c r="I116" s="14"/>
+      <c r="J116" s="14"/>
+      <c r="K116" s="14"/>
+      <c r="L116" s="14"/>
+      <c r="M116" s="14"/>
+      <c r="N116" s="14"/>
+      <c r="O116" s="14"/>
+      <c r="P116" s="14"/>
+      <c r="Q116" s="14"/>
+      <c r="R116" s="14"/>
+      <c r="S116" s="14"/>
+      <c r="T116" s="14"/>
     </row>
     <row r="117" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B117" s="8" t="s">
-        <v>259</v>
+        <v>142</v>
+      </c>
+      <c r="B117" s="12" t="s">
+        <v>257</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E117" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F117" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="G117" s="12"/>
-      <c r="H117" s="12"/>
-      <c r="I117" s="12"/>
-      <c r="J117" s="12"/>
-      <c r="K117" s="12"/>
-      <c r="L117" s="12"/>
-      <c r="M117" s="12"/>
-      <c r="N117" s="12"/>
-      <c r="O117" s="12"/>
-      <c r="P117" s="12"/>
-      <c r="Q117" s="12"/>
-      <c r="R117" s="12"/>
-      <c r="S117" s="12"/>
-      <c r="T117" s="12"/>
+        <v>436</v>
+      </c>
+      <c r="G117" s="14"/>
+      <c r="H117" s="14"/>
+      <c r="I117" s="14"/>
+      <c r="J117" s="14"/>
+      <c r="K117" s="14"/>
+      <c r="L117" s="14"/>
+      <c r="M117" s="14"/>
+      <c r="N117" s="14"/>
+      <c r="O117" s="14"/>
+      <c r="P117" s="14"/>
+      <c r="Q117" s="14"/>
+      <c r="R117" s="14"/>
+      <c r="S117" s="14"/>
+      <c r="T117" s="14"/>
     </row>
     <row r="118" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B118" s="8" t="s">
-        <v>260</v>
+        <v>142</v>
+      </c>
+      <c r="B118" s="12" t="s">
+        <v>258</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E118" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F118" s="8" t="s">
-        <v>439</v>
-      </c>
-      <c r="G118" s="12"/>
-      <c r="H118" s="12"/>
-      <c r="I118" s="12"/>
-      <c r="J118" s="12"/>
-      <c r="K118" s="12"/>
-      <c r="L118" s="12"/>
-      <c r="M118" s="12"/>
-      <c r="N118" s="12"/>
-      <c r="O118" s="12"/>
-      <c r="P118" s="12"/>
-      <c r="Q118" s="12"/>
-      <c r="R118" s="12"/>
-      <c r="S118" s="12"/>
-      <c r="T118" s="12"/>
+        <v>437</v>
+      </c>
+      <c r="G118" s="14"/>
+      <c r="H118" s="14"/>
+      <c r="I118" s="14"/>
+      <c r="J118" s="14"/>
+      <c r="K118" s="14"/>
+      <c r="L118" s="14"/>
+      <c r="M118" s="14"/>
+      <c r="N118" s="14"/>
+      <c r="O118" s="14"/>
+      <c r="P118" s="14"/>
+      <c r="Q118" s="14"/>
+      <c r="R118" s="14"/>
+      <c r="S118" s="14"/>
+      <c r="T118" s="14"/>
     </row>
     <row r="119" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B119" s="8" t="s">
-        <v>261</v>
+        <v>142</v>
+      </c>
+      <c r="B119" s="12" t="s">
+        <v>259</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E119" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F119" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="G119" s="12"/>
-      <c r="H119" s="12"/>
-      <c r="I119" s="12"/>
-      <c r="J119" s="12"/>
-      <c r="K119" s="12"/>
-      <c r="L119" s="12"/>
-      <c r="M119" s="12"/>
-      <c r="N119" s="12"/>
-      <c r="O119" s="12"/>
-      <c r="P119" s="12"/>
-      <c r="Q119" s="12"/>
-      <c r="R119" s="12"/>
-      <c r="S119" s="12"/>
-      <c r="T119" s="12"/>
+        <v>438</v>
+      </c>
+      <c r="G119" s="14"/>
+      <c r="H119" s="14"/>
+      <c r="I119" s="14"/>
+      <c r="J119" s="14"/>
+      <c r="K119" s="14"/>
+      <c r="L119" s="14"/>
+      <c r="M119" s="14"/>
+      <c r="N119" s="14"/>
+      <c r="O119" s="14"/>
+      <c r="P119" s="14"/>
+      <c r="Q119" s="14"/>
+      <c r="R119" s="14"/>
+      <c r="S119" s="14"/>
+      <c r="T119" s="14"/>
     </row>
     <row r="120" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B120" s="8" t="s">
-        <v>262</v>
+        <v>142</v>
+      </c>
+      <c r="B120" s="12" t="s">
+        <v>260</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E120" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F120" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="G120" s="12"/>
-      <c r="H120" s="12"/>
-      <c r="I120" s="12"/>
-      <c r="J120" s="12"/>
-      <c r="K120" s="12"/>
-      <c r="L120" s="12"/>
-      <c r="M120" s="12"/>
-      <c r="N120" s="12"/>
-      <c r="O120" s="12"/>
-      <c r="P120" s="12"/>
-      <c r="Q120" s="12"/>
-      <c r="R120" s="12"/>
-      <c r="S120" s="12"/>
-      <c r="T120" s="12"/>
+        <v>439</v>
+      </c>
+      <c r="G120" s="14"/>
+      <c r="H120" s="14"/>
+      <c r="I120" s="14"/>
+      <c r="J120" s="14"/>
+      <c r="K120" s="14"/>
+      <c r="L120" s="14"/>
+      <c r="M120" s="14"/>
+      <c r="N120" s="14"/>
+      <c r="O120" s="14"/>
+      <c r="P120" s="14"/>
+      <c r="Q120" s="14"/>
+      <c r="R120" s="14"/>
+      <c r="S120" s="14"/>
+      <c r="T120" s="14"/>
     </row>
     <row r="121" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B121" s="8" t="s">
-        <v>263</v>
+        <v>142</v>
+      </c>
+      <c r="B121" s="12" t="s">
+        <v>261</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E121" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F121" s="8" t="s">
-        <v>442</v>
-      </c>
-      <c r="G121" s="12"/>
-      <c r="H121" s="12"/>
-      <c r="I121" s="12"/>
-      <c r="J121" s="12"/>
-      <c r="K121" s="12"/>
-      <c r="L121" s="12"/>
-      <c r="M121" s="12"/>
-      <c r="N121" s="12"/>
-      <c r="O121" s="12"/>
-      <c r="P121" s="12"/>
-      <c r="Q121" s="12"/>
-      <c r="R121" s="12"/>
-      <c r="S121" s="12"/>
-      <c r="T121" s="12"/>
+        <v>440</v>
+      </c>
+      <c r="G121" s="14"/>
+      <c r="H121" s="14"/>
+      <c r="I121" s="14"/>
+      <c r="J121" s="14"/>
+      <c r="K121" s="14"/>
+      <c r="L121" s="14"/>
+      <c r="M121" s="14"/>
+      <c r="N121" s="14"/>
+      <c r="O121" s="14"/>
+      <c r="P121" s="14"/>
+      <c r="Q121" s="14"/>
+      <c r="R121" s="14"/>
+      <c r="S121" s="14"/>
+      <c r="T121" s="14"/>
     </row>
     <row r="122" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B122" s="8" t="s">
-        <v>264</v>
+        <v>142</v>
+      </c>
+      <c r="B122" s="12" t="s">
+        <v>262</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E122" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F122" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="G122" s="12"/>
-      <c r="H122" s="12"/>
-      <c r="I122" s="12"/>
-      <c r="J122" s="12"/>
-      <c r="K122" s="12"/>
-      <c r="L122" s="12"/>
-      <c r="M122" s="12"/>
-      <c r="N122" s="12"/>
-      <c r="O122" s="12"/>
-      <c r="P122" s="12"/>
-      <c r="Q122" s="12"/>
-      <c r="R122" s="12"/>
-      <c r="S122" s="12"/>
-      <c r="T122" s="12"/>
+        <v>441</v>
+      </c>
+      <c r="G122" s="14"/>
+      <c r="H122" s="14"/>
+      <c r="I122" s="14"/>
+      <c r="J122" s="14"/>
+      <c r="K122" s="14"/>
+      <c r="L122" s="14"/>
+      <c r="M122" s="14"/>
+      <c r="N122" s="14"/>
+      <c r="O122" s="14"/>
+      <c r="P122" s="14"/>
+      <c r="Q122" s="14"/>
+      <c r="R122" s="14"/>
+      <c r="S122" s="14"/>
+      <c r="T122" s="14"/>
     </row>
     <row r="123" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A123" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B123" s="8" t="s">
-        <v>265</v>
+        <v>142</v>
+      </c>
+      <c r="B123" s="12" t="s">
+        <v>263</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E123" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F123" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="G123" s="12"/>
-      <c r="H123" s="12"/>
-      <c r="I123" s="12"/>
-      <c r="J123" s="12"/>
-      <c r="K123" s="12"/>
-      <c r="L123" s="12"/>
-      <c r="M123" s="12"/>
-      <c r="N123" s="12"/>
-      <c r="O123" s="12"/>
-      <c r="P123" s="12"/>
-      <c r="Q123" s="12"/>
-      <c r="R123" s="12"/>
-      <c r="S123" s="12"/>
-      <c r="T123" s="12"/>
+        <v>442</v>
+      </c>
+      <c r="G123" s="14"/>
+      <c r="H123" s="14"/>
+      <c r="I123" s="14"/>
+      <c r="J123" s="14"/>
+      <c r="K123" s="14"/>
+      <c r="L123" s="14"/>
+      <c r="M123" s="14"/>
+      <c r="N123" s="14"/>
+      <c r="O123" s="14"/>
+      <c r="P123" s="14"/>
+      <c r="Q123" s="14"/>
+      <c r="R123" s="14"/>
+      <c r="S123" s="14"/>
+      <c r="T123" s="14"/>
     </row>
     <row r="124" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A124" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B124" s="8" t="s">
-        <v>266</v>
+        <v>142</v>
+      </c>
+      <c r="B124" s="12" t="s">
+        <v>264</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E124" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F124" s="8" t="s">
-        <v>445</v>
-      </c>
-      <c r="G124" s="12"/>
-      <c r="H124" s="12"/>
-      <c r="I124" s="12"/>
-      <c r="J124" s="12"/>
-      <c r="K124" s="12"/>
-      <c r="L124" s="12"/>
-      <c r="M124" s="12"/>
-      <c r="N124" s="12"/>
-      <c r="O124" s="12"/>
-      <c r="P124" s="12"/>
-      <c r="Q124" s="12"/>
-      <c r="R124" s="12"/>
-      <c r="S124" s="12"/>
-      <c r="T124" s="12"/>
+        <v>443</v>
+      </c>
+      <c r="G124" s="14"/>
+      <c r="H124" s="14"/>
+      <c r="I124" s="14"/>
+      <c r="J124" s="14"/>
+      <c r="K124" s="14"/>
+      <c r="L124" s="14"/>
+      <c r="M124" s="14"/>
+      <c r="N124" s="14"/>
+      <c r="O124" s="14"/>
+      <c r="P124" s="14"/>
+      <c r="Q124" s="14"/>
+      <c r="R124" s="14"/>
+      <c r="S124" s="14"/>
+      <c r="T124" s="14"/>
     </row>
     <row r="125" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A125" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B125" s="8" t="s">
-        <v>267</v>
+        <v>142</v>
+      </c>
+      <c r="B125" s="12" t="s">
+        <v>265</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E125" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F125" s="8" t="s">
-        <v>446</v>
-      </c>
-      <c r="G125" s="12"/>
-      <c r="H125" s="12"/>
-      <c r="I125" s="12"/>
-      <c r="J125" s="12"/>
-      <c r="K125" s="12"/>
-      <c r="L125" s="12"/>
-      <c r="M125" s="12"/>
-      <c r="N125" s="12"/>
-      <c r="O125" s="12"/>
-      <c r="P125" s="12"/>
-      <c r="Q125" s="12"/>
-      <c r="R125" s="12"/>
-      <c r="S125" s="12"/>
-      <c r="T125" s="12"/>
+        <v>444</v>
+      </c>
+      <c r="G125" s="14"/>
+      <c r="H125" s="14"/>
+      <c r="I125" s="14"/>
+      <c r="J125" s="14"/>
+      <c r="K125" s="14"/>
+      <c r="L125" s="14"/>
+      <c r="M125" s="14"/>
+      <c r="N125" s="14"/>
+      <c r="O125" s="14"/>
+      <c r="P125" s="14"/>
+      <c r="Q125" s="14"/>
+      <c r="R125" s="14"/>
+      <c r="S125" s="14"/>
+      <c r="T125" s="14"/>
     </row>
     <row r="126" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B126" s="8" t="s">
-        <v>268</v>
+        <v>142</v>
+      </c>
+      <c r="B126" s="12" t="s">
+        <v>266</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D126" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E126" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F126" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="G126" s="12"/>
-      <c r="H126" s="12"/>
-      <c r="I126" s="12"/>
-      <c r="J126" s="12"/>
-      <c r="K126" s="12"/>
-      <c r="L126" s="12"/>
-      <c r="M126" s="12"/>
-      <c r="N126" s="12"/>
-      <c r="O126" s="12"/>
-      <c r="P126" s="12"/>
-      <c r="Q126" s="12"/>
-      <c r="R126" s="12"/>
-      <c r="S126" s="12"/>
-      <c r="T126" s="12"/>
+        <v>445</v>
+      </c>
+      <c r="G126" s="13"/>
+      <c r="H126" s="13"/>
+      <c r="I126" s="13"/>
+      <c r="J126" s="13"/>
+      <c r="K126" s="13"/>
+      <c r="L126" s="13"/>
+      <c r="M126" s="13"/>
+      <c r="N126" s="13"/>
+      <c r="O126" s="13"/>
+      <c r="P126" s="13"/>
+      <c r="Q126" s="13"/>
+      <c r="R126" s="13"/>
+      <c r="S126" s="13"/>
+      <c r="T126" s="13"/>
     </row>
     <row r="127" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B127" s="8" t="s">
-        <v>269</v>
+        <v>142</v>
+      </c>
+      <c r="B127" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E127" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F127" s="8" t="s">
-        <v>448</v>
-      </c>
-      <c r="G127" s="12"/>
-      <c r="H127" s="12"/>
-      <c r="I127" s="12"/>
-      <c r="J127" s="12"/>
-      <c r="K127" s="12"/>
-      <c r="L127" s="12"/>
-      <c r="M127" s="12"/>
-      <c r="N127" s="12"/>
-      <c r="O127" s="12"/>
-      <c r="P127" s="12"/>
-      <c r="Q127" s="12"/>
-      <c r="R127" s="12"/>
-      <c r="S127" s="12"/>
-      <c r="T127" s="12"/>
+        <v>446</v>
+      </c>
+      <c r="G127" s="14"/>
+      <c r="H127" s="14"/>
+      <c r="I127" s="14"/>
+      <c r="J127" s="14"/>
+      <c r="K127" s="14"/>
+      <c r="L127" s="14"/>
+      <c r="M127" s="14"/>
+      <c r="N127" s="14"/>
+      <c r="O127" s="14"/>
+      <c r="P127" s="14"/>
+      <c r="Q127" s="14"/>
+      <c r="R127" s="14"/>
+      <c r="S127" s="14"/>
+      <c r="T127" s="14"/>
     </row>
     <row r="128" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A128" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B128" s="8" t="s">
-        <v>270</v>
+        <v>142</v>
+      </c>
+      <c r="B128" s="12" t="s">
+        <v>268</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D128" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E128" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F128" s="8" t="s">
-        <v>449</v>
-      </c>
-      <c r="G128" s="12"/>
-      <c r="H128" s="12"/>
-      <c r="I128" s="12"/>
-      <c r="J128" s="12"/>
-      <c r="K128" s="12"/>
-      <c r="L128" s="12"/>
-      <c r="M128" s="12"/>
-      <c r="N128" s="12"/>
-      <c r="O128" s="12"/>
-      <c r="P128" s="12"/>
-      <c r="Q128" s="12"/>
-      <c r="R128" s="12"/>
-      <c r="S128" s="12"/>
-      <c r="T128" s="12"/>
+        <v>447</v>
+      </c>
+      <c r="G128" s="14"/>
+      <c r="H128" s="14"/>
+      <c r="I128" s="14"/>
+      <c r="J128" s="14"/>
+      <c r="K128" s="14"/>
+      <c r="L128" s="14"/>
+      <c r="M128" s="14"/>
+      <c r="N128" s="14"/>
+      <c r="O128" s="14"/>
+      <c r="P128" s="14"/>
+      <c r="Q128" s="14"/>
+      <c r="R128" s="14"/>
+      <c r="S128" s="14"/>
+      <c r="T128" s="14"/>
     </row>
     <row r="129" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A129" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B129" s="8" t="s">
-        <v>271</v>
+        <v>142</v>
+      </c>
+      <c r="B129" s="12" t="s">
+        <v>269</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E129" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F129" s="8" t="s">
-        <v>450</v>
-      </c>
-      <c r="G129" s="12"/>
-      <c r="H129" s="12"/>
-      <c r="I129" s="12"/>
-      <c r="J129" s="12"/>
-      <c r="K129" s="12"/>
-      <c r="L129" s="12"/>
-      <c r="M129" s="12"/>
-      <c r="N129" s="12"/>
-      <c r="O129" s="12"/>
-      <c r="P129" s="12"/>
-      <c r="Q129" s="12"/>
-      <c r="R129" s="12"/>
-      <c r="S129" s="12"/>
-      <c r="T129" s="12"/>
+        <v>448</v>
+      </c>
+      <c r="G129" s="14"/>
+      <c r="H129" s="14"/>
+      <c r="I129" s="14"/>
+      <c r="J129" s="14"/>
+      <c r="K129" s="14"/>
+      <c r="L129" s="14"/>
+      <c r="M129" s="14"/>
+      <c r="N129" s="14"/>
+      <c r="O129" s="14"/>
+      <c r="P129" s="14"/>
+      <c r="Q129" s="14"/>
+      <c r="R129" s="14"/>
+      <c r="S129" s="14"/>
+      <c r="T129" s="14"/>
     </row>
     <row r="130" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A130" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B130" s="8" t="s">
-        <v>272</v>
+        <v>142</v>
+      </c>
+      <c r="B130" s="12" t="s">
+        <v>270</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D130" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E130" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F130" s="8" t="s">
-        <v>451</v>
-      </c>
-      <c r="G130" s="12"/>
-      <c r="H130" s="12"/>
-      <c r="I130" s="12"/>
-      <c r="J130" s="12"/>
-      <c r="K130" s="12"/>
-      <c r="L130" s="12"/>
-      <c r="M130" s="12"/>
-      <c r="N130" s="12"/>
-      <c r="O130" s="12"/>
-      <c r="P130" s="12"/>
-      <c r="Q130" s="12"/>
-      <c r="R130" s="12"/>
-      <c r="S130" s="12"/>
-      <c r="T130" s="12"/>
+        <v>449</v>
+      </c>
+      <c r="G130" s="14"/>
+      <c r="H130" s="14"/>
+      <c r="I130" s="14"/>
+      <c r="J130" s="14"/>
+      <c r="K130" s="14"/>
+      <c r="L130" s="14"/>
+      <c r="M130" s="14"/>
+      <c r="N130" s="14"/>
+      <c r="O130" s="14"/>
+      <c r="P130" s="14"/>
+      <c r="Q130" s="14"/>
+      <c r="R130" s="14"/>
+      <c r="S130" s="14"/>
+      <c r="T130" s="14"/>
     </row>
     <row r="131" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A131" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B131" s="8" t="s">
-        <v>273</v>
+        <v>142</v>
+      </c>
+      <c r="B131" s="12" t="s">
+        <v>271</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D131" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E131" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F131" s="8" t="s">
-        <v>452</v>
-      </c>
-      <c r="G131" s="12"/>
-      <c r="H131" s="12"/>
-      <c r="I131" s="12"/>
-      <c r="J131" s="12"/>
-      <c r="K131" s="12"/>
-      <c r="L131" s="12"/>
-      <c r="M131" s="12"/>
-      <c r="N131" s="12"/>
-      <c r="O131" s="12"/>
-      <c r="P131" s="12"/>
-      <c r="Q131" s="12"/>
-      <c r="R131" s="12"/>
-      <c r="S131" s="12"/>
-      <c r="T131" s="12"/>
+        <v>450</v>
+      </c>
+      <c r="G131" s="14"/>
+      <c r="H131" s="14"/>
+      <c r="I131" s="14"/>
+      <c r="J131" s="14"/>
+      <c r="K131" s="14"/>
+      <c r="L131" s="14"/>
+      <c r="M131" s="14"/>
+      <c r="N131" s="14"/>
+      <c r="O131" s="14"/>
+      <c r="P131" s="14"/>
+      <c r="Q131" s="14"/>
+      <c r="R131" s="14"/>
+      <c r="S131" s="14"/>
+      <c r="T131" s="14"/>
     </row>
     <row r="132" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A132" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B132" s="8" t="s">
-        <v>274</v>
+        <v>142</v>
+      </c>
+      <c r="B132" s="12" t="s">
+        <v>272</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D132" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E132" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F132" s="8" t="s">
-        <v>453</v>
-      </c>
-      <c r="G132" s="12"/>
-      <c r="H132" s="12"/>
-      <c r="I132" s="12"/>
-      <c r="J132" s="12"/>
-      <c r="K132" s="12"/>
-      <c r="L132" s="12"/>
-      <c r="M132" s="12"/>
-      <c r="N132" s="12"/>
-      <c r="O132" s="12"/>
-      <c r="P132" s="12"/>
-      <c r="Q132" s="12"/>
-      <c r="R132" s="12"/>
-      <c r="S132" s="12"/>
-      <c r="T132" s="12"/>
+        <v>451</v>
+      </c>
+      <c r="G132" s="14"/>
+      <c r="H132" s="14"/>
+      <c r="I132" s="14"/>
+      <c r="J132" s="14"/>
+      <c r="K132" s="14"/>
+      <c r="L132" s="14"/>
+      <c r="M132" s="14"/>
+      <c r="N132" s="14"/>
+      <c r="O132" s="14"/>
+      <c r="P132" s="14"/>
+      <c r="Q132" s="14"/>
+      <c r="R132" s="14"/>
+      <c r="S132" s="14"/>
+      <c r="T132" s="14"/>
     </row>
     <row r="133" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A133" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B133" s="8" t="s">
-        <v>275</v>
+        <v>142</v>
+      </c>
+      <c r="B133" s="12" t="s">
+        <v>273</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D133" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E133" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F133" s="8" t="s">
-        <v>454</v>
-      </c>
-      <c r="G133" s="12"/>
-      <c r="H133" s="12"/>
-      <c r="I133" s="12"/>
-      <c r="J133" s="12"/>
-      <c r="K133" s="12"/>
-      <c r="L133" s="12"/>
-      <c r="M133" s="12"/>
-      <c r="N133" s="12"/>
-      <c r="O133" s="12"/>
-      <c r="P133" s="12"/>
-      <c r="Q133" s="12"/>
-      <c r="R133" s="12"/>
-      <c r="S133" s="12"/>
-      <c r="T133" s="12"/>
+        <v>452</v>
+      </c>
+      <c r="G133" s="14"/>
+      <c r="H133" s="14"/>
+      <c r="I133" s="14"/>
+      <c r="J133" s="14"/>
+      <c r="K133" s="14"/>
+      <c r="L133" s="14"/>
+      <c r="M133" s="14"/>
+      <c r="N133" s="14"/>
+      <c r="O133" s="14"/>
+      <c r="P133" s="14"/>
+      <c r="Q133" s="14"/>
+      <c r="R133" s="14"/>
+      <c r="S133" s="14"/>
+      <c r="T133" s="14"/>
     </row>
     <row r="134" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A134" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B134" s="8" t="s">
-        <v>276</v>
+        <v>142</v>
+      </c>
+      <c r="B134" s="12" t="s">
+        <v>274</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D134" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E134" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F134" s="8" t="s">
-        <v>455</v>
-      </c>
-      <c r="G134" s="12"/>
-      <c r="H134" s="12"/>
-      <c r="I134" s="12"/>
-      <c r="J134" s="12"/>
-      <c r="K134" s="12"/>
-      <c r="L134" s="12"/>
-      <c r="M134" s="12"/>
-      <c r="N134" s="12"/>
-      <c r="O134" s="12"/>
-      <c r="P134" s="12"/>
-      <c r="Q134" s="12"/>
-      <c r="R134" s="12"/>
-      <c r="S134" s="12"/>
-      <c r="T134" s="12"/>
+        <v>453</v>
+      </c>
+      <c r="G134" s="14"/>
+      <c r="H134" s="14"/>
+      <c r="I134" s="14"/>
+      <c r="J134" s="14"/>
+      <c r="K134" s="14"/>
+      <c r="L134" s="14"/>
+      <c r="M134" s="14"/>
+      <c r="N134" s="14"/>
+      <c r="O134" s="14"/>
+      <c r="P134" s="14"/>
+      <c r="Q134" s="14"/>
+      <c r="R134" s="14"/>
+      <c r="S134" s="14"/>
+      <c r="T134" s="14"/>
     </row>
     <row r="135" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A135" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B135" s="8" t="s">
-        <v>277</v>
+        <v>142</v>
+      </c>
+      <c r="B135" s="12" t="s">
+        <v>275</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D135" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E135" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F135" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="G135" s="12"/>
-      <c r="H135" s="12"/>
-      <c r="I135" s="12"/>
-      <c r="J135" s="12"/>
-      <c r="K135" s="12"/>
-      <c r="L135" s="12"/>
-      <c r="M135" s="12"/>
-      <c r="N135" s="12"/>
-      <c r="O135" s="12"/>
-      <c r="P135" s="12"/>
-      <c r="Q135" s="12"/>
-      <c r="R135" s="12"/>
-      <c r="S135" s="12"/>
-      <c r="T135" s="12"/>
+        <v>454</v>
+      </c>
+      <c r="G135" s="14"/>
+      <c r="H135" s="14"/>
+      <c r="I135" s="14"/>
+      <c r="J135" s="14"/>
+      <c r="K135" s="14"/>
+      <c r="L135" s="14"/>
+      <c r="M135" s="14"/>
+      <c r="N135" s="14"/>
+      <c r="O135" s="14"/>
+      <c r="P135" s="14"/>
+      <c r="Q135" s="14"/>
+      <c r="R135" s="14"/>
+      <c r="S135" s="14"/>
+      <c r="T135" s="14"/>
     </row>
     <row r="136" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A136" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B136" s="8" t="s">
-        <v>278</v>
+        <v>142</v>
+      </c>
+      <c r="B136" s="12" t="s">
+        <v>276</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D136" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E136" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F136" s="8" t="s">
-        <v>457</v>
-      </c>
-      <c r="G136" s="12"/>
-      <c r="H136" s="12"/>
-      <c r="I136" s="12"/>
-      <c r="J136" s="12"/>
-      <c r="K136" s="12"/>
-      <c r="L136" s="12"/>
-      <c r="M136" s="12"/>
-      <c r="N136" s="12"/>
-      <c r="O136" s="12"/>
-      <c r="P136" s="12"/>
-      <c r="Q136" s="12"/>
-      <c r="R136" s="12"/>
-      <c r="S136" s="12"/>
-      <c r="T136" s="12"/>
+        <v>455</v>
+      </c>
+      <c r="G136" s="14"/>
+      <c r="H136" s="14"/>
+      <c r="I136" s="14"/>
+      <c r="J136" s="14"/>
+      <c r="K136" s="14"/>
+      <c r="L136" s="14"/>
+      <c r="M136" s="14"/>
+      <c r="N136" s="14"/>
+      <c r="O136" s="14"/>
+      <c r="P136" s="14"/>
+      <c r="Q136" s="14"/>
+      <c r="R136" s="14"/>
+      <c r="S136" s="14"/>
+      <c r="T136" s="14"/>
     </row>
     <row r="137" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A137" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B137" s="8" t="s">
-        <v>279</v>
+        <v>142</v>
+      </c>
+      <c r="B137" s="12" t="s">
+        <v>277</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D137" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E137" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F137" s="8" t="s">
-        <v>458</v>
-      </c>
-      <c r="G137" s="12"/>
-      <c r="H137" s="12"/>
-      <c r="I137" s="12"/>
-      <c r="J137" s="12"/>
-      <c r="K137" s="12"/>
-      <c r="L137" s="12"/>
-      <c r="M137" s="12"/>
-      <c r="N137" s="12"/>
-      <c r="O137" s="12"/>
-      <c r="P137" s="12"/>
-      <c r="Q137" s="12"/>
-      <c r="R137" s="12"/>
-      <c r="S137" s="12"/>
-      <c r="T137" s="12"/>
+        <v>456</v>
+      </c>
+      <c r="G137" s="14"/>
+      <c r="H137" s="14"/>
+      <c r="I137" s="14"/>
+      <c r="J137" s="14"/>
+      <c r="K137" s="14"/>
+      <c r="L137" s="14"/>
+      <c r="M137" s="14"/>
+      <c r="N137" s="14"/>
+      <c r="O137" s="14"/>
+      <c r="P137" s="14"/>
+      <c r="Q137" s="14"/>
+      <c r="R137" s="14"/>
+      <c r="S137" s="14"/>
+      <c r="T137" s="14"/>
     </row>
     <row r="138" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A138" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B138" s="8" t="s">
-        <v>280</v>
+        <v>142</v>
+      </c>
+      <c r="B138" s="12" t="s">
+        <v>278</v>
       </c>
       <c r="C138" s="9" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D138" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E138" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F138" s="8" t="s">
-        <v>459</v>
-      </c>
-      <c r="G138" s="12"/>
-      <c r="H138" s="12"/>
-      <c r="I138" s="12"/>
-      <c r="J138" s="12"/>
-      <c r="K138" s="12"/>
-      <c r="L138" s="12"/>
-      <c r="M138" s="12"/>
-      <c r="N138" s="12"/>
-      <c r="O138" s="12"/>
-      <c r="P138" s="12"/>
-      <c r="Q138" s="12"/>
-      <c r="R138" s="12"/>
-      <c r="S138" s="12"/>
-      <c r="T138" s="12"/>
+        <v>457</v>
+      </c>
+      <c r="G138" s="14"/>
+      <c r="H138" s="14"/>
+      <c r="I138" s="14"/>
+      <c r="J138" s="14"/>
+      <c r="K138" s="14"/>
+      <c r="L138" s="14"/>
+      <c r="M138" s="14"/>
+      <c r="N138" s="14"/>
+      <c r="O138" s="14"/>
+      <c r="P138" s="14"/>
+      <c r="Q138" s="14"/>
+      <c r="R138" s="14"/>
+      <c r="S138" s="14"/>
+      <c r="T138" s="14"/>
     </row>
     <row r="139" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A139" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B139" s="8" t="s">
-        <v>281</v>
+        <v>142</v>
+      </c>
+      <c r="B139" s="12" t="s">
+        <v>279</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D139" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E139" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F139" s="8" t="s">
-        <v>460</v>
-      </c>
-      <c r="G139" s="12"/>
-      <c r="H139" s="12"/>
-      <c r="I139" s="12"/>
-      <c r="J139" s="12"/>
-      <c r="K139" s="12"/>
-      <c r="L139" s="12"/>
-      <c r="M139" s="12"/>
-      <c r="N139" s="12"/>
-      <c r="O139" s="12"/>
-      <c r="P139" s="12"/>
-      <c r="Q139" s="12"/>
-      <c r="R139" s="12"/>
-      <c r="S139" s="12"/>
-      <c r="T139" s="12"/>
+        <v>458</v>
+      </c>
+      <c r="G139" s="14"/>
+      <c r="H139" s="14"/>
+      <c r="I139" s="14"/>
+      <c r="J139" s="14"/>
+      <c r="K139" s="14"/>
+      <c r="L139" s="14"/>
+      <c r="M139" s="14"/>
+      <c r="N139" s="14"/>
+      <c r="O139" s="14"/>
+      <c r="P139" s="14"/>
+      <c r="Q139" s="14"/>
+      <c r="R139" s="14"/>
+      <c r="S139" s="14"/>
+      <c r="T139" s="14"/>
     </row>
     <row r="140" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A140" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B140" s="8" t="s">
-        <v>282</v>
+        <v>142</v>
+      </c>
+      <c r="B140" s="12" t="s">
+        <v>280</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D140" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E140" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F140" s="8" t="s">
-        <v>461</v>
-      </c>
-      <c r="G140" s="12"/>
-      <c r="H140" s="12"/>
-      <c r="I140" s="12"/>
-      <c r="J140" s="12"/>
-      <c r="K140" s="12"/>
-      <c r="L140" s="12"/>
-      <c r="M140" s="12"/>
-      <c r="N140" s="12"/>
-      <c r="O140" s="12"/>
-      <c r="P140" s="12"/>
-      <c r="Q140" s="12"/>
-      <c r="R140" s="12"/>
-      <c r="S140" s="12"/>
-      <c r="T140" s="12"/>
+        <v>459</v>
+      </c>
+      <c r="G140" s="14"/>
+      <c r="H140" s="14"/>
+      <c r="I140" s="14"/>
+      <c r="J140" s="14"/>
+      <c r="K140" s="14"/>
+      <c r="L140" s="14"/>
+      <c r="M140" s="14"/>
+      <c r="N140" s="14"/>
+      <c r="O140" s="14"/>
+      <c r="P140" s="14"/>
+      <c r="Q140" s="14"/>
+      <c r="R140" s="14"/>
+      <c r="S140" s="14"/>
+      <c r="T140" s="14"/>
     </row>
     <row r="141" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A141" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B141" s="8" t="s">
-        <v>283</v>
+        <v>142</v>
+      </c>
+      <c r="B141" s="12" t="s">
+        <v>281</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D141" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E141" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F141" s="8" t="s">
-        <v>462</v>
-      </c>
-      <c r="G141" s="12"/>
-      <c r="H141" s="12"/>
-      <c r="I141" s="12"/>
-      <c r="J141" s="12"/>
-      <c r="K141" s="12"/>
-      <c r="L141" s="12"/>
-      <c r="M141" s="12"/>
-      <c r="N141" s="12"/>
-      <c r="O141" s="12"/>
-      <c r="P141" s="12"/>
-      <c r="Q141" s="12"/>
-      <c r="R141" s="12"/>
-      <c r="S141" s="12"/>
-      <c r="T141" s="12"/>
+        <v>460</v>
+      </c>
+      <c r="G141" s="14"/>
+      <c r="H141" s="14"/>
+      <c r="I141" s="14"/>
+      <c r="J141" s="14"/>
+      <c r="K141" s="14"/>
+      <c r="L141" s="14"/>
+      <c r="M141" s="14"/>
+      <c r="N141" s="14"/>
+      <c r="O141" s="14"/>
+      <c r="P141" s="14"/>
+      <c r="Q141" s="14"/>
+      <c r="R141" s="14"/>
+      <c r="S141" s="14"/>
+      <c r="T141" s="14"/>
     </row>
     <row r="142" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A142" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B142" s="8" t="s">
-        <v>284</v>
+        <v>142</v>
+      </c>
+      <c r="B142" s="12" t="s">
+        <v>282</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D142" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E142" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F142" s="8" t="s">
-        <v>463</v>
-      </c>
-      <c r="G142" s="12"/>
-      <c r="H142" s="12"/>
-      <c r="I142" s="12"/>
-      <c r="J142" s="12"/>
-      <c r="K142" s="12"/>
-      <c r="L142" s="12"/>
-      <c r="M142" s="12"/>
-      <c r="N142" s="12"/>
-      <c r="O142" s="12"/>
-      <c r="P142" s="12"/>
-      <c r="Q142" s="12"/>
-      <c r="R142" s="12"/>
-      <c r="S142" s="12"/>
-      <c r="T142" s="12"/>
+        <v>461</v>
+      </c>
+      <c r="G142" s="14"/>
+      <c r="H142" s="14"/>
+      <c r="I142" s="14"/>
+      <c r="J142" s="14"/>
+      <c r="K142" s="14"/>
+      <c r="L142" s="14"/>
+      <c r="M142" s="14"/>
+      <c r="N142" s="14"/>
+      <c r="O142" s="14"/>
+      <c r="P142" s="14"/>
+      <c r="Q142" s="14"/>
+      <c r="R142" s="14"/>
+      <c r="S142" s="14"/>
+      <c r="T142" s="14"/>
     </row>
     <row r="143" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A143" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B143" s="8" t="s">
-        <v>285</v>
+        <v>142</v>
+      </c>
+      <c r="B143" s="12" t="s">
+        <v>283</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D143" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E143" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F143" s="8" t="s">
-        <v>464</v>
-      </c>
-      <c r="G143" s="12"/>
-      <c r="H143" s="12"/>
-      <c r="I143" s="12"/>
-      <c r="J143" s="12"/>
-      <c r="K143" s="12"/>
-      <c r="L143" s="12"/>
-      <c r="M143" s="12"/>
-      <c r="N143" s="12"/>
-      <c r="O143" s="12"/>
-      <c r="P143" s="12"/>
-      <c r="Q143" s="12"/>
-      <c r="R143" s="12"/>
-      <c r="S143" s="12"/>
-      <c r="T143" s="12"/>
+        <v>462</v>
+      </c>
+      <c r="G143" s="14"/>
+      <c r="H143" s="14"/>
+      <c r="I143" s="14"/>
+      <c r="J143" s="14"/>
+      <c r="K143" s="14"/>
+      <c r="L143" s="14"/>
+      <c r="M143" s="14"/>
+      <c r="N143" s="14"/>
+      <c r="O143" s="14"/>
+      <c r="P143" s="14"/>
+      <c r="Q143" s="14"/>
+      <c r="R143" s="14"/>
+      <c r="S143" s="14"/>
+      <c r="T143" s="14"/>
     </row>
     <row r="144" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A144" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B144" s="8" t="s">
-        <v>286</v>
+        <v>142</v>
+      </c>
+      <c r="B144" s="12" t="s">
+        <v>284</v>
       </c>
       <c r="C144" s="9" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D144" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E144" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F144" s="8" t="s">
-        <v>465</v>
-      </c>
-      <c r="G144" s="12"/>
-      <c r="H144" s="12"/>
-      <c r="I144" s="12"/>
-      <c r="J144" s="12"/>
-      <c r="K144" s="12"/>
-      <c r="L144" s="12"/>
-      <c r="M144" s="12"/>
-      <c r="N144" s="12"/>
-      <c r="O144" s="12"/>
-      <c r="P144" s="12"/>
-      <c r="Q144" s="12"/>
-      <c r="R144" s="12"/>
-      <c r="S144" s="12"/>
-      <c r="T144" s="12"/>
+        <v>463</v>
+      </c>
+      <c r="G144" s="14"/>
+      <c r="H144" s="14"/>
+      <c r="I144" s="14"/>
+      <c r="J144" s="14"/>
+      <c r="K144" s="14"/>
+      <c r="L144" s="14"/>
+      <c r="M144" s="14"/>
+      <c r="N144" s="14"/>
+      <c r="O144" s="14"/>
+      <c r="P144" s="14"/>
+      <c r="Q144" s="14"/>
+      <c r="R144" s="14"/>
+      <c r="S144" s="14"/>
+      <c r="T144" s="14"/>
     </row>
     <row r="145" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A145" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B145" s="8" t="s">
-        <v>287</v>
+        <v>142</v>
+      </c>
+      <c r="B145" s="12" t="s">
+        <v>285</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D145" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E145" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F145" s="8" t="s">
-        <v>466</v>
-      </c>
-      <c r="G145" s="12"/>
-      <c r="H145" s="12"/>
-      <c r="I145" s="12"/>
-      <c r="J145" s="12"/>
-      <c r="K145" s="12"/>
-      <c r="L145" s="12"/>
-      <c r="M145" s="12"/>
-      <c r="N145" s="12"/>
-      <c r="O145" s="12"/>
-      <c r="P145" s="12"/>
-      <c r="Q145" s="12"/>
-      <c r="R145" s="12"/>
-      <c r="S145" s="12"/>
-      <c r="T145" s="12"/>
+        <v>464</v>
+      </c>
+      <c r="G145" s="13"/>
+      <c r="H145" s="13"/>
+      <c r="I145" s="13"/>
+      <c r="J145" s="13"/>
+      <c r="K145" s="13"/>
+      <c r="L145" s="13"/>
+      <c r="M145" s="13"/>
+      <c r="N145" s="13"/>
+      <c r="O145" s="13"/>
+      <c r="P145" s="13"/>
+      <c r="Q145" s="13"/>
+      <c r="R145" s="13"/>
+      <c r="S145" s="13"/>
+      <c r="T145" s="13"/>
     </row>
     <row r="146" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A146" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B146" s="8" t="s">
-        <v>288</v>
+        <v>142</v>
+      </c>
+      <c r="B146" s="12" t="s">
+        <v>286</v>
       </c>
       <c r="C146" s="9" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D146" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E146" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F146" s="8" t="s">
-        <v>467</v>
-      </c>
-      <c r="G146" s="12"/>
-      <c r="H146" s="12"/>
-      <c r="I146" s="12"/>
-      <c r="J146" s="12"/>
-      <c r="K146" s="12"/>
-      <c r="L146" s="12"/>
-      <c r="M146" s="12"/>
-      <c r="N146" s="12"/>
-      <c r="O146" s="12"/>
-      <c r="P146" s="12"/>
-      <c r="Q146" s="12"/>
-      <c r="R146" s="12"/>
-      <c r="S146" s="12"/>
-      <c r="T146" s="12"/>
+        <v>465</v>
+      </c>
+      <c r="G146" s="14"/>
+      <c r="H146" s="14"/>
+      <c r="I146" s="14"/>
+      <c r="J146" s="14"/>
+      <c r="K146" s="14"/>
+      <c r="L146" s="14"/>
+      <c r="M146" s="14"/>
+      <c r="N146" s="14"/>
+      <c r="O146" s="14"/>
+      <c r="P146" s="14"/>
+      <c r="Q146" s="14"/>
+      <c r="R146" s="14"/>
+      <c r="S146" s="14"/>
+      <c r="T146" s="14"/>
     </row>
     <row r="147" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A147" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B147" s="8" t="s">
-        <v>289</v>
+        <v>142</v>
+      </c>
+      <c r="B147" s="12" t="s">
+        <v>287</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D147" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E147" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F147" s="8" t="s">
-        <v>468</v>
-      </c>
-      <c r="G147" s="12"/>
-      <c r="H147" s="12"/>
-      <c r="I147" s="12"/>
-      <c r="J147" s="12"/>
-      <c r="K147" s="12"/>
-      <c r="L147" s="12"/>
-      <c r="M147" s="12"/>
-      <c r="N147" s="12"/>
-      <c r="O147" s="12"/>
-      <c r="P147" s="12"/>
-      <c r="Q147" s="12"/>
-      <c r="R147" s="12"/>
-      <c r="S147" s="12"/>
-      <c r="T147" s="12"/>
+        <v>466</v>
+      </c>
+      <c r="G147" s="14"/>
+      <c r="H147" s="14"/>
+      <c r="I147" s="14"/>
+      <c r="J147" s="14"/>
+      <c r="K147" s="14"/>
+      <c r="L147" s="14"/>
+      <c r="M147" s="14"/>
+      <c r="N147" s="14"/>
+      <c r="O147" s="14"/>
+      <c r="P147" s="14"/>
+      <c r="Q147" s="14"/>
+      <c r="R147" s="14"/>
+      <c r="S147" s="14"/>
+      <c r="T147" s="14"/>
     </row>
     <row r="148" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A148" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B148" s="8" t="s">
-        <v>290</v>
+        <v>142</v>
+      </c>
+      <c r="B148" s="12" t="s">
+        <v>288</v>
       </c>
       <c r="C148" s="9" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D148" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E148" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F148" s="8" t="s">
-        <v>469</v>
-      </c>
-      <c r="G148" s="12"/>
-      <c r="H148" s="12"/>
-      <c r="I148" s="12"/>
-      <c r="J148" s="12"/>
-      <c r="K148" s="12"/>
-      <c r="L148" s="12"/>
-      <c r="M148" s="12"/>
-      <c r="N148" s="12"/>
-      <c r="O148" s="12"/>
-      <c r="P148" s="12"/>
-      <c r="Q148" s="12"/>
-      <c r="R148" s="12"/>
-      <c r="S148" s="12"/>
-      <c r="T148" s="12"/>
+        <v>467</v>
+      </c>
+      <c r="G148" s="14"/>
+      <c r="H148" s="14"/>
+      <c r="I148" s="14"/>
+      <c r="J148" s="14"/>
+      <c r="K148" s="14"/>
+      <c r="L148" s="14"/>
+      <c r="M148" s="14"/>
+      <c r="N148" s="14"/>
+      <c r="O148" s="14"/>
+      <c r="P148" s="14"/>
+      <c r="Q148" s="14"/>
+      <c r="R148" s="14"/>
+      <c r="S148" s="14"/>
+      <c r="T148" s="14"/>
     </row>
     <row r="149" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A149" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B149" s="8" t="s">
-        <v>291</v>
+        <v>142</v>
+      </c>
+      <c r="B149" s="12" t="s">
+        <v>289</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D149" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E149" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F149" s="8" t="s">
-        <v>470</v>
-      </c>
-      <c r="G149" s="12"/>
-      <c r="H149" s="12"/>
-      <c r="I149" s="12"/>
-      <c r="J149" s="12"/>
-      <c r="K149" s="12"/>
-      <c r="L149" s="12"/>
-      <c r="M149" s="12"/>
-      <c r="N149" s="12"/>
-      <c r="O149" s="12"/>
-      <c r="P149" s="12"/>
-      <c r="Q149" s="12"/>
-      <c r="R149" s="12"/>
-      <c r="S149" s="12"/>
-      <c r="T149" s="12"/>
+        <v>468</v>
+      </c>
+      <c r="G149" s="14"/>
+      <c r="H149" s="14"/>
+      <c r="I149" s="14"/>
+      <c r="J149" s="14"/>
+      <c r="K149" s="14"/>
+      <c r="L149" s="14"/>
+      <c r="M149" s="14"/>
+      <c r="N149" s="14"/>
+      <c r="O149" s="14"/>
+      <c r="P149" s="14"/>
+      <c r="Q149" s="14"/>
+      <c r="R149" s="14"/>
+      <c r="S149" s="14"/>
+      <c r="T149" s="14"/>
     </row>
     <row r="150" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A150" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B150" s="8" t="s">
-        <v>292</v>
+        <v>142</v>
+      </c>
+      <c r="B150" s="12" t="s">
+        <v>290</v>
       </c>
       <c r="C150" s="9" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D150" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E150" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F150" s="8" t="s">
-        <v>471</v>
-      </c>
-      <c r="G150" s="12"/>
-      <c r="H150" s="12"/>
-      <c r="I150" s="12"/>
-      <c r="J150" s="12"/>
-      <c r="K150" s="12"/>
-      <c r="L150" s="12"/>
-      <c r="M150" s="12"/>
-      <c r="N150" s="12"/>
-      <c r="O150" s="12"/>
-      <c r="P150" s="12"/>
-      <c r="Q150" s="12"/>
-      <c r="R150" s="12"/>
-      <c r="S150" s="12"/>
-      <c r="T150" s="12"/>
+        <v>469</v>
+      </c>
+      <c r="G150" s="14"/>
+      <c r="H150" s="14"/>
+      <c r="I150" s="14"/>
+      <c r="J150" s="14"/>
+      <c r="K150" s="14"/>
+      <c r="L150" s="14"/>
+      <c r="M150" s="14"/>
+      <c r="N150" s="14"/>
+      <c r="O150" s="14"/>
+      <c r="P150" s="14"/>
+      <c r="Q150" s="14"/>
+      <c r="R150" s="14"/>
+      <c r="S150" s="14"/>
+      <c r="T150" s="14"/>
     </row>
     <row r="151" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A151" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B151" s="8" t="s">
-        <v>293</v>
+        <v>142</v>
+      </c>
+      <c r="B151" s="12" t="s">
+        <v>291</v>
       </c>
       <c r="C151" s="9" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D151" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E151" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F151" s="8" t="s">
-        <v>472</v>
-      </c>
-      <c r="G151" s="12"/>
-      <c r="H151" s="12"/>
-      <c r="I151" s="12"/>
-      <c r="J151" s="12"/>
-      <c r="K151" s="12"/>
-      <c r="L151" s="12"/>
-      <c r="M151" s="12"/>
-      <c r="N151" s="12"/>
-      <c r="O151" s="12"/>
-      <c r="P151" s="12"/>
-      <c r="Q151" s="12"/>
-      <c r="R151" s="12"/>
-      <c r="S151" s="12"/>
-      <c r="T151" s="12"/>
+        <v>470</v>
+      </c>
+      <c r="G151" s="14"/>
+      <c r="H151" s="14"/>
+      <c r="I151" s="14"/>
+      <c r="J151" s="14"/>
+      <c r="K151" s="14"/>
+      <c r="L151" s="14"/>
+      <c r="M151" s="14"/>
+      <c r="N151" s="14"/>
+      <c r="O151" s="14"/>
+      <c r="P151" s="14"/>
+      <c r="Q151" s="14"/>
+      <c r="R151" s="14"/>
+      <c r="S151" s="14"/>
+      <c r="T151" s="14"/>
     </row>
     <row r="152" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A152" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B152" s="8" t="s">
-        <v>294</v>
+        <v>142</v>
+      </c>
+      <c r="B152" s="12" t="s">
+        <v>292</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D152" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E152" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F152" s="8" t="s">
-        <v>473</v>
-      </c>
-      <c r="G152" s="12"/>
-      <c r="H152" s="12"/>
-      <c r="I152" s="12"/>
-      <c r="J152" s="12"/>
-      <c r="K152" s="12"/>
-      <c r="L152" s="12"/>
-      <c r="M152" s="12"/>
-      <c r="N152" s="12"/>
-      <c r="O152" s="12"/>
-      <c r="P152" s="12"/>
-      <c r="Q152" s="12"/>
-      <c r="R152" s="12"/>
-      <c r="S152" s="12"/>
-      <c r="T152" s="12"/>
+        <v>471</v>
+      </c>
+      <c r="G152" s="14"/>
+      <c r="H152" s="14"/>
+      <c r="I152" s="14"/>
+      <c r="J152" s="14"/>
+      <c r="K152" s="14"/>
+      <c r="L152" s="14"/>
+      <c r="M152" s="14"/>
+      <c r="N152" s="14"/>
+      <c r="O152" s="14"/>
+      <c r="P152" s="14"/>
+      <c r="Q152" s="14"/>
+      <c r="R152" s="14"/>
+      <c r="S152" s="14"/>
+      <c r="T152" s="14"/>
     </row>
     <row r="153" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A153" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B153" s="8" t="s">
-        <v>295</v>
+        <v>142</v>
+      </c>
+      <c r="B153" s="12" t="s">
+        <v>293</v>
       </c>
       <c r="C153" s="9" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D153" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E153" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F153" s="8" t="s">
-        <v>474</v>
-      </c>
-      <c r="G153" s="12"/>
-      <c r="H153" s="12"/>
-      <c r="I153" s="12"/>
-      <c r="J153" s="12"/>
-      <c r="K153" s="12"/>
-      <c r="L153" s="12"/>
-      <c r="M153" s="12"/>
-      <c r="N153" s="12"/>
-      <c r="O153" s="12"/>
-      <c r="P153" s="12"/>
-      <c r="Q153" s="12"/>
-      <c r="R153" s="12"/>
-      <c r="S153" s="12"/>
-      <c r="T153" s="12"/>
+        <v>472</v>
+      </c>
+      <c r="G153" s="14"/>
+      <c r="H153" s="14"/>
+      <c r="I153" s="14"/>
+      <c r="J153" s="14"/>
+      <c r="K153" s="14"/>
+      <c r="L153" s="14"/>
+      <c r="M153" s="14"/>
+      <c r="N153" s="14"/>
+      <c r="O153" s="14"/>
+      <c r="P153" s="14"/>
+      <c r="Q153" s="14"/>
+      <c r="R153" s="14"/>
+      <c r="S153" s="14"/>
+      <c r="T153" s="14"/>
     </row>
     <row r="154" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A154" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B154" s="8" t="s">
-        <v>296</v>
+        <v>142</v>
+      </c>
+      <c r="B154" s="12" t="s">
+        <v>294</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D154" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E154" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F154" s="8" t="s">
-        <v>475</v>
-      </c>
-      <c r="G154" s="12"/>
-      <c r="H154" s="12"/>
-      <c r="I154" s="12"/>
-      <c r="J154" s="12"/>
-      <c r="K154" s="12"/>
-      <c r="L154" s="12"/>
-      <c r="M154" s="12"/>
-      <c r="N154" s="12"/>
-      <c r="O154" s="12"/>
-      <c r="P154" s="12"/>
-      <c r="Q154" s="12"/>
-      <c r="R154" s="12"/>
-      <c r="S154" s="12"/>
-      <c r="T154" s="12"/>
+        <v>473</v>
+      </c>
+      <c r="G154" s="14"/>
+      <c r="H154" s="14"/>
+      <c r="I154" s="14"/>
+      <c r="J154" s="14"/>
+      <c r="K154" s="14"/>
+      <c r="L154" s="14"/>
+      <c r="M154" s="14"/>
+      <c r="N154" s="14"/>
+      <c r="O154" s="14"/>
+      <c r="P154" s="14"/>
+      <c r="Q154" s="14"/>
+      <c r="R154" s="14"/>
+      <c r="S154" s="14"/>
+      <c r="T154" s="14"/>
     </row>
     <row r="155" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A155" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B155" s="8" t="s">
-        <v>297</v>
+        <v>142</v>
+      </c>
+      <c r="B155" s="12" t="s">
+        <v>295</v>
       </c>
       <c r="C155" s="9" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D155" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E155" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F155" s="8" t="s">
-        <v>476</v>
-      </c>
-      <c r="G155" s="12"/>
-      <c r="H155" s="12"/>
-      <c r="I155" s="12"/>
-      <c r="J155" s="12"/>
-      <c r="K155" s="12"/>
-      <c r="L155" s="12"/>
-      <c r="M155" s="12"/>
-      <c r="N155" s="12"/>
-      <c r="O155" s="12"/>
-      <c r="P155" s="12"/>
-      <c r="Q155" s="12"/>
-      <c r="R155" s="12"/>
-      <c r="S155" s="12"/>
-      <c r="T155" s="12"/>
+        <v>474</v>
+      </c>
+      <c r="G155" s="14"/>
+      <c r="H155" s="14"/>
+      <c r="I155" s="14"/>
+      <c r="J155" s="14"/>
+      <c r="K155" s="14"/>
+      <c r="L155" s="14"/>
+      <c r="M155" s="14"/>
+      <c r="N155" s="14"/>
+      <c r="O155" s="14"/>
+      <c r="P155" s="14"/>
+      <c r="Q155" s="14"/>
+      <c r="R155" s="14"/>
+      <c r="S155" s="14"/>
+      <c r="T155" s="14"/>
     </row>
     <row r="156" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A156" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B156" s="8" t="s">
-        <v>298</v>
+        <v>142</v>
+      </c>
+      <c r="B156" s="12" t="s">
+        <v>296</v>
       </c>
       <c r="C156" s="9" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D156" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E156" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F156" s="8" t="s">
-        <v>477</v>
-      </c>
-      <c r="G156" s="12"/>
-      <c r="H156" s="12"/>
-      <c r="I156" s="12"/>
-      <c r="J156" s="12"/>
-      <c r="K156" s="12"/>
-      <c r="L156" s="12"/>
-      <c r="M156" s="12"/>
-      <c r="N156" s="12"/>
-      <c r="O156" s="12"/>
-      <c r="P156" s="12"/>
-      <c r="Q156" s="12"/>
-      <c r="R156" s="12"/>
-      <c r="S156" s="12"/>
-      <c r="T156" s="12"/>
+        <v>475</v>
+      </c>
+      <c r="G156" s="14"/>
+      <c r="H156" s="14"/>
+      <c r="I156" s="14"/>
+      <c r="J156" s="14"/>
+      <c r="K156" s="14"/>
+      <c r="L156" s="14"/>
+      <c r="M156" s="14"/>
+      <c r="N156" s="14"/>
+      <c r="O156" s="14"/>
+      <c r="P156" s="14"/>
+      <c r="Q156" s="14"/>
+      <c r="R156" s="14"/>
+      <c r="S156" s="14"/>
+      <c r="T156" s="14"/>
     </row>
     <row r="157" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A157" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B157" s="8" t="s">
-        <v>480</v>
+        <v>142</v>
+      </c>
+      <c r="B157" s="12" t="s">
+        <v>477</v>
       </c>
       <c r="C157" s="9" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D157" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E157" s="10" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="F157" s="8" t="s">
-        <v>478</v>
-      </c>
-      <c r="G157" s="12"/>
-      <c r="H157" s="12"/>
-      <c r="I157" s="12"/>
-      <c r="J157" s="12"/>
-      <c r="K157" s="12"/>
-      <c r="L157" s="12"/>
-      <c r="M157" s="12"/>
-      <c r="N157" s="12"/>
-      <c r="O157" s="12"/>
-      <c r="P157" s="12"/>
-      <c r="Q157" s="12"/>
-      <c r="R157" s="12"/>
-      <c r="S157" s="12"/>
-      <c r="T157" s="12"/>
-    </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C158" s="6"/>
+        <v>476</v>
+      </c>
+      <c r="G157" s="14"/>
+      <c r="H157" s="14"/>
+      <c r="I157" s="14"/>
+      <c r="J157" s="14"/>
+      <c r="K157" s="14"/>
+      <c r="L157" s="14"/>
+      <c r="M157" s="14"/>
+      <c r="N157" s="14"/>
+      <c r="O157" s="14"/>
+      <c r="P157" s="14"/>
+      <c r="Q157" s="14"/>
+      <c r="R157" s="14"/>
+      <c r="S157" s="14"/>
+      <c r="T157" s="14"/>
+    </row>
+    <row r="158" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A158" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B158" s="12" t="s">
+        <v>481</v>
+      </c>
+      <c r="C158" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="D158" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="E158" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="F158" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="G158" s="14"/>
+      <c r="H158" s="14"/>
+      <c r="I158" s="14"/>
+      <c r="J158" s="14"/>
+      <c r="K158" s="14"/>
+      <c r="L158" s="14"/>
+      <c r="M158" s="14"/>
+      <c r="N158" s="14"/>
+      <c r="O158" s="14"/>
+      <c r="P158" s="14"/>
+      <c r="Q158" s="14"/>
+      <c r="R158" s="14"/>
+      <c r="S158" s="14"/>
+      <c r="T158" s="14"/>
     </row>
     <row r="159" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C159" s="6"/>
@@ -7521,12 +7534,6 @@
     </row>
     <row r="199" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C199" s="6"/>
-    </row>
-    <row r="200" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C200" s="6"/>
-    </row>
-    <row r="201" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C201" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/core/utils/distgradeunificadaJOINVILLE.xlsx
+++ b/core/utils/distgradeunificadaJOINVILLE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1980A02F-17AE-4D6D-86E9-DD203E84232D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C608AB5-F9C7-4B58-9EB5-83F6CDFD5D10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7D8F346-A79E-4C25-BB45-DA9F96A70FA9}"/>
   </bookViews>
@@ -1479,10 +1479,10 @@
     <t>RM 157</t>
   </si>
   <si>
-    <t>CALÇA SUPLEX</t>
-  </si>
-  <si>
-    <t>FEMININO</t>
+    <t>JAQUETA TACTEL</t>
+  </si>
+  <si>
+    <t>UNISSEX</t>
   </si>
 </sst>
 </file>
@@ -1604,7 +1604,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1993,23 +1993,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{414053F0-9035-4345-833E-9715016AA804}">
-  <dimension ref="A1:T199"/>
+  <dimension ref="A1:T198"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="Q163" sqref="Q163"/>
+      <selection pane="bottomLeft" activeCell="H161" sqref="H161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="4.85546875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="13" style="5" customWidth="1"/>
-    <col min="5" max="5" width="11" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="40.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="17" style="5" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" style="5" customWidth="1"/>
     <col min="6" max="6" width="8.5703125" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="5"/>
+    <col min="7" max="7" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="5" customWidth="1"/>
+    <col min="11" max="17" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="18" x14ac:dyDescent="0.25">
@@ -2095,17 +2101,39 @@
       </c>
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
+      <c r="I2" s="14">
+        <v>30</v>
+      </c>
+      <c r="J2" s="14">
+        <v>120</v>
+      </c>
+      <c r="K2" s="14">
+        <v>120</v>
+      </c>
+      <c r="L2" s="14">
+        <v>120</v>
+      </c>
+      <c r="M2" s="14">
+        <v>100</v>
+      </c>
+      <c r="N2" s="14">
+        <v>100</v>
+      </c>
+      <c r="O2" s="14">
+        <v>90</v>
+      </c>
+      <c r="P2" s="14">
+        <v>60</v>
+      </c>
+      <c r="Q2" s="14">
+        <v>50</v>
+      </c>
+      <c r="R2" s="14">
+        <v>20</v>
+      </c>
+      <c r="S2" s="14">
+        <v>3</v>
+      </c>
       <c r="T2" s="14"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
@@ -2128,18 +2156,42 @@
         <v>21</v>
       </c>
       <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
+      <c r="H3" s="14">
+        <v>7</v>
+      </c>
+      <c r="I3" s="14">
+        <v>80</v>
+      </c>
+      <c r="J3" s="14">
+        <v>150</v>
+      </c>
+      <c r="K3" s="14">
+        <v>180</v>
+      </c>
+      <c r="L3" s="14">
+        <v>180</v>
+      </c>
+      <c r="M3" s="14">
+        <v>250</v>
+      </c>
+      <c r="N3" s="14">
+        <v>150</v>
+      </c>
+      <c r="O3" s="14">
+        <v>100</v>
+      </c>
+      <c r="P3" s="14">
+        <v>95</v>
+      </c>
+      <c r="Q3" s="14">
+        <v>42</v>
+      </c>
+      <c r="R3" s="14">
+        <v>13</v>
+      </c>
+      <c r="S3" s="14">
+        <v>4</v>
+      </c>
       <c r="T3" s="14"/>
     </row>
     <row r="4" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
@@ -2162,16 +2214,36 @@
         <v>18</v>
       </c>
       <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
+      <c r="H4" s="14">
+        <v>4</v>
+      </c>
+      <c r="I4" s="14">
+        <v>75</v>
+      </c>
+      <c r="J4" s="14">
+        <v>85</v>
+      </c>
+      <c r="K4" s="14">
+        <v>75</v>
+      </c>
+      <c r="L4" s="14">
+        <v>60</v>
+      </c>
+      <c r="M4" s="14">
+        <v>45</v>
+      </c>
+      <c r="N4" s="14">
+        <v>18</v>
+      </c>
+      <c r="O4" s="14">
+        <v>7</v>
+      </c>
+      <c r="P4" s="14">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="14">
+        <v>1</v>
+      </c>
       <c r="R4" s="14"/>
       <c r="S4" s="14"/>
       <c r="T4" s="14"/>
@@ -2196,14 +2268,30 @@
         <v>19</v>
       </c>
       <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
+      <c r="H5" s="14">
+        <v>191</v>
+      </c>
+      <c r="I5" s="14">
+        <v>132</v>
+      </c>
+      <c r="J5" s="14">
+        <v>120</v>
+      </c>
+      <c r="K5" s="14">
+        <v>141</v>
+      </c>
+      <c r="L5" s="14">
+        <v>147</v>
+      </c>
+      <c r="M5" s="14">
+        <v>98</v>
+      </c>
+      <c r="N5" s="14">
+        <v>50</v>
+      </c>
+      <c r="O5" s="14">
+        <v>10</v>
+      </c>
       <c r="P5" s="14"/>
       <c r="Q5" s="14"/>
       <c r="R5" s="14"/>
@@ -2231,12 +2319,24 @@
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
+      <c r="I6" s="14">
+        <v>1</v>
+      </c>
+      <c r="J6" s="14">
+        <v>11</v>
+      </c>
+      <c r="K6" s="14">
+        <v>15</v>
+      </c>
+      <c r="L6" s="14">
+        <v>4</v>
+      </c>
+      <c r="M6" s="14">
+        <v>2</v>
+      </c>
+      <c r="N6" s="14">
+        <v>1</v>
+      </c>
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
       <c r="Q6" s="14"/>
@@ -2264,14 +2364,28 @@
         <v>23</v>
       </c>
       <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
+      <c r="H7" s="14">
+        <v>30</v>
+      </c>
+      <c r="I7" s="14">
+        <v>56</v>
+      </c>
+      <c r="J7" s="14">
+        <v>72</v>
+      </c>
+      <c r="K7" s="14">
+        <v>38</v>
+      </c>
+      <c r="L7" s="14">
+        <v>36</v>
+      </c>
+      <c r="M7" s="14">
+        <v>18</v>
+      </c>
       <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
+      <c r="O7" s="14">
+        <v>1</v>
+      </c>
       <c r="P7" s="14"/>
       <c r="Q7" s="14"/>
       <c r="R7" s="14"/>
@@ -2298,15 +2412,33 @@
         <v>24</v>
       </c>
       <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
+      <c r="H8" s="14">
+        <v>10</v>
+      </c>
+      <c r="I8" s="14">
+        <v>13</v>
+      </c>
+      <c r="J8" s="14">
+        <v>32</v>
+      </c>
+      <c r="K8" s="14">
+        <v>15</v>
+      </c>
+      <c r="L8" s="14">
+        <v>24</v>
+      </c>
+      <c r="M8" s="14">
+        <v>10</v>
+      </c>
+      <c r="N8" s="14">
+        <v>4</v>
+      </c>
+      <c r="O8" s="14">
+        <v>2</v>
+      </c>
+      <c r="P8" s="14">
+        <v>1</v>
+      </c>
       <c r="Q8" s="14"/>
       <c r="R8" s="14"/>
       <c r="S8" s="14"/>
@@ -2333,15 +2465,33 @@
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
+      <c r="I9" s="14">
+        <v>50</v>
+      </c>
+      <c r="J9" s="14">
+        <v>70</v>
+      </c>
+      <c r="K9" s="14">
+        <v>60</v>
+      </c>
+      <c r="L9" s="14">
+        <v>100</v>
+      </c>
+      <c r="M9" s="14">
+        <v>70</v>
+      </c>
+      <c r="N9" s="14">
+        <v>50</v>
+      </c>
+      <c r="O9" s="14">
+        <v>5</v>
+      </c>
+      <c r="P9" s="14">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="14">
+        <v>5</v>
+      </c>
       <c r="R9" s="14"/>
       <c r="S9" s="14"/>
       <c r="T9" s="14"/>
@@ -2366,18 +2516,42 @@
         <v>26</v>
       </c>
       <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
+      <c r="H10" s="14">
+        <v>10</v>
+      </c>
+      <c r="I10" s="14">
+        <v>100</v>
+      </c>
+      <c r="J10" s="14">
+        <v>145</v>
+      </c>
+      <c r="K10" s="14">
+        <v>140</v>
+      </c>
+      <c r="L10" s="14">
+        <v>140</v>
+      </c>
+      <c r="M10" s="14">
+        <v>110</v>
+      </c>
+      <c r="N10" s="14">
+        <v>105</v>
+      </c>
+      <c r="O10" s="14">
+        <v>105</v>
+      </c>
+      <c r="P10" s="14">
+        <v>105</v>
+      </c>
+      <c r="Q10" s="14">
+        <v>105</v>
+      </c>
+      <c r="R10" s="14">
+        <v>20</v>
+      </c>
+      <c r="S10" s="14">
+        <v>10</v>
+      </c>
       <c r="T10" s="14"/>
     </row>
     <row r="11" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
@@ -2400,17 +2574,39 @@
         <v>27</v>
       </c>
       <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
+      <c r="H11" s="14">
+        <v>3</v>
+      </c>
+      <c r="I11" s="14">
+        <v>45</v>
+      </c>
+      <c r="J11" s="14">
+        <v>83</v>
+      </c>
+      <c r="K11" s="14">
+        <v>36</v>
+      </c>
+      <c r="L11" s="14">
+        <v>53</v>
+      </c>
+      <c r="M11" s="14">
+        <v>50</v>
+      </c>
+      <c r="N11" s="14">
+        <v>45</v>
+      </c>
+      <c r="O11" s="14">
+        <v>70</v>
+      </c>
+      <c r="P11" s="14">
+        <v>40</v>
+      </c>
+      <c r="Q11" s="14">
+        <v>6</v>
+      </c>
+      <c r="R11" s="14">
+        <v>3</v>
+      </c>
       <c r="S11" s="14"/>
       <c r="T11" s="14"/>
     </row>
@@ -2434,15 +2630,33 @@
         <v>28</v>
       </c>
       <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
+      <c r="H12" s="14">
+        <v>2</v>
+      </c>
+      <c r="I12" s="14">
+        <v>31</v>
+      </c>
+      <c r="J12" s="14">
+        <v>123</v>
+      </c>
+      <c r="K12" s="14">
+        <v>124</v>
+      </c>
+      <c r="L12" s="14">
+        <v>95</v>
+      </c>
+      <c r="M12" s="14">
+        <v>25</v>
+      </c>
+      <c r="N12" s="14">
+        <v>14</v>
+      </c>
+      <c r="O12" s="14">
+        <v>4</v>
+      </c>
+      <c r="P12" s="14">
+        <v>3</v>
+      </c>
       <c r="Q12" s="14"/>
       <c r="R12" s="14"/>
       <c r="S12" s="14"/>
@@ -2469,17 +2683,39 @@
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="14"/>
+      <c r="I13" s="14">
+        <v>80</v>
+      </c>
+      <c r="J13" s="14">
+        <v>160</v>
+      </c>
+      <c r="K13" s="14">
+        <v>160</v>
+      </c>
+      <c r="L13" s="14">
+        <v>160</v>
+      </c>
+      <c r="M13" s="14">
+        <v>180</v>
+      </c>
+      <c r="N13" s="14">
+        <v>100</v>
+      </c>
+      <c r="O13" s="14">
+        <v>100</v>
+      </c>
+      <c r="P13" s="14">
+        <v>90</v>
+      </c>
+      <c r="Q13" s="14">
+        <v>25</v>
+      </c>
+      <c r="R13" s="14">
+        <v>10</v>
+      </c>
+      <c r="S13" s="14">
+        <v>5</v>
+      </c>
       <c r="T13" s="14"/>
     </row>
     <row r="14" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
@@ -2503,17 +2739,39 @@
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
+      <c r="I14" s="14">
+        <v>80</v>
+      </c>
+      <c r="J14" s="14">
+        <v>110</v>
+      </c>
+      <c r="K14" s="14">
+        <v>140</v>
+      </c>
+      <c r="L14" s="14">
+        <v>152</v>
+      </c>
+      <c r="M14" s="14">
+        <v>100</v>
+      </c>
+      <c r="N14" s="14">
+        <v>160</v>
+      </c>
+      <c r="O14" s="14">
+        <v>80</v>
+      </c>
+      <c r="P14" s="14">
+        <v>80</v>
+      </c>
+      <c r="Q14" s="14">
+        <v>30</v>
+      </c>
+      <c r="R14" s="14">
+        <v>20</v>
+      </c>
+      <c r="S14" s="14">
+        <v>3</v>
+      </c>
       <c r="T14" s="14"/>
     </row>
     <row r="15" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
@@ -2535,17 +2793,39 @@
       <c r="F15" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
+      <c r="G15" s="14">
+        <v>10</v>
+      </c>
+      <c r="H15" s="14">
+        <v>35</v>
+      </c>
+      <c r="I15" s="14">
+        <v>80</v>
+      </c>
+      <c r="J15" s="14">
+        <v>100</v>
+      </c>
+      <c r="K15" s="14">
+        <v>65</v>
+      </c>
+      <c r="L15" s="14">
+        <v>65</v>
+      </c>
+      <c r="M15" s="14">
+        <v>30</v>
+      </c>
+      <c r="N15" s="14">
+        <v>25</v>
+      </c>
+      <c r="O15" s="14">
+        <v>5</v>
+      </c>
+      <c r="P15" s="14">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="14">
+        <v>1</v>
+      </c>
       <c r="R15" s="14"/>
       <c r="S15" s="14"/>
       <c r="T15" s="14"/>
@@ -2570,17 +2850,39 @@
         <v>32</v>
       </c>
       <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
+      <c r="H16" s="14">
+        <v>4</v>
+      </c>
+      <c r="I16" s="14">
+        <v>50</v>
+      </c>
+      <c r="J16" s="14">
+        <v>90</v>
+      </c>
+      <c r="K16" s="14">
+        <v>110</v>
+      </c>
+      <c r="L16" s="14">
+        <v>100</v>
+      </c>
+      <c r="M16" s="14">
+        <v>100</v>
+      </c>
+      <c r="N16" s="14">
+        <v>90</v>
+      </c>
+      <c r="O16" s="14">
+        <v>50</v>
+      </c>
+      <c r="P16" s="14">
+        <v>50</v>
+      </c>
+      <c r="Q16" s="14">
+        <v>20</v>
+      </c>
+      <c r="R16" s="14">
+        <v>3</v>
+      </c>
       <c r="S16" s="14"/>
       <c r="T16" s="14"/>
     </row>
@@ -2605,16 +2907,36 @@
       </c>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
+      <c r="I17" s="14">
+        <v>60</v>
+      </c>
+      <c r="J17" s="14">
+        <v>160</v>
+      </c>
+      <c r="K17" s="14">
+        <v>150</v>
+      </c>
+      <c r="L17" s="14">
+        <v>130</v>
+      </c>
+      <c r="M17" s="14">
+        <v>50</v>
+      </c>
+      <c r="N17" s="14">
+        <v>20</v>
+      </c>
+      <c r="O17" s="14">
+        <v>10</v>
+      </c>
+      <c r="P17" s="14">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="14">
+        <v>3</v>
+      </c>
+      <c r="R17" s="14">
+        <v>2</v>
+      </c>
       <c r="S17" s="14"/>
       <c r="T17" s="14"/>
     </row>
@@ -2638,18 +2960,42 @@
         <v>34</v>
       </c>
       <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="14"/>
+      <c r="H18" s="14">
+        <v>14</v>
+      </c>
+      <c r="I18" s="14">
+        <v>65</v>
+      </c>
+      <c r="J18" s="14">
+        <v>60</v>
+      </c>
+      <c r="K18" s="14">
+        <v>95</v>
+      </c>
+      <c r="L18" s="14">
+        <v>140</v>
+      </c>
+      <c r="M18" s="14">
+        <v>80</v>
+      </c>
+      <c r="N18" s="14">
+        <v>65</v>
+      </c>
+      <c r="O18" s="14">
+        <v>65</v>
+      </c>
+      <c r="P18" s="14">
+        <v>45</v>
+      </c>
+      <c r="Q18" s="14">
+        <v>25</v>
+      </c>
+      <c r="R18" s="14">
+        <v>20</v>
+      </c>
+      <c r="S18" s="14">
+        <v>10</v>
+      </c>
       <c r="T18" s="14"/>
     </row>
     <row r="19" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
@@ -2672,17 +3018,39 @@
         <v>35</v>
       </c>
       <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
+      <c r="H19" s="14">
+        <v>2</v>
+      </c>
+      <c r="I19" s="14">
+        <v>35</v>
+      </c>
+      <c r="J19" s="14">
+        <v>60</v>
+      </c>
+      <c r="K19" s="14">
+        <v>70</v>
+      </c>
+      <c r="L19" s="14">
+        <v>90</v>
+      </c>
+      <c r="M19" s="14">
+        <v>90</v>
+      </c>
+      <c r="N19" s="14">
+        <v>100</v>
+      </c>
+      <c r="O19" s="14">
+        <v>100</v>
+      </c>
+      <c r="P19" s="14">
+        <v>75</v>
+      </c>
+      <c r="Q19" s="14">
+        <v>30</v>
+      </c>
+      <c r="R19" s="14">
+        <v>3</v>
+      </c>
       <c r="S19" s="14"/>
       <c r="T19" s="14"/>
     </row>
@@ -2707,17 +3075,39 @@
       </c>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14"/>
+      <c r="I20" s="14">
+        <v>60</v>
+      </c>
+      <c r="J20" s="14">
+        <v>110</v>
+      </c>
+      <c r="K20" s="14">
+        <v>150</v>
+      </c>
+      <c r="L20" s="14">
+        <v>200</v>
+      </c>
+      <c r="M20" s="14">
+        <v>130</v>
+      </c>
+      <c r="N20" s="14">
+        <v>100</v>
+      </c>
+      <c r="O20" s="14">
+        <v>80</v>
+      </c>
+      <c r="P20" s="14">
+        <v>50</v>
+      </c>
+      <c r="Q20" s="14">
+        <v>25</v>
+      </c>
+      <c r="R20" s="14">
+        <v>5</v>
+      </c>
+      <c r="S20" s="14">
+        <v>3</v>
+      </c>
       <c r="T20" s="14"/>
     </row>
     <row r="21" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
@@ -2744,13 +3134,27 @@
       <c r="I21" s="14"/>
       <c r="J21" s="14"/>
       <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
+      <c r="L21" s="14">
+        <v>20</v>
+      </c>
+      <c r="M21" s="14">
+        <v>70</v>
+      </c>
+      <c r="N21" s="14">
+        <v>87</v>
+      </c>
+      <c r="O21" s="14">
+        <v>90</v>
+      </c>
+      <c r="P21" s="14">
+        <v>50</v>
+      </c>
+      <c r="Q21" s="14">
+        <v>40</v>
+      </c>
+      <c r="R21" s="14">
+        <v>15</v>
+      </c>
       <c r="S21" s="14"/>
       <c r="T21" s="14"/>
     </row>
@@ -2777,15 +3181,33 @@
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="14"/>
+      <c r="K22" s="14">
+        <v>5</v>
+      </c>
+      <c r="L22" s="14">
+        <v>60</v>
+      </c>
+      <c r="M22" s="14">
+        <v>170</v>
+      </c>
+      <c r="N22" s="14">
+        <v>156</v>
+      </c>
+      <c r="O22" s="14">
+        <v>110</v>
+      </c>
+      <c r="P22" s="14">
+        <v>75</v>
+      </c>
+      <c r="Q22" s="14">
+        <v>15</v>
+      </c>
+      <c r="R22" s="14">
+        <v>10</v>
+      </c>
+      <c r="S22" s="14">
+        <v>4</v>
+      </c>
       <c r="T22" s="14"/>
     </row>
     <row r="23" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
@@ -2808,17 +3230,39 @@
         <v>39</v>
       </c>
       <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="14"/>
+      <c r="H23" s="14">
+        <v>10</v>
+      </c>
+      <c r="I23" s="14">
+        <v>60</v>
+      </c>
+      <c r="J23" s="14">
+        <v>120</v>
+      </c>
+      <c r="K23" s="14">
+        <v>95</v>
+      </c>
+      <c r="L23" s="14">
+        <v>95</v>
+      </c>
+      <c r="M23" s="14">
+        <v>90</v>
+      </c>
+      <c r="N23" s="14">
+        <v>140</v>
+      </c>
+      <c r="O23" s="14">
+        <v>150</v>
+      </c>
+      <c r="P23" s="14">
+        <v>90</v>
+      </c>
+      <c r="Q23" s="14">
+        <v>30</v>
+      </c>
+      <c r="R23" s="14">
+        <v>15</v>
+      </c>
       <c r="S23" s="14"/>
       <c r="T23" s="14"/>
     </row>
@@ -2843,17 +3287,39 @@
       </c>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="14"/>
+      <c r="I24" s="14">
+        <v>30</v>
+      </c>
+      <c r="J24" s="14">
+        <v>60</v>
+      </c>
+      <c r="K24" s="14">
+        <v>250</v>
+      </c>
+      <c r="L24" s="14">
+        <v>200</v>
+      </c>
+      <c r="M24" s="14">
+        <v>260</v>
+      </c>
+      <c r="N24" s="14">
+        <v>200</v>
+      </c>
+      <c r="O24" s="14">
+        <v>80</v>
+      </c>
+      <c r="P24" s="14">
+        <v>50</v>
+      </c>
+      <c r="Q24" s="14">
+        <v>50</v>
+      </c>
+      <c r="R24" s="14">
+        <v>18</v>
+      </c>
+      <c r="S24" s="14">
+        <v>5</v>
+      </c>
       <c r="T24" s="14"/>
     </row>
     <row r="25" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
@@ -2876,16 +3342,36 @@
         <v>41</v>
       </c>
       <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="14"/>
+      <c r="H25" s="14">
+        <v>100</v>
+      </c>
+      <c r="I25" s="14">
+        <v>120</v>
+      </c>
+      <c r="J25" s="14">
+        <v>110</v>
+      </c>
+      <c r="K25" s="14">
+        <v>120</v>
+      </c>
+      <c r="L25" s="14">
+        <v>110</v>
+      </c>
+      <c r="M25" s="14">
+        <v>120</v>
+      </c>
+      <c r="N25" s="14">
+        <v>70</v>
+      </c>
+      <c r="O25" s="14">
+        <v>60</v>
+      </c>
+      <c r="P25" s="14">
+        <v>40</v>
+      </c>
+      <c r="Q25" s="14">
+        <v>20</v>
+      </c>
       <c r="R25" s="14"/>
       <c r="S25" s="14"/>
       <c r="T25" s="14"/>
@@ -2910,18 +3396,42 @@
         <v>42</v>
       </c>
       <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="14"/>
+      <c r="H26" s="14">
+        <v>30</v>
+      </c>
+      <c r="I26" s="14">
+        <v>80</v>
+      </c>
+      <c r="J26" s="14">
+        <v>120</v>
+      </c>
+      <c r="K26" s="14">
+        <v>140</v>
+      </c>
+      <c r="L26" s="14">
+        <v>110</v>
+      </c>
+      <c r="M26" s="14">
+        <v>170</v>
+      </c>
+      <c r="N26" s="14">
+        <v>110</v>
+      </c>
+      <c r="O26" s="14">
+        <v>50</v>
+      </c>
+      <c r="P26" s="14">
+        <v>70</v>
+      </c>
+      <c r="Q26" s="14">
+        <v>15</v>
+      </c>
+      <c r="R26" s="14">
+        <v>10</v>
+      </c>
+      <c r="S26" s="14">
+        <v>2</v>
+      </c>
       <c r="T26" s="14"/>
     </row>
     <row r="27" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
@@ -2946,16 +3456,36 @@
       <c r="G27" s="14"/>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="14"/>
-      <c r="S27" s="14"/>
+      <c r="J27" s="14">
+        <v>21</v>
+      </c>
+      <c r="K27" s="14">
+        <v>49</v>
+      </c>
+      <c r="L27" s="14">
+        <v>58</v>
+      </c>
+      <c r="M27" s="14">
+        <v>53</v>
+      </c>
+      <c r="N27" s="14">
+        <v>48</v>
+      </c>
+      <c r="O27" s="14">
+        <v>56</v>
+      </c>
+      <c r="P27" s="14">
+        <v>29</v>
+      </c>
+      <c r="Q27" s="14">
+        <v>24</v>
+      </c>
+      <c r="R27" s="14">
+        <v>10</v>
+      </c>
+      <c r="S27" s="14">
+        <v>5</v>
+      </c>
       <c r="T27" s="14"/>
     </row>
     <row r="28" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
@@ -2978,14 +3508,28 @@
         <v>44</v>
       </c>
       <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
+      <c r="H28" s="14">
+        <v>9</v>
+      </c>
+      <c r="I28" s="14">
+        <v>17</v>
+      </c>
+      <c r="J28" s="14">
+        <v>12</v>
+      </c>
+      <c r="K28" s="14">
+        <v>13</v>
+      </c>
+      <c r="L28" s="14">
+        <v>5</v>
+      </c>
+      <c r="M28" s="14">
+        <v>1</v>
+      </c>
       <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
+      <c r="O28" s="14">
+        <v>3</v>
+      </c>
       <c r="P28" s="14"/>
       <c r="Q28" s="14"/>
       <c r="R28" s="14"/>
@@ -3012,13 +3556,27 @@
         <v>45</v>
       </c>
       <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="14"/>
+      <c r="H29" s="14">
+        <v>5</v>
+      </c>
+      <c r="I29" s="14">
+        <v>35</v>
+      </c>
+      <c r="J29" s="14">
+        <v>40</v>
+      </c>
+      <c r="K29" s="14">
+        <v>40</v>
+      </c>
+      <c r="L29" s="14">
+        <v>40</v>
+      </c>
+      <c r="M29" s="14">
+        <v>10</v>
+      </c>
+      <c r="N29" s="14">
+        <v>2</v>
+      </c>
       <c r="O29" s="14"/>
       <c r="P29" s="14"/>
       <c r="Q29" s="14"/>
@@ -3047,14 +3605,30 @@
       </c>
       <c r="G30" s="14"/>
       <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="14"/>
-      <c r="O30" s="14"/>
-      <c r="P30" s="14"/>
+      <c r="I30" s="14">
+        <v>10</v>
+      </c>
+      <c r="J30" s="14">
+        <v>15</v>
+      </c>
+      <c r="K30" s="14">
+        <v>18</v>
+      </c>
+      <c r="L30" s="14">
+        <v>18</v>
+      </c>
+      <c r="M30" s="14">
+        <v>8</v>
+      </c>
+      <c r="N30" s="14">
+        <v>1</v>
+      </c>
+      <c r="O30" s="14">
+        <v>1</v>
+      </c>
+      <c r="P30" s="14">
+        <v>1</v>
+      </c>
       <c r="Q30" s="14"/>
       <c r="R30" s="14"/>
       <c r="S30" s="14"/>
@@ -3080,13 +3654,27 @@
         <v>47</v>
       </c>
       <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14"/>
+      <c r="H31" s="14">
+        <v>8</v>
+      </c>
+      <c r="I31" s="14">
+        <v>27</v>
+      </c>
+      <c r="J31" s="14">
+        <v>21</v>
+      </c>
+      <c r="K31" s="14">
+        <v>21</v>
+      </c>
+      <c r="L31" s="14">
+        <v>26</v>
+      </c>
+      <c r="M31" s="14">
+        <v>11</v>
+      </c>
+      <c r="N31" s="14">
+        <v>2</v>
+      </c>
       <c r="O31" s="14"/>
       <c r="P31" s="14"/>
       <c r="Q31" s="14"/>
@@ -3115,16 +3703,36 @@
       </c>
       <c r="G32" s="14"/>
       <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="14"/>
-      <c r="R32" s="14"/>
+      <c r="I32" s="14">
+        <v>96</v>
+      </c>
+      <c r="J32" s="14">
+        <v>70</v>
+      </c>
+      <c r="K32" s="14">
+        <v>100</v>
+      </c>
+      <c r="L32" s="14">
+        <v>110</v>
+      </c>
+      <c r="M32" s="14">
+        <v>40</v>
+      </c>
+      <c r="N32" s="14">
+        <v>20</v>
+      </c>
+      <c r="O32" s="14">
+        <v>5</v>
+      </c>
+      <c r="P32" s="14">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="14">
+        <v>3</v>
+      </c>
+      <c r="R32" s="14">
+        <v>2</v>
+      </c>
       <c r="S32" s="14"/>
       <c r="T32" s="14"/>
     </row>
@@ -3149,13 +3757,27 @@
       </c>
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="14"/>
-      <c r="N33" s="14"/>
-      <c r="O33" s="14"/>
+      <c r="I33" s="14">
+        <v>60</v>
+      </c>
+      <c r="J33" s="14">
+        <v>130</v>
+      </c>
+      <c r="K33" s="14">
+        <v>130</v>
+      </c>
+      <c r="L33" s="14">
+        <v>130</v>
+      </c>
+      <c r="M33" s="14">
+        <v>130</v>
+      </c>
+      <c r="N33" s="14">
+        <v>130</v>
+      </c>
+      <c r="O33" s="14">
+        <v>80</v>
+      </c>
       <c r="P33" s="14"/>
       <c r="Q33" s="14"/>
       <c r="R33" s="14"/>
@@ -3182,15 +3804,31 @@
         <v>50</v>
       </c>
       <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="14"/>
+      <c r="H34" s="14">
+        <v>1</v>
+      </c>
+      <c r="I34" s="14">
+        <v>22</v>
+      </c>
+      <c r="J34" s="14">
+        <v>15</v>
+      </c>
+      <c r="K34" s="14">
+        <v>30</v>
+      </c>
+      <c r="L34" s="14">
+        <v>17</v>
+      </c>
+      <c r="M34" s="14">
+        <v>4</v>
+      </c>
       <c r="N34" s="14"/>
-      <c r="O34" s="14"/>
-      <c r="P34" s="14"/>
+      <c r="O34" s="14">
+        <v>3</v>
+      </c>
+      <c r="P34" s="14">
+        <v>1</v>
+      </c>
       <c r="Q34" s="14"/>
       <c r="R34" s="14"/>
       <c r="S34" s="14"/>
@@ -3217,16 +3855,36 @@
       </c>
       <c r="G35" s="14"/>
       <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="14"/>
-      <c r="N35" s="14"/>
-      <c r="O35" s="14"/>
-      <c r="P35" s="14"/>
-      <c r="Q35" s="14"/>
-      <c r="R35" s="14"/>
+      <c r="I35" s="14">
+        <v>80</v>
+      </c>
+      <c r="J35" s="14">
+        <v>140</v>
+      </c>
+      <c r="K35" s="14">
+        <v>130</v>
+      </c>
+      <c r="L35" s="14">
+        <v>160</v>
+      </c>
+      <c r="M35" s="14">
+        <v>180</v>
+      </c>
+      <c r="N35" s="14">
+        <v>190</v>
+      </c>
+      <c r="O35" s="14">
+        <v>120</v>
+      </c>
+      <c r="P35" s="14">
+        <v>70</v>
+      </c>
+      <c r="Q35" s="14">
+        <v>30</v>
+      </c>
+      <c r="R35" s="14">
+        <v>15</v>
+      </c>
       <c r="S35" s="14"/>
       <c r="T35" s="14"/>
     </row>
@@ -3250,17 +3908,37 @@
         <v>52</v>
       </c>
       <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="14"/>
-      <c r="N36" s="14"/>
+      <c r="H36" s="14">
+        <v>10</v>
+      </c>
+      <c r="I36" s="14">
+        <v>17</v>
+      </c>
+      <c r="J36" s="14">
+        <v>15</v>
+      </c>
+      <c r="K36" s="14">
+        <v>17</v>
+      </c>
+      <c r="L36" s="14">
+        <v>27</v>
+      </c>
+      <c r="M36" s="14">
+        <v>9</v>
+      </c>
+      <c r="N36" s="14">
+        <v>5</v>
+      </c>
       <c r="O36" s="14"/>
-      <c r="P36" s="14"/>
-      <c r="Q36" s="14"/>
-      <c r="R36" s="14"/>
+      <c r="P36" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="14">
+        <v>2</v>
+      </c>
+      <c r="R36" s="14">
+        <v>2</v>
+      </c>
       <c r="S36" s="14"/>
       <c r="T36" s="14"/>
     </row>
@@ -3284,18 +3962,42 @@
         <v>53</v>
       </c>
       <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="14"/>
-      <c r="N37" s="14"/>
-      <c r="O37" s="14"/>
-      <c r="P37" s="14"/>
-      <c r="Q37" s="14"/>
-      <c r="R37" s="14"/>
-      <c r="S37" s="14"/>
+      <c r="H37" s="14">
+        <v>15</v>
+      </c>
+      <c r="I37" s="14">
+        <v>180</v>
+      </c>
+      <c r="J37" s="14">
+        <v>250</v>
+      </c>
+      <c r="K37" s="14">
+        <v>215</v>
+      </c>
+      <c r="L37" s="14">
+        <v>135</v>
+      </c>
+      <c r="M37" s="14">
+        <v>60</v>
+      </c>
+      <c r="N37" s="14">
+        <v>30</v>
+      </c>
+      <c r="O37" s="14">
+        <v>15</v>
+      </c>
+      <c r="P37" s="14">
+        <v>10</v>
+      </c>
+      <c r="Q37" s="14">
+        <v>6</v>
+      </c>
+      <c r="R37" s="14">
+        <v>2</v>
+      </c>
+      <c r="S37" s="14">
+        <v>2</v>
+      </c>
       <c r="T37" s="14"/>
     </row>
     <row r="38" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
@@ -3320,14 +4022,30 @@
       <c r="G38" s="14"/>
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="14"/>
-      <c r="N38" s="14"/>
-      <c r="O38" s="14"/>
-      <c r="P38" s="14"/>
-      <c r="Q38" s="14"/>
+      <c r="J38" s="14">
+        <v>60</v>
+      </c>
+      <c r="K38" s="14">
+        <v>130</v>
+      </c>
+      <c r="L38" s="14">
+        <v>120</v>
+      </c>
+      <c r="M38" s="14">
+        <v>210</v>
+      </c>
+      <c r="N38" s="14">
+        <v>270</v>
+      </c>
+      <c r="O38" s="14">
+        <v>170</v>
+      </c>
+      <c r="P38" s="14">
+        <v>120</v>
+      </c>
+      <c r="Q38" s="14">
+        <v>160</v>
+      </c>
       <c r="R38" s="14"/>
       <c r="S38" s="14"/>
       <c r="T38" s="14"/>
@@ -3351,17 +4069,39 @@
       <c r="F39" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="14"/>
-      <c r="N39" s="14"/>
-      <c r="O39" s="14"/>
-      <c r="P39" s="14"/>
-      <c r="Q39" s="14"/>
+      <c r="G39" s="14">
+        <v>11</v>
+      </c>
+      <c r="H39" s="14">
+        <v>58</v>
+      </c>
+      <c r="I39" s="14">
+        <v>106</v>
+      </c>
+      <c r="J39" s="14">
+        <v>94</v>
+      </c>
+      <c r="K39" s="14">
+        <v>86</v>
+      </c>
+      <c r="L39" s="14">
+        <v>75</v>
+      </c>
+      <c r="M39" s="14">
+        <v>50</v>
+      </c>
+      <c r="N39" s="14">
+        <v>9</v>
+      </c>
+      <c r="O39" s="14">
+        <v>1</v>
+      </c>
+      <c r="P39" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="14">
+        <v>3</v>
+      </c>
       <c r="R39" s="14"/>
       <c r="S39" s="14"/>
       <c r="T39" s="14"/>
@@ -3386,12 +4126,24 @@
         <v>56</v>
       </c>
       <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="14"/>
-      <c r="L40" s="14"/>
-      <c r="M40" s="14"/>
+      <c r="H40" s="14">
+        <v>15</v>
+      </c>
+      <c r="I40" s="14">
+        <v>19</v>
+      </c>
+      <c r="J40" s="14">
+        <v>9</v>
+      </c>
+      <c r="K40" s="14">
+        <v>13</v>
+      </c>
+      <c r="L40" s="14">
+        <v>7</v>
+      </c>
+      <c r="M40" s="14">
+        <v>5</v>
+      </c>
       <c r="N40" s="14"/>
       <c r="O40" s="14"/>
       <c r="P40" s="14"/>
@@ -3422,14 +4174,30 @@
       <c r="G41" s="14"/>
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="14"/>
-      <c r="N41" s="14"/>
-      <c r="O41" s="14"/>
-      <c r="P41" s="14"/>
-      <c r="Q41" s="14"/>
+      <c r="J41" s="14">
+        <v>150</v>
+      </c>
+      <c r="K41" s="14">
+        <v>150</v>
+      </c>
+      <c r="L41" s="14">
+        <v>150</v>
+      </c>
+      <c r="M41" s="14">
+        <v>150</v>
+      </c>
+      <c r="N41" s="14">
+        <v>200</v>
+      </c>
+      <c r="O41" s="14">
+        <v>200</v>
+      </c>
+      <c r="P41" s="14">
+        <v>200</v>
+      </c>
+      <c r="Q41" s="14">
+        <v>100</v>
+      </c>
       <c r="R41" s="14"/>
       <c r="S41" s="14"/>
       <c r="T41" s="14"/>
@@ -3455,17 +4223,39 @@
       </c>
       <c r="G42" s="14"/>
       <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14"/>
-      <c r="K42" s="14"/>
-      <c r="L42" s="14"/>
-      <c r="M42" s="14"/>
-      <c r="N42" s="14"/>
-      <c r="O42" s="14"/>
-      <c r="P42" s="14"/>
-      <c r="Q42" s="14"/>
-      <c r="R42" s="14"/>
-      <c r="S42" s="14"/>
+      <c r="I42" s="14">
+        <v>15</v>
+      </c>
+      <c r="J42" s="14">
+        <v>30</v>
+      </c>
+      <c r="K42" s="14">
+        <v>32</v>
+      </c>
+      <c r="L42" s="14">
+        <v>50</v>
+      </c>
+      <c r="M42" s="14">
+        <v>40</v>
+      </c>
+      <c r="N42" s="14">
+        <v>36</v>
+      </c>
+      <c r="O42" s="14">
+        <v>15</v>
+      </c>
+      <c r="P42" s="14">
+        <v>10</v>
+      </c>
+      <c r="Q42" s="14">
+        <v>15</v>
+      </c>
+      <c r="R42" s="14">
+        <v>10</v>
+      </c>
+      <c r="S42" s="14">
+        <v>1</v>
+      </c>
       <c r="T42" s="14"/>
     </row>
     <row r="43" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
@@ -3487,10 +4277,18 @@
       <c r="F43" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14"/>
+      <c r="G43" s="14">
+        <v>10</v>
+      </c>
+      <c r="H43" s="14">
+        <v>30</v>
+      </c>
+      <c r="I43" s="14">
+        <v>32</v>
+      </c>
+      <c r="J43" s="14">
+        <v>4</v>
+      </c>
       <c r="K43" s="14"/>
       <c r="L43" s="14"/>
       <c r="M43" s="14"/>
@@ -3523,13 +4321,25 @@
       </c>
       <c r="G44" s="14"/>
       <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="14"/>
-      <c r="K44" s="14"/>
-      <c r="L44" s="14"/>
-      <c r="M44" s="14"/>
+      <c r="I44" s="14">
+        <v>20</v>
+      </c>
+      <c r="J44" s="14">
+        <v>70</v>
+      </c>
+      <c r="K44" s="14">
+        <v>50</v>
+      </c>
+      <c r="L44" s="14">
+        <v>35</v>
+      </c>
+      <c r="M44" s="14">
+        <v>8</v>
+      </c>
       <c r="N44" s="14"/>
-      <c r="O44" s="14"/>
+      <c r="O44" s="14">
+        <v>1</v>
+      </c>
       <c r="P44" s="14"/>
       <c r="Q44" s="14"/>
       <c r="R44" s="14"/>
@@ -3557,17 +4367,39 @@
       </c>
       <c r="G45" s="14"/>
       <c r="H45" s="14"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="14"/>
-      <c r="K45" s="14"/>
-      <c r="L45" s="14"/>
-      <c r="M45" s="14"/>
-      <c r="N45" s="14"/>
-      <c r="O45" s="14"/>
-      <c r="P45" s="14"/>
-      <c r="Q45" s="14"/>
-      <c r="R45" s="14"/>
-      <c r="S45" s="14"/>
+      <c r="I45" s="14">
+        <v>80</v>
+      </c>
+      <c r="J45" s="14">
+        <v>120</v>
+      </c>
+      <c r="K45" s="14">
+        <v>120</v>
+      </c>
+      <c r="L45" s="14">
+        <v>120</v>
+      </c>
+      <c r="M45" s="14">
+        <v>120</v>
+      </c>
+      <c r="N45" s="14">
+        <v>105</v>
+      </c>
+      <c r="O45" s="14">
+        <v>100</v>
+      </c>
+      <c r="P45" s="14">
+        <v>60</v>
+      </c>
+      <c r="Q45" s="14">
+        <v>20</v>
+      </c>
+      <c r="R45" s="14">
+        <v>10</v>
+      </c>
+      <c r="S45" s="14">
+        <v>5</v>
+      </c>
       <c r="T45" s="14"/>
     </row>
     <row r="46" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
@@ -3591,16 +4423,36 @@
       </c>
       <c r="G46" s="14"/>
       <c r="H46" s="14"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="14"/>
-      <c r="K46" s="14"/>
-      <c r="L46" s="14"/>
-      <c r="M46" s="14"/>
-      <c r="N46" s="14"/>
-      <c r="O46" s="14"/>
-      <c r="P46" s="14"/>
-      <c r="Q46" s="14"/>
-      <c r="R46" s="14"/>
+      <c r="I46" s="14">
+        <v>35</v>
+      </c>
+      <c r="J46" s="14">
+        <v>80</v>
+      </c>
+      <c r="K46" s="14">
+        <v>110</v>
+      </c>
+      <c r="L46" s="14">
+        <v>110</v>
+      </c>
+      <c r="M46" s="14">
+        <v>100</v>
+      </c>
+      <c r="N46" s="14">
+        <v>100</v>
+      </c>
+      <c r="O46" s="14">
+        <v>80</v>
+      </c>
+      <c r="P46" s="14">
+        <v>80</v>
+      </c>
+      <c r="Q46" s="14">
+        <v>40</v>
+      </c>
+      <c r="R46" s="14">
+        <v>15</v>
+      </c>
       <c r="S46" s="14"/>
       <c r="T46" s="14"/>
     </row>
@@ -3625,17 +4477,39 @@
       </c>
       <c r="G47" s="14"/>
       <c r="H47" s="14"/>
-      <c r="I47" s="14"/>
-      <c r="J47" s="14"/>
-      <c r="K47" s="14"/>
-      <c r="L47" s="14"/>
-      <c r="M47" s="14"/>
-      <c r="N47" s="14"/>
-      <c r="O47" s="14"/>
-      <c r="P47" s="14"/>
-      <c r="Q47" s="14"/>
-      <c r="R47" s="14"/>
-      <c r="S47" s="14"/>
+      <c r="I47" s="14">
+        <v>50</v>
+      </c>
+      <c r="J47" s="14">
+        <v>100</v>
+      </c>
+      <c r="K47" s="14">
+        <v>150</v>
+      </c>
+      <c r="L47" s="14">
+        <v>200</v>
+      </c>
+      <c r="M47" s="14">
+        <v>150</v>
+      </c>
+      <c r="N47" s="14">
+        <v>150</v>
+      </c>
+      <c r="O47" s="14">
+        <v>100</v>
+      </c>
+      <c r="P47" s="14">
+        <v>50</v>
+      </c>
+      <c r="Q47" s="14">
+        <v>50</v>
+      </c>
+      <c r="R47" s="14">
+        <v>20</v>
+      </c>
+      <c r="S47" s="14">
+        <v>10</v>
+      </c>
       <c r="T47" s="14"/>
     </row>
     <row r="48" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
@@ -3659,17 +4533,39 @@
       </c>
       <c r="G48" s="14"/>
       <c r="H48" s="14"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="14"/>
-      <c r="K48" s="14"/>
-      <c r="L48" s="14"/>
-      <c r="M48" s="14"/>
-      <c r="N48" s="14"/>
-      <c r="O48" s="14"/>
-      <c r="P48" s="14"/>
-      <c r="Q48" s="14"/>
-      <c r="R48" s="14"/>
-      <c r="S48" s="14"/>
+      <c r="I48" s="14">
+        <v>100</v>
+      </c>
+      <c r="J48" s="14">
+        <v>115</v>
+      </c>
+      <c r="K48" s="14">
+        <v>120</v>
+      </c>
+      <c r="L48" s="14">
+        <v>100</v>
+      </c>
+      <c r="M48" s="14">
+        <v>100</v>
+      </c>
+      <c r="N48" s="14">
+        <v>100</v>
+      </c>
+      <c r="O48" s="14">
+        <v>100</v>
+      </c>
+      <c r="P48" s="14">
+        <v>100</v>
+      </c>
+      <c r="Q48" s="14">
+        <v>100</v>
+      </c>
+      <c r="R48" s="14">
+        <v>50</v>
+      </c>
+      <c r="S48" s="14">
+        <v>5</v>
+      </c>
       <c r="T48" s="14"/>
     </row>
     <row r="49" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
@@ -3694,11 +4590,19 @@
       <c r="G49" s="14"/>
       <c r="H49" s="14"/>
       <c r="I49" s="14"/>
-      <c r="J49" s="14"/>
-      <c r="K49" s="14"/>
-      <c r="L49" s="14"/>
+      <c r="J49" s="14">
+        <v>4</v>
+      </c>
+      <c r="K49" s="14">
+        <v>2</v>
+      </c>
+      <c r="L49" s="14">
+        <v>4</v>
+      </c>
       <c r="M49" s="14"/>
-      <c r="N49" s="14"/>
+      <c r="N49" s="14">
+        <v>2</v>
+      </c>
       <c r="O49" s="14"/>
       <c r="P49" s="14"/>
       <c r="Q49" s="14"/>
@@ -3727,14 +4631,28 @@
       </c>
       <c r="G50" s="14"/>
       <c r="H50" s="14"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="14"/>
-      <c r="K50" s="14"/>
-      <c r="L50" s="14"/>
-      <c r="M50" s="14"/>
-      <c r="N50" s="14"/>
+      <c r="I50" s="14">
+        <v>150</v>
+      </c>
+      <c r="J50" s="14">
+        <v>160</v>
+      </c>
+      <c r="K50" s="14">
+        <v>130</v>
+      </c>
+      <c r="L50" s="14">
+        <v>140</v>
+      </c>
+      <c r="M50" s="14">
+        <v>210</v>
+      </c>
+      <c r="N50" s="14">
+        <v>20</v>
+      </c>
       <c r="O50" s="14"/>
-      <c r="P50" s="14"/>
+      <c r="P50" s="14">
+        <v>10</v>
+      </c>
       <c r="Q50" s="14"/>
       <c r="R50" s="14"/>
       <c r="S50" s="14"/>
@@ -3761,17 +4679,39 @@
       </c>
       <c r="G51" s="14"/>
       <c r="H51" s="14"/>
-      <c r="I51" s="14"/>
-      <c r="J51" s="14"/>
-      <c r="K51" s="14"/>
-      <c r="L51" s="14"/>
-      <c r="M51" s="14"/>
-      <c r="N51" s="14"/>
-      <c r="O51" s="14"/>
-      <c r="P51" s="14"/>
-      <c r="Q51" s="14"/>
-      <c r="R51" s="14"/>
-      <c r="S51" s="14"/>
+      <c r="I51" s="14">
+        <v>60</v>
+      </c>
+      <c r="J51" s="14">
+        <v>130</v>
+      </c>
+      <c r="K51" s="14">
+        <v>160</v>
+      </c>
+      <c r="L51" s="14">
+        <v>130</v>
+      </c>
+      <c r="M51" s="14">
+        <v>180</v>
+      </c>
+      <c r="N51" s="14">
+        <v>120</v>
+      </c>
+      <c r="O51" s="14">
+        <v>70</v>
+      </c>
+      <c r="P51" s="14">
+        <v>70</v>
+      </c>
+      <c r="Q51" s="14">
+        <v>20</v>
+      </c>
+      <c r="R51" s="14">
+        <v>20</v>
+      </c>
+      <c r="S51" s="14">
+        <v>10</v>
+      </c>
       <c r="T51" s="14"/>
     </row>
     <row r="52" spans="1:20" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
@@ -3794,10 +4734,18 @@
         <v>68</v>
       </c>
       <c r="G52" s="14"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="14"/>
-      <c r="J52" s="14"/>
-      <c r="K52" s="14"/>
+      <c r="H52" s="14">
+        <v>60</v>
+      </c>
+      <c r="I52" s="14">
+        <v>50</v>
+      </c>
+      <c r="J52" s="14">
+        <v>10</v>
+      </c>
+      <c r="K52" s="14">
+        <v>6</v>
+      </c>
       <c r="L52" s="14"/>
       <c r="M52" s="14"/>
       <c r="N52" s="14"/>
@@ -3828,14 +4776,30 @@
         <v>69</v>
       </c>
       <c r="G53" s="14"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="14"/>
-      <c r="J53" s="14"/>
-      <c r="K53" s="14"/>
-      <c r="L53" s="14"/>
-      <c r="M53" s="14"/>
-      <c r="N53" s="14"/>
-      <c r="O53" s="14"/>
+      <c r="H53" s="14">
+        <v>2</v>
+      </c>
+      <c r="I53" s="14">
+        <v>21</v>
+      </c>
+      <c r="J53" s="14">
+        <v>33</v>
+      </c>
+      <c r="K53" s="14">
+        <v>47</v>
+      </c>
+      <c r="L53" s="14">
+        <v>30</v>
+      </c>
+      <c r="M53" s="14">
+        <v>20</v>
+      </c>
+      <c r="N53" s="14">
+        <v>10</v>
+      </c>
+      <c r="O53" s="14">
+        <v>2</v>
+      </c>
       <c r="P53" s="14"/>
       <c r="Q53" s="14"/>
       <c r="R53" s="14"/>
@@ -3861,18 +4825,42 @@
       <c r="F54" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="14"/>
-      <c r="J54" s="14"/>
-      <c r="K54" s="14"/>
-      <c r="L54" s="14"/>
-      <c r="M54" s="14"/>
-      <c r="N54" s="14"/>
-      <c r="O54" s="14"/>
-      <c r="P54" s="14"/>
-      <c r="Q54" s="14"/>
-      <c r="R54" s="14"/>
+      <c r="G54" s="14">
+        <v>10</v>
+      </c>
+      <c r="H54" s="14">
+        <v>30</v>
+      </c>
+      <c r="I54" s="14">
+        <v>60</v>
+      </c>
+      <c r="J54" s="14">
+        <v>60</v>
+      </c>
+      <c r="K54" s="14">
+        <v>40</v>
+      </c>
+      <c r="L54" s="14">
+        <v>30</v>
+      </c>
+      <c r="M54" s="14">
+        <v>15</v>
+      </c>
+      <c r="N54" s="14">
+        <v>10</v>
+      </c>
+      <c r="O54" s="14">
+        <v>6</v>
+      </c>
+      <c r="P54" s="14">
+        <v>2</v>
+      </c>
+      <c r="Q54" s="14">
+        <v>2</v>
+      </c>
+      <c r="R54" s="14">
+        <v>2</v>
+      </c>
       <c r="S54" s="14"/>
       <c r="T54" s="14"/>
     </row>
@@ -3896,18 +4884,42 @@
         <v>71</v>
       </c>
       <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="14"/>
-      <c r="J55" s="14"/>
-      <c r="K55" s="14"/>
-      <c r="L55" s="14"/>
-      <c r="M55" s="14"/>
-      <c r="N55" s="14"/>
-      <c r="O55" s="14"/>
-      <c r="P55" s="14"/>
-      <c r="Q55" s="14"/>
-      <c r="R55" s="14"/>
-      <c r="S55" s="14"/>
+      <c r="H55" s="14">
+        <v>2</v>
+      </c>
+      <c r="I55" s="14">
+        <v>45</v>
+      </c>
+      <c r="J55" s="14">
+        <v>80</v>
+      </c>
+      <c r="K55" s="14">
+        <v>89</v>
+      </c>
+      <c r="L55" s="14">
+        <v>95</v>
+      </c>
+      <c r="M55" s="14">
+        <v>145</v>
+      </c>
+      <c r="N55" s="14">
+        <v>135</v>
+      </c>
+      <c r="O55" s="14">
+        <v>120</v>
+      </c>
+      <c r="P55" s="14">
+        <v>100</v>
+      </c>
+      <c r="Q55" s="14">
+        <v>44</v>
+      </c>
+      <c r="R55" s="14">
+        <v>10</v>
+      </c>
+      <c r="S55" s="14">
+        <v>2</v>
+      </c>
       <c r="T55" s="14"/>
     </row>
     <row r="56" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
@@ -3931,17 +4943,39 @@
       </c>
       <c r="G56" s="14"/>
       <c r="H56" s="14"/>
-      <c r="I56" s="14"/>
-      <c r="J56" s="14"/>
-      <c r="K56" s="14"/>
-      <c r="L56" s="14"/>
-      <c r="M56" s="14"/>
-      <c r="N56" s="14"/>
-      <c r="O56" s="14"/>
-      <c r="P56" s="14"/>
-      <c r="Q56" s="14"/>
-      <c r="R56" s="14"/>
-      <c r="S56" s="14"/>
+      <c r="I56" s="14">
+        <v>69</v>
+      </c>
+      <c r="J56" s="14">
+        <v>163</v>
+      </c>
+      <c r="K56" s="14">
+        <v>200</v>
+      </c>
+      <c r="L56" s="14">
+        <v>174</v>
+      </c>
+      <c r="M56" s="14">
+        <v>154</v>
+      </c>
+      <c r="N56" s="14">
+        <v>142</v>
+      </c>
+      <c r="O56" s="14">
+        <v>105</v>
+      </c>
+      <c r="P56" s="14">
+        <v>83</v>
+      </c>
+      <c r="Q56" s="14">
+        <v>55</v>
+      </c>
+      <c r="R56" s="14">
+        <v>20</v>
+      </c>
+      <c r="S56" s="14">
+        <v>11</v>
+      </c>
       <c r="T56" s="14"/>
     </row>
     <row r="57" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
@@ -3998,18 +5032,42 @@
         <v>74</v>
       </c>
       <c r="G58" s="14"/>
-      <c r="H58" s="14"/>
-      <c r="I58" s="14"/>
-      <c r="J58" s="14"/>
-      <c r="K58" s="14"/>
-      <c r="L58" s="14"/>
-      <c r="M58" s="14"/>
-      <c r="N58" s="14"/>
-      <c r="O58" s="14"/>
-      <c r="P58" s="14"/>
-      <c r="Q58" s="14"/>
-      <c r="R58" s="14"/>
-      <c r="S58" s="14"/>
+      <c r="H58" s="14">
+        <v>2</v>
+      </c>
+      <c r="I58" s="14">
+        <v>15</v>
+      </c>
+      <c r="J58" s="14">
+        <v>60</v>
+      </c>
+      <c r="K58" s="14">
+        <v>98</v>
+      </c>
+      <c r="L58" s="14">
+        <v>98</v>
+      </c>
+      <c r="M58" s="14">
+        <v>132</v>
+      </c>
+      <c r="N58" s="14">
+        <v>120</v>
+      </c>
+      <c r="O58" s="14">
+        <v>120</v>
+      </c>
+      <c r="P58" s="14">
+        <v>124</v>
+      </c>
+      <c r="Q58" s="14">
+        <v>80</v>
+      </c>
+      <c r="R58" s="14">
+        <v>21</v>
+      </c>
+      <c r="S58" s="14">
+        <v>10</v>
+      </c>
       <c r="T58" s="14"/>
     </row>
     <row r="59" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
@@ -4032,16 +5090,36 @@
         <v>75</v>
       </c>
       <c r="G59" s="14"/>
-      <c r="H59" s="14"/>
-      <c r="I59" s="14"/>
-      <c r="J59" s="14"/>
-      <c r="K59" s="14"/>
-      <c r="L59" s="14"/>
-      <c r="M59" s="14"/>
-      <c r="N59" s="14"/>
-      <c r="O59" s="14"/>
-      <c r="P59" s="14"/>
-      <c r="Q59" s="14"/>
+      <c r="H59" s="14">
+        <v>107</v>
+      </c>
+      <c r="I59" s="14">
+        <v>120</v>
+      </c>
+      <c r="J59" s="14">
+        <v>120</v>
+      </c>
+      <c r="K59" s="14">
+        <v>100</v>
+      </c>
+      <c r="L59" s="14">
+        <v>90</v>
+      </c>
+      <c r="M59" s="14">
+        <v>60</v>
+      </c>
+      <c r="N59" s="14">
+        <v>60</v>
+      </c>
+      <c r="O59" s="14">
+        <v>20</v>
+      </c>
+      <c r="P59" s="14">
+        <v>4</v>
+      </c>
+      <c r="Q59" s="14">
+        <v>1</v>
+      </c>
       <c r="R59" s="14"/>
       <c r="S59" s="14"/>
       <c r="T59" s="14"/>
@@ -4067,18 +5145,42 @@
       </c>
       <c r="G60" s="14"/>
       <c r="H60" s="14"/>
-      <c r="I60" s="14"/>
-      <c r="J60" s="14"/>
-      <c r="K60" s="14"/>
-      <c r="L60" s="14"/>
-      <c r="M60" s="14"/>
-      <c r="N60" s="14"/>
-      <c r="O60" s="14"/>
-      <c r="P60" s="14"/>
-      <c r="Q60" s="14"/>
-      <c r="R60" s="14"/>
-      <c r="S60" s="14"/>
-      <c r="T60" s="14"/>
+      <c r="I60" s="14">
+        <v>15</v>
+      </c>
+      <c r="J60" s="14">
+        <v>200</v>
+      </c>
+      <c r="K60" s="14">
+        <v>150</v>
+      </c>
+      <c r="L60" s="14">
+        <v>150</v>
+      </c>
+      <c r="M60" s="14">
+        <v>150</v>
+      </c>
+      <c r="N60" s="14">
+        <v>200</v>
+      </c>
+      <c r="O60" s="14">
+        <v>200</v>
+      </c>
+      <c r="P60" s="14">
+        <v>200</v>
+      </c>
+      <c r="Q60" s="14">
+        <v>80</v>
+      </c>
+      <c r="R60" s="14">
+        <v>5</v>
+      </c>
+      <c r="S60" s="14">
+        <v>4</v>
+      </c>
+      <c r="T60" s="14">
+        <v>4</v>
+      </c>
     </row>
     <row r="61" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
@@ -4100,15 +5202,33 @@
         <v>77</v>
       </c>
       <c r="G61" s="14"/>
-      <c r="H61" s="14"/>
-      <c r="I61" s="14"/>
-      <c r="J61" s="14"/>
-      <c r="K61" s="14"/>
-      <c r="L61" s="14"/>
-      <c r="M61" s="14"/>
-      <c r="N61" s="14"/>
-      <c r="O61" s="14"/>
-      <c r="P61" s="14"/>
+      <c r="H61" s="14">
+        <v>9</v>
+      </c>
+      <c r="I61" s="14">
+        <v>25</v>
+      </c>
+      <c r="J61" s="14">
+        <v>18</v>
+      </c>
+      <c r="K61" s="14">
+        <v>10</v>
+      </c>
+      <c r="L61" s="14">
+        <v>13</v>
+      </c>
+      <c r="M61" s="14">
+        <v>14</v>
+      </c>
+      <c r="N61" s="14">
+        <v>7</v>
+      </c>
+      <c r="O61" s="14">
+        <v>1</v>
+      </c>
+      <c r="P61" s="14">
+        <v>1</v>
+      </c>
       <c r="Q61" s="14"/>
       <c r="R61" s="14"/>
       <c r="S61" s="14"/>
@@ -4135,16 +5255,36 @@
       </c>
       <c r="G62" s="14"/>
       <c r="H62" s="14"/>
-      <c r="I62" s="14"/>
-      <c r="J62" s="14"/>
-      <c r="K62" s="14"/>
-      <c r="L62" s="14"/>
-      <c r="M62" s="14"/>
-      <c r="N62" s="14"/>
-      <c r="O62" s="14"/>
-      <c r="P62" s="14"/>
-      <c r="Q62" s="14"/>
-      <c r="R62" s="14"/>
+      <c r="I62" s="14">
+        <v>45</v>
+      </c>
+      <c r="J62" s="14">
+        <v>48</v>
+      </c>
+      <c r="K62" s="14">
+        <v>54</v>
+      </c>
+      <c r="L62" s="14">
+        <v>68</v>
+      </c>
+      <c r="M62" s="14">
+        <v>78</v>
+      </c>
+      <c r="N62" s="14">
+        <v>86</v>
+      </c>
+      <c r="O62" s="14">
+        <v>94</v>
+      </c>
+      <c r="P62" s="14">
+        <v>116</v>
+      </c>
+      <c r="Q62" s="14">
+        <v>125</v>
+      </c>
+      <c r="R62" s="14">
+        <v>105</v>
+      </c>
       <c r="S62" s="14"/>
       <c r="T62" s="14"/>
     </row>
@@ -4169,17 +5309,39 @@
       </c>
       <c r="G63" s="14"/>
       <c r="H63" s="14"/>
-      <c r="I63" s="14"/>
-      <c r="J63" s="14"/>
-      <c r="K63" s="14"/>
-      <c r="L63" s="14"/>
-      <c r="M63" s="14"/>
-      <c r="N63" s="14"/>
-      <c r="O63" s="14"/>
-      <c r="P63" s="14"/>
-      <c r="Q63" s="14"/>
-      <c r="R63" s="14"/>
-      <c r="S63" s="14"/>
+      <c r="I63" s="14">
+        <v>110</v>
+      </c>
+      <c r="J63" s="14">
+        <v>182</v>
+      </c>
+      <c r="K63" s="14">
+        <v>113</v>
+      </c>
+      <c r="L63" s="14">
+        <v>124</v>
+      </c>
+      <c r="M63" s="14">
+        <v>151</v>
+      </c>
+      <c r="N63" s="14">
+        <v>154</v>
+      </c>
+      <c r="O63" s="14">
+        <v>80</v>
+      </c>
+      <c r="P63" s="14">
+        <v>84</v>
+      </c>
+      <c r="Q63" s="14">
+        <v>70</v>
+      </c>
+      <c r="R63" s="14">
+        <v>60</v>
+      </c>
+      <c r="S63" s="14">
+        <v>10</v>
+      </c>
       <c r="T63" s="14"/>
     </row>
     <row r="64" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
@@ -4203,16 +5365,36 @@
       </c>
       <c r="G64" s="14"/>
       <c r="H64" s="14"/>
-      <c r="I64" s="14"/>
-      <c r="J64" s="14"/>
-      <c r="K64" s="14"/>
-      <c r="L64" s="14"/>
-      <c r="M64" s="14"/>
-      <c r="N64" s="14"/>
-      <c r="O64" s="14"/>
-      <c r="P64" s="14"/>
-      <c r="Q64" s="14"/>
-      <c r="R64" s="14"/>
+      <c r="I64" s="14">
+        <v>35</v>
+      </c>
+      <c r="J64" s="14">
+        <v>160</v>
+      </c>
+      <c r="K64" s="14">
+        <v>120</v>
+      </c>
+      <c r="L64" s="14">
+        <v>150</v>
+      </c>
+      <c r="M64" s="14">
+        <v>150</v>
+      </c>
+      <c r="N64" s="14">
+        <v>110</v>
+      </c>
+      <c r="O64" s="14">
+        <v>70</v>
+      </c>
+      <c r="P64" s="14">
+        <v>40</v>
+      </c>
+      <c r="Q64" s="14">
+        <v>20</v>
+      </c>
+      <c r="R64" s="14">
+        <v>10</v>
+      </c>
       <c r="S64" s="14"/>
       <c r="T64" s="14"/>
     </row>
@@ -4236,18 +5418,42 @@
         <v>81</v>
       </c>
       <c r="G65" s="14"/>
-      <c r="H65" s="14"/>
-      <c r="I65" s="14"/>
-      <c r="J65" s="14"/>
-      <c r="K65" s="14"/>
-      <c r="L65" s="14"/>
-      <c r="M65" s="14"/>
-      <c r="N65" s="14"/>
-      <c r="O65" s="14"/>
-      <c r="P65" s="14"/>
-      <c r="Q65" s="14"/>
-      <c r="R65" s="14"/>
-      <c r="S65" s="14"/>
+      <c r="H65" s="14">
+        <v>2</v>
+      </c>
+      <c r="I65" s="14">
+        <v>90</v>
+      </c>
+      <c r="J65" s="14">
+        <v>115</v>
+      </c>
+      <c r="K65" s="14">
+        <v>115</v>
+      </c>
+      <c r="L65" s="14">
+        <v>110</v>
+      </c>
+      <c r="M65" s="14">
+        <v>110</v>
+      </c>
+      <c r="N65" s="14">
+        <v>110</v>
+      </c>
+      <c r="O65" s="14">
+        <v>100</v>
+      </c>
+      <c r="P65" s="14">
+        <v>95</v>
+      </c>
+      <c r="Q65" s="14">
+        <v>80</v>
+      </c>
+      <c r="R65" s="14">
+        <v>45</v>
+      </c>
+      <c r="S65" s="14">
+        <v>15</v>
+      </c>
       <c r="T65" s="14"/>
     </row>
     <row r="66" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
@@ -4271,14 +5477,30 @@
       </c>
       <c r="G66" s="14"/>
       <c r="H66" s="14"/>
-      <c r="I66" s="14"/>
-      <c r="J66" s="14"/>
-      <c r="K66" s="14"/>
-      <c r="L66" s="14"/>
-      <c r="M66" s="14"/>
-      <c r="N66" s="14"/>
-      <c r="O66" s="14"/>
-      <c r="P66" s="14"/>
+      <c r="I66" s="14">
+        <v>120</v>
+      </c>
+      <c r="J66" s="14">
+        <v>225</v>
+      </c>
+      <c r="K66" s="14">
+        <v>205</v>
+      </c>
+      <c r="L66" s="14">
+        <v>160</v>
+      </c>
+      <c r="M66" s="14">
+        <v>115</v>
+      </c>
+      <c r="N66" s="14">
+        <v>215</v>
+      </c>
+      <c r="O66" s="14">
+        <v>50</v>
+      </c>
+      <c r="P66" s="14">
+        <v>20</v>
+      </c>
       <c r="Q66" s="14"/>
       <c r="R66" s="14"/>
       <c r="S66" s="14"/>
@@ -4340,16 +5562,36 @@
       <c r="G68" s="14"/>
       <c r="H68" s="14"/>
       <c r="I68" s="14"/>
-      <c r="J68" s="14"/>
-      <c r="K68" s="14"/>
-      <c r="L68" s="14"/>
-      <c r="M68" s="14"/>
-      <c r="N68" s="14"/>
-      <c r="O68" s="14"/>
-      <c r="P68" s="14"/>
-      <c r="Q68" s="14"/>
-      <c r="R68" s="14"/>
-      <c r="S68" s="14"/>
+      <c r="J68" s="14">
+        <v>3</v>
+      </c>
+      <c r="K68" s="14">
+        <v>3</v>
+      </c>
+      <c r="L68" s="14">
+        <v>60</v>
+      </c>
+      <c r="M68" s="14">
+        <v>140</v>
+      </c>
+      <c r="N68" s="14">
+        <v>200</v>
+      </c>
+      <c r="O68" s="14">
+        <v>260</v>
+      </c>
+      <c r="P68" s="14">
+        <v>130</v>
+      </c>
+      <c r="Q68" s="14">
+        <v>30</v>
+      </c>
+      <c r="R68" s="14">
+        <v>20</v>
+      </c>
+      <c r="S68" s="14">
+        <v>10</v>
+      </c>
       <c r="T68" s="14"/>
     </row>
     <row r="69" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
@@ -4372,18 +5614,42 @@
         <v>388</v>
       </c>
       <c r="G69" s="14"/>
-      <c r="H69" s="14"/>
-      <c r="I69" s="14"/>
-      <c r="J69" s="14"/>
-      <c r="K69" s="14"/>
-      <c r="L69" s="14"/>
-      <c r="M69" s="14"/>
-      <c r="N69" s="14"/>
-      <c r="O69" s="14"/>
-      <c r="P69" s="14"/>
-      <c r="Q69" s="14"/>
-      <c r="R69" s="14"/>
-      <c r="S69" s="14"/>
+      <c r="H69" s="14">
+        <v>100</v>
+      </c>
+      <c r="I69" s="14">
+        <v>80</v>
+      </c>
+      <c r="J69" s="14">
+        <v>130</v>
+      </c>
+      <c r="K69" s="14">
+        <v>130</v>
+      </c>
+      <c r="L69" s="14">
+        <v>115</v>
+      </c>
+      <c r="M69" s="14">
+        <v>140</v>
+      </c>
+      <c r="N69" s="14">
+        <v>120</v>
+      </c>
+      <c r="O69" s="14">
+        <v>120</v>
+      </c>
+      <c r="P69" s="14">
+        <v>250</v>
+      </c>
+      <c r="Q69" s="14">
+        <v>80</v>
+      </c>
+      <c r="R69" s="14">
+        <v>30</v>
+      </c>
+      <c r="S69" s="14">
+        <v>10</v>
+      </c>
       <c r="T69" s="14"/>
     </row>
     <row r="70" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
@@ -4406,18 +5672,42 @@
         <v>389</v>
       </c>
       <c r="G70" s="14"/>
-      <c r="H70" s="14"/>
-      <c r="I70" s="14"/>
-      <c r="J70" s="14"/>
-      <c r="K70" s="14"/>
-      <c r="L70" s="14"/>
-      <c r="M70" s="14"/>
-      <c r="N70" s="14"/>
-      <c r="O70" s="14"/>
-      <c r="P70" s="14"/>
-      <c r="Q70" s="14"/>
-      <c r="R70" s="14"/>
-      <c r="S70" s="14"/>
+      <c r="H70" s="14">
+        <v>20</v>
+      </c>
+      <c r="I70" s="14">
+        <v>40</v>
+      </c>
+      <c r="J70" s="14">
+        <v>65</v>
+      </c>
+      <c r="K70" s="14">
+        <v>70</v>
+      </c>
+      <c r="L70" s="14">
+        <v>95</v>
+      </c>
+      <c r="M70" s="14">
+        <v>85</v>
+      </c>
+      <c r="N70" s="14">
+        <v>85</v>
+      </c>
+      <c r="O70" s="14">
+        <v>75</v>
+      </c>
+      <c r="P70" s="14">
+        <v>75</v>
+      </c>
+      <c r="Q70" s="14">
+        <v>75</v>
+      </c>
+      <c r="R70" s="14">
+        <v>70</v>
+      </c>
+      <c r="S70" s="14">
+        <v>35</v>
+      </c>
       <c r="T70" s="14"/>
     </row>
     <row r="71" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
@@ -4439,17 +5729,35 @@
       <c r="F71" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="G71" s="14"/>
-      <c r="H71" s="14"/>
-      <c r="I71" s="14"/>
-      <c r="J71" s="14"/>
-      <c r="K71" s="14"/>
-      <c r="L71" s="14"/>
-      <c r="M71" s="14"/>
-      <c r="N71" s="14"/>
+      <c r="G71" s="14">
+        <v>7</v>
+      </c>
+      <c r="H71" s="14">
+        <v>25</v>
+      </c>
+      <c r="I71" s="14">
+        <v>55</v>
+      </c>
+      <c r="J71" s="14">
+        <v>45</v>
+      </c>
+      <c r="K71" s="14">
+        <v>20</v>
+      </c>
+      <c r="L71" s="14">
+        <v>17</v>
+      </c>
+      <c r="M71" s="14">
+        <v>6</v>
+      </c>
+      <c r="N71" s="14">
+        <v>5</v>
+      </c>
       <c r="O71" s="14"/>
       <c r="P71" s="14"/>
-      <c r="Q71" s="14"/>
+      <c r="Q71" s="14">
+        <v>2</v>
+      </c>
       <c r="R71" s="14"/>
       <c r="S71" s="14"/>
       <c r="T71" s="14"/>
@@ -4475,16 +5783,36 @@
       </c>
       <c r="G72" s="14"/>
       <c r="H72" s="14"/>
-      <c r="I72" s="14"/>
-      <c r="J72" s="14"/>
-      <c r="K72" s="14"/>
-      <c r="L72" s="14"/>
-      <c r="M72" s="14"/>
-      <c r="N72" s="14"/>
-      <c r="O72" s="14"/>
-      <c r="P72" s="14"/>
-      <c r="Q72" s="14"/>
-      <c r="R72" s="14"/>
+      <c r="I72" s="14">
+        <v>50</v>
+      </c>
+      <c r="J72" s="14">
+        <v>82</v>
+      </c>
+      <c r="K72" s="14">
+        <v>100</v>
+      </c>
+      <c r="L72" s="14">
+        <v>100</v>
+      </c>
+      <c r="M72" s="14">
+        <v>60</v>
+      </c>
+      <c r="N72" s="14">
+        <v>80</v>
+      </c>
+      <c r="O72" s="14">
+        <v>80</v>
+      </c>
+      <c r="P72" s="14">
+        <v>30</v>
+      </c>
+      <c r="Q72" s="14">
+        <v>20</v>
+      </c>
+      <c r="R72" s="14">
+        <v>20</v>
+      </c>
       <c r="S72" s="14"/>
       <c r="T72" s="14"/>
     </row>
@@ -4508,18 +5836,42 @@
         <v>392</v>
       </c>
       <c r="G73" s="14"/>
-      <c r="H73" s="14"/>
-      <c r="I73" s="14"/>
-      <c r="J73" s="14"/>
-      <c r="K73" s="14"/>
-      <c r="L73" s="14"/>
-      <c r="M73" s="14"/>
-      <c r="N73" s="14"/>
-      <c r="O73" s="14"/>
-      <c r="P73" s="14"/>
-      <c r="Q73" s="14"/>
-      <c r="R73" s="14"/>
-      <c r="S73" s="14"/>
+      <c r="H73" s="14">
+        <v>53</v>
+      </c>
+      <c r="I73" s="14">
+        <v>172</v>
+      </c>
+      <c r="J73" s="14">
+        <v>204</v>
+      </c>
+      <c r="K73" s="14">
+        <v>202</v>
+      </c>
+      <c r="L73" s="14">
+        <v>204</v>
+      </c>
+      <c r="M73" s="14">
+        <v>189</v>
+      </c>
+      <c r="N73" s="14">
+        <v>126</v>
+      </c>
+      <c r="O73" s="14">
+        <v>80</v>
+      </c>
+      <c r="P73" s="14">
+        <v>70</v>
+      </c>
+      <c r="Q73" s="14">
+        <v>60</v>
+      </c>
+      <c r="R73" s="14">
+        <v>15</v>
+      </c>
+      <c r="S73" s="14">
+        <v>8</v>
+      </c>
       <c r="T73" s="14"/>
     </row>
     <row r="74" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
@@ -4543,17 +5895,39 @@
       </c>
       <c r="G74" s="14"/>
       <c r="H74" s="14"/>
-      <c r="I74" s="14"/>
-      <c r="J74" s="14"/>
-      <c r="K74" s="14"/>
-      <c r="L74" s="14"/>
-      <c r="M74" s="14"/>
-      <c r="N74" s="14"/>
-      <c r="O74" s="14"/>
-      <c r="P74" s="14"/>
-      <c r="Q74" s="14"/>
-      <c r="R74" s="14"/>
-      <c r="S74" s="14"/>
+      <c r="I74" s="14">
+        <v>102</v>
+      </c>
+      <c r="J74" s="14">
+        <v>180</v>
+      </c>
+      <c r="K74" s="14">
+        <v>181</v>
+      </c>
+      <c r="L74" s="14">
+        <v>228</v>
+      </c>
+      <c r="M74" s="14">
+        <v>172</v>
+      </c>
+      <c r="N74" s="14">
+        <v>166</v>
+      </c>
+      <c r="O74" s="14">
+        <v>100</v>
+      </c>
+      <c r="P74" s="14">
+        <v>77</v>
+      </c>
+      <c r="Q74" s="14">
+        <v>52</v>
+      </c>
+      <c r="R74" s="14">
+        <v>14</v>
+      </c>
+      <c r="S74" s="14">
+        <v>10</v>
+      </c>
       <c r="T74" s="14"/>
     </row>
     <row r="75" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
@@ -4579,15 +5953,33 @@
       <c r="H75" s="14"/>
       <c r="I75" s="14"/>
       <c r="J75" s="14"/>
-      <c r="K75" s="14"/>
-      <c r="L75" s="14"/>
-      <c r="M75" s="14"/>
-      <c r="N75" s="14"/>
-      <c r="O75" s="14"/>
-      <c r="P75" s="14"/>
-      <c r="Q75" s="14"/>
-      <c r="R75" s="14"/>
-      <c r="S75" s="14"/>
+      <c r="K75" s="14">
+        <v>5</v>
+      </c>
+      <c r="L75" s="14">
+        <v>40</v>
+      </c>
+      <c r="M75" s="14">
+        <v>60</v>
+      </c>
+      <c r="N75" s="14">
+        <v>90</v>
+      </c>
+      <c r="O75" s="14">
+        <v>90</v>
+      </c>
+      <c r="P75" s="14">
+        <v>80</v>
+      </c>
+      <c r="Q75" s="14">
+        <v>60</v>
+      </c>
+      <c r="R75" s="14">
+        <v>55</v>
+      </c>
+      <c r="S75" s="14">
+        <v>5</v>
+      </c>
       <c r="T75" s="14"/>
     </row>
     <row r="76" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
@@ -4609,19 +6001,41 @@
       <c r="F76" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="G76" s="14"/>
-      <c r="H76" s="14"/>
-      <c r="I76" s="14"/>
-      <c r="J76" s="14"/>
-      <c r="K76" s="14"/>
-      <c r="L76" s="14"/>
-      <c r="M76" s="14"/>
-      <c r="N76" s="14"/>
+      <c r="G76" s="14">
+        <v>3</v>
+      </c>
+      <c r="H76" s="14">
+        <v>37</v>
+      </c>
+      <c r="I76" s="14">
+        <v>33</v>
+      </c>
+      <c r="J76" s="14">
+        <v>33</v>
+      </c>
+      <c r="K76" s="14">
+        <v>43</v>
+      </c>
+      <c r="L76" s="14">
+        <v>27</v>
+      </c>
+      <c r="M76" s="14">
+        <v>10</v>
+      </c>
+      <c r="N76" s="14">
+        <v>4</v>
+      </c>
       <c r="O76" s="14"/>
-      <c r="P76" s="14"/>
+      <c r="P76" s="14">
+        <v>2</v>
+      </c>
       <c r="Q76" s="14"/>
-      <c r="R76" s="14"/>
-      <c r="S76" s="14"/>
+      <c r="R76" s="14">
+        <v>2</v>
+      </c>
+      <c r="S76" s="14">
+        <v>1</v>
+      </c>
       <c r="T76" s="14"/>
     </row>
     <row r="77" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
@@ -4648,12 +6062,24 @@
       <c r="I77" s="14"/>
       <c r="J77" s="14"/>
       <c r="K77" s="14"/>
-      <c r="L77" s="14"/>
-      <c r="M77" s="14"/>
-      <c r="N77" s="14"/>
-      <c r="O77" s="14"/>
-      <c r="P77" s="14"/>
-      <c r="Q77" s="14"/>
+      <c r="L77" s="14">
+        <v>30</v>
+      </c>
+      <c r="M77" s="14">
+        <v>40</v>
+      </c>
+      <c r="N77" s="14">
+        <v>159</v>
+      </c>
+      <c r="O77" s="14">
+        <v>152</v>
+      </c>
+      <c r="P77" s="14">
+        <v>153</v>
+      </c>
+      <c r="Q77" s="14">
+        <v>30</v>
+      </c>
       <c r="R77" s="14"/>
       <c r="S77" s="14"/>
       <c r="T77" s="14"/>
@@ -4678,18 +6104,42 @@
         <v>397</v>
       </c>
       <c r="G78" s="14"/>
-      <c r="H78" s="14"/>
-      <c r="I78" s="14"/>
-      <c r="J78" s="14"/>
-      <c r="K78" s="14"/>
-      <c r="L78" s="14"/>
-      <c r="M78" s="14"/>
-      <c r="N78" s="14"/>
-      <c r="O78" s="14"/>
-      <c r="P78" s="14"/>
-      <c r="Q78" s="14"/>
-      <c r="R78" s="14"/>
-      <c r="S78" s="14"/>
+      <c r="H78" s="14">
+        <v>100</v>
+      </c>
+      <c r="I78" s="14">
+        <v>220</v>
+      </c>
+      <c r="J78" s="14">
+        <v>140</v>
+      </c>
+      <c r="K78" s="14">
+        <v>140</v>
+      </c>
+      <c r="L78" s="14">
+        <v>160</v>
+      </c>
+      <c r="M78" s="14">
+        <v>160</v>
+      </c>
+      <c r="N78" s="14">
+        <v>140</v>
+      </c>
+      <c r="O78" s="14">
+        <v>70</v>
+      </c>
+      <c r="P78" s="14">
+        <v>60</v>
+      </c>
+      <c r="Q78" s="14">
+        <v>55</v>
+      </c>
+      <c r="R78" s="14">
+        <v>10</v>
+      </c>
+      <c r="S78" s="14">
+        <v>10</v>
+      </c>
       <c r="T78" s="14"/>
     </row>
     <row r="79" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
@@ -4712,18 +6162,42 @@
         <v>398</v>
       </c>
       <c r="G79" s="14"/>
-      <c r="H79" s="14"/>
-      <c r="I79" s="14"/>
-      <c r="J79" s="14"/>
-      <c r="K79" s="14"/>
-      <c r="L79" s="14"/>
-      <c r="M79" s="14"/>
-      <c r="N79" s="14"/>
-      <c r="O79" s="14"/>
-      <c r="P79" s="14"/>
-      <c r="Q79" s="14"/>
-      <c r="R79" s="14"/>
-      <c r="S79" s="14"/>
+      <c r="H79" s="14">
+        <v>10</v>
+      </c>
+      <c r="I79" s="14">
+        <v>10</v>
+      </c>
+      <c r="J79" s="14">
+        <v>140</v>
+      </c>
+      <c r="K79" s="14">
+        <v>105</v>
+      </c>
+      <c r="L79" s="14">
+        <v>120</v>
+      </c>
+      <c r="M79" s="14">
+        <v>170</v>
+      </c>
+      <c r="N79" s="14">
+        <v>100</v>
+      </c>
+      <c r="O79" s="14">
+        <v>105</v>
+      </c>
+      <c r="P79" s="14">
+        <v>120</v>
+      </c>
+      <c r="Q79" s="14">
+        <v>65</v>
+      </c>
+      <c r="R79" s="14">
+        <v>10</v>
+      </c>
+      <c r="S79" s="14">
+        <v>10</v>
+      </c>
       <c r="T79" s="14"/>
     </row>
     <row r="80" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
@@ -4746,17 +6220,39 @@
         <v>399</v>
       </c>
       <c r="G80" s="14"/>
-      <c r="H80" s="14"/>
-      <c r="I80" s="14"/>
-      <c r="J80" s="14"/>
-      <c r="K80" s="14"/>
-      <c r="L80" s="14"/>
-      <c r="M80" s="14"/>
-      <c r="N80" s="14"/>
-      <c r="O80" s="14"/>
-      <c r="P80" s="14"/>
-      <c r="Q80" s="14"/>
-      <c r="R80" s="14"/>
+      <c r="H80" s="14">
+        <v>5</v>
+      </c>
+      <c r="I80" s="14">
+        <v>60</v>
+      </c>
+      <c r="J80" s="14">
+        <v>80</v>
+      </c>
+      <c r="K80" s="14">
+        <v>100</v>
+      </c>
+      <c r="L80" s="14">
+        <v>110</v>
+      </c>
+      <c r="M80" s="14">
+        <v>100</v>
+      </c>
+      <c r="N80" s="14">
+        <v>100</v>
+      </c>
+      <c r="O80" s="14">
+        <v>50</v>
+      </c>
+      <c r="P80" s="14">
+        <v>50</v>
+      </c>
+      <c r="Q80" s="14">
+        <v>40</v>
+      </c>
+      <c r="R80" s="14">
+        <v>5</v>
+      </c>
       <c r="S80" s="14"/>
       <c r="T80" s="14"/>
     </row>
@@ -4781,13 +6277,27 @@
       </c>
       <c r="G81" s="14"/>
       <c r="H81" s="14"/>
-      <c r="I81" s="14"/>
-      <c r="J81" s="14"/>
-      <c r="K81" s="14"/>
-      <c r="L81" s="14"/>
-      <c r="M81" s="14"/>
-      <c r="N81" s="14"/>
-      <c r="O81" s="14"/>
+      <c r="I81" s="14">
+        <v>120</v>
+      </c>
+      <c r="J81" s="14">
+        <v>150</v>
+      </c>
+      <c r="K81" s="14">
+        <v>90</v>
+      </c>
+      <c r="L81" s="14">
+        <v>90</v>
+      </c>
+      <c r="M81" s="14">
+        <v>60</v>
+      </c>
+      <c r="N81" s="14">
+        <v>50</v>
+      </c>
+      <c r="O81" s="14">
+        <v>5</v>
+      </c>
       <c r="P81" s="14"/>
       <c r="Q81" s="14"/>
       <c r="R81" s="14"/>
@@ -4814,16 +6324,34 @@
         <v>401</v>
       </c>
       <c r="G82" s="14"/>
-      <c r="H82" s="14"/>
-      <c r="I82" s="14"/>
-      <c r="J82" s="14"/>
-      <c r="K82" s="14"/>
-      <c r="L82" s="14"/>
-      <c r="M82" s="14"/>
-      <c r="N82" s="14"/>
-      <c r="O82" s="14"/>
+      <c r="H82" s="14">
+        <v>7</v>
+      </c>
+      <c r="I82" s="14">
+        <v>27</v>
+      </c>
+      <c r="J82" s="14">
+        <v>30</v>
+      </c>
+      <c r="K82" s="14">
+        <v>38</v>
+      </c>
+      <c r="L82" s="14">
+        <v>17</v>
+      </c>
+      <c r="M82" s="14">
+        <v>2</v>
+      </c>
+      <c r="N82" s="14">
+        <v>2</v>
+      </c>
+      <c r="O82" s="14">
+        <v>3</v>
+      </c>
       <c r="P82" s="14"/>
-      <c r="Q82" s="14"/>
+      <c r="Q82" s="14">
+        <v>1</v>
+      </c>
       <c r="R82" s="14"/>
       <c r="S82" s="14"/>
       <c r="T82" s="14"/>
@@ -4849,16 +6377,36 @@
       </c>
       <c r="G83" s="14"/>
       <c r="H83" s="14"/>
-      <c r="I83" s="14"/>
-      <c r="J83" s="14"/>
-      <c r="K83" s="14"/>
-      <c r="L83" s="14"/>
-      <c r="M83" s="14"/>
-      <c r="N83" s="14"/>
-      <c r="O83" s="14"/>
-      <c r="P83" s="14"/>
-      <c r="Q83" s="14"/>
-      <c r="R83" s="14"/>
+      <c r="I83" s="14">
+        <v>80</v>
+      </c>
+      <c r="J83" s="14">
+        <v>121</v>
+      </c>
+      <c r="K83" s="14">
+        <v>128</v>
+      </c>
+      <c r="L83" s="14">
+        <v>150</v>
+      </c>
+      <c r="M83" s="14">
+        <v>200</v>
+      </c>
+      <c r="N83" s="14">
+        <v>141</v>
+      </c>
+      <c r="O83" s="14">
+        <v>70</v>
+      </c>
+      <c r="P83" s="14">
+        <v>85</v>
+      </c>
+      <c r="Q83" s="14">
+        <v>50</v>
+      </c>
+      <c r="R83" s="14">
+        <v>10</v>
+      </c>
       <c r="S83" s="14"/>
       <c r="T83" s="14"/>
     </row>
@@ -4882,18 +6430,42 @@
         <v>403</v>
       </c>
       <c r="G84" s="14"/>
-      <c r="H84" s="14"/>
-      <c r="I84" s="14"/>
-      <c r="J84" s="14"/>
-      <c r="K84" s="14"/>
-      <c r="L84" s="14"/>
-      <c r="M84" s="14"/>
-      <c r="N84" s="14"/>
-      <c r="O84" s="14"/>
-      <c r="P84" s="14"/>
-      <c r="Q84" s="14"/>
-      <c r="R84" s="14"/>
-      <c r="S84" s="14"/>
+      <c r="H84" s="14">
+        <v>10</v>
+      </c>
+      <c r="I84" s="14">
+        <v>120</v>
+      </c>
+      <c r="J84" s="14">
+        <v>150</v>
+      </c>
+      <c r="K84" s="14">
+        <v>150</v>
+      </c>
+      <c r="L84" s="14">
+        <v>160</v>
+      </c>
+      <c r="M84" s="14">
+        <v>100</v>
+      </c>
+      <c r="N84" s="14">
+        <v>100</v>
+      </c>
+      <c r="O84" s="14">
+        <v>100</v>
+      </c>
+      <c r="P84" s="14">
+        <v>150</v>
+      </c>
+      <c r="Q84" s="14">
+        <v>100</v>
+      </c>
+      <c r="R84" s="14">
+        <v>60</v>
+      </c>
+      <c r="S84" s="14">
+        <v>20</v>
+      </c>
       <c r="T84" s="14"/>
     </row>
     <row r="85" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
@@ -4917,17 +6489,39 @@
       </c>
       <c r="G85" s="14"/>
       <c r="H85" s="14"/>
-      <c r="I85" s="14"/>
-      <c r="J85" s="14"/>
-      <c r="K85" s="14"/>
-      <c r="L85" s="14"/>
-      <c r="M85" s="14"/>
-      <c r="N85" s="14"/>
-      <c r="O85" s="14"/>
-      <c r="P85" s="14"/>
-      <c r="Q85" s="14"/>
-      <c r="R85" s="14"/>
-      <c r="S85" s="14"/>
+      <c r="I85" s="14">
+        <v>70</v>
+      </c>
+      <c r="J85" s="14">
+        <v>140</v>
+      </c>
+      <c r="K85" s="14">
+        <v>150</v>
+      </c>
+      <c r="L85" s="14">
+        <v>146</v>
+      </c>
+      <c r="M85" s="14">
+        <v>152</v>
+      </c>
+      <c r="N85" s="14">
+        <v>150</v>
+      </c>
+      <c r="O85" s="14">
+        <v>94</v>
+      </c>
+      <c r="P85" s="14">
+        <v>74</v>
+      </c>
+      <c r="Q85" s="14">
+        <v>40</v>
+      </c>
+      <c r="R85" s="14">
+        <v>20</v>
+      </c>
+      <c r="S85" s="14">
+        <v>7</v>
+      </c>
       <c r="T85" s="14"/>
     </row>
     <row r="86" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
@@ -4950,18 +6544,42 @@
         <v>405</v>
       </c>
       <c r="G86" s="14"/>
-      <c r="H86" s="14"/>
-      <c r="I86" s="14"/>
-      <c r="J86" s="14"/>
-      <c r="K86" s="14"/>
-      <c r="L86" s="14"/>
-      <c r="M86" s="14"/>
-      <c r="N86" s="14"/>
-      <c r="O86" s="14"/>
-      <c r="P86" s="14"/>
-      <c r="Q86" s="14"/>
-      <c r="R86" s="14"/>
-      <c r="S86" s="14"/>
+      <c r="H86" s="14">
+        <v>10</v>
+      </c>
+      <c r="I86" s="14">
+        <v>105</v>
+      </c>
+      <c r="J86" s="14">
+        <v>115</v>
+      </c>
+      <c r="K86" s="14">
+        <v>130</v>
+      </c>
+      <c r="L86" s="14">
+        <v>140</v>
+      </c>
+      <c r="M86" s="14">
+        <v>160</v>
+      </c>
+      <c r="N86" s="14">
+        <v>160</v>
+      </c>
+      <c r="O86" s="14">
+        <v>160</v>
+      </c>
+      <c r="P86" s="14">
+        <v>70</v>
+      </c>
+      <c r="Q86" s="14">
+        <v>70</v>
+      </c>
+      <c r="R86" s="14">
+        <v>40</v>
+      </c>
+      <c r="S86" s="14">
+        <v>10</v>
+      </c>
       <c r="T86" s="14"/>
     </row>
     <row r="87" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
@@ -4985,11 +6603,21 @@
       </c>
       <c r="G87" s="14"/>
       <c r="H87" s="14"/>
-      <c r="I87" s="14"/>
-      <c r="J87" s="14"/>
-      <c r="K87" s="14"/>
-      <c r="L87" s="14"/>
-      <c r="M87" s="14"/>
+      <c r="I87" s="14">
+        <v>4</v>
+      </c>
+      <c r="J87" s="14">
+        <v>6</v>
+      </c>
+      <c r="K87" s="14">
+        <v>7</v>
+      </c>
+      <c r="L87" s="14">
+        <v>6</v>
+      </c>
+      <c r="M87" s="14">
+        <v>2</v>
+      </c>
       <c r="N87" s="14"/>
       <c r="O87" s="14"/>
       <c r="P87" s="14"/>
@@ -5018,18 +6646,42 @@
         <v>407</v>
       </c>
       <c r="G88" s="14"/>
-      <c r="H88" s="14"/>
-      <c r="I88" s="14"/>
-      <c r="J88" s="14"/>
-      <c r="K88" s="14"/>
-      <c r="L88" s="14"/>
-      <c r="M88" s="14"/>
-      <c r="N88" s="14"/>
-      <c r="O88" s="14"/>
-      <c r="P88" s="14"/>
-      <c r="Q88" s="14"/>
-      <c r="R88" s="14"/>
-      <c r="S88" s="14"/>
+      <c r="H88" s="14">
+        <v>15</v>
+      </c>
+      <c r="I88" s="14">
+        <v>50</v>
+      </c>
+      <c r="J88" s="14">
+        <v>75</v>
+      </c>
+      <c r="K88" s="14">
+        <v>90</v>
+      </c>
+      <c r="L88" s="14">
+        <v>130</v>
+      </c>
+      <c r="M88" s="14">
+        <v>140</v>
+      </c>
+      <c r="N88" s="14">
+        <v>120</v>
+      </c>
+      <c r="O88" s="14">
+        <v>90</v>
+      </c>
+      <c r="P88" s="14">
+        <v>60</v>
+      </c>
+      <c r="Q88" s="14">
+        <v>55</v>
+      </c>
+      <c r="R88" s="14">
+        <v>25</v>
+      </c>
+      <c r="S88" s="14">
+        <v>10</v>
+      </c>
       <c r="T88" s="14"/>
     </row>
     <row r="89" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
@@ -5052,17 +6704,39 @@
         <v>408</v>
       </c>
       <c r="G89" s="14"/>
-      <c r="H89" s="14"/>
-      <c r="I89" s="14"/>
-      <c r="J89" s="14"/>
-      <c r="K89" s="14"/>
-      <c r="L89" s="14"/>
-      <c r="M89" s="14"/>
-      <c r="N89" s="14"/>
-      <c r="O89" s="14"/>
-      <c r="P89" s="14"/>
-      <c r="Q89" s="14"/>
-      <c r="R89" s="14"/>
+      <c r="H89" s="14">
+        <v>40</v>
+      </c>
+      <c r="I89" s="14">
+        <v>135</v>
+      </c>
+      <c r="J89" s="14">
+        <v>135</v>
+      </c>
+      <c r="K89" s="14">
+        <v>150</v>
+      </c>
+      <c r="L89" s="14">
+        <v>100</v>
+      </c>
+      <c r="M89" s="14">
+        <v>100</v>
+      </c>
+      <c r="N89" s="14">
+        <v>100</v>
+      </c>
+      <c r="O89" s="14">
+        <v>100</v>
+      </c>
+      <c r="P89" s="14">
+        <v>49</v>
+      </c>
+      <c r="Q89" s="14">
+        <v>5</v>
+      </c>
+      <c r="R89" s="14">
+        <v>6</v>
+      </c>
       <c r="S89" s="14"/>
       <c r="T89" s="14"/>
     </row>
@@ -5087,16 +6761,36 @@
       </c>
       <c r="G90" s="14"/>
       <c r="H90" s="14"/>
-      <c r="I90" s="14"/>
-      <c r="J90" s="14"/>
-      <c r="K90" s="14"/>
-      <c r="L90" s="14"/>
-      <c r="M90" s="14"/>
-      <c r="N90" s="14"/>
-      <c r="O90" s="14"/>
-      <c r="P90" s="14"/>
-      <c r="Q90" s="14"/>
-      <c r="R90" s="14"/>
+      <c r="I90" s="14">
+        <v>10</v>
+      </c>
+      <c r="J90" s="14">
+        <v>60</v>
+      </c>
+      <c r="K90" s="14">
+        <v>97</v>
+      </c>
+      <c r="L90" s="14">
+        <v>133</v>
+      </c>
+      <c r="M90" s="14">
+        <v>153</v>
+      </c>
+      <c r="N90" s="14">
+        <v>200</v>
+      </c>
+      <c r="O90" s="14">
+        <v>60</v>
+      </c>
+      <c r="P90" s="14">
+        <v>55</v>
+      </c>
+      <c r="Q90" s="14">
+        <v>10</v>
+      </c>
+      <c r="R90" s="14">
+        <v>3</v>
+      </c>
       <c r="S90" s="14"/>
       <c r="T90" s="14"/>
     </row>
@@ -5121,11 +6815,21 @@
       </c>
       <c r="G91" s="14"/>
       <c r="H91" s="14"/>
-      <c r="I91" s="14"/>
-      <c r="J91" s="14"/>
-      <c r="K91" s="14"/>
-      <c r="L91" s="14"/>
-      <c r="M91" s="14"/>
+      <c r="I91" s="14">
+        <v>4</v>
+      </c>
+      <c r="J91" s="14">
+        <v>6</v>
+      </c>
+      <c r="K91" s="14">
+        <v>8</v>
+      </c>
+      <c r="L91" s="14">
+        <v>10</v>
+      </c>
+      <c r="M91" s="14">
+        <v>6</v>
+      </c>
       <c r="N91" s="14"/>
       <c r="O91" s="14"/>
       <c r="P91" s="14"/>
@@ -5154,15 +6858,33 @@
         <v>411</v>
       </c>
       <c r="G92" s="14"/>
-      <c r="H92" s="14"/>
-      <c r="I92" s="14"/>
-      <c r="J92" s="14"/>
-      <c r="K92" s="14"/>
-      <c r="L92" s="14"/>
-      <c r="M92" s="14"/>
-      <c r="N92" s="14"/>
-      <c r="O92" s="14"/>
-      <c r="P92" s="14"/>
+      <c r="H92" s="14">
+        <v>10</v>
+      </c>
+      <c r="I92" s="14">
+        <v>20</v>
+      </c>
+      <c r="J92" s="14">
+        <v>35</v>
+      </c>
+      <c r="K92" s="14">
+        <v>20</v>
+      </c>
+      <c r="L92" s="14">
+        <v>20</v>
+      </c>
+      <c r="M92" s="14">
+        <v>20</v>
+      </c>
+      <c r="N92" s="14">
+        <v>10</v>
+      </c>
+      <c r="O92" s="14">
+        <v>5</v>
+      </c>
+      <c r="P92" s="14">
+        <v>5</v>
+      </c>
       <c r="Q92" s="14"/>
       <c r="R92" s="14"/>
       <c r="S92" s="14"/>
@@ -5194,12 +6916,24 @@
       <c r="K93" s="14"/>
       <c r="L93" s="14"/>
       <c r="M93" s="14"/>
-      <c r="N93" s="14"/>
-      <c r="O93" s="14"/>
-      <c r="P93" s="14"/>
-      <c r="Q93" s="14"/>
-      <c r="R93" s="14"/>
-      <c r="S93" s="14"/>
+      <c r="N93" s="14">
+        <v>20</v>
+      </c>
+      <c r="O93" s="14">
+        <v>50</v>
+      </c>
+      <c r="P93" s="14">
+        <v>110</v>
+      </c>
+      <c r="Q93" s="14">
+        <v>100</v>
+      </c>
+      <c r="R93" s="14">
+        <v>62</v>
+      </c>
+      <c r="S93" s="14">
+        <v>20</v>
+      </c>
       <c r="T93" s="14"/>
     </row>
     <row r="94" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
@@ -5222,10 +6956,18 @@
         <v>413</v>
       </c>
       <c r="G94" s="14"/>
-      <c r="H94" s="14"/>
-      <c r="I94" s="14"/>
-      <c r="J94" s="14"/>
-      <c r="K94" s="14"/>
+      <c r="H94" s="14">
+        <v>30</v>
+      </c>
+      <c r="I94" s="14">
+        <v>75</v>
+      </c>
+      <c r="J94" s="14">
+        <v>75</v>
+      </c>
+      <c r="K94" s="14">
+        <v>20</v>
+      </c>
       <c r="L94" s="14"/>
       <c r="M94" s="14"/>
       <c r="N94" s="14"/>
@@ -5255,14 +6997,30 @@
       <c r="F95" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="G95" s="14"/>
-      <c r="H95" s="14"/>
-      <c r="I95" s="14"/>
-      <c r="J95" s="14"/>
-      <c r="K95" s="14"/>
-      <c r="L95" s="14"/>
-      <c r="M95" s="14"/>
-      <c r="N95" s="14"/>
+      <c r="G95" s="14">
+        <v>10</v>
+      </c>
+      <c r="H95" s="14">
+        <v>80</v>
+      </c>
+      <c r="I95" s="14">
+        <v>119</v>
+      </c>
+      <c r="J95" s="14">
+        <v>64</v>
+      </c>
+      <c r="K95" s="14">
+        <v>14</v>
+      </c>
+      <c r="L95" s="14">
+        <v>2</v>
+      </c>
+      <c r="M95" s="14">
+        <v>1</v>
+      </c>
+      <c r="N95" s="14">
+        <v>3</v>
+      </c>
       <c r="O95" s="14"/>
       <c r="P95" s="14"/>
       <c r="Q95" s="14"/>
@@ -5290,11 +7048,21 @@
         <v>415</v>
       </c>
       <c r="G96" s="14"/>
-      <c r="H96" s="14"/>
-      <c r="I96" s="14"/>
-      <c r="J96" s="14"/>
-      <c r="K96" s="14"/>
-      <c r="L96" s="14"/>
+      <c r="H96" s="14">
+        <v>60</v>
+      </c>
+      <c r="I96" s="14">
+        <v>80</v>
+      </c>
+      <c r="J96" s="14">
+        <v>55</v>
+      </c>
+      <c r="K96" s="14">
+        <v>26</v>
+      </c>
+      <c r="L96" s="14">
+        <v>20</v>
+      </c>
       <c r="M96" s="14"/>
       <c r="N96" s="14"/>
       <c r="O96" s="14"/>
@@ -5325,9 +7093,15 @@
       </c>
       <c r="G97" s="14"/>
       <c r="H97" s="14"/>
-      <c r="I97" s="14"/>
-      <c r="J97" s="14"/>
-      <c r="K97" s="14"/>
+      <c r="I97" s="14">
+        <v>100</v>
+      </c>
+      <c r="J97" s="14">
+        <v>95</v>
+      </c>
+      <c r="K97" s="14">
+        <v>5</v>
+      </c>
       <c r="L97" s="14"/>
       <c r="M97" s="14"/>
       <c r="N97" s="14"/>
@@ -5357,11 +7131,21 @@
       <c r="F98" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="G98" s="14"/>
-      <c r="H98" s="14"/>
-      <c r="I98" s="14"/>
-      <c r="J98" s="14"/>
-      <c r="K98" s="14"/>
+      <c r="G98" s="14">
+        <v>1</v>
+      </c>
+      <c r="H98" s="14">
+        <v>32</v>
+      </c>
+      <c r="I98" s="14">
+        <v>55</v>
+      </c>
+      <c r="J98" s="14">
+        <v>15</v>
+      </c>
+      <c r="K98" s="14">
+        <v>3</v>
+      </c>
       <c r="L98" s="14"/>
       <c r="M98" s="14"/>
       <c r="N98" s="14"/>
@@ -5391,12 +7175,24 @@
       <c r="F99" s="8" t="s">
         <v>418</v>
       </c>
-      <c r="G99" s="14"/>
-      <c r="H99" s="14"/>
-      <c r="I99" s="14"/>
-      <c r="J99" s="14"/>
-      <c r="K99" s="14"/>
-      <c r="L99" s="14"/>
+      <c r="G99" s="14">
+        <v>4</v>
+      </c>
+      <c r="H99" s="14">
+        <v>40</v>
+      </c>
+      <c r="I99" s="14">
+        <v>72</v>
+      </c>
+      <c r="J99" s="14">
+        <v>45</v>
+      </c>
+      <c r="K99" s="14">
+        <v>7</v>
+      </c>
+      <c r="L99" s="14">
+        <v>2</v>
+      </c>
       <c r="M99" s="14"/>
       <c r="N99" s="14"/>
       <c r="O99" s="14"/>
@@ -5427,8 +7223,12 @@
       </c>
       <c r="G100" s="14"/>
       <c r="H100" s="14"/>
-      <c r="I100" s="14"/>
-      <c r="J100" s="14"/>
+      <c r="I100" s="14">
+        <v>270</v>
+      </c>
+      <c r="J100" s="14">
+        <v>32</v>
+      </c>
       <c r="K100" s="14"/>
       <c r="L100" s="14"/>
       <c r="M100" s="14"/>
@@ -5460,10 +7260,18 @@
         <v>420</v>
       </c>
       <c r="G101" s="14"/>
-      <c r="H101" s="14"/>
-      <c r="I101" s="14"/>
-      <c r="J101" s="14"/>
-      <c r="K101" s="14"/>
+      <c r="H101" s="14">
+        <v>16</v>
+      </c>
+      <c r="I101" s="14">
+        <v>60</v>
+      </c>
+      <c r="J101" s="14">
+        <v>25</v>
+      </c>
+      <c r="K101" s="14">
+        <v>2</v>
+      </c>
       <c r="L101" s="14"/>
       <c r="M101" s="14"/>
       <c r="N101" s="14"/>
@@ -5494,11 +7302,21 @@
         <v>421</v>
       </c>
       <c r="G102" s="14"/>
-      <c r="H102" s="14"/>
-      <c r="I102" s="14"/>
-      <c r="J102" s="14"/>
-      <c r="K102" s="14"/>
-      <c r="L102" s="14"/>
+      <c r="H102" s="14">
+        <v>40</v>
+      </c>
+      <c r="I102" s="14">
+        <v>90</v>
+      </c>
+      <c r="J102" s="14">
+        <v>17</v>
+      </c>
+      <c r="K102" s="14">
+        <v>2</v>
+      </c>
+      <c r="L102" s="14">
+        <v>1</v>
+      </c>
       <c r="M102" s="14"/>
       <c r="N102" s="14"/>
       <c r="O102" s="14"/>
@@ -5527,11 +7345,21 @@
       <c r="F103" s="8" t="s">
         <v>422</v>
       </c>
-      <c r="G103" s="14"/>
-      <c r="H103" s="14"/>
-      <c r="I103" s="14"/>
-      <c r="J103" s="14"/>
-      <c r="K103" s="14"/>
+      <c r="G103" s="14">
+        <v>25</v>
+      </c>
+      <c r="H103" s="14">
+        <v>60</v>
+      </c>
+      <c r="I103" s="14">
+        <v>60</v>
+      </c>
+      <c r="J103" s="14">
+        <v>50</v>
+      </c>
+      <c r="K103" s="14">
+        <v>5</v>
+      </c>
       <c r="L103" s="14"/>
       <c r="M103" s="14"/>
       <c r="N103" s="14"/>
@@ -5562,10 +7390,18 @@
         <v>423</v>
       </c>
       <c r="G104" s="14"/>
-      <c r="H104" s="14"/>
-      <c r="I104" s="14"/>
-      <c r="J104" s="14"/>
-      <c r="K104" s="14"/>
+      <c r="H104" s="14">
+        <v>50</v>
+      </c>
+      <c r="I104" s="14">
+        <v>70</v>
+      </c>
+      <c r="J104" s="14">
+        <v>40</v>
+      </c>
+      <c r="K104" s="14">
+        <v>8</v>
+      </c>
       <c r="L104" s="14"/>
       <c r="M104" s="14"/>
       <c r="N104" s="14"/>
@@ -5597,9 +7433,15 @@
       </c>
       <c r="G105" s="14"/>
       <c r="H105" s="14"/>
-      <c r="I105" s="14"/>
-      <c r="J105" s="14"/>
-      <c r="K105" s="14"/>
+      <c r="I105" s="14">
+        <v>20</v>
+      </c>
+      <c r="J105" s="14">
+        <v>25</v>
+      </c>
+      <c r="K105" s="14">
+        <v>5</v>
+      </c>
       <c r="L105" s="14"/>
       <c r="M105" s="14"/>
       <c r="N105" s="14"/>
@@ -5630,10 +7472,18 @@
         <v>425</v>
       </c>
       <c r="G106" s="14"/>
-      <c r="H106" s="14"/>
-      <c r="I106" s="14"/>
-      <c r="J106" s="14"/>
-      <c r="K106" s="14"/>
+      <c r="H106" s="14">
+        <v>50</v>
+      </c>
+      <c r="I106" s="14">
+        <v>84</v>
+      </c>
+      <c r="J106" s="14">
+        <v>60</v>
+      </c>
+      <c r="K106" s="14">
+        <v>6</v>
+      </c>
       <c r="L106" s="14"/>
       <c r="M106" s="14"/>
       <c r="N106" s="14"/>
@@ -5664,10 +7514,18 @@
         <v>426</v>
       </c>
       <c r="G107" s="14"/>
-      <c r="H107" s="14"/>
-      <c r="I107" s="14"/>
-      <c r="J107" s="14"/>
-      <c r="K107" s="14"/>
+      <c r="H107" s="14">
+        <v>40</v>
+      </c>
+      <c r="I107" s="14">
+        <v>40</v>
+      </c>
+      <c r="J107" s="14">
+        <v>20</v>
+      </c>
+      <c r="K107" s="14">
+        <v>2</v>
+      </c>
       <c r="L107" s="14"/>
       <c r="M107" s="14"/>
       <c r="N107" s="14"/>
@@ -5698,10 +7556,16 @@
         <v>427</v>
       </c>
       <c r="G108" s="14"/>
-      <c r="H108" s="14"/>
-      <c r="I108" s="14"/>
+      <c r="H108" s="14">
+        <v>40</v>
+      </c>
+      <c r="I108" s="14">
+        <v>60</v>
+      </c>
       <c r="J108" s="14"/>
-      <c r="K108" s="14"/>
+      <c r="K108" s="14">
+        <v>10</v>
+      </c>
       <c r="L108" s="14"/>
       <c r="M108" s="14"/>
       <c r="N108" s="14"/>
@@ -5731,13 +7595,25 @@
       <c r="F109" s="8" t="s">
         <v>428</v>
       </c>
-      <c r="G109" s="14"/>
-      <c r="H109" s="14"/>
-      <c r="I109" s="14"/>
-      <c r="J109" s="14"/>
-      <c r="K109" s="14"/>
+      <c r="G109" s="14">
+        <v>1</v>
+      </c>
+      <c r="H109" s="14">
+        <v>80</v>
+      </c>
+      <c r="I109" s="14">
+        <v>70</v>
+      </c>
+      <c r="J109" s="14">
+        <v>40</v>
+      </c>
+      <c r="K109" s="14">
+        <v>2</v>
+      </c>
       <c r="L109" s="14"/>
-      <c r="M109" s="14"/>
+      <c r="M109" s="14">
+        <v>1</v>
+      </c>
       <c r="N109" s="14"/>
       <c r="O109" s="14"/>
       <c r="P109" s="14"/>
@@ -5766,11 +7642,21 @@
         <v>429</v>
       </c>
       <c r="G110" s="14"/>
-      <c r="H110" s="14"/>
-      <c r="I110" s="14"/>
-      <c r="J110" s="14"/>
-      <c r="K110" s="14"/>
-      <c r="L110" s="14"/>
+      <c r="H110" s="14">
+        <v>26</v>
+      </c>
+      <c r="I110" s="14">
+        <v>38</v>
+      </c>
+      <c r="J110" s="14">
+        <v>11</v>
+      </c>
+      <c r="K110" s="14">
+        <v>2</v>
+      </c>
+      <c r="L110" s="14">
+        <v>1</v>
+      </c>
       <c r="M110" s="14"/>
       <c r="N110" s="14"/>
       <c r="O110" s="14"/>
@@ -5800,9 +7686,15 @@
         <v>430</v>
       </c>
       <c r="G111" s="14"/>
-      <c r="H111" s="14"/>
-      <c r="I111" s="14"/>
-      <c r="J111" s="14"/>
+      <c r="H111" s="14">
+        <v>40</v>
+      </c>
+      <c r="I111" s="14">
+        <v>50</v>
+      </c>
+      <c r="J111" s="14">
+        <v>10</v>
+      </c>
       <c r="K111" s="14"/>
       <c r="L111" s="14"/>
       <c r="M111" s="14"/>
@@ -5834,8 +7726,12 @@
         <v>431</v>
       </c>
       <c r="G112" s="14"/>
-      <c r="H112" s="14"/>
-      <c r="I112" s="14"/>
+      <c r="H112" s="14">
+        <v>200</v>
+      </c>
+      <c r="I112" s="14">
+        <v>50</v>
+      </c>
       <c r="J112" s="14"/>
       <c r="K112" s="14"/>
       <c r="L112" s="14"/>
@@ -5868,11 +7764,19 @@
         <v>432</v>
       </c>
       <c r="G113" s="14"/>
-      <c r="H113" s="14"/>
-      <c r="I113" s="14"/>
-      <c r="J113" s="14"/>
+      <c r="H113" s="14">
+        <v>75</v>
+      </c>
+      <c r="I113" s="14">
+        <v>65</v>
+      </c>
+      <c r="J113" s="14">
+        <v>9</v>
+      </c>
       <c r="K113" s="14"/>
-      <c r="L113" s="14"/>
+      <c r="L113" s="14">
+        <v>1</v>
+      </c>
       <c r="M113" s="14"/>
       <c r="N113" s="14"/>
       <c r="O113" s="14"/>
@@ -5903,8 +7807,12 @@
       </c>
       <c r="G114" s="14"/>
       <c r="H114" s="14"/>
-      <c r="I114" s="14"/>
-      <c r="J114" s="14"/>
+      <c r="I114" s="14">
+        <v>102</v>
+      </c>
+      <c r="J114" s="14">
+        <v>102</v>
+      </c>
       <c r="K114" s="14"/>
       <c r="L114" s="14"/>
       <c r="M114" s="14"/>
@@ -5936,10 +7844,18 @@
         <v>434</v>
       </c>
       <c r="G115" s="14"/>
-      <c r="H115" s="14"/>
-      <c r="I115" s="14"/>
-      <c r="J115" s="14"/>
-      <c r="K115" s="14"/>
+      <c r="H115" s="14">
+        <v>30</v>
+      </c>
+      <c r="I115" s="14">
+        <v>130</v>
+      </c>
+      <c r="J115" s="14">
+        <v>90</v>
+      </c>
+      <c r="K115" s="14">
+        <v>15</v>
+      </c>
       <c r="L115" s="14"/>
       <c r="M115" s="14"/>
       <c r="N115" s="14"/>
@@ -5970,11 +7886,21 @@
         <v>435</v>
       </c>
       <c r="G116" s="14"/>
-      <c r="H116" s="14"/>
-      <c r="I116" s="14"/>
-      <c r="J116" s="14"/>
-      <c r="K116" s="14"/>
-      <c r="L116" s="14"/>
+      <c r="H116" s="14">
+        <v>40</v>
+      </c>
+      <c r="I116" s="14">
+        <v>125</v>
+      </c>
+      <c r="J116" s="14">
+        <v>130</v>
+      </c>
+      <c r="K116" s="14">
+        <v>10</v>
+      </c>
+      <c r="L116" s="14">
+        <v>2</v>
+      </c>
       <c r="M116" s="14"/>
       <c r="N116" s="14"/>
       <c r="O116" s="14"/>
@@ -6003,11 +7929,21 @@
       <c r="F117" s="8" t="s">
         <v>436</v>
       </c>
-      <c r="G117" s="14"/>
-      <c r="H117" s="14"/>
-      <c r="I117" s="14"/>
-      <c r="J117" s="14"/>
-      <c r="K117" s="14"/>
+      <c r="G117" s="14">
+        <v>10</v>
+      </c>
+      <c r="H117" s="14">
+        <v>50</v>
+      </c>
+      <c r="I117" s="14">
+        <v>60</v>
+      </c>
+      <c r="J117" s="14">
+        <v>40</v>
+      </c>
+      <c r="K117" s="14">
+        <v>20</v>
+      </c>
       <c r="L117" s="14"/>
       <c r="M117" s="14"/>
       <c r="N117" s="14"/>
@@ -6038,10 +7974,18 @@
         <v>437</v>
       </c>
       <c r="G118" s="14"/>
-      <c r="H118" s="14"/>
-      <c r="I118" s="14"/>
-      <c r="J118" s="14"/>
-      <c r="K118" s="14"/>
+      <c r="H118" s="14">
+        <v>50</v>
+      </c>
+      <c r="I118" s="14">
+        <v>90</v>
+      </c>
+      <c r="J118" s="14">
+        <v>50</v>
+      </c>
+      <c r="K118" s="14">
+        <v>10</v>
+      </c>
       <c r="L118" s="14"/>
       <c r="M118" s="14"/>
       <c r="N118" s="14"/>
@@ -6072,10 +8016,18 @@
         <v>438</v>
       </c>
       <c r="G119" s="14"/>
-      <c r="H119" s="14"/>
-      <c r="I119" s="14"/>
-      <c r="J119" s="14"/>
-      <c r="K119" s="14"/>
+      <c r="H119" s="14">
+        <v>30</v>
+      </c>
+      <c r="I119" s="14">
+        <v>70</v>
+      </c>
+      <c r="J119" s="14">
+        <v>30</v>
+      </c>
+      <c r="K119" s="14">
+        <v>20</v>
+      </c>
       <c r="L119" s="14"/>
       <c r="M119" s="14"/>
       <c r="N119" s="14"/>
@@ -6106,11 +8058,21 @@
         <v>439</v>
       </c>
       <c r="G120" s="14"/>
-      <c r="H120" s="14"/>
-      <c r="I120" s="14"/>
-      <c r="J120" s="14"/>
-      <c r="K120" s="14"/>
-      <c r="L120" s="14"/>
+      <c r="H120" s="14">
+        <v>60</v>
+      </c>
+      <c r="I120" s="14">
+        <v>80</v>
+      </c>
+      <c r="J120" s="14">
+        <v>40</v>
+      </c>
+      <c r="K120" s="14">
+        <v>6</v>
+      </c>
+      <c r="L120" s="14">
+        <v>2</v>
+      </c>
       <c r="M120" s="14"/>
       <c r="N120" s="14"/>
       <c r="O120" s="14"/>
@@ -6140,10 +8102,18 @@
         <v>440</v>
       </c>
       <c r="G121" s="14"/>
-      <c r="H121" s="14"/>
-      <c r="I121" s="14"/>
-      <c r="J121" s="14"/>
-      <c r="K121" s="14"/>
+      <c r="H121" s="14">
+        <v>40</v>
+      </c>
+      <c r="I121" s="14">
+        <v>75</v>
+      </c>
+      <c r="J121" s="14">
+        <v>45</v>
+      </c>
+      <c r="K121" s="14">
+        <v>7</v>
+      </c>
       <c r="L121" s="14"/>
       <c r="M121" s="14"/>
       <c r="N121" s="14"/>
@@ -6174,10 +8144,18 @@
         <v>441</v>
       </c>
       <c r="G122" s="14"/>
-      <c r="H122" s="14"/>
-      <c r="I122" s="14"/>
-      <c r="J122" s="14"/>
-      <c r="K122" s="14"/>
+      <c r="H122" s="14">
+        <v>55</v>
+      </c>
+      <c r="I122" s="14">
+        <v>116</v>
+      </c>
+      <c r="J122" s="14">
+        <v>25</v>
+      </c>
+      <c r="K122" s="14">
+        <v>4</v>
+      </c>
       <c r="L122" s="14"/>
       <c r="M122" s="14"/>
       <c r="N122" s="14"/>
@@ -6208,13 +8186,27 @@
         <v>442</v>
       </c>
       <c r="G123" s="14"/>
-      <c r="H123" s="14"/>
-      <c r="I123" s="14"/>
-      <c r="J123" s="14"/>
-      <c r="K123" s="14"/>
-      <c r="L123" s="14"/>
-      <c r="M123" s="14"/>
-      <c r="N123" s="14"/>
+      <c r="H123" s="14">
+        <v>70</v>
+      </c>
+      <c r="I123" s="14">
+        <v>100</v>
+      </c>
+      <c r="J123" s="14">
+        <v>20</v>
+      </c>
+      <c r="K123" s="14">
+        <v>4</v>
+      </c>
+      <c r="L123" s="14">
+        <v>2</v>
+      </c>
+      <c r="M123" s="14">
+        <v>3</v>
+      </c>
+      <c r="N123" s="14">
+        <v>1</v>
+      </c>
       <c r="O123" s="14"/>
       <c r="P123" s="14"/>
       <c r="Q123" s="14"/>
@@ -6242,12 +8234,24 @@
         <v>443</v>
       </c>
       <c r="G124" s="14"/>
-      <c r="H124" s="14"/>
-      <c r="I124" s="14"/>
-      <c r="J124" s="14"/>
-      <c r="K124" s="14"/>
-      <c r="L124" s="14"/>
-      <c r="M124" s="14"/>
+      <c r="H124" s="14">
+        <v>45</v>
+      </c>
+      <c r="I124" s="14">
+        <v>65</v>
+      </c>
+      <c r="J124" s="14">
+        <v>30</v>
+      </c>
+      <c r="K124" s="14">
+        <v>10</v>
+      </c>
+      <c r="L124" s="14">
+        <v>2</v>
+      </c>
+      <c r="M124" s="14">
+        <v>3</v>
+      </c>
       <c r="N124" s="14"/>
       <c r="O124" s="14"/>
       <c r="P124" s="14"/>
@@ -6276,10 +8280,18 @@
         <v>444</v>
       </c>
       <c r="G125" s="14"/>
-      <c r="H125" s="14"/>
-      <c r="I125" s="14"/>
-      <c r="J125" s="14"/>
-      <c r="K125" s="14"/>
+      <c r="H125" s="14">
+        <v>50</v>
+      </c>
+      <c r="I125" s="14">
+        <v>60</v>
+      </c>
+      <c r="J125" s="14">
+        <v>40</v>
+      </c>
+      <c r="K125" s="14">
+        <v>5</v>
+      </c>
       <c r="L125" s="14"/>
       <c r="M125" s="14"/>
       <c r="N125" s="14"/>
@@ -6344,10 +8356,18 @@
         <v>446</v>
       </c>
       <c r="G127" s="14"/>
-      <c r="H127" s="14"/>
-      <c r="I127" s="14"/>
-      <c r="J127" s="14"/>
-      <c r="K127" s="14"/>
+      <c r="H127" s="14">
+        <v>100</v>
+      </c>
+      <c r="I127" s="14">
+        <v>66</v>
+      </c>
+      <c r="J127" s="14">
+        <v>70</v>
+      </c>
+      <c r="K127" s="14">
+        <v>15</v>
+      </c>
       <c r="L127" s="14"/>
       <c r="M127" s="14"/>
       <c r="N127" s="14"/>
@@ -6378,9 +8398,15 @@
         <v>447</v>
       </c>
       <c r="G128" s="14"/>
-      <c r="H128" s="14"/>
-      <c r="I128" s="14"/>
-      <c r="J128" s="14"/>
+      <c r="H128" s="14">
+        <v>30</v>
+      </c>
+      <c r="I128" s="14">
+        <v>50</v>
+      </c>
+      <c r="J128" s="14">
+        <v>25</v>
+      </c>
       <c r="K128" s="14"/>
       <c r="L128" s="14"/>
       <c r="M128" s="14"/>
@@ -6412,8 +8438,12 @@
         <v>448</v>
       </c>
       <c r="G129" s="14"/>
-      <c r="H129" s="14"/>
-      <c r="I129" s="14"/>
+      <c r="H129" s="14">
+        <v>37</v>
+      </c>
+      <c r="I129" s="14">
+        <v>32</v>
+      </c>
       <c r="J129" s="14"/>
       <c r="K129" s="14"/>
       <c r="L129" s="14"/>
@@ -6446,10 +8476,18 @@
         <v>449</v>
       </c>
       <c r="G130" s="14"/>
-      <c r="H130" s="14"/>
-      <c r="I130" s="14"/>
-      <c r="J130" s="14"/>
-      <c r="K130" s="14"/>
+      <c r="H130" s="14">
+        <v>50</v>
+      </c>
+      <c r="I130" s="14">
+        <v>130</v>
+      </c>
+      <c r="J130" s="14">
+        <v>5</v>
+      </c>
+      <c r="K130" s="14">
+        <v>5</v>
+      </c>
       <c r="L130" s="14"/>
       <c r="M130" s="14"/>
       <c r="N130" s="14"/>
@@ -6480,11 +8518,21 @@
         <v>450</v>
       </c>
       <c r="G131" s="14"/>
-      <c r="H131" s="14"/>
-      <c r="I131" s="14"/>
-      <c r="J131" s="14"/>
-      <c r="K131" s="14"/>
-      <c r="L131" s="14"/>
+      <c r="H131" s="14">
+        <v>70</v>
+      </c>
+      <c r="I131" s="14">
+        <v>178</v>
+      </c>
+      <c r="J131" s="14">
+        <v>60</v>
+      </c>
+      <c r="K131" s="14">
+        <v>7</v>
+      </c>
+      <c r="L131" s="14">
+        <v>3</v>
+      </c>
       <c r="M131" s="14"/>
       <c r="N131" s="14"/>
       <c r="O131" s="14"/>
@@ -6514,12 +8562,24 @@
         <v>451</v>
       </c>
       <c r="G132" s="14"/>
-      <c r="H132" s="14"/>
-      <c r="I132" s="14"/>
-      <c r="J132" s="14"/>
-      <c r="K132" s="14"/>
-      <c r="L132" s="14"/>
-      <c r="M132" s="14"/>
+      <c r="H132" s="14">
+        <v>70</v>
+      </c>
+      <c r="I132" s="14">
+        <v>123</v>
+      </c>
+      <c r="J132" s="14">
+        <v>56</v>
+      </c>
+      <c r="K132" s="14">
+        <v>2</v>
+      </c>
+      <c r="L132" s="14">
+        <v>4</v>
+      </c>
+      <c r="M132" s="14">
+        <v>1</v>
+      </c>
       <c r="N132" s="14"/>
       <c r="O132" s="14"/>
       <c r="P132" s="14"/>
@@ -6549,10 +8609,18 @@
       </c>
       <c r="G133" s="14"/>
       <c r="H133" s="14"/>
-      <c r="I133" s="14"/>
-      <c r="J133" s="14"/>
-      <c r="K133" s="14"/>
-      <c r="L133" s="14"/>
+      <c r="I133" s="14">
+        <v>400</v>
+      </c>
+      <c r="J133" s="14">
+        <v>10</v>
+      </c>
+      <c r="K133" s="14">
+        <v>5</v>
+      </c>
+      <c r="L133" s="14">
+        <v>5</v>
+      </c>
       <c r="M133" s="14"/>
       <c r="N133" s="14"/>
       <c r="O133" s="14"/>
@@ -6582,11 +8650,21 @@
         <v>453</v>
       </c>
       <c r="G134" s="14"/>
-      <c r="H134" s="14"/>
-      <c r="I134" s="14"/>
-      <c r="J134" s="14"/>
-      <c r="K134" s="14"/>
-      <c r="L134" s="14"/>
+      <c r="H134" s="14">
+        <v>55</v>
+      </c>
+      <c r="I134" s="14">
+        <v>117</v>
+      </c>
+      <c r="J134" s="14">
+        <v>38</v>
+      </c>
+      <c r="K134" s="14">
+        <v>5</v>
+      </c>
+      <c r="L134" s="14">
+        <v>2</v>
+      </c>
       <c r="M134" s="14"/>
       <c r="N134" s="14"/>
       <c r="O134" s="14"/>
@@ -6616,11 +8694,19 @@
         <v>454</v>
       </c>
       <c r="G135" s="14"/>
-      <c r="H135" s="14"/>
-      <c r="I135" s="14"/>
-      <c r="J135" s="14"/>
+      <c r="H135" s="14">
+        <v>100</v>
+      </c>
+      <c r="I135" s="14">
+        <v>100</v>
+      </c>
+      <c r="J135" s="14">
+        <v>92</v>
+      </c>
       <c r="K135" s="14"/>
-      <c r="L135" s="14"/>
+      <c r="L135" s="14">
+        <v>8</v>
+      </c>
       <c r="M135" s="14"/>
       <c r="N135" s="14"/>
       <c r="O135" s="14"/>
@@ -6649,10 +8735,18 @@
       <c r="F136" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="G136" s="14"/>
-      <c r="H136" s="14"/>
-      <c r="I136" s="14"/>
-      <c r="J136" s="14"/>
+      <c r="G136" s="14">
+        <v>4</v>
+      </c>
+      <c r="H136" s="14">
+        <v>16</v>
+      </c>
+      <c r="I136" s="14">
+        <v>14</v>
+      </c>
+      <c r="J136" s="14">
+        <v>2</v>
+      </c>
       <c r="K136" s="14"/>
       <c r="L136" s="14"/>
       <c r="M136" s="14"/>
@@ -6684,11 +8778,21 @@
         <v>456</v>
       </c>
       <c r="G137" s="14"/>
-      <c r="H137" s="14"/>
-      <c r="I137" s="14"/>
-      <c r="J137" s="14"/>
-      <c r="K137" s="14"/>
-      <c r="L137" s="14"/>
+      <c r="H137" s="14">
+        <v>15</v>
+      </c>
+      <c r="I137" s="14">
+        <v>89</v>
+      </c>
+      <c r="J137" s="14">
+        <v>90</v>
+      </c>
+      <c r="K137" s="14">
+        <v>4</v>
+      </c>
+      <c r="L137" s="14">
+        <v>2</v>
+      </c>
       <c r="M137" s="14"/>
       <c r="N137" s="14"/>
       <c r="O137" s="14"/>
@@ -6717,13 +8821,27 @@
       <c r="F138" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="G138" s="14"/>
-      <c r="H138" s="14"/>
-      <c r="I138" s="14"/>
-      <c r="J138" s="14"/>
-      <c r="K138" s="14"/>
-      <c r="L138" s="14"/>
-      <c r="M138" s="14"/>
+      <c r="G138" s="14">
+        <v>5</v>
+      </c>
+      <c r="H138" s="14">
+        <v>60</v>
+      </c>
+      <c r="I138" s="14">
+        <v>67</v>
+      </c>
+      <c r="J138" s="14">
+        <v>40</v>
+      </c>
+      <c r="K138" s="14">
+        <v>15</v>
+      </c>
+      <c r="L138" s="14">
+        <v>10</v>
+      </c>
+      <c r="M138" s="14">
+        <v>3</v>
+      </c>
       <c r="N138" s="14"/>
       <c r="O138" s="14"/>
       <c r="P138" s="14"/>
@@ -6752,12 +8870,22 @@
         <v>458</v>
       </c>
       <c r="G139" s="14"/>
-      <c r="H139" s="14"/>
-      <c r="I139" s="14"/>
-      <c r="J139" s="14"/>
-      <c r="K139" s="14"/>
+      <c r="H139" s="14">
+        <v>66</v>
+      </c>
+      <c r="I139" s="14">
+        <v>68</v>
+      </c>
+      <c r="J139" s="14">
+        <v>49</v>
+      </c>
+      <c r="K139" s="14">
+        <v>15</v>
+      </c>
       <c r="L139" s="14"/>
-      <c r="M139" s="14"/>
+      <c r="M139" s="14">
+        <v>2</v>
+      </c>
       <c r="N139" s="14"/>
       <c r="O139" s="14"/>
       <c r="P139" s="14"/>
@@ -6786,12 +8914,24 @@
         <v>459</v>
       </c>
       <c r="G140" s="14"/>
-      <c r="H140" s="14"/>
-      <c r="I140" s="14"/>
-      <c r="J140" s="14"/>
-      <c r="K140" s="14"/>
-      <c r="L140" s="14"/>
-      <c r="M140" s="14"/>
+      <c r="H140" s="14">
+        <v>100</v>
+      </c>
+      <c r="I140" s="14">
+        <v>100</v>
+      </c>
+      <c r="J140" s="14">
+        <v>30</v>
+      </c>
+      <c r="K140" s="14">
+        <v>20</v>
+      </c>
+      <c r="L140" s="14">
+        <v>5</v>
+      </c>
+      <c r="M140" s="14">
+        <v>2</v>
+      </c>
       <c r="N140" s="14"/>
       <c r="O140" s="14"/>
       <c r="P140" s="14"/>
@@ -6819,11 +8959,21 @@
       <c r="F141" s="8" t="s">
         <v>460</v>
       </c>
-      <c r="G141" s="14"/>
-      <c r="H141" s="14"/>
-      <c r="I141" s="14"/>
-      <c r="J141" s="14"/>
-      <c r="K141" s="14"/>
+      <c r="G141" s="14">
+        <v>2</v>
+      </c>
+      <c r="H141" s="14">
+        <v>97</v>
+      </c>
+      <c r="I141" s="14">
+        <v>103</v>
+      </c>
+      <c r="J141" s="14">
+        <v>15</v>
+      </c>
+      <c r="K141" s="14">
+        <v>8</v>
+      </c>
       <c r="L141" s="14"/>
       <c r="M141" s="14"/>
       <c r="N141" s="14"/>
@@ -6853,13 +9003,27 @@
       <c r="F142" s="8" t="s">
         <v>461</v>
       </c>
-      <c r="G142" s="14"/>
-      <c r="H142" s="14"/>
-      <c r="I142" s="14"/>
-      <c r="J142" s="14"/>
-      <c r="K142" s="14"/>
-      <c r="L142" s="14"/>
-      <c r="M142" s="14"/>
+      <c r="G142" s="14">
+        <v>4</v>
+      </c>
+      <c r="H142" s="14">
+        <v>85</v>
+      </c>
+      <c r="I142" s="14">
+        <v>180</v>
+      </c>
+      <c r="J142" s="14">
+        <v>85</v>
+      </c>
+      <c r="K142" s="14">
+        <v>10</v>
+      </c>
+      <c r="L142" s="14">
+        <v>4</v>
+      </c>
+      <c r="M142" s="14">
+        <v>2</v>
+      </c>
       <c r="N142" s="14"/>
       <c r="O142" s="14"/>
       <c r="P142" s="14"/>
@@ -6888,11 +9052,21 @@
         <v>462</v>
       </c>
       <c r="G143" s="14"/>
-      <c r="H143" s="14"/>
-      <c r="I143" s="14"/>
-      <c r="J143" s="14"/>
-      <c r="K143" s="14"/>
-      <c r="L143" s="14"/>
+      <c r="H143" s="14">
+        <v>40</v>
+      </c>
+      <c r="I143" s="14">
+        <v>85</v>
+      </c>
+      <c r="J143" s="14">
+        <v>85</v>
+      </c>
+      <c r="K143" s="14">
+        <v>25</v>
+      </c>
+      <c r="L143" s="14">
+        <v>10</v>
+      </c>
       <c r="M143" s="14"/>
       <c r="N143" s="14"/>
       <c r="O143" s="14"/>
@@ -6922,10 +9096,18 @@
         <v>463</v>
       </c>
       <c r="G144" s="14"/>
-      <c r="H144" s="14"/>
-      <c r="I144" s="14"/>
-      <c r="J144" s="14"/>
-      <c r="K144" s="14"/>
+      <c r="H144" s="14">
+        <v>12</v>
+      </c>
+      <c r="I144" s="14">
+        <v>136</v>
+      </c>
+      <c r="J144" s="14">
+        <v>48</v>
+      </c>
+      <c r="K144" s="14">
+        <v>5</v>
+      </c>
       <c r="L144" s="14"/>
       <c r="M144" s="14"/>
       <c r="N144" s="14"/>
@@ -6990,11 +9172,21 @@
         <v>465</v>
       </c>
       <c r="G146" s="14"/>
-      <c r="H146" s="14"/>
-      <c r="I146" s="14"/>
-      <c r="J146" s="14"/>
-      <c r="K146" s="14"/>
-      <c r="L146" s="14"/>
+      <c r="H146" s="14">
+        <v>20</v>
+      </c>
+      <c r="I146" s="14">
+        <v>70</v>
+      </c>
+      <c r="J146" s="14">
+        <v>20</v>
+      </c>
+      <c r="K146" s="14">
+        <v>2</v>
+      </c>
+      <c r="L146" s="14">
+        <v>1</v>
+      </c>
       <c r="M146" s="14"/>
       <c r="N146" s="14"/>
       <c r="O146" s="14"/>
@@ -7024,11 +9216,21 @@
         <v>466</v>
       </c>
       <c r="G147" s="14"/>
-      <c r="H147" s="14"/>
-      <c r="I147" s="14"/>
-      <c r="J147" s="14"/>
-      <c r="K147" s="14"/>
-      <c r="L147" s="14"/>
+      <c r="H147" s="14">
+        <v>39</v>
+      </c>
+      <c r="I147" s="14">
+        <v>85</v>
+      </c>
+      <c r="J147" s="14">
+        <v>22</v>
+      </c>
+      <c r="K147" s="14">
+        <v>2</v>
+      </c>
+      <c r="L147" s="14">
+        <v>2</v>
+      </c>
       <c r="M147" s="14"/>
       <c r="N147" s="14"/>
       <c r="O147" s="14"/>
@@ -7059,9 +9261,15 @@
       </c>
       <c r="G148" s="14"/>
       <c r="H148" s="14"/>
-      <c r="I148" s="14"/>
-      <c r="J148" s="14"/>
-      <c r="K148" s="14"/>
+      <c r="I148" s="14">
+        <v>35</v>
+      </c>
+      <c r="J148" s="14">
+        <v>40</v>
+      </c>
+      <c r="K148" s="14">
+        <v>1</v>
+      </c>
       <c r="L148" s="14"/>
       <c r="M148" s="14"/>
       <c r="N148" s="14"/>
@@ -7091,12 +9299,24 @@
       <c r="F149" s="8" t="s">
         <v>468</v>
       </c>
-      <c r="G149" s="14"/>
-      <c r="H149" s="14"/>
-      <c r="I149" s="14"/>
-      <c r="J149" s="14"/>
-      <c r="K149" s="14"/>
-      <c r="L149" s="14"/>
+      <c r="G149" s="14">
+        <v>52</v>
+      </c>
+      <c r="H149" s="14">
+        <v>150</v>
+      </c>
+      <c r="I149" s="14">
+        <v>150</v>
+      </c>
+      <c r="J149" s="14">
+        <v>50</v>
+      </c>
+      <c r="K149" s="14">
+        <v>4</v>
+      </c>
+      <c r="L149" s="14">
+        <v>4</v>
+      </c>
       <c r="M149" s="14"/>
       <c r="N149" s="14"/>
       <c r="O149" s="14"/>
@@ -7126,10 +9346,18 @@
         <v>469</v>
       </c>
       <c r="G150" s="14"/>
-      <c r="H150" s="14"/>
-      <c r="I150" s="14"/>
-      <c r="J150" s="14"/>
-      <c r="K150" s="14"/>
+      <c r="H150" s="14">
+        <v>80</v>
+      </c>
+      <c r="I150" s="14">
+        <v>110</v>
+      </c>
+      <c r="J150" s="14">
+        <v>40</v>
+      </c>
+      <c r="K150" s="14">
+        <v>20</v>
+      </c>
       <c r="L150" s="14"/>
       <c r="M150" s="14"/>
       <c r="N150" s="14"/>
@@ -7160,12 +9388,24 @@
         <v>470</v>
       </c>
       <c r="G151" s="14"/>
-      <c r="H151" s="14"/>
-      <c r="I151" s="14"/>
-      <c r="J151" s="14"/>
-      <c r="K151" s="14"/>
-      <c r="L151" s="14"/>
-      <c r="M151" s="14"/>
+      <c r="H151" s="14">
+        <v>40</v>
+      </c>
+      <c r="I151" s="14">
+        <v>50</v>
+      </c>
+      <c r="J151" s="14">
+        <v>50</v>
+      </c>
+      <c r="K151" s="14">
+        <v>3</v>
+      </c>
+      <c r="L151" s="14">
+        <v>2</v>
+      </c>
+      <c r="M151" s="14">
+        <v>1</v>
+      </c>
       <c r="N151" s="14"/>
       <c r="O151" s="14"/>
       <c r="P151" s="14"/>
@@ -7193,12 +9433,24 @@
       <c r="F152" s="8" t="s">
         <v>471</v>
       </c>
-      <c r="G152" s="14"/>
-      <c r="H152" s="14"/>
-      <c r="I152" s="14"/>
-      <c r="J152" s="14"/>
-      <c r="K152" s="14"/>
-      <c r="L152" s="14"/>
+      <c r="G152" s="14">
+        <v>10</v>
+      </c>
+      <c r="H152" s="14">
+        <v>40</v>
+      </c>
+      <c r="I152" s="14">
+        <v>65</v>
+      </c>
+      <c r="J152" s="14">
+        <v>35</v>
+      </c>
+      <c r="K152" s="14">
+        <v>5</v>
+      </c>
+      <c r="L152" s="14">
+        <v>5</v>
+      </c>
       <c r="M152" s="14"/>
       <c r="N152" s="14"/>
       <c r="O152" s="14"/>
@@ -7227,13 +9479,27 @@
       <c r="F153" s="8" t="s">
         <v>472</v>
       </c>
-      <c r="G153" s="14"/>
-      <c r="H153" s="14"/>
-      <c r="I153" s="14"/>
-      <c r="J153" s="14"/>
-      <c r="K153" s="14"/>
-      <c r="L153" s="14"/>
-      <c r="M153" s="14"/>
+      <c r="G153" s="14">
+        <v>10</v>
+      </c>
+      <c r="H153" s="14">
+        <v>43</v>
+      </c>
+      <c r="I153" s="14">
+        <v>50</v>
+      </c>
+      <c r="J153" s="14">
+        <v>20</v>
+      </c>
+      <c r="K153" s="14">
+        <v>5</v>
+      </c>
+      <c r="L153" s="14">
+        <v>1</v>
+      </c>
+      <c r="M153" s="14">
+        <v>1</v>
+      </c>
       <c r="N153" s="14"/>
       <c r="O153" s="14"/>
       <c r="P153" s="14"/>
@@ -7261,11 +9527,21 @@
       <c r="F154" s="8" t="s">
         <v>473</v>
       </c>
-      <c r="G154" s="14"/>
-      <c r="H154" s="14"/>
-      <c r="I154" s="14"/>
-      <c r="J154" s="14"/>
-      <c r="K154" s="14"/>
+      <c r="G154" s="14">
+        <v>20</v>
+      </c>
+      <c r="H154" s="14">
+        <v>105</v>
+      </c>
+      <c r="I154" s="14">
+        <v>110</v>
+      </c>
+      <c r="J154" s="14">
+        <v>20</v>
+      </c>
+      <c r="K154" s="14">
+        <v>5</v>
+      </c>
       <c r="L154" s="14"/>
       <c r="M154" s="14"/>
       <c r="N154" s="14"/>
@@ -7296,12 +9572,22 @@
         <v>474</v>
       </c>
       <c r="G155" s="14"/>
-      <c r="H155" s="14"/>
-      <c r="I155" s="14"/>
-      <c r="J155" s="14"/>
+      <c r="H155" s="14">
+        <v>55</v>
+      </c>
+      <c r="I155" s="14">
+        <v>80</v>
+      </c>
+      <c r="J155" s="14">
+        <v>30</v>
+      </c>
       <c r="K155" s="14"/>
-      <c r="L155" s="14"/>
-      <c r="M155" s="14"/>
+      <c r="L155" s="14">
+        <v>2</v>
+      </c>
+      <c r="M155" s="14">
+        <v>1</v>
+      </c>
       <c r="N155" s="14"/>
       <c r="O155" s="14"/>
       <c r="P155" s="14"/>
@@ -7330,10 +9616,18 @@
         <v>475</v>
       </c>
       <c r="G156" s="14"/>
-      <c r="H156" s="14"/>
-      <c r="I156" s="14"/>
-      <c r="J156" s="14"/>
-      <c r="K156" s="14"/>
+      <c r="H156" s="14">
+        <v>3</v>
+      </c>
+      <c r="I156" s="14">
+        <v>55</v>
+      </c>
+      <c r="J156" s="14">
+        <v>72</v>
+      </c>
+      <c r="K156" s="14">
+        <v>25</v>
+      </c>
       <c r="L156" s="14"/>
       <c r="M156" s="14"/>
       <c r="N156" s="14"/>
@@ -7363,11 +9657,21 @@
       <c r="F157" s="8" t="s">
         <v>476</v>
       </c>
-      <c r="G157" s="14"/>
-      <c r="H157" s="14"/>
-      <c r="I157" s="14"/>
-      <c r="J157" s="14"/>
-      <c r="K157" s="14"/>
+      <c r="G157" s="14">
+        <v>10</v>
+      </c>
+      <c r="H157" s="14">
+        <v>20</v>
+      </c>
+      <c r="I157" s="14">
+        <v>210</v>
+      </c>
+      <c r="J157" s="14">
+        <v>160</v>
+      </c>
+      <c r="K157" s="14">
+        <v>10</v>
+      </c>
       <c r="L157" s="14"/>
       <c r="M157" s="14"/>
       <c r="N157" s="14"/>
@@ -7398,10 +9702,18 @@
         <v>483</v>
       </c>
       <c r="G158" s="14"/>
-      <c r="H158" s="14"/>
-      <c r="I158" s="14"/>
-      <c r="J158" s="14"/>
-      <c r="K158" s="14"/>
+      <c r="H158" s="14">
+        <v>10</v>
+      </c>
+      <c r="I158" s="14">
+        <v>105</v>
+      </c>
+      <c r="J158" s="14">
+        <v>80</v>
+      </c>
+      <c r="K158" s="14">
+        <v>5</v>
+      </c>
       <c r="L158" s="14"/>
       <c r="M158" s="14"/>
       <c r="N158" s="14"/>
@@ -7532,9 +9844,6 @@
     <row r="198" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C198" s="6"/>
     </row>
-    <row r="199" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C199" s="6"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/core/utils/distgradeunificadaJOINVILLE.xlsx
+++ b/core/utils/distgradeunificadaJOINVILLE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C608AB5-F9C7-4B58-9EB5-83F6CDFD5D10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{936921E2-3EFF-4B00-9979-6FD4E88BD2D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7D8F346-A79E-4C25-BB45-DA9F96A70FA9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="488">
   <si>
     <t>PROJETO</t>
   </si>
@@ -1483,6 +1483,12 @@
   </si>
   <si>
     <t>UNISSEX</t>
+  </si>
+  <si>
+    <t>CALÇA SUPLEX</t>
+  </si>
+  <si>
+    <t>FEMININO</t>
   </si>
 </sst>
 </file>
@@ -1996,9 +2002,9 @@
   <dimension ref="A1:T198"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H161" sqref="H161"/>
+      <selection pane="bottomLeft" activeCell="U152" sqref="U152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2101,39 +2107,17 @@
       </c>
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
-      <c r="I2" s="14">
-        <v>30</v>
-      </c>
-      <c r="J2" s="14">
-        <v>120</v>
-      </c>
-      <c r="K2" s="14">
-        <v>120</v>
-      </c>
-      <c r="L2" s="14">
-        <v>120</v>
-      </c>
-      <c r="M2" s="14">
-        <v>100</v>
-      </c>
-      <c r="N2" s="14">
-        <v>100</v>
-      </c>
-      <c r="O2" s="14">
-        <v>90</v>
-      </c>
-      <c r="P2" s="14">
-        <v>60</v>
-      </c>
-      <c r="Q2" s="14">
-        <v>50</v>
-      </c>
-      <c r="R2" s="14">
-        <v>20</v>
-      </c>
-      <c r="S2" s="14">
-        <v>3</v>
-      </c>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
       <c r="T2" s="14"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
@@ -2156,42 +2140,18 @@
         <v>21</v>
       </c>
       <c r="G3" s="14"/>
-      <c r="H3" s="14">
-        <v>7</v>
-      </c>
-      <c r="I3" s="14">
-        <v>80</v>
-      </c>
-      <c r="J3" s="14">
-        <v>150</v>
-      </c>
-      <c r="K3" s="14">
-        <v>180</v>
-      </c>
-      <c r="L3" s="14">
-        <v>180</v>
-      </c>
-      <c r="M3" s="14">
-        <v>250</v>
-      </c>
-      <c r="N3" s="14">
-        <v>150</v>
-      </c>
-      <c r="O3" s="14">
-        <v>100</v>
-      </c>
-      <c r="P3" s="14">
-        <v>95</v>
-      </c>
-      <c r="Q3" s="14">
-        <v>42</v>
-      </c>
-      <c r="R3" s="14">
-        <v>13</v>
-      </c>
-      <c r="S3" s="14">
-        <v>4</v>
-      </c>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
       <c r="T3" s="14"/>
     </row>
     <row r="4" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
@@ -2214,36 +2174,16 @@
         <v>18</v>
       </c>
       <c r="G4" s="14"/>
-      <c r="H4" s="14">
-        <v>4</v>
-      </c>
-      <c r="I4" s="14">
-        <v>75</v>
-      </c>
-      <c r="J4" s="14">
-        <v>85</v>
-      </c>
-      <c r="K4" s="14">
-        <v>75</v>
-      </c>
-      <c r="L4" s="14">
-        <v>60</v>
-      </c>
-      <c r="M4" s="14">
-        <v>45</v>
-      </c>
-      <c r="N4" s="14">
-        <v>18</v>
-      </c>
-      <c r="O4" s="14">
-        <v>7</v>
-      </c>
-      <c r="P4" s="14">
-        <v>3</v>
-      </c>
-      <c r="Q4" s="14">
-        <v>1</v>
-      </c>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
       <c r="R4" s="14"/>
       <c r="S4" s="14"/>
       <c r="T4" s="14"/>
@@ -2268,30 +2208,14 @@
         <v>19</v>
       </c>
       <c r="G5" s="14"/>
-      <c r="H5" s="14">
-        <v>191</v>
-      </c>
-      <c r="I5" s="14">
-        <v>132</v>
-      </c>
-      <c r="J5" s="14">
-        <v>120</v>
-      </c>
-      <c r="K5" s="14">
-        <v>141</v>
-      </c>
-      <c r="L5" s="14">
-        <v>147</v>
-      </c>
-      <c r="M5" s="14">
-        <v>98</v>
-      </c>
-      <c r="N5" s="14">
-        <v>50</v>
-      </c>
-      <c r="O5" s="14">
-        <v>10</v>
-      </c>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
       <c r="P5" s="14"/>
       <c r="Q5" s="14"/>
       <c r="R5" s="14"/>
@@ -2319,24 +2243,12 @@
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
-      <c r="I6" s="14">
-        <v>1</v>
-      </c>
-      <c r="J6" s="14">
-        <v>11</v>
-      </c>
-      <c r="K6" s="14">
-        <v>15</v>
-      </c>
-      <c r="L6" s="14">
-        <v>4</v>
-      </c>
-      <c r="M6" s="14">
-        <v>2</v>
-      </c>
-      <c r="N6" s="14">
-        <v>1</v>
-      </c>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
       <c r="Q6" s="14"/>
@@ -2364,28 +2276,14 @@
         <v>23</v>
       </c>
       <c r="G7" s="14"/>
-      <c r="H7" s="14">
-        <v>30</v>
-      </c>
-      <c r="I7" s="14">
-        <v>56</v>
-      </c>
-      <c r="J7" s="14">
-        <v>72</v>
-      </c>
-      <c r="K7" s="14">
-        <v>38</v>
-      </c>
-      <c r="L7" s="14">
-        <v>36</v>
-      </c>
-      <c r="M7" s="14">
-        <v>18</v>
-      </c>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
       <c r="N7" s="14"/>
-      <c r="O7" s="14">
-        <v>1</v>
-      </c>
+      <c r="O7" s="14"/>
       <c r="P7" s="14"/>
       <c r="Q7" s="14"/>
       <c r="R7" s="14"/>
@@ -2412,33 +2310,15 @@
         <v>24</v>
       </c>
       <c r="G8" s="14"/>
-      <c r="H8" s="14">
-        <v>10</v>
-      </c>
-      <c r="I8" s="14">
-        <v>13</v>
-      </c>
-      <c r="J8" s="14">
-        <v>32</v>
-      </c>
-      <c r="K8" s="14">
-        <v>15</v>
-      </c>
-      <c r="L8" s="14">
-        <v>24</v>
-      </c>
-      <c r="M8" s="14">
-        <v>10</v>
-      </c>
-      <c r="N8" s="14">
-        <v>4</v>
-      </c>
-      <c r="O8" s="14">
-        <v>2</v>
-      </c>
-      <c r="P8" s="14">
-        <v>1</v>
-      </c>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
       <c r="Q8" s="14"/>
       <c r="R8" s="14"/>
       <c r="S8" s="14"/>
@@ -2465,33 +2345,15 @@
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
-      <c r="I9" s="14">
-        <v>50</v>
-      </c>
-      <c r="J9" s="14">
-        <v>70</v>
-      </c>
-      <c r="K9" s="14">
-        <v>60</v>
-      </c>
-      <c r="L9" s="14">
-        <v>100</v>
-      </c>
-      <c r="M9" s="14">
-        <v>70</v>
-      </c>
-      <c r="N9" s="14">
-        <v>50</v>
-      </c>
-      <c r="O9" s="14">
-        <v>5</v>
-      </c>
-      <c r="P9" s="14">
-        <v>5</v>
-      </c>
-      <c r="Q9" s="14">
-        <v>5</v>
-      </c>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
       <c r="R9" s="14"/>
       <c r="S9" s="14"/>
       <c r="T9" s="14"/>
@@ -2516,42 +2378,18 @@
         <v>26</v>
       </c>
       <c r="G10" s="14"/>
-      <c r="H10" s="14">
-        <v>10</v>
-      </c>
-      <c r="I10" s="14">
-        <v>100</v>
-      </c>
-      <c r="J10" s="14">
-        <v>145</v>
-      </c>
-      <c r="K10" s="14">
-        <v>140</v>
-      </c>
-      <c r="L10" s="14">
-        <v>140</v>
-      </c>
-      <c r="M10" s="14">
-        <v>110</v>
-      </c>
-      <c r="N10" s="14">
-        <v>105</v>
-      </c>
-      <c r="O10" s="14">
-        <v>105</v>
-      </c>
-      <c r="P10" s="14">
-        <v>105</v>
-      </c>
-      <c r="Q10" s="14">
-        <v>105</v>
-      </c>
-      <c r="R10" s="14">
-        <v>20</v>
-      </c>
-      <c r="S10" s="14">
-        <v>10</v>
-      </c>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
       <c r="T10" s="14"/>
     </row>
     <row r="11" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
@@ -2574,39 +2412,17 @@
         <v>27</v>
       </c>
       <c r="G11" s="14"/>
-      <c r="H11" s="14">
-        <v>3</v>
-      </c>
-      <c r="I11" s="14">
-        <v>45</v>
-      </c>
-      <c r="J11" s="14">
-        <v>83</v>
-      </c>
-      <c r="K11" s="14">
-        <v>36</v>
-      </c>
-      <c r="L11" s="14">
-        <v>53</v>
-      </c>
-      <c r="M11" s="14">
-        <v>50</v>
-      </c>
-      <c r="N11" s="14">
-        <v>45</v>
-      </c>
-      <c r="O11" s="14">
-        <v>70</v>
-      </c>
-      <c r="P11" s="14">
-        <v>40</v>
-      </c>
-      <c r="Q11" s="14">
-        <v>6</v>
-      </c>
-      <c r="R11" s="14">
-        <v>3</v>
-      </c>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
       <c r="S11" s="14"/>
       <c r="T11" s="14"/>
     </row>
@@ -2621,42 +2437,24 @@
         <v>89</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>28</v>
       </c>
       <c r="G12" s="14"/>
-      <c r="H12" s="14">
-        <v>2</v>
-      </c>
-      <c r="I12" s="14">
-        <v>31</v>
-      </c>
-      <c r="J12" s="14">
-        <v>123</v>
-      </c>
-      <c r="K12" s="14">
-        <v>124</v>
-      </c>
-      <c r="L12" s="14">
-        <v>95</v>
-      </c>
-      <c r="M12" s="14">
-        <v>25</v>
-      </c>
-      <c r="N12" s="14">
-        <v>14</v>
-      </c>
-      <c r="O12" s="14">
-        <v>4</v>
-      </c>
-      <c r="P12" s="14">
-        <v>3</v>
-      </c>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
       <c r="Q12" s="14"/>
       <c r="R12" s="14"/>
       <c r="S12" s="14"/>
@@ -2683,39 +2481,17 @@
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
-      <c r="I13" s="14">
-        <v>80</v>
-      </c>
-      <c r="J13" s="14">
-        <v>160</v>
-      </c>
-      <c r="K13" s="14">
-        <v>160</v>
-      </c>
-      <c r="L13" s="14">
-        <v>160</v>
-      </c>
-      <c r="M13" s="14">
-        <v>180</v>
-      </c>
-      <c r="N13" s="14">
-        <v>100</v>
-      </c>
-      <c r="O13" s="14">
-        <v>100</v>
-      </c>
-      <c r="P13" s="14">
-        <v>90</v>
-      </c>
-      <c r="Q13" s="14">
-        <v>25</v>
-      </c>
-      <c r="R13" s="14">
-        <v>10</v>
-      </c>
-      <c r="S13" s="14">
-        <v>5</v>
-      </c>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
       <c r="T13" s="14"/>
     </row>
     <row r="14" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
@@ -2739,39 +2515,17 @@
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
-      <c r="I14" s="14">
-        <v>80</v>
-      </c>
-      <c r="J14" s="14">
-        <v>110</v>
-      </c>
-      <c r="K14" s="14">
-        <v>140</v>
-      </c>
-      <c r="L14" s="14">
-        <v>152</v>
-      </c>
-      <c r="M14" s="14">
-        <v>100</v>
-      </c>
-      <c r="N14" s="14">
-        <v>160</v>
-      </c>
-      <c r="O14" s="14">
-        <v>80</v>
-      </c>
-      <c r="P14" s="14">
-        <v>80</v>
-      </c>
-      <c r="Q14" s="14">
-        <v>30</v>
-      </c>
-      <c r="R14" s="14">
-        <v>20</v>
-      </c>
-      <c r="S14" s="14">
-        <v>3</v>
-      </c>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
       <c r="T14" s="14"/>
     </row>
     <row r="15" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
@@ -2793,39 +2547,17 @@
       <c r="F15" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G15" s="14">
-        <v>10</v>
-      </c>
-      <c r="H15" s="14">
-        <v>35</v>
-      </c>
-      <c r="I15" s="14">
-        <v>80</v>
-      </c>
-      <c r="J15" s="14">
-        <v>100</v>
-      </c>
-      <c r="K15" s="14">
-        <v>65</v>
-      </c>
-      <c r="L15" s="14">
-        <v>65</v>
-      </c>
-      <c r="M15" s="14">
-        <v>30</v>
-      </c>
-      <c r="N15" s="14">
-        <v>25</v>
-      </c>
-      <c r="O15" s="14">
-        <v>5</v>
-      </c>
-      <c r="P15" s="14">
-        <v>2</v>
-      </c>
-      <c r="Q15" s="14">
-        <v>1</v>
-      </c>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
       <c r="R15" s="14"/>
       <c r="S15" s="14"/>
       <c r="T15" s="14"/>
@@ -2850,39 +2582,17 @@
         <v>32</v>
       </c>
       <c r="G16" s="14"/>
-      <c r="H16" s="14">
-        <v>4</v>
-      </c>
-      <c r="I16" s="14">
-        <v>50</v>
-      </c>
-      <c r="J16" s="14">
-        <v>90</v>
-      </c>
-      <c r="K16" s="14">
-        <v>110</v>
-      </c>
-      <c r="L16" s="14">
-        <v>100</v>
-      </c>
-      <c r="M16" s="14">
-        <v>100</v>
-      </c>
-      <c r="N16" s="14">
-        <v>90</v>
-      </c>
-      <c r="O16" s="14">
-        <v>50</v>
-      </c>
-      <c r="P16" s="14">
-        <v>50</v>
-      </c>
-      <c r="Q16" s="14">
-        <v>20</v>
-      </c>
-      <c r="R16" s="14">
-        <v>3</v>
-      </c>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
       <c r="S16" s="14"/>
       <c r="T16" s="14"/>
     </row>
@@ -2907,36 +2617,16 @@
       </c>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
-      <c r="I17" s="14">
-        <v>60</v>
-      </c>
-      <c r="J17" s="14">
-        <v>160</v>
-      </c>
-      <c r="K17" s="14">
-        <v>150</v>
-      </c>
-      <c r="L17" s="14">
-        <v>130</v>
-      </c>
-      <c r="M17" s="14">
-        <v>50</v>
-      </c>
-      <c r="N17" s="14">
-        <v>20</v>
-      </c>
-      <c r="O17" s="14">
-        <v>10</v>
-      </c>
-      <c r="P17" s="14">
-        <v>3</v>
-      </c>
-      <c r="Q17" s="14">
-        <v>3</v>
-      </c>
-      <c r="R17" s="14">
-        <v>2</v>
-      </c>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
       <c r="S17" s="14"/>
       <c r="T17" s="14"/>
     </row>
@@ -2960,42 +2650,18 @@
         <v>34</v>
       </c>
       <c r="G18" s="14"/>
-      <c r="H18" s="14">
-        <v>14</v>
-      </c>
-      <c r="I18" s="14">
-        <v>65</v>
-      </c>
-      <c r="J18" s="14">
-        <v>60</v>
-      </c>
-      <c r="K18" s="14">
-        <v>95</v>
-      </c>
-      <c r="L18" s="14">
-        <v>140</v>
-      </c>
-      <c r="M18" s="14">
-        <v>80</v>
-      </c>
-      <c r="N18" s="14">
-        <v>65</v>
-      </c>
-      <c r="O18" s="14">
-        <v>65</v>
-      </c>
-      <c r="P18" s="14">
-        <v>45</v>
-      </c>
-      <c r="Q18" s="14">
-        <v>25</v>
-      </c>
-      <c r="R18" s="14">
-        <v>20</v>
-      </c>
-      <c r="S18" s="14">
-        <v>10</v>
-      </c>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
       <c r="T18" s="14"/>
     </row>
     <row r="19" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
@@ -3018,39 +2684,17 @@
         <v>35</v>
       </c>
       <c r="G19" s="14"/>
-      <c r="H19" s="14">
-        <v>2</v>
-      </c>
-      <c r="I19" s="14">
-        <v>35</v>
-      </c>
-      <c r="J19" s="14">
-        <v>60</v>
-      </c>
-      <c r="K19" s="14">
-        <v>70</v>
-      </c>
-      <c r="L19" s="14">
-        <v>90</v>
-      </c>
-      <c r="M19" s="14">
-        <v>90</v>
-      </c>
-      <c r="N19" s="14">
-        <v>100</v>
-      </c>
-      <c r="O19" s="14">
-        <v>100</v>
-      </c>
-      <c r="P19" s="14">
-        <v>75</v>
-      </c>
-      <c r="Q19" s="14">
-        <v>30</v>
-      </c>
-      <c r="R19" s="14">
-        <v>3</v>
-      </c>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
       <c r="S19" s="14"/>
       <c r="T19" s="14"/>
     </row>
@@ -3075,39 +2719,17 @@
       </c>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
-      <c r="I20" s="14">
-        <v>60</v>
-      </c>
-      <c r="J20" s="14">
-        <v>110</v>
-      </c>
-      <c r="K20" s="14">
-        <v>150</v>
-      </c>
-      <c r="L20" s="14">
-        <v>200</v>
-      </c>
-      <c r="M20" s="14">
-        <v>130</v>
-      </c>
-      <c r="N20" s="14">
-        <v>100</v>
-      </c>
-      <c r="O20" s="14">
-        <v>80</v>
-      </c>
-      <c r="P20" s="14">
-        <v>50</v>
-      </c>
-      <c r="Q20" s="14">
-        <v>25</v>
-      </c>
-      <c r="R20" s="14">
-        <v>5</v>
-      </c>
-      <c r="S20" s="14">
-        <v>3</v>
-      </c>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
       <c r="T20" s="14"/>
     </row>
     <row r="21" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
@@ -3134,27 +2756,13 @@
       <c r="I21" s="14"/>
       <c r="J21" s="14"/>
       <c r="K21" s="14"/>
-      <c r="L21" s="14">
-        <v>20</v>
-      </c>
-      <c r="M21" s="14">
-        <v>70</v>
-      </c>
-      <c r="N21" s="14">
-        <v>87</v>
-      </c>
-      <c r="O21" s="14">
-        <v>90</v>
-      </c>
-      <c r="P21" s="14">
-        <v>50</v>
-      </c>
-      <c r="Q21" s="14">
-        <v>40</v>
-      </c>
-      <c r="R21" s="14">
-        <v>15</v>
-      </c>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
       <c r="S21" s="14"/>
       <c r="T21" s="14"/>
     </row>
@@ -3181,33 +2789,15 @@
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
-      <c r="K22" s="14">
-        <v>5</v>
-      </c>
-      <c r="L22" s="14">
-        <v>60</v>
-      </c>
-      <c r="M22" s="14">
-        <v>170</v>
-      </c>
-      <c r="N22" s="14">
-        <v>156</v>
-      </c>
-      <c r="O22" s="14">
-        <v>110</v>
-      </c>
-      <c r="P22" s="14">
-        <v>75</v>
-      </c>
-      <c r="Q22" s="14">
-        <v>15</v>
-      </c>
-      <c r="R22" s="14">
-        <v>10</v>
-      </c>
-      <c r="S22" s="14">
-        <v>4</v>
-      </c>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
       <c r="T22" s="14"/>
     </row>
     <row r="23" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
@@ -3230,39 +2820,17 @@
         <v>39</v>
       </c>
       <c r="G23" s="14"/>
-      <c r="H23" s="14">
-        <v>10</v>
-      </c>
-      <c r="I23" s="14">
-        <v>60</v>
-      </c>
-      <c r="J23" s="14">
-        <v>120</v>
-      </c>
-      <c r="K23" s="14">
-        <v>95</v>
-      </c>
-      <c r="L23" s="14">
-        <v>95</v>
-      </c>
-      <c r="M23" s="14">
-        <v>90</v>
-      </c>
-      <c r="N23" s="14">
-        <v>140</v>
-      </c>
-      <c r="O23" s="14">
-        <v>150</v>
-      </c>
-      <c r="P23" s="14">
-        <v>90</v>
-      </c>
-      <c r="Q23" s="14">
-        <v>30</v>
-      </c>
-      <c r="R23" s="14">
-        <v>15</v>
-      </c>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
       <c r="S23" s="14"/>
       <c r="T23" s="14"/>
     </row>
@@ -3287,39 +2855,17 @@
       </c>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
-      <c r="I24" s="14">
-        <v>30</v>
-      </c>
-      <c r="J24" s="14">
-        <v>60</v>
-      </c>
-      <c r="K24" s="14">
-        <v>250</v>
-      </c>
-      <c r="L24" s="14">
-        <v>200</v>
-      </c>
-      <c r="M24" s="14">
-        <v>260</v>
-      </c>
-      <c r="N24" s="14">
-        <v>200</v>
-      </c>
-      <c r="O24" s="14">
-        <v>80</v>
-      </c>
-      <c r="P24" s="14">
-        <v>50</v>
-      </c>
-      <c r="Q24" s="14">
-        <v>50</v>
-      </c>
-      <c r="R24" s="14">
-        <v>18</v>
-      </c>
-      <c r="S24" s="14">
-        <v>5</v>
-      </c>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
       <c r="T24" s="14"/>
     </row>
     <row r="25" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
@@ -3342,36 +2888,16 @@
         <v>41</v>
       </c>
       <c r="G25" s="14"/>
-      <c r="H25" s="14">
-        <v>100</v>
-      </c>
-      <c r="I25" s="14">
-        <v>120</v>
-      </c>
-      <c r="J25" s="14">
-        <v>110</v>
-      </c>
-      <c r="K25" s="14">
-        <v>120</v>
-      </c>
-      <c r="L25" s="14">
-        <v>110</v>
-      </c>
-      <c r="M25" s="14">
-        <v>120</v>
-      </c>
-      <c r="N25" s="14">
-        <v>70</v>
-      </c>
-      <c r="O25" s="14">
-        <v>60</v>
-      </c>
-      <c r="P25" s="14">
-        <v>40</v>
-      </c>
-      <c r="Q25" s="14">
-        <v>20</v>
-      </c>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
       <c r="R25" s="14"/>
       <c r="S25" s="14"/>
       <c r="T25" s="14"/>
@@ -3396,42 +2922,18 @@
         <v>42</v>
       </c>
       <c r="G26" s="14"/>
-      <c r="H26" s="14">
-        <v>30</v>
-      </c>
-      <c r="I26" s="14">
-        <v>80</v>
-      </c>
-      <c r="J26" s="14">
-        <v>120</v>
-      </c>
-      <c r="K26" s="14">
-        <v>140</v>
-      </c>
-      <c r="L26" s="14">
-        <v>110</v>
-      </c>
-      <c r="M26" s="14">
-        <v>170</v>
-      </c>
-      <c r="N26" s="14">
-        <v>110</v>
-      </c>
-      <c r="O26" s="14">
-        <v>50</v>
-      </c>
-      <c r="P26" s="14">
-        <v>70</v>
-      </c>
-      <c r="Q26" s="14">
-        <v>15</v>
-      </c>
-      <c r="R26" s="14">
-        <v>10</v>
-      </c>
-      <c r="S26" s="14">
-        <v>2</v>
-      </c>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
       <c r="T26" s="14"/>
     </row>
     <row r="27" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
@@ -3456,36 +2958,16 @@
       <c r="G27" s="14"/>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
-      <c r="J27" s="14">
-        <v>21</v>
-      </c>
-      <c r="K27" s="14">
-        <v>49</v>
-      </c>
-      <c r="L27" s="14">
-        <v>58</v>
-      </c>
-      <c r="M27" s="14">
-        <v>53</v>
-      </c>
-      <c r="N27" s="14">
-        <v>48</v>
-      </c>
-      <c r="O27" s="14">
-        <v>56</v>
-      </c>
-      <c r="P27" s="14">
-        <v>29</v>
-      </c>
-      <c r="Q27" s="14">
-        <v>24</v>
-      </c>
-      <c r="R27" s="14">
-        <v>10</v>
-      </c>
-      <c r="S27" s="14">
-        <v>5</v>
-      </c>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
       <c r="T27" s="14"/>
     </row>
     <row r="28" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
@@ -3508,28 +2990,14 @@
         <v>44</v>
       </c>
       <c r="G28" s="14"/>
-      <c r="H28" s="14">
-        <v>9</v>
-      </c>
-      <c r="I28" s="14">
-        <v>17</v>
-      </c>
-      <c r="J28" s="14">
-        <v>12</v>
-      </c>
-      <c r="K28" s="14">
-        <v>13</v>
-      </c>
-      <c r="L28" s="14">
-        <v>5</v>
-      </c>
-      <c r="M28" s="14">
-        <v>1</v>
-      </c>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
       <c r="N28" s="14"/>
-      <c r="O28" s="14">
-        <v>3</v>
-      </c>
+      <c r="O28" s="14"/>
       <c r="P28" s="14"/>
       <c r="Q28" s="14"/>
       <c r="R28" s="14"/>
@@ -3556,27 +3024,13 @@
         <v>45</v>
       </c>
       <c r="G29" s="14"/>
-      <c r="H29" s="14">
-        <v>5</v>
-      </c>
-      <c r="I29" s="14">
-        <v>35</v>
-      </c>
-      <c r="J29" s="14">
-        <v>40</v>
-      </c>
-      <c r="K29" s="14">
-        <v>40</v>
-      </c>
-      <c r="L29" s="14">
-        <v>40</v>
-      </c>
-      <c r="M29" s="14">
-        <v>10</v>
-      </c>
-      <c r="N29" s="14">
-        <v>2</v>
-      </c>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
       <c r="O29" s="14"/>
       <c r="P29" s="14"/>
       <c r="Q29" s="14"/>
@@ -3605,30 +3059,14 @@
       </c>
       <c r="G30" s="14"/>
       <c r="H30" s="14"/>
-      <c r="I30" s="14">
-        <v>10</v>
-      </c>
-      <c r="J30" s="14">
-        <v>15</v>
-      </c>
-      <c r="K30" s="14">
-        <v>18</v>
-      </c>
-      <c r="L30" s="14">
-        <v>18</v>
-      </c>
-      <c r="M30" s="14">
-        <v>8</v>
-      </c>
-      <c r="N30" s="14">
-        <v>1</v>
-      </c>
-      <c r="O30" s="14">
-        <v>1</v>
-      </c>
-      <c r="P30" s="14">
-        <v>1</v>
-      </c>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
       <c r="Q30" s="14"/>
       <c r="R30" s="14"/>
       <c r="S30" s="14"/>
@@ -3654,27 +3092,13 @@
         <v>47</v>
       </c>
       <c r="G31" s="14"/>
-      <c r="H31" s="14">
-        <v>8</v>
-      </c>
-      <c r="I31" s="14">
-        <v>27</v>
-      </c>
-      <c r="J31" s="14">
-        <v>21</v>
-      </c>
-      <c r="K31" s="14">
-        <v>21</v>
-      </c>
-      <c r="L31" s="14">
-        <v>26</v>
-      </c>
-      <c r="M31" s="14">
-        <v>11</v>
-      </c>
-      <c r="N31" s="14">
-        <v>2</v>
-      </c>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
       <c r="O31" s="14"/>
       <c r="P31" s="14"/>
       <c r="Q31" s="14"/>
@@ -3703,36 +3127,16 @@
       </c>
       <c r="G32" s="14"/>
       <c r="H32" s="14"/>
-      <c r="I32" s="14">
-        <v>96</v>
-      </c>
-      <c r="J32" s="14">
-        <v>70</v>
-      </c>
-      <c r="K32" s="14">
-        <v>100</v>
-      </c>
-      <c r="L32" s="14">
-        <v>110</v>
-      </c>
-      <c r="M32" s="14">
-        <v>40</v>
-      </c>
-      <c r="N32" s="14">
-        <v>20</v>
-      </c>
-      <c r="O32" s="14">
-        <v>5</v>
-      </c>
-      <c r="P32" s="14">
-        <v>4</v>
-      </c>
-      <c r="Q32" s="14">
-        <v>3</v>
-      </c>
-      <c r="R32" s="14">
-        <v>2</v>
-      </c>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
       <c r="S32" s="14"/>
       <c r="T32" s="14"/>
     </row>
@@ -3757,27 +3161,13 @@
       </c>
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
-      <c r="I33" s="14">
-        <v>60</v>
-      </c>
-      <c r="J33" s="14">
-        <v>130</v>
-      </c>
-      <c r="K33" s="14">
-        <v>130</v>
-      </c>
-      <c r="L33" s="14">
-        <v>130</v>
-      </c>
-      <c r="M33" s="14">
-        <v>130</v>
-      </c>
-      <c r="N33" s="14">
-        <v>130</v>
-      </c>
-      <c r="O33" s="14">
-        <v>80</v>
-      </c>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="14"/>
       <c r="P33" s="14"/>
       <c r="Q33" s="14"/>
       <c r="R33" s="14"/>
@@ -3804,31 +3194,15 @@
         <v>50</v>
       </c>
       <c r="G34" s="14"/>
-      <c r="H34" s="14">
-        <v>1</v>
-      </c>
-      <c r="I34" s="14">
-        <v>22</v>
-      </c>
-      <c r="J34" s="14">
-        <v>15</v>
-      </c>
-      <c r="K34" s="14">
-        <v>30</v>
-      </c>
-      <c r="L34" s="14">
-        <v>17</v>
-      </c>
-      <c r="M34" s="14">
-        <v>4</v>
-      </c>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
       <c r="N34" s="14"/>
-      <c r="O34" s="14">
-        <v>3</v>
-      </c>
-      <c r="P34" s="14">
-        <v>1</v>
-      </c>
+      <c r="O34" s="14"/>
+      <c r="P34" s="14"/>
       <c r="Q34" s="14"/>
       <c r="R34" s="14"/>
       <c r="S34" s="14"/>
@@ -3855,36 +3229,16 @@
       </c>
       <c r="G35" s="14"/>
       <c r="H35" s="14"/>
-      <c r="I35" s="14">
-        <v>80</v>
-      </c>
-      <c r="J35" s="14">
-        <v>140</v>
-      </c>
-      <c r="K35" s="14">
-        <v>130</v>
-      </c>
-      <c r="L35" s="14">
-        <v>160</v>
-      </c>
-      <c r="M35" s="14">
-        <v>180</v>
-      </c>
-      <c r="N35" s="14">
-        <v>190</v>
-      </c>
-      <c r="O35" s="14">
-        <v>120</v>
-      </c>
-      <c r="P35" s="14">
-        <v>70</v>
-      </c>
-      <c r="Q35" s="14">
-        <v>30</v>
-      </c>
-      <c r="R35" s="14">
-        <v>15</v>
-      </c>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="14"/>
+      <c r="R35" s="14"/>
       <c r="S35" s="14"/>
       <c r="T35" s="14"/>
     </row>
@@ -3908,37 +3262,17 @@
         <v>52</v>
       </c>
       <c r="G36" s="14"/>
-      <c r="H36" s="14">
-        <v>10</v>
-      </c>
-      <c r="I36" s="14">
-        <v>17</v>
-      </c>
-      <c r="J36" s="14">
-        <v>15</v>
-      </c>
-      <c r="K36" s="14">
-        <v>17</v>
-      </c>
-      <c r="L36" s="14">
-        <v>27</v>
-      </c>
-      <c r="M36" s="14">
-        <v>9</v>
-      </c>
-      <c r="N36" s="14">
-        <v>5</v>
-      </c>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
       <c r="O36" s="14"/>
-      <c r="P36" s="14">
-        <v>1</v>
-      </c>
-      <c r="Q36" s="14">
-        <v>2</v>
-      </c>
-      <c r="R36" s="14">
-        <v>2</v>
-      </c>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="14"/>
+      <c r="R36" s="14"/>
       <c r="S36" s="14"/>
       <c r="T36" s="14"/>
     </row>
@@ -3962,42 +3296,18 @@
         <v>53</v>
       </c>
       <c r="G37" s="14"/>
-      <c r="H37" s="14">
-        <v>15</v>
-      </c>
-      <c r="I37" s="14">
-        <v>180</v>
-      </c>
-      <c r="J37" s="14">
-        <v>250</v>
-      </c>
-      <c r="K37" s="14">
-        <v>215</v>
-      </c>
-      <c r="L37" s="14">
-        <v>135</v>
-      </c>
-      <c r="M37" s="14">
-        <v>60</v>
-      </c>
-      <c r="N37" s="14">
-        <v>30</v>
-      </c>
-      <c r="O37" s="14">
-        <v>15</v>
-      </c>
-      <c r="P37" s="14">
-        <v>10</v>
-      </c>
-      <c r="Q37" s="14">
-        <v>6</v>
-      </c>
-      <c r="R37" s="14">
-        <v>2</v>
-      </c>
-      <c r="S37" s="14">
-        <v>2</v>
-      </c>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="14"/>
+      <c r="Q37" s="14"/>
+      <c r="R37" s="14"/>
+      <c r="S37" s="14"/>
       <c r="T37" s="14"/>
     </row>
     <row r="38" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
@@ -4022,30 +3332,14 @@
       <c r="G38" s="14"/>
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
-      <c r="J38" s="14">
-        <v>60</v>
-      </c>
-      <c r="K38" s="14">
-        <v>130</v>
-      </c>
-      <c r="L38" s="14">
-        <v>120</v>
-      </c>
-      <c r="M38" s="14">
-        <v>210</v>
-      </c>
-      <c r="N38" s="14">
-        <v>270</v>
-      </c>
-      <c r="O38" s="14">
-        <v>170</v>
-      </c>
-      <c r="P38" s="14">
-        <v>120</v>
-      </c>
-      <c r="Q38" s="14">
-        <v>160</v>
-      </c>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="14"/>
       <c r="R38" s="14"/>
       <c r="S38" s="14"/>
       <c r="T38" s="14"/>
@@ -4069,39 +3363,17 @@
       <c r="F39" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G39" s="14">
-        <v>11</v>
-      </c>
-      <c r="H39" s="14">
-        <v>58</v>
-      </c>
-      <c r="I39" s="14">
-        <v>106</v>
-      </c>
-      <c r="J39" s="14">
-        <v>94</v>
-      </c>
-      <c r="K39" s="14">
-        <v>86</v>
-      </c>
-      <c r="L39" s="14">
-        <v>75</v>
-      </c>
-      <c r="M39" s="14">
-        <v>50</v>
-      </c>
-      <c r="N39" s="14">
-        <v>9</v>
-      </c>
-      <c r="O39" s="14">
-        <v>1</v>
-      </c>
-      <c r="P39" s="14">
-        <v>1</v>
-      </c>
-      <c r="Q39" s="14">
-        <v>3</v>
-      </c>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="14"/>
+      <c r="Q39" s="14"/>
       <c r="R39" s="14"/>
       <c r="S39" s="14"/>
       <c r="T39" s="14"/>
@@ -4126,24 +3398,12 @@
         <v>56</v>
       </c>
       <c r="G40" s="14"/>
-      <c r="H40" s="14">
-        <v>15</v>
-      </c>
-      <c r="I40" s="14">
-        <v>19</v>
-      </c>
-      <c r="J40" s="14">
-        <v>9</v>
-      </c>
-      <c r="K40" s="14">
-        <v>13</v>
-      </c>
-      <c r="L40" s="14">
-        <v>7</v>
-      </c>
-      <c r="M40" s="14">
-        <v>5</v>
-      </c>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
       <c r="N40" s="14"/>
       <c r="O40" s="14"/>
       <c r="P40" s="14"/>
@@ -4174,30 +3434,14 @@
       <c r="G41" s="14"/>
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
-      <c r="J41" s="14">
-        <v>150</v>
-      </c>
-      <c r="K41" s="14">
-        <v>150</v>
-      </c>
-      <c r="L41" s="14">
-        <v>150</v>
-      </c>
-      <c r="M41" s="14">
-        <v>150</v>
-      </c>
-      <c r="N41" s="14">
-        <v>200</v>
-      </c>
-      <c r="O41" s="14">
-        <v>200</v>
-      </c>
-      <c r="P41" s="14">
-        <v>200</v>
-      </c>
-      <c r="Q41" s="14">
-        <v>100</v>
-      </c>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="14"/>
+      <c r="O41" s="14"/>
+      <c r="P41" s="14"/>
+      <c r="Q41" s="14"/>
       <c r="R41" s="14"/>
       <c r="S41" s="14"/>
       <c r="T41" s="14"/>
@@ -4223,39 +3467,17 @@
       </c>
       <c r="G42" s="14"/>
       <c r="H42" s="14"/>
-      <c r="I42" s="14">
-        <v>15</v>
-      </c>
-      <c r="J42" s="14">
-        <v>30</v>
-      </c>
-      <c r="K42" s="14">
-        <v>32</v>
-      </c>
-      <c r="L42" s="14">
-        <v>50</v>
-      </c>
-      <c r="M42" s="14">
-        <v>40</v>
-      </c>
-      <c r="N42" s="14">
-        <v>36</v>
-      </c>
-      <c r="O42" s="14">
-        <v>15</v>
-      </c>
-      <c r="P42" s="14">
-        <v>10</v>
-      </c>
-      <c r="Q42" s="14">
-        <v>15</v>
-      </c>
-      <c r="R42" s="14">
-        <v>10</v>
-      </c>
-      <c r="S42" s="14">
-        <v>1</v>
-      </c>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="14"/>
+      <c r="P42" s="14"/>
+      <c r="Q42" s="14"/>
+      <c r="R42" s="14"/>
+      <c r="S42" s="14"/>
       <c r="T42" s="14"/>
     </row>
     <row r="43" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
@@ -4277,18 +3499,10 @@
       <c r="F43" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="G43" s="14">
-        <v>10</v>
-      </c>
-      <c r="H43" s="14">
-        <v>30</v>
-      </c>
-      <c r="I43" s="14">
-        <v>32</v>
-      </c>
-      <c r="J43" s="14">
-        <v>4</v>
-      </c>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
       <c r="K43" s="14"/>
       <c r="L43" s="14"/>
       <c r="M43" s="14"/>
@@ -4321,25 +3535,13 @@
       </c>
       <c r="G44" s="14"/>
       <c r="H44" s="14"/>
-      <c r="I44" s="14">
-        <v>20</v>
-      </c>
-      <c r="J44" s="14">
-        <v>70</v>
-      </c>
-      <c r="K44" s="14">
-        <v>50</v>
-      </c>
-      <c r="L44" s="14">
-        <v>35</v>
-      </c>
-      <c r="M44" s="14">
-        <v>8</v>
-      </c>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="14"/>
       <c r="N44" s="14"/>
-      <c r="O44" s="14">
-        <v>1</v>
-      </c>
+      <c r="O44" s="14"/>
       <c r="P44" s="14"/>
       <c r="Q44" s="14"/>
       <c r="R44" s="14"/>
@@ -4367,39 +3569,17 @@
       </c>
       <c r="G45" s="14"/>
       <c r="H45" s="14"/>
-      <c r="I45" s="14">
-        <v>80</v>
-      </c>
-      <c r="J45" s="14">
-        <v>120</v>
-      </c>
-      <c r="K45" s="14">
-        <v>120</v>
-      </c>
-      <c r="L45" s="14">
-        <v>120</v>
-      </c>
-      <c r="M45" s="14">
-        <v>120</v>
-      </c>
-      <c r="N45" s="14">
-        <v>105</v>
-      </c>
-      <c r="O45" s="14">
-        <v>100</v>
-      </c>
-      <c r="P45" s="14">
-        <v>60</v>
-      </c>
-      <c r="Q45" s="14">
-        <v>20</v>
-      </c>
-      <c r="R45" s="14">
-        <v>10</v>
-      </c>
-      <c r="S45" s="14">
-        <v>5</v>
-      </c>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="14"/>
+      <c r="O45" s="14"/>
+      <c r="P45" s="14"/>
+      <c r="Q45" s="14"/>
+      <c r="R45" s="14"/>
+      <c r="S45" s="14"/>
       <c r="T45" s="14"/>
     </row>
     <row r="46" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
@@ -4423,36 +3603,16 @@
       </c>
       <c r="G46" s="14"/>
       <c r="H46" s="14"/>
-      <c r="I46" s="14">
-        <v>35</v>
-      </c>
-      <c r="J46" s="14">
-        <v>80</v>
-      </c>
-      <c r="K46" s="14">
-        <v>110</v>
-      </c>
-      <c r="L46" s="14">
-        <v>110</v>
-      </c>
-      <c r="M46" s="14">
-        <v>100</v>
-      </c>
-      <c r="N46" s="14">
-        <v>100</v>
-      </c>
-      <c r="O46" s="14">
-        <v>80</v>
-      </c>
-      <c r="P46" s="14">
-        <v>80</v>
-      </c>
-      <c r="Q46" s="14">
-        <v>40</v>
-      </c>
-      <c r="R46" s="14">
-        <v>15</v>
-      </c>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="14"/>
+      <c r="O46" s="14"/>
+      <c r="P46" s="14"/>
+      <c r="Q46" s="14"/>
+      <c r="R46" s="14"/>
       <c r="S46" s="14"/>
       <c r="T46" s="14"/>
     </row>
@@ -4477,39 +3637,17 @@
       </c>
       <c r="G47" s="14"/>
       <c r="H47" s="14"/>
-      <c r="I47" s="14">
-        <v>50</v>
-      </c>
-      <c r="J47" s="14">
-        <v>100</v>
-      </c>
-      <c r="K47" s="14">
-        <v>150</v>
-      </c>
-      <c r="L47" s="14">
-        <v>200</v>
-      </c>
-      <c r="M47" s="14">
-        <v>150</v>
-      </c>
-      <c r="N47" s="14">
-        <v>150</v>
-      </c>
-      <c r="O47" s="14">
-        <v>100</v>
-      </c>
-      <c r="P47" s="14">
-        <v>50</v>
-      </c>
-      <c r="Q47" s="14">
-        <v>50</v>
-      </c>
-      <c r="R47" s="14">
-        <v>20</v>
-      </c>
-      <c r="S47" s="14">
-        <v>10</v>
-      </c>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="14"/>
+      <c r="N47" s="14"/>
+      <c r="O47" s="14"/>
+      <c r="P47" s="14"/>
+      <c r="Q47" s="14"/>
+      <c r="R47" s="14"/>
+      <c r="S47" s="14"/>
       <c r="T47" s="14"/>
     </row>
     <row r="48" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
@@ -4533,39 +3671,17 @@
       </c>
       <c r="G48" s="14"/>
       <c r="H48" s="14"/>
-      <c r="I48" s="14">
-        <v>100</v>
-      </c>
-      <c r="J48" s="14">
-        <v>115</v>
-      </c>
-      <c r="K48" s="14">
-        <v>120</v>
-      </c>
-      <c r="L48" s="14">
-        <v>100</v>
-      </c>
-      <c r="M48" s="14">
-        <v>100</v>
-      </c>
-      <c r="N48" s="14">
-        <v>100</v>
-      </c>
-      <c r="O48" s="14">
-        <v>100</v>
-      </c>
-      <c r="P48" s="14">
-        <v>100</v>
-      </c>
-      <c r="Q48" s="14">
-        <v>100</v>
-      </c>
-      <c r="R48" s="14">
-        <v>50</v>
-      </c>
-      <c r="S48" s="14">
-        <v>5</v>
-      </c>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="14"/>
+      <c r="N48" s="14"/>
+      <c r="O48" s="14"/>
+      <c r="P48" s="14"/>
+      <c r="Q48" s="14"/>
+      <c r="R48" s="14"/>
+      <c r="S48" s="14"/>
       <c r="T48" s="14"/>
     </row>
     <row r="49" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
@@ -4590,19 +3706,11 @@
       <c r="G49" s="14"/>
       <c r="H49" s="14"/>
       <c r="I49" s="14"/>
-      <c r="J49" s="14">
-        <v>4</v>
-      </c>
-      <c r="K49" s="14">
-        <v>2</v>
-      </c>
-      <c r="L49" s="14">
-        <v>4</v>
-      </c>
+      <c r="J49" s="14"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="14"/>
       <c r="M49" s="14"/>
-      <c r="N49" s="14">
-        <v>2</v>
-      </c>
+      <c r="N49" s="14"/>
       <c r="O49" s="14"/>
       <c r="P49" s="14"/>
       <c r="Q49" s="14"/>
@@ -4631,28 +3739,14 @@
       </c>
       <c r="G50" s="14"/>
       <c r="H50" s="14"/>
-      <c r="I50" s="14">
-        <v>150</v>
-      </c>
-      <c r="J50" s="14">
-        <v>160</v>
-      </c>
-      <c r="K50" s="14">
-        <v>130</v>
-      </c>
-      <c r="L50" s="14">
-        <v>140</v>
-      </c>
-      <c r="M50" s="14">
-        <v>210</v>
-      </c>
-      <c r="N50" s="14">
-        <v>20</v>
-      </c>
+      <c r="I50" s="14"/>
+      <c r="J50" s="14"/>
+      <c r="K50" s="14"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="14"/>
+      <c r="N50" s="14"/>
       <c r="O50" s="14"/>
-      <c r="P50" s="14">
-        <v>10</v>
-      </c>
+      <c r="P50" s="14"/>
       <c r="Q50" s="14"/>
       <c r="R50" s="14"/>
       <c r="S50" s="14"/>
@@ -4679,39 +3773,17 @@
       </c>
       <c r="G51" s="14"/>
       <c r="H51" s="14"/>
-      <c r="I51" s="14">
-        <v>60</v>
-      </c>
-      <c r="J51" s="14">
-        <v>130</v>
-      </c>
-      <c r="K51" s="14">
-        <v>160</v>
-      </c>
-      <c r="L51" s="14">
-        <v>130</v>
-      </c>
-      <c r="M51" s="14">
-        <v>180</v>
-      </c>
-      <c r="N51" s="14">
-        <v>120</v>
-      </c>
-      <c r="O51" s="14">
-        <v>70</v>
-      </c>
-      <c r="P51" s="14">
-        <v>70</v>
-      </c>
-      <c r="Q51" s="14">
-        <v>20</v>
-      </c>
-      <c r="R51" s="14">
-        <v>20</v>
-      </c>
-      <c r="S51" s="14">
-        <v>10</v>
-      </c>
+      <c r="I51" s="14"/>
+      <c r="J51" s="14"/>
+      <c r="K51" s="14"/>
+      <c r="L51" s="14"/>
+      <c r="M51" s="14"/>
+      <c r="N51" s="14"/>
+      <c r="O51" s="14"/>
+      <c r="P51" s="14"/>
+      <c r="Q51" s="14"/>
+      <c r="R51" s="14"/>
+      <c r="S51" s="14"/>
       <c r="T51" s="14"/>
     </row>
     <row r="52" spans="1:20" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
@@ -4734,18 +3806,10 @@
         <v>68</v>
       </c>
       <c r="G52" s="14"/>
-      <c r="H52" s="14">
-        <v>60</v>
-      </c>
-      <c r="I52" s="14">
-        <v>50</v>
-      </c>
-      <c r="J52" s="14">
-        <v>10</v>
-      </c>
-      <c r="K52" s="14">
-        <v>6</v>
-      </c>
+      <c r="H52" s="14"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="14"/>
+      <c r="K52" s="14"/>
       <c r="L52" s="14"/>
       <c r="M52" s="14"/>
       <c r="N52" s="14"/>
@@ -4776,30 +3840,14 @@
         <v>69</v>
       </c>
       <c r="G53" s="14"/>
-      <c r="H53" s="14">
-        <v>2</v>
-      </c>
-      <c r="I53" s="14">
-        <v>21</v>
-      </c>
-      <c r="J53" s="14">
-        <v>33</v>
-      </c>
-      <c r="K53" s="14">
-        <v>47</v>
-      </c>
-      <c r="L53" s="14">
-        <v>30</v>
-      </c>
-      <c r="M53" s="14">
-        <v>20</v>
-      </c>
-      <c r="N53" s="14">
-        <v>10</v>
-      </c>
-      <c r="O53" s="14">
-        <v>2</v>
-      </c>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="14"/>
+      <c r="L53" s="14"/>
+      <c r="M53" s="14"/>
+      <c r="N53" s="14"/>
+      <c r="O53" s="14"/>
       <c r="P53" s="14"/>
       <c r="Q53" s="14"/>
       <c r="R53" s="14"/>
@@ -4825,42 +3873,18 @@
       <c r="F54" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G54" s="14">
-        <v>10</v>
-      </c>
-      <c r="H54" s="14">
-        <v>30</v>
-      </c>
-      <c r="I54" s="14">
-        <v>60</v>
-      </c>
-      <c r="J54" s="14">
-        <v>60</v>
-      </c>
-      <c r="K54" s="14">
-        <v>40</v>
-      </c>
-      <c r="L54" s="14">
-        <v>30</v>
-      </c>
-      <c r="M54" s="14">
-        <v>15</v>
-      </c>
-      <c r="N54" s="14">
-        <v>10</v>
-      </c>
-      <c r="O54" s="14">
-        <v>6</v>
-      </c>
-      <c r="P54" s="14">
-        <v>2</v>
-      </c>
-      <c r="Q54" s="14">
-        <v>2</v>
-      </c>
-      <c r="R54" s="14">
-        <v>2</v>
-      </c>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14"/>
+      <c r="J54" s="14"/>
+      <c r="K54" s="14"/>
+      <c r="L54" s="14"/>
+      <c r="M54" s="14"/>
+      <c r="N54" s="14"/>
+      <c r="O54" s="14"/>
+      <c r="P54" s="14"/>
+      <c r="Q54" s="14"/>
+      <c r="R54" s="14"/>
       <c r="S54" s="14"/>
       <c r="T54" s="14"/>
     </row>
@@ -4884,42 +3908,18 @@
         <v>71</v>
       </c>
       <c r="G55" s="14"/>
-      <c r="H55" s="14">
-        <v>2</v>
-      </c>
-      <c r="I55" s="14">
-        <v>45</v>
-      </c>
-      <c r="J55" s="14">
-        <v>80</v>
-      </c>
-      <c r="K55" s="14">
-        <v>89</v>
-      </c>
-      <c r="L55" s="14">
-        <v>95</v>
-      </c>
-      <c r="M55" s="14">
-        <v>145</v>
-      </c>
-      <c r="N55" s="14">
-        <v>135</v>
-      </c>
-      <c r="O55" s="14">
-        <v>120</v>
-      </c>
-      <c r="P55" s="14">
-        <v>100</v>
-      </c>
-      <c r="Q55" s="14">
-        <v>44</v>
-      </c>
-      <c r="R55" s="14">
-        <v>10</v>
-      </c>
-      <c r="S55" s="14">
-        <v>2</v>
-      </c>
+      <c r="H55" s="14"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="14"/>
+      <c r="K55" s="14"/>
+      <c r="L55" s="14"/>
+      <c r="M55" s="14"/>
+      <c r="N55" s="14"/>
+      <c r="O55" s="14"/>
+      <c r="P55" s="14"/>
+      <c r="Q55" s="14"/>
+      <c r="R55" s="14"/>
+      <c r="S55" s="14"/>
       <c r="T55" s="14"/>
     </row>
     <row r="56" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
@@ -4943,39 +3943,17 @@
       </c>
       <c r="G56" s="14"/>
       <c r="H56" s="14"/>
-      <c r="I56" s="14">
-        <v>69</v>
-      </c>
-      <c r="J56" s="14">
-        <v>163</v>
-      </c>
-      <c r="K56" s="14">
-        <v>200</v>
-      </c>
-      <c r="L56" s="14">
-        <v>174</v>
-      </c>
-      <c r="M56" s="14">
-        <v>154</v>
-      </c>
-      <c r="N56" s="14">
-        <v>142</v>
-      </c>
-      <c r="O56" s="14">
-        <v>105</v>
-      </c>
-      <c r="P56" s="14">
-        <v>83</v>
-      </c>
-      <c r="Q56" s="14">
-        <v>55</v>
-      </c>
-      <c r="R56" s="14">
-        <v>20</v>
-      </c>
-      <c r="S56" s="14">
-        <v>11</v>
-      </c>
+      <c r="I56" s="14"/>
+      <c r="J56" s="14"/>
+      <c r="K56" s="14"/>
+      <c r="L56" s="14"/>
+      <c r="M56" s="14"/>
+      <c r="N56" s="14"/>
+      <c r="O56" s="14"/>
+      <c r="P56" s="14"/>
+      <c r="Q56" s="14"/>
+      <c r="R56" s="14"/>
+      <c r="S56" s="14"/>
       <c r="T56" s="14"/>
     </row>
     <row r="57" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
@@ -5032,42 +4010,18 @@
         <v>74</v>
       </c>
       <c r="G58" s="14"/>
-      <c r="H58" s="14">
-        <v>2</v>
-      </c>
-      <c r="I58" s="14">
-        <v>15</v>
-      </c>
-      <c r="J58" s="14">
-        <v>60</v>
-      </c>
-      <c r="K58" s="14">
-        <v>98</v>
-      </c>
-      <c r="L58" s="14">
-        <v>98</v>
-      </c>
-      <c r="M58" s="14">
-        <v>132</v>
-      </c>
-      <c r="N58" s="14">
-        <v>120</v>
-      </c>
-      <c r="O58" s="14">
-        <v>120</v>
-      </c>
-      <c r="P58" s="14">
-        <v>124</v>
-      </c>
-      <c r="Q58" s="14">
-        <v>80</v>
-      </c>
-      <c r="R58" s="14">
-        <v>21</v>
-      </c>
-      <c r="S58" s="14">
-        <v>10</v>
-      </c>
+      <c r="H58" s="14"/>
+      <c r="I58" s="14"/>
+      <c r="J58" s="14"/>
+      <c r="K58" s="14"/>
+      <c r="L58" s="14"/>
+      <c r="M58" s="14"/>
+      <c r="N58" s="14"/>
+      <c r="O58" s="14"/>
+      <c r="P58" s="14"/>
+      <c r="Q58" s="14"/>
+      <c r="R58" s="14"/>
+      <c r="S58" s="14"/>
       <c r="T58" s="14"/>
     </row>
     <row r="59" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
@@ -5090,36 +4044,16 @@
         <v>75</v>
       </c>
       <c r="G59" s="14"/>
-      <c r="H59" s="14">
-        <v>107</v>
-      </c>
-      <c r="I59" s="14">
-        <v>120</v>
-      </c>
-      <c r="J59" s="14">
-        <v>120</v>
-      </c>
-      <c r="K59" s="14">
-        <v>100</v>
-      </c>
-      <c r="L59" s="14">
-        <v>90</v>
-      </c>
-      <c r="M59" s="14">
-        <v>60</v>
-      </c>
-      <c r="N59" s="14">
-        <v>60</v>
-      </c>
-      <c r="O59" s="14">
-        <v>20</v>
-      </c>
-      <c r="P59" s="14">
-        <v>4</v>
-      </c>
-      <c r="Q59" s="14">
-        <v>1</v>
-      </c>
+      <c r="H59" s="14"/>
+      <c r="I59" s="14"/>
+      <c r="J59" s="14"/>
+      <c r="K59" s="14"/>
+      <c r="L59" s="14"/>
+      <c r="M59" s="14"/>
+      <c r="N59" s="14"/>
+      <c r="O59" s="14"/>
+      <c r="P59" s="14"/>
+      <c r="Q59" s="14"/>
       <c r="R59" s="14"/>
       <c r="S59" s="14"/>
       <c r="T59" s="14"/>
@@ -5145,42 +4079,18 @@
       </c>
       <c r="G60" s="14"/>
       <c r="H60" s="14"/>
-      <c r="I60" s="14">
-        <v>15</v>
-      </c>
-      <c r="J60" s="14">
-        <v>200</v>
-      </c>
-      <c r="K60" s="14">
-        <v>150</v>
-      </c>
-      <c r="L60" s="14">
-        <v>150</v>
-      </c>
-      <c r="M60" s="14">
-        <v>150</v>
-      </c>
-      <c r="N60" s="14">
-        <v>200</v>
-      </c>
-      <c r="O60" s="14">
-        <v>200</v>
-      </c>
-      <c r="P60" s="14">
-        <v>200</v>
-      </c>
-      <c r="Q60" s="14">
-        <v>80</v>
-      </c>
-      <c r="R60" s="14">
-        <v>5</v>
-      </c>
-      <c r="S60" s="14">
-        <v>4</v>
-      </c>
-      <c r="T60" s="14">
-        <v>4</v>
-      </c>
+      <c r="I60" s="14"/>
+      <c r="J60" s="14"/>
+      <c r="K60" s="14"/>
+      <c r="L60" s="14"/>
+      <c r="M60" s="14"/>
+      <c r="N60" s="14"/>
+      <c r="O60" s="14"/>
+      <c r="P60" s="14"/>
+      <c r="Q60" s="14"/>
+      <c r="R60" s="14"/>
+      <c r="S60" s="14"/>
+      <c r="T60" s="14"/>
     </row>
     <row r="61" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
@@ -5202,33 +4112,15 @@
         <v>77</v>
       </c>
       <c r="G61" s="14"/>
-      <c r="H61" s="14">
-        <v>9</v>
-      </c>
-      <c r="I61" s="14">
-        <v>25</v>
-      </c>
-      <c r="J61" s="14">
-        <v>18</v>
-      </c>
-      <c r="K61" s="14">
-        <v>10</v>
-      </c>
-      <c r="L61" s="14">
-        <v>13</v>
-      </c>
-      <c r="M61" s="14">
-        <v>14</v>
-      </c>
-      <c r="N61" s="14">
-        <v>7</v>
-      </c>
-      <c r="O61" s="14">
-        <v>1</v>
-      </c>
-      <c r="P61" s="14">
-        <v>1</v>
-      </c>
+      <c r="H61" s="14"/>
+      <c r="I61" s="14"/>
+      <c r="J61" s="14"/>
+      <c r="K61" s="14"/>
+      <c r="L61" s="14"/>
+      <c r="M61" s="14"/>
+      <c r="N61" s="14"/>
+      <c r="O61" s="14"/>
+      <c r="P61" s="14"/>
       <c r="Q61" s="14"/>
       <c r="R61" s="14"/>
       <c r="S61" s="14"/>
@@ -5255,36 +4147,16 @@
       </c>
       <c r="G62" s="14"/>
       <c r="H62" s="14"/>
-      <c r="I62" s="14">
-        <v>45</v>
-      </c>
-      <c r="J62" s="14">
-        <v>48</v>
-      </c>
-      <c r="K62" s="14">
-        <v>54</v>
-      </c>
-      <c r="L62" s="14">
-        <v>68</v>
-      </c>
-      <c r="M62" s="14">
-        <v>78</v>
-      </c>
-      <c r="N62" s="14">
-        <v>86</v>
-      </c>
-      <c r="O62" s="14">
-        <v>94</v>
-      </c>
-      <c r="P62" s="14">
-        <v>116</v>
-      </c>
-      <c r="Q62" s="14">
-        <v>125</v>
-      </c>
-      <c r="R62" s="14">
-        <v>105</v>
-      </c>
+      <c r="I62" s="14"/>
+      <c r="J62" s="14"/>
+      <c r="K62" s="14"/>
+      <c r="L62" s="14"/>
+      <c r="M62" s="14"/>
+      <c r="N62" s="14"/>
+      <c r="O62" s="14"/>
+      <c r="P62" s="14"/>
+      <c r="Q62" s="14"/>
+      <c r="R62" s="14"/>
       <c r="S62" s="14"/>
       <c r="T62" s="14"/>
     </row>
@@ -5309,39 +4181,17 @@
       </c>
       <c r="G63" s="14"/>
       <c r="H63" s="14"/>
-      <c r="I63" s="14">
-        <v>110</v>
-      </c>
-      <c r="J63" s="14">
-        <v>182</v>
-      </c>
-      <c r="K63" s="14">
-        <v>113</v>
-      </c>
-      <c r="L63" s="14">
-        <v>124</v>
-      </c>
-      <c r="M63" s="14">
-        <v>151</v>
-      </c>
-      <c r="N63" s="14">
-        <v>154</v>
-      </c>
-      <c r="O63" s="14">
-        <v>80</v>
-      </c>
-      <c r="P63" s="14">
-        <v>84</v>
-      </c>
-      <c r="Q63" s="14">
-        <v>70</v>
-      </c>
-      <c r="R63" s="14">
-        <v>60</v>
-      </c>
-      <c r="S63" s="14">
-        <v>10</v>
-      </c>
+      <c r="I63" s="14"/>
+      <c r="J63" s="14"/>
+      <c r="K63" s="14"/>
+      <c r="L63" s="14"/>
+      <c r="M63" s="14"/>
+      <c r="N63" s="14"/>
+      <c r="O63" s="14"/>
+      <c r="P63" s="14"/>
+      <c r="Q63" s="14"/>
+      <c r="R63" s="14"/>
+      <c r="S63" s="14"/>
       <c r="T63" s="14"/>
     </row>
     <row r="64" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
@@ -5365,36 +4215,16 @@
       </c>
       <c r="G64" s="14"/>
       <c r="H64" s="14"/>
-      <c r="I64" s="14">
-        <v>35</v>
-      </c>
-      <c r="J64" s="14">
-        <v>160</v>
-      </c>
-      <c r="K64" s="14">
-        <v>120</v>
-      </c>
-      <c r="L64" s="14">
-        <v>150</v>
-      </c>
-      <c r="M64" s="14">
-        <v>150</v>
-      </c>
-      <c r="N64" s="14">
-        <v>110</v>
-      </c>
-      <c r="O64" s="14">
-        <v>70</v>
-      </c>
-      <c r="P64" s="14">
-        <v>40</v>
-      </c>
-      <c r="Q64" s="14">
-        <v>20</v>
-      </c>
-      <c r="R64" s="14">
-        <v>10</v>
-      </c>
+      <c r="I64" s="14"/>
+      <c r="J64" s="14"/>
+      <c r="K64" s="14"/>
+      <c r="L64" s="14"/>
+      <c r="M64" s="14"/>
+      <c r="N64" s="14"/>
+      <c r="O64" s="14"/>
+      <c r="P64" s="14"/>
+      <c r="Q64" s="14"/>
+      <c r="R64" s="14"/>
       <c r="S64" s="14"/>
       <c r="T64" s="14"/>
     </row>
@@ -5418,42 +4248,18 @@
         <v>81</v>
       </c>
       <c r="G65" s="14"/>
-      <c r="H65" s="14">
-        <v>2</v>
-      </c>
-      <c r="I65" s="14">
-        <v>90</v>
-      </c>
-      <c r="J65" s="14">
-        <v>115</v>
-      </c>
-      <c r="K65" s="14">
-        <v>115</v>
-      </c>
-      <c r="L65" s="14">
-        <v>110</v>
-      </c>
-      <c r="M65" s="14">
-        <v>110</v>
-      </c>
-      <c r="N65" s="14">
-        <v>110</v>
-      </c>
-      <c r="O65" s="14">
-        <v>100</v>
-      </c>
-      <c r="P65" s="14">
-        <v>95</v>
-      </c>
-      <c r="Q65" s="14">
-        <v>80</v>
-      </c>
-      <c r="R65" s="14">
-        <v>45</v>
-      </c>
-      <c r="S65" s="14">
-        <v>15</v>
-      </c>
+      <c r="H65" s="14"/>
+      <c r="I65" s="14"/>
+      <c r="J65" s="14"/>
+      <c r="K65" s="14"/>
+      <c r="L65" s="14"/>
+      <c r="M65" s="14"/>
+      <c r="N65" s="14"/>
+      <c r="O65" s="14"/>
+      <c r="P65" s="14"/>
+      <c r="Q65" s="14"/>
+      <c r="R65" s="14"/>
+      <c r="S65" s="14"/>
       <c r="T65" s="14"/>
     </row>
     <row r="66" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
@@ -5477,30 +4283,14 @@
       </c>
       <c r="G66" s="14"/>
       <c r="H66" s="14"/>
-      <c r="I66" s="14">
-        <v>120</v>
-      </c>
-      <c r="J66" s="14">
-        <v>225</v>
-      </c>
-      <c r="K66" s="14">
-        <v>205</v>
-      </c>
-      <c r="L66" s="14">
-        <v>160</v>
-      </c>
-      <c r="M66" s="14">
-        <v>115</v>
-      </c>
-      <c r="N66" s="14">
-        <v>215</v>
-      </c>
-      <c r="O66" s="14">
-        <v>50</v>
-      </c>
-      <c r="P66" s="14">
-        <v>20</v>
-      </c>
+      <c r="I66" s="14"/>
+      <c r="J66" s="14"/>
+      <c r="K66" s="14"/>
+      <c r="L66" s="14"/>
+      <c r="M66" s="14"/>
+      <c r="N66" s="14"/>
+      <c r="O66" s="14"/>
+      <c r="P66" s="14"/>
       <c r="Q66" s="14"/>
       <c r="R66" s="14"/>
       <c r="S66" s="14"/>
@@ -5562,36 +4352,16 @@
       <c r="G68" s="14"/>
       <c r="H68" s="14"/>
       <c r="I68" s="14"/>
-      <c r="J68" s="14">
-        <v>3</v>
-      </c>
-      <c r="K68" s="14">
-        <v>3</v>
-      </c>
-      <c r="L68" s="14">
-        <v>60</v>
-      </c>
-      <c r="M68" s="14">
-        <v>140</v>
-      </c>
-      <c r="N68" s="14">
-        <v>200</v>
-      </c>
-      <c r="O68" s="14">
-        <v>260</v>
-      </c>
-      <c r="P68" s="14">
-        <v>130</v>
-      </c>
-      <c r="Q68" s="14">
-        <v>30</v>
-      </c>
-      <c r="R68" s="14">
-        <v>20</v>
-      </c>
-      <c r="S68" s="14">
-        <v>10</v>
-      </c>
+      <c r="J68" s="14"/>
+      <c r="K68" s="14"/>
+      <c r="L68" s="14"/>
+      <c r="M68" s="14"/>
+      <c r="N68" s="14"/>
+      <c r="O68" s="14"/>
+      <c r="P68" s="14"/>
+      <c r="Q68" s="14"/>
+      <c r="R68" s="14"/>
+      <c r="S68" s="14"/>
       <c r="T68" s="14"/>
     </row>
     <row r="69" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
@@ -5614,42 +4384,18 @@
         <v>388</v>
       </c>
       <c r="G69" s="14"/>
-      <c r="H69" s="14">
-        <v>100</v>
-      </c>
-      <c r="I69" s="14">
-        <v>80</v>
-      </c>
-      <c r="J69" s="14">
-        <v>130</v>
-      </c>
-      <c r="K69" s="14">
-        <v>130</v>
-      </c>
-      <c r="L69" s="14">
-        <v>115</v>
-      </c>
-      <c r="M69" s="14">
-        <v>140</v>
-      </c>
-      <c r="N69" s="14">
-        <v>120</v>
-      </c>
-      <c r="O69" s="14">
-        <v>120</v>
-      </c>
-      <c r="P69" s="14">
-        <v>250</v>
-      </c>
-      <c r="Q69" s="14">
-        <v>80</v>
-      </c>
-      <c r="R69" s="14">
-        <v>30</v>
-      </c>
-      <c r="S69" s="14">
-        <v>10</v>
-      </c>
+      <c r="H69" s="14"/>
+      <c r="I69" s="14"/>
+      <c r="J69" s="14"/>
+      <c r="K69" s="14"/>
+      <c r="L69" s="14"/>
+      <c r="M69" s="14"/>
+      <c r="N69" s="14"/>
+      <c r="O69" s="14"/>
+      <c r="P69" s="14"/>
+      <c r="Q69" s="14"/>
+      <c r="R69" s="14"/>
+      <c r="S69" s="14"/>
       <c r="T69" s="14"/>
     </row>
     <row r="70" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
@@ -5672,42 +4418,18 @@
         <v>389</v>
       </c>
       <c r="G70" s="14"/>
-      <c r="H70" s="14">
-        <v>20</v>
-      </c>
-      <c r="I70" s="14">
-        <v>40</v>
-      </c>
-      <c r="J70" s="14">
-        <v>65</v>
-      </c>
-      <c r="K70" s="14">
-        <v>70</v>
-      </c>
-      <c r="L70" s="14">
-        <v>95</v>
-      </c>
-      <c r="M70" s="14">
-        <v>85</v>
-      </c>
-      <c r="N70" s="14">
-        <v>85</v>
-      </c>
-      <c r="O70" s="14">
-        <v>75</v>
-      </c>
-      <c r="P70" s="14">
-        <v>75</v>
-      </c>
-      <c r="Q70" s="14">
-        <v>75</v>
-      </c>
-      <c r="R70" s="14">
-        <v>70</v>
-      </c>
-      <c r="S70" s="14">
-        <v>35</v>
-      </c>
+      <c r="H70" s="14"/>
+      <c r="I70" s="14"/>
+      <c r="J70" s="14"/>
+      <c r="K70" s="14"/>
+      <c r="L70" s="14"/>
+      <c r="M70" s="14"/>
+      <c r="N70" s="14"/>
+      <c r="O70" s="14"/>
+      <c r="P70" s="14"/>
+      <c r="Q70" s="14"/>
+      <c r="R70" s="14"/>
+      <c r="S70" s="14"/>
       <c r="T70" s="14"/>
     </row>
     <row r="71" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
@@ -5729,35 +4451,17 @@
       <c r="F71" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="G71" s="14">
-        <v>7</v>
-      </c>
-      <c r="H71" s="14">
-        <v>25</v>
-      </c>
-      <c r="I71" s="14">
-        <v>55</v>
-      </c>
-      <c r="J71" s="14">
-        <v>45</v>
-      </c>
-      <c r="K71" s="14">
-        <v>20</v>
-      </c>
-      <c r="L71" s="14">
-        <v>17</v>
-      </c>
-      <c r="M71" s="14">
-        <v>6</v>
-      </c>
-      <c r="N71" s="14">
-        <v>5</v>
-      </c>
+      <c r="G71" s="14"/>
+      <c r="H71" s="14"/>
+      <c r="I71" s="14"/>
+      <c r="J71" s="14"/>
+      <c r="K71" s="14"/>
+      <c r="L71" s="14"/>
+      <c r="M71" s="14"/>
+      <c r="N71" s="14"/>
       <c r="O71" s="14"/>
       <c r="P71" s="14"/>
-      <c r="Q71" s="14">
-        <v>2</v>
-      </c>
+      <c r="Q71" s="14"/>
       <c r="R71" s="14"/>
       <c r="S71" s="14"/>
       <c r="T71" s="14"/>
@@ -5783,36 +4487,16 @@
       </c>
       <c r="G72" s="14"/>
       <c r="H72" s="14"/>
-      <c r="I72" s="14">
-        <v>50</v>
-      </c>
-      <c r="J72" s="14">
-        <v>82</v>
-      </c>
-      <c r="K72" s="14">
-        <v>100</v>
-      </c>
-      <c r="L72" s="14">
-        <v>100</v>
-      </c>
-      <c r="M72" s="14">
-        <v>60</v>
-      </c>
-      <c r="N72" s="14">
-        <v>80</v>
-      </c>
-      <c r="O72" s="14">
-        <v>80</v>
-      </c>
-      <c r="P72" s="14">
-        <v>30</v>
-      </c>
-      <c r="Q72" s="14">
-        <v>20</v>
-      </c>
-      <c r="R72" s="14">
-        <v>20</v>
-      </c>
+      <c r="I72" s="14"/>
+      <c r="J72" s="14"/>
+      <c r="K72" s="14"/>
+      <c r="L72" s="14"/>
+      <c r="M72" s="14"/>
+      <c r="N72" s="14"/>
+      <c r="O72" s="14"/>
+      <c r="P72" s="14"/>
+      <c r="Q72" s="14"/>
+      <c r="R72" s="14"/>
       <c r="S72" s="14"/>
       <c r="T72" s="14"/>
     </row>
@@ -5836,42 +4520,18 @@
         <v>392</v>
       </c>
       <c r="G73" s="14"/>
-      <c r="H73" s="14">
-        <v>53</v>
-      </c>
-      <c r="I73" s="14">
-        <v>172</v>
-      </c>
-      <c r="J73" s="14">
-        <v>204</v>
-      </c>
-      <c r="K73" s="14">
-        <v>202</v>
-      </c>
-      <c r="L73" s="14">
-        <v>204</v>
-      </c>
-      <c r="M73" s="14">
-        <v>189</v>
-      </c>
-      <c r="N73" s="14">
-        <v>126</v>
-      </c>
-      <c r="O73" s="14">
-        <v>80</v>
-      </c>
-      <c r="P73" s="14">
-        <v>70</v>
-      </c>
-      <c r="Q73" s="14">
-        <v>60</v>
-      </c>
-      <c r="R73" s="14">
-        <v>15</v>
-      </c>
-      <c r="S73" s="14">
-        <v>8</v>
-      </c>
+      <c r="H73" s="14"/>
+      <c r="I73" s="14"/>
+      <c r="J73" s="14"/>
+      <c r="K73" s="14"/>
+      <c r="L73" s="14"/>
+      <c r="M73" s="14"/>
+      <c r="N73" s="14"/>
+      <c r="O73" s="14"/>
+      <c r="P73" s="14"/>
+      <c r="Q73" s="14"/>
+      <c r="R73" s="14"/>
+      <c r="S73" s="14"/>
       <c r="T73" s="14"/>
     </row>
     <row r="74" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
@@ -5895,39 +4555,17 @@
       </c>
       <c r="G74" s="14"/>
       <c r="H74" s="14"/>
-      <c r="I74" s="14">
-        <v>102</v>
-      </c>
-      <c r="J74" s="14">
-        <v>180</v>
-      </c>
-      <c r="K74" s="14">
-        <v>181</v>
-      </c>
-      <c r="L74" s="14">
-        <v>228</v>
-      </c>
-      <c r="M74" s="14">
-        <v>172</v>
-      </c>
-      <c r="N74" s="14">
-        <v>166</v>
-      </c>
-      <c r="O74" s="14">
-        <v>100</v>
-      </c>
-      <c r="P74" s="14">
-        <v>77</v>
-      </c>
-      <c r="Q74" s="14">
-        <v>52</v>
-      </c>
-      <c r="R74" s="14">
-        <v>14</v>
-      </c>
-      <c r="S74" s="14">
-        <v>10</v>
-      </c>
+      <c r="I74" s="14"/>
+      <c r="J74" s="14"/>
+      <c r="K74" s="14"/>
+      <c r="L74" s="14"/>
+      <c r="M74" s="14"/>
+      <c r="N74" s="14"/>
+      <c r="O74" s="14"/>
+      <c r="P74" s="14"/>
+      <c r="Q74" s="14"/>
+      <c r="R74" s="14"/>
+      <c r="S74" s="14"/>
       <c r="T74" s="14"/>
     </row>
     <row r="75" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
@@ -5953,33 +4591,15 @@
       <c r="H75" s="14"/>
       <c r="I75" s="14"/>
       <c r="J75" s="14"/>
-      <c r="K75" s="14">
-        <v>5</v>
-      </c>
-      <c r="L75" s="14">
-        <v>40</v>
-      </c>
-      <c r="M75" s="14">
-        <v>60</v>
-      </c>
-      <c r="N75" s="14">
-        <v>90</v>
-      </c>
-      <c r="O75" s="14">
-        <v>90</v>
-      </c>
-      <c r="P75" s="14">
-        <v>80</v>
-      </c>
-      <c r="Q75" s="14">
-        <v>60</v>
-      </c>
-      <c r="R75" s="14">
-        <v>55</v>
-      </c>
-      <c r="S75" s="14">
-        <v>5</v>
-      </c>
+      <c r="K75" s="14"/>
+      <c r="L75" s="14"/>
+      <c r="M75" s="14"/>
+      <c r="N75" s="14"/>
+      <c r="O75" s="14"/>
+      <c r="P75" s="14"/>
+      <c r="Q75" s="14"/>
+      <c r="R75" s="14"/>
+      <c r="S75" s="14"/>
       <c r="T75" s="14"/>
     </row>
     <row r="76" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
@@ -6001,41 +4621,19 @@
       <c r="F76" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="G76" s="14">
-        <v>3</v>
-      </c>
-      <c r="H76" s="14">
-        <v>37</v>
-      </c>
-      <c r="I76" s="14">
-        <v>33</v>
-      </c>
-      <c r="J76" s="14">
-        <v>33</v>
-      </c>
-      <c r="K76" s="14">
-        <v>43</v>
-      </c>
-      <c r="L76" s="14">
-        <v>27</v>
-      </c>
-      <c r="M76" s="14">
-        <v>10</v>
-      </c>
-      <c r="N76" s="14">
-        <v>4</v>
-      </c>
+      <c r="G76" s="14"/>
+      <c r="H76" s="14"/>
+      <c r="I76" s="14"/>
+      <c r="J76" s="14"/>
+      <c r="K76" s="14"/>
+      <c r="L76" s="14"/>
+      <c r="M76" s="14"/>
+      <c r="N76" s="14"/>
       <c r="O76" s="14"/>
-      <c r="P76" s="14">
-        <v>2</v>
-      </c>
+      <c r="P76" s="14"/>
       <c r="Q76" s="14"/>
-      <c r="R76" s="14">
-        <v>2</v>
-      </c>
-      <c r="S76" s="14">
-        <v>1</v>
-      </c>
+      <c r="R76" s="14"/>
+      <c r="S76" s="14"/>
       <c r="T76" s="14"/>
     </row>
     <row r="77" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
@@ -6062,24 +4660,12 @@
       <c r="I77" s="14"/>
       <c r="J77" s="14"/>
       <c r="K77" s="14"/>
-      <c r="L77" s="14">
-        <v>30</v>
-      </c>
-      <c r="M77" s="14">
-        <v>40</v>
-      </c>
-      <c r="N77" s="14">
-        <v>159</v>
-      </c>
-      <c r="O77" s="14">
-        <v>152</v>
-      </c>
-      <c r="P77" s="14">
-        <v>153</v>
-      </c>
-      <c r="Q77" s="14">
-        <v>30</v>
-      </c>
+      <c r="L77" s="14"/>
+      <c r="M77" s="14"/>
+      <c r="N77" s="14"/>
+      <c r="O77" s="14"/>
+      <c r="P77" s="14"/>
+      <c r="Q77" s="14"/>
       <c r="R77" s="14"/>
       <c r="S77" s="14"/>
       <c r="T77" s="14"/>
@@ -6104,42 +4690,18 @@
         <v>397</v>
       </c>
       <c r="G78" s="14"/>
-      <c r="H78" s="14">
-        <v>100</v>
-      </c>
-      <c r="I78" s="14">
-        <v>220</v>
-      </c>
-      <c r="J78" s="14">
-        <v>140</v>
-      </c>
-      <c r="K78" s="14">
-        <v>140</v>
-      </c>
-      <c r="L78" s="14">
-        <v>160</v>
-      </c>
-      <c r="M78" s="14">
-        <v>160</v>
-      </c>
-      <c r="N78" s="14">
-        <v>140</v>
-      </c>
-      <c r="O78" s="14">
-        <v>70</v>
-      </c>
-      <c r="P78" s="14">
-        <v>60</v>
-      </c>
-      <c r="Q78" s="14">
-        <v>55</v>
-      </c>
-      <c r="R78" s="14">
-        <v>10</v>
-      </c>
-      <c r="S78" s="14">
-        <v>10</v>
-      </c>
+      <c r="H78" s="14"/>
+      <c r="I78" s="14"/>
+      <c r="J78" s="14"/>
+      <c r="K78" s="14"/>
+      <c r="L78" s="14"/>
+      <c r="M78" s="14"/>
+      <c r="N78" s="14"/>
+      <c r="O78" s="14"/>
+      <c r="P78" s="14"/>
+      <c r="Q78" s="14"/>
+      <c r="R78" s="14"/>
+      <c r="S78" s="14"/>
       <c r="T78" s="14"/>
     </row>
     <row r="79" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
@@ -6162,42 +4724,18 @@
         <v>398</v>
       </c>
       <c r="G79" s="14"/>
-      <c r="H79" s="14">
-        <v>10</v>
-      </c>
-      <c r="I79" s="14">
-        <v>10</v>
-      </c>
-      <c r="J79" s="14">
-        <v>140</v>
-      </c>
-      <c r="K79" s="14">
-        <v>105</v>
-      </c>
-      <c r="L79" s="14">
-        <v>120</v>
-      </c>
-      <c r="M79" s="14">
-        <v>170</v>
-      </c>
-      <c r="N79" s="14">
-        <v>100</v>
-      </c>
-      <c r="O79" s="14">
-        <v>105</v>
-      </c>
-      <c r="P79" s="14">
-        <v>120</v>
-      </c>
-      <c r="Q79" s="14">
-        <v>65</v>
-      </c>
-      <c r="R79" s="14">
-        <v>10</v>
-      </c>
-      <c r="S79" s="14">
-        <v>10</v>
-      </c>
+      <c r="H79" s="14"/>
+      <c r="I79" s="14"/>
+      <c r="J79" s="14"/>
+      <c r="K79" s="14"/>
+      <c r="L79" s="14"/>
+      <c r="M79" s="14"/>
+      <c r="N79" s="14"/>
+      <c r="O79" s="14"/>
+      <c r="P79" s="14"/>
+      <c r="Q79" s="14"/>
+      <c r="R79" s="14"/>
+      <c r="S79" s="14"/>
       <c r="T79" s="14"/>
     </row>
     <row r="80" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
@@ -6220,39 +4758,17 @@
         <v>399</v>
       </c>
       <c r="G80" s="14"/>
-      <c r="H80" s="14">
-        <v>5</v>
-      </c>
-      <c r="I80" s="14">
-        <v>60</v>
-      </c>
-      <c r="J80" s="14">
-        <v>80</v>
-      </c>
-      <c r="K80" s="14">
-        <v>100</v>
-      </c>
-      <c r="L80" s="14">
-        <v>110</v>
-      </c>
-      <c r="M80" s="14">
-        <v>100</v>
-      </c>
-      <c r="N80" s="14">
-        <v>100</v>
-      </c>
-      <c r="O80" s="14">
-        <v>50</v>
-      </c>
-      <c r="P80" s="14">
-        <v>50</v>
-      </c>
-      <c r="Q80" s="14">
-        <v>40</v>
-      </c>
-      <c r="R80" s="14">
-        <v>5</v>
-      </c>
+      <c r="H80" s="14"/>
+      <c r="I80" s="14"/>
+      <c r="J80" s="14"/>
+      <c r="K80" s="14"/>
+      <c r="L80" s="14"/>
+      <c r="M80" s="14"/>
+      <c r="N80" s="14"/>
+      <c r="O80" s="14"/>
+      <c r="P80" s="14"/>
+      <c r="Q80" s="14"/>
+      <c r="R80" s="14"/>
       <c r="S80" s="14"/>
       <c r="T80" s="14"/>
     </row>
@@ -6277,27 +4793,13 @@
       </c>
       <c r="G81" s="14"/>
       <c r="H81" s="14"/>
-      <c r="I81" s="14">
-        <v>120</v>
-      </c>
-      <c r="J81" s="14">
-        <v>150</v>
-      </c>
-      <c r="K81" s="14">
-        <v>90</v>
-      </c>
-      <c r="L81" s="14">
-        <v>90</v>
-      </c>
-      <c r="M81" s="14">
-        <v>60</v>
-      </c>
-      <c r="N81" s="14">
-        <v>50</v>
-      </c>
-      <c r="O81" s="14">
-        <v>5</v>
-      </c>
+      <c r="I81" s="14"/>
+      <c r="J81" s="14"/>
+      <c r="K81" s="14"/>
+      <c r="L81" s="14"/>
+      <c r="M81" s="14"/>
+      <c r="N81" s="14"/>
+      <c r="O81" s="14"/>
       <c r="P81" s="14"/>
       <c r="Q81" s="14"/>
       <c r="R81" s="14"/>
@@ -6324,34 +4826,16 @@
         <v>401</v>
       </c>
       <c r="G82" s="14"/>
-      <c r="H82" s="14">
-        <v>7</v>
-      </c>
-      <c r="I82" s="14">
-        <v>27</v>
-      </c>
-      <c r="J82" s="14">
-        <v>30</v>
-      </c>
-      <c r="K82" s="14">
-        <v>38</v>
-      </c>
-      <c r="L82" s="14">
-        <v>17</v>
-      </c>
-      <c r="M82" s="14">
-        <v>2</v>
-      </c>
-      <c r="N82" s="14">
-        <v>2</v>
-      </c>
-      <c r="O82" s="14">
-        <v>3</v>
-      </c>
+      <c r="H82" s="14"/>
+      <c r="I82" s="14"/>
+      <c r="J82" s="14"/>
+      <c r="K82" s="14"/>
+      <c r="L82" s="14"/>
+      <c r="M82" s="14"/>
+      <c r="N82" s="14"/>
+      <c r="O82" s="14"/>
       <c r="P82" s="14"/>
-      <c r="Q82" s="14">
-        <v>1</v>
-      </c>
+      <c r="Q82" s="14"/>
       <c r="R82" s="14"/>
       <c r="S82" s="14"/>
       <c r="T82" s="14"/>
@@ -6377,36 +4861,16 @@
       </c>
       <c r="G83" s="14"/>
       <c r="H83" s="14"/>
-      <c r="I83" s="14">
-        <v>80</v>
-      </c>
-      <c r="J83" s="14">
-        <v>121</v>
-      </c>
-      <c r="K83" s="14">
-        <v>128</v>
-      </c>
-      <c r="L83" s="14">
-        <v>150</v>
-      </c>
-      <c r="M83" s="14">
-        <v>200</v>
-      </c>
-      <c r="N83" s="14">
-        <v>141</v>
-      </c>
-      <c r="O83" s="14">
-        <v>70</v>
-      </c>
-      <c r="P83" s="14">
-        <v>85</v>
-      </c>
-      <c r="Q83" s="14">
-        <v>50</v>
-      </c>
-      <c r="R83" s="14">
-        <v>10</v>
-      </c>
+      <c r="I83" s="14"/>
+      <c r="J83" s="14"/>
+      <c r="K83" s="14"/>
+      <c r="L83" s="14"/>
+      <c r="M83" s="14"/>
+      <c r="N83" s="14"/>
+      <c r="O83" s="14"/>
+      <c r="P83" s="14"/>
+      <c r="Q83" s="14"/>
+      <c r="R83" s="14"/>
       <c r="S83" s="14"/>
       <c r="T83" s="14"/>
     </row>
@@ -6430,42 +4894,18 @@
         <v>403</v>
       </c>
       <c r="G84" s="14"/>
-      <c r="H84" s="14">
-        <v>10</v>
-      </c>
-      <c r="I84" s="14">
-        <v>120</v>
-      </c>
-      <c r="J84" s="14">
-        <v>150</v>
-      </c>
-      <c r="K84" s="14">
-        <v>150</v>
-      </c>
-      <c r="L84" s="14">
-        <v>160</v>
-      </c>
-      <c r="M84" s="14">
-        <v>100</v>
-      </c>
-      <c r="N84" s="14">
-        <v>100</v>
-      </c>
-      <c r="O84" s="14">
-        <v>100</v>
-      </c>
-      <c r="P84" s="14">
-        <v>150</v>
-      </c>
-      <c r="Q84" s="14">
-        <v>100</v>
-      </c>
-      <c r="R84" s="14">
-        <v>60</v>
-      </c>
-      <c r="S84" s="14">
-        <v>20</v>
-      </c>
+      <c r="H84" s="14"/>
+      <c r="I84" s="14"/>
+      <c r="J84" s="14"/>
+      <c r="K84" s="14"/>
+      <c r="L84" s="14"/>
+      <c r="M84" s="14"/>
+      <c r="N84" s="14"/>
+      <c r="O84" s="14"/>
+      <c r="P84" s="14"/>
+      <c r="Q84" s="14"/>
+      <c r="R84" s="14"/>
+      <c r="S84" s="14"/>
       <c r="T84" s="14"/>
     </row>
     <row r="85" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
@@ -6489,39 +4929,17 @@
       </c>
       <c r="G85" s="14"/>
       <c r="H85" s="14"/>
-      <c r="I85" s="14">
-        <v>70</v>
-      </c>
-      <c r="J85" s="14">
-        <v>140</v>
-      </c>
-      <c r="K85" s="14">
-        <v>150</v>
-      </c>
-      <c r="L85" s="14">
-        <v>146</v>
-      </c>
-      <c r="M85" s="14">
-        <v>152</v>
-      </c>
-      <c r="N85" s="14">
-        <v>150</v>
-      </c>
-      <c r="O85" s="14">
-        <v>94</v>
-      </c>
-      <c r="P85" s="14">
-        <v>74</v>
-      </c>
-      <c r="Q85" s="14">
-        <v>40</v>
-      </c>
-      <c r="R85" s="14">
-        <v>20</v>
-      </c>
-      <c r="S85" s="14">
-        <v>7</v>
-      </c>
+      <c r="I85" s="14"/>
+      <c r="J85" s="14"/>
+      <c r="K85" s="14"/>
+      <c r="L85" s="14"/>
+      <c r="M85" s="14"/>
+      <c r="N85" s="14"/>
+      <c r="O85" s="14"/>
+      <c r="P85" s="14"/>
+      <c r="Q85" s="14"/>
+      <c r="R85" s="14"/>
+      <c r="S85" s="14"/>
       <c r="T85" s="14"/>
     </row>
     <row r="86" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
@@ -6544,42 +4962,18 @@
         <v>405</v>
       </c>
       <c r="G86" s="14"/>
-      <c r="H86" s="14">
-        <v>10</v>
-      </c>
-      <c r="I86" s="14">
-        <v>105</v>
-      </c>
-      <c r="J86" s="14">
-        <v>115</v>
-      </c>
-      <c r="K86" s="14">
-        <v>130</v>
-      </c>
-      <c r="L86" s="14">
-        <v>140</v>
-      </c>
-      <c r="M86" s="14">
-        <v>160</v>
-      </c>
-      <c r="N86" s="14">
-        <v>160</v>
-      </c>
-      <c r="O86" s="14">
-        <v>160</v>
-      </c>
-      <c r="P86" s="14">
-        <v>70</v>
-      </c>
-      <c r="Q86" s="14">
-        <v>70</v>
-      </c>
-      <c r="R86" s="14">
-        <v>40</v>
-      </c>
-      <c r="S86" s="14">
-        <v>10</v>
-      </c>
+      <c r="H86" s="14"/>
+      <c r="I86" s="14"/>
+      <c r="J86" s="14"/>
+      <c r="K86" s="14"/>
+      <c r="L86" s="14"/>
+      <c r="M86" s="14"/>
+      <c r="N86" s="14"/>
+      <c r="O86" s="14"/>
+      <c r="P86" s="14"/>
+      <c r="Q86" s="14"/>
+      <c r="R86" s="14"/>
+      <c r="S86" s="14"/>
       <c r="T86" s="14"/>
     </row>
     <row r="87" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
@@ -6603,21 +4997,11 @@
       </c>
       <c r="G87" s="14"/>
       <c r="H87" s="14"/>
-      <c r="I87" s="14">
-        <v>4</v>
-      </c>
-      <c r="J87" s="14">
-        <v>6</v>
-      </c>
-      <c r="K87" s="14">
-        <v>7</v>
-      </c>
-      <c r="L87" s="14">
-        <v>6</v>
-      </c>
-      <c r="M87" s="14">
-        <v>2</v>
-      </c>
+      <c r="I87" s="14"/>
+      <c r="J87" s="14"/>
+      <c r="K87" s="14"/>
+      <c r="L87" s="14"/>
+      <c r="M87" s="14"/>
       <c r="N87" s="14"/>
       <c r="O87" s="14"/>
       <c r="P87" s="14"/>
@@ -6646,42 +5030,18 @@
         <v>407</v>
       </c>
       <c r="G88" s="14"/>
-      <c r="H88" s="14">
-        <v>15</v>
-      </c>
-      <c r="I88" s="14">
-        <v>50</v>
-      </c>
-      <c r="J88" s="14">
-        <v>75</v>
-      </c>
-      <c r="K88" s="14">
-        <v>90</v>
-      </c>
-      <c r="L88" s="14">
-        <v>130</v>
-      </c>
-      <c r="M88" s="14">
-        <v>140</v>
-      </c>
-      <c r="N88" s="14">
-        <v>120</v>
-      </c>
-      <c r="O88" s="14">
-        <v>90</v>
-      </c>
-      <c r="P88" s="14">
-        <v>60</v>
-      </c>
-      <c r="Q88" s="14">
-        <v>55</v>
-      </c>
-      <c r="R88" s="14">
-        <v>25</v>
-      </c>
-      <c r="S88" s="14">
-        <v>10</v>
-      </c>
+      <c r="H88" s="14"/>
+      <c r="I88" s="14"/>
+      <c r="J88" s="14"/>
+      <c r="K88" s="14"/>
+      <c r="L88" s="14"/>
+      <c r="M88" s="14"/>
+      <c r="N88" s="14"/>
+      <c r="O88" s="14"/>
+      <c r="P88" s="14"/>
+      <c r="Q88" s="14"/>
+      <c r="R88" s="14"/>
+      <c r="S88" s="14"/>
       <c r="T88" s="14"/>
     </row>
     <row r="89" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
@@ -6704,39 +5064,17 @@
         <v>408</v>
       </c>
       <c r="G89" s="14"/>
-      <c r="H89" s="14">
-        <v>40</v>
-      </c>
-      <c r="I89" s="14">
-        <v>135</v>
-      </c>
-      <c r="J89" s="14">
-        <v>135</v>
-      </c>
-      <c r="K89" s="14">
-        <v>150</v>
-      </c>
-      <c r="L89" s="14">
-        <v>100</v>
-      </c>
-      <c r="M89" s="14">
-        <v>100</v>
-      </c>
-      <c r="N89" s="14">
-        <v>100</v>
-      </c>
-      <c r="O89" s="14">
-        <v>100</v>
-      </c>
-      <c r="P89" s="14">
-        <v>49</v>
-      </c>
-      <c r="Q89" s="14">
-        <v>5</v>
-      </c>
-      <c r="R89" s="14">
-        <v>6</v>
-      </c>
+      <c r="H89" s="14"/>
+      <c r="I89" s="14"/>
+      <c r="J89" s="14"/>
+      <c r="K89" s="14"/>
+      <c r="L89" s="14"/>
+      <c r="M89" s="14"/>
+      <c r="N89" s="14"/>
+      <c r="O89" s="14"/>
+      <c r="P89" s="14"/>
+      <c r="Q89" s="14"/>
+      <c r="R89" s="14"/>
       <c r="S89" s="14"/>
       <c r="T89" s="14"/>
     </row>
@@ -6761,36 +5099,16 @@
       </c>
       <c r="G90" s="14"/>
       <c r="H90" s="14"/>
-      <c r="I90" s="14">
-        <v>10</v>
-      </c>
-      <c r="J90" s="14">
-        <v>60</v>
-      </c>
-      <c r="K90" s="14">
-        <v>97</v>
-      </c>
-      <c r="L90" s="14">
-        <v>133</v>
-      </c>
-      <c r="M90" s="14">
-        <v>153</v>
-      </c>
-      <c r="N90" s="14">
-        <v>200</v>
-      </c>
-      <c r="O90" s="14">
-        <v>60</v>
-      </c>
-      <c r="P90" s="14">
-        <v>55</v>
-      </c>
-      <c r="Q90" s="14">
-        <v>10</v>
-      </c>
-      <c r="R90" s="14">
-        <v>3</v>
-      </c>
+      <c r="I90" s="14"/>
+      <c r="J90" s="14"/>
+      <c r="K90" s="14"/>
+      <c r="L90" s="14"/>
+      <c r="M90" s="14"/>
+      <c r="N90" s="14"/>
+      <c r="O90" s="14"/>
+      <c r="P90" s="14"/>
+      <c r="Q90" s="14"/>
+      <c r="R90" s="14"/>
       <c r="S90" s="14"/>
       <c r="T90" s="14"/>
     </row>
@@ -6815,21 +5133,11 @@
       </c>
       <c r="G91" s="14"/>
       <c r="H91" s="14"/>
-      <c r="I91" s="14">
-        <v>4</v>
-      </c>
-      <c r="J91" s="14">
-        <v>6</v>
-      </c>
-      <c r="K91" s="14">
-        <v>8</v>
-      </c>
-      <c r="L91" s="14">
-        <v>10</v>
-      </c>
-      <c r="M91" s="14">
-        <v>6</v>
-      </c>
+      <c r="I91" s="14"/>
+      <c r="J91" s="14"/>
+      <c r="K91" s="14"/>
+      <c r="L91" s="14"/>
+      <c r="M91" s="14"/>
       <c r="N91" s="14"/>
       <c r="O91" s="14"/>
       <c r="P91" s="14"/>
@@ -6858,33 +5166,15 @@
         <v>411</v>
       </c>
       <c r="G92" s="14"/>
-      <c r="H92" s="14">
-        <v>10</v>
-      </c>
-      <c r="I92" s="14">
-        <v>20</v>
-      </c>
-      <c r="J92" s="14">
-        <v>35</v>
-      </c>
-      <c r="K92" s="14">
-        <v>20</v>
-      </c>
-      <c r="L92" s="14">
-        <v>20</v>
-      </c>
-      <c r="M92" s="14">
-        <v>20</v>
-      </c>
-      <c r="N92" s="14">
-        <v>10</v>
-      </c>
-      <c r="O92" s="14">
-        <v>5</v>
-      </c>
-      <c r="P92" s="14">
-        <v>5</v>
-      </c>
+      <c r="H92" s="14"/>
+      <c r="I92" s="14"/>
+      <c r="J92" s="14"/>
+      <c r="K92" s="14"/>
+      <c r="L92" s="14"/>
+      <c r="M92" s="14"/>
+      <c r="N92" s="14"/>
+      <c r="O92" s="14"/>
+      <c r="P92" s="14"/>
       <c r="Q92" s="14"/>
       <c r="R92" s="14"/>
       <c r="S92" s="14"/>
@@ -6916,24 +5206,12 @@
       <c r="K93" s="14"/>
       <c r="L93" s="14"/>
       <c r="M93" s="14"/>
-      <c r="N93" s="14">
-        <v>20</v>
-      </c>
-      <c r="O93" s="14">
-        <v>50</v>
-      </c>
-      <c r="P93" s="14">
-        <v>110</v>
-      </c>
-      <c r="Q93" s="14">
-        <v>100</v>
-      </c>
-      <c r="R93" s="14">
-        <v>62</v>
-      </c>
-      <c r="S93" s="14">
-        <v>20</v>
-      </c>
+      <c r="N93" s="14"/>
+      <c r="O93" s="14"/>
+      <c r="P93" s="14"/>
+      <c r="Q93" s="14"/>
+      <c r="R93" s="14"/>
+      <c r="S93" s="14"/>
       <c r="T93" s="14"/>
     </row>
     <row r="94" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
@@ -6956,18 +5234,10 @@
         <v>413</v>
       </c>
       <c r="G94" s="14"/>
-      <c r="H94" s="14">
-        <v>30</v>
-      </c>
-      <c r="I94" s="14">
-        <v>75</v>
-      </c>
-      <c r="J94" s="14">
-        <v>75</v>
-      </c>
-      <c r="K94" s="14">
-        <v>20</v>
-      </c>
+      <c r="H94" s="14"/>
+      <c r="I94" s="14"/>
+      <c r="J94" s="14"/>
+      <c r="K94" s="14"/>
       <c r="L94" s="14"/>
       <c r="M94" s="14"/>
       <c r="N94" s="14"/>
@@ -6997,30 +5267,14 @@
       <c r="F95" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="G95" s="14">
-        <v>10</v>
-      </c>
-      <c r="H95" s="14">
-        <v>80</v>
-      </c>
-      <c r="I95" s="14">
-        <v>119</v>
-      </c>
-      <c r="J95" s="14">
-        <v>64</v>
-      </c>
-      <c r="K95" s="14">
-        <v>14</v>
-      </c>
-      <c r="L95" s="14">
-        <v>2</v>
-      </c>
-      <c r="M95" s="14">
-        <v>1</v>
-      </c>
-      <c r="N95" s="14">
-        <v>3</v>
-      </c>
+      <c r="G95" s="14"/>
+      <c r="H95" s="14"/>
+      <c r="I95" s="14"/>
+      <c r="J95" s="14"/>
+      <c r="K95" s="14"/>
+      <c r="L95" s="14"/>
+      <c r="M95" s="14"/>
+      <c r="N95" s="14"/>
       <c r="O95" s="14"/>
       <c r="P95" s="14"/>
       <c r="Q95" s="14"/>
@@ -7048,21 +5302,11 @@
         <v>415</v>
       </c>
       <c r="G96" s="14"/>
-      <c r="H96" s="14">
-        <v>60</v>
-      </c>
-      <c r="I96" s="14">
-        <v>80</v>
-      </c>
-      <c r="J96" s="14">
-        <v>55</v>
-      </c>
-      <c r="K96" s="14">
-        <v>26</v>
-      </c>
-      <c r="L96" s="14">
-        <v>20</v>
-      </c>
+      <c r="H96" s="14"/>
+      <c r="I96" s="14"/>
+      <c r="J96" s="14"/>
+      <c r="K96" s="14"/>
+      <c r="L96" s="14"/>
       <c r="M96" s="14"/>
       <c r="N96" s="14"/>
       <c r="O96" s="14"/>
@@ -7093,15 +5337,9 @@
       </c>
       <c r="G97" s="14"/>
       <c r="H97" s="14"/>
-      <c r="I97" s="14">
-        <v>100</v>
-      </c>
-      <c r="J97" s="14">
-        <v>95</v>
-      </c>
-      <c r="K97" s="14">
-        <v>5</v>
-      </c>
+      <c r="I97" s="14"/>
+      <c r="J97" s="14"/>
+      <c r="K97" s="14"/>
       <c r="L97" s="14"/>
       <c r="M97" s="14"/>
       <c r="N97" s="14"/>
@@ -7131,21 +5369,11 @@
       <c r="F98" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="G98" s="14">
-        <v>1</v>
-      </c>
-      <c r="H98" s="14">
-        <v>32</v>
-      </c>
-      <c r="I98" s="14">
-        <v>55</v>
-      </c>
-      <c r="J98" s="14">
-        <v>15</v>
-      </c>
-      <c r="K98" s="14">
-        <v>3</v>
-      </c>
+      <c r="G98" s="14"/>
+      <c r="H98" s="14"/>
+      <c r="I98" s="14"/>
+      <c r="J98" s="14"/>
+      <c r="K98" s="14"/>
       <c r="L98" s="14"/>
       <c r="M98" s="14"/>
       <c r="N98" s="14"/>
@@ -7175,24 +5403,12 @@
       <c r="F99" s="8" t="s">
         <v>418</v>
       </c>
-      <c r="G99" s="14">
-        <v>4</v>
-      </c>
-      <c r="H99" s="14">
-        <v>40</v>
-      </c>
-      <c r="I99" s="14">
-        <v>72</v>
-      </c>
-      <c r="J99" s="14">
-        <v>45</v>
-      </c>
-      <c r="K99" s="14">
-        <v>7</v>
-      </c>
-      <c r="L99" s="14">
-        <v>2</v>
-      </c>
+      <c r="G99" s="14"/>
+      <c r="H99" s="14"/>
+      <c r="I99" s="14"/>
+      <c r="J99" s="14"/>
+      <c r="K99" s="14"/>
+      <c r="L99" s="14"/>
       <c r="M99" s="14"/>
       <c r="N99" s="14"/>
       <c r="O99" s="14"/>
@@ -7223,12 +5439,8 @@
       </c>
       <c r="G100" s="14"/>
       <c r="H100" s="14"/>
-      <c r="I100" s="14">
-        <v>270</v>
-      </c>
-      <c r="J100" s="14">
-        <v>32</v>
-      </c>
+      <c r="I100" s="14"/>
+      <c r="J100" s="14"/>
       <c r="K100" s="14"/>
       <c r="L100" s="14"/>
       <c r="M100" s="14"/>
@@ -7260,18 +5472,10 @@
         <v>420</v>
       </c>
       <c r="G101" s="14"/>
-      <c r="H101" s="14">
-        <v>16</v>
-      </c>
-      <c r="I101" s="14">
-        <v>60</v>
-      </c>
-      <c r="J101" s="14">
-        <v>25</v>
-      </c>
-      <c r="K101" s="14">
-        <v>2</v>
-      </c>
+      <c r="H101" s="14"/>
+      <c r="I101" s="14"/>
+      <c r="J101" s="14"/>
+      <c r="K101" s="14"/>
       <c r="L101" s="14"/>
       <c r="M101" s="14"/>
       <c r="N101" s="14"/>
@@ -7302,21 +5506,11 @@
         <v>421</v>
       </c>
       <c r="G102" s="14"/>
-      <c r="H102" s="14">
-        <v>40</v>
-      </c>
-      <c r="I102" s="14">
-        <v>90</v>
-      </c>
-      <c r="J102" s="14">
-        <v>17</v>
-      </c>
-      <c r="K102" s="14">
-        <v>2</v>
-      </c>
-      <c r="L102" s="14">
-        <v>1</v>
-      </c>
+      <c r="H102" s="14"/>
+      <c r="I102" s="14"/>
+      <c r="J102" s="14"/>
+      <c r="K102" s="14"/>
+      <c r="L102" s="14"/>
       <c r="M102" s="14"/>
       <c r="N102" s="14"/>
       <c r="O102" s="14"/>
@@ -7345,21 +5539,11 @@
       <c r="F103" s="8" t="s">
         <v>422</v>
       </c>
-      <c r="G103" s="14">
-        <v>25</v>
-      </c>
-      <c r="H103" s="14">
-        <v>60</v>
-      </c>
-      <c r="I103" s="14">
-        <v>60</v>
-      </c>
-      <c r="J103" s="14">
-        <v>50</v>
-      </c>
-      <c r="K103" s="14">
-        <v>5</v>
-      </c>
+      <c r="G103" s="14"/>
+      <c r="H103" s="14"/>
+      <c r="I103" s="14"/>
+      <c r="J103" s="14"/>
+      <c r="K103" s="14"/>
       <c r="L103" s="14"/>
       <c r="M103" s="14"/>
       <c r="N103" s="14"/>
@@ -7390,18 +5574,10 @@
         <v>423</v>
       </c>
       <c r="G104" s="14"/>
-      <c r="H104" s="14">
-        <v>50</v>
-      </c>
-      <c r="I104" s="14">
-        <v>70</v>
-      </c>
-      <c r="J104" s="14">
-        <v>40</v>
-      </c>
-      <c r="K104" s="14">
-        <v>8</v>
-      </c>
+      <c r="H104" s="14"/>
+      <c r="I104" s="14"/>
+      <c r="J104" s="14"/>
+      <c r="K104" s="14"/>
       <c r="L104" s="14"/>
       <c r="M104" s="14"/>
       <c r="N104" s="14"/>
@@ -7433,15 +5609,9 @@
       </c>
       <c r="G105" s="14"/>
       <c r="H105" s="14"/>
-      <c r="I105" s="14">
-        <v>20</v>
-      </c>
-      <c r="J105" s="14">
-        <v>25</v>
-      </c>
-      <c r="K105" s="14">
-        <v>5</v>
-      </c>
+      <c r="I105" s="14"/>
+      <c r="J105" s="14"/>
+      <c r="K105" s="14"/>
       <c r="L105" s="14"/>
       <c r="M105" s="14"/>
       <c r="N105" s="14"/>
@@ -7472,18 +5642,10 @@
         <v>425</v>
       </c>
       <c r="G106" s="14"/>
-      <c r="H106" s="14">
-        <v>50</v>
-      </c>
-      <c r="I106" s="14">
-        <v>84</v>
-      </c>
-      <c r="J106" s="14">
-        <v>60</v>
-      </c>
-      <c r="K106" s="14">
-        <v>6</v>
-      </c>
+      <c r="H106" s="14"/>
+      <c r="I106" s="14"/>
+      <c r="J106" s="14"/>
+      <c r="K106" s="14"/>
       <c r="L106" s="14"/>
       <c r="M106" s="14"/>
       <c r="N106" s="14"/>
@@ -7514,18 +5676,10 @@
         <v>426</v>
       </c>
       <c r="G107" s="14"/>
-      <c r="H107" s="14">
-        <v>40</v>
-      </c>
-      <c r="I107" s="14">
-        <v>40</v>
-      </c>
-      <c r="J107" s="14">
-        <v>20</v>
-      </c>
-      <c r="K107" s="14">
-        <v>2</v>
-      </c>
+      <c r="H107" s="14"/>
+      <c r="I107" s="14"/>
+      <c r="J107" s="14"/>
+      <c r="K107" s="14"/>
       <c r="L107" s="14"/>
       <c r="M107" s="14"/>
       <c r="N107" s="14"/>
@@ -7556,16 +5710,10 @@
         <v>427</v>
       </c>
       <c r="G108" s="14"/>
-      <c r="H108" s="14">
-        <v>40</v>
-      </c>
-      <c r="I108" s="14">
-        <v>60</v>
-      </c>
+      <c r="H108" s="14"/>
+      <c r="I108" s="14"/>
       <c r="J108" s="14"/>
-      <c r="K108" s="14">
-        <v>10</v>
-      </c>
+      <c r="K108" s="14"/>
       <c r="L108" s="14"/>
       <c r="M108" s="14"/>
       <c r="N108" s="14"/>
@@ -7595,25 +5743,13 @@
       <c r="F109" s="8" t="s">
         <v>428</v>
       </c>
-      <c r="G109" s="14">
-        <v>1</v>
-      </c>
-      <c r="H109" s="14">
-        <v>80</v>
-      </c>
-      <c r="I109" s="14">
-        <v>70</v>
-      </c>
-      <c r="J109" s="14">
-        <v>40</v>
-      </c>
-      <c r="K109" s="14">
-        <v>2</v>
-      </c>
+      <c r="G109" s="14"/>
+      <c r="H109" s="14"/>
+      <c r="I109" s="14"/>
+      <c r="J109" s="14"/>
+      <c r="K109" s="14"/>
       <c r="L109" s="14"/>
-      <c r="M109" s="14">
-        <v>1</v>
-      </c>
+      <c r="M109" s="14"/>
       <c r="N109" s="14"/>
       <c r="O109" s="14"/>
       <c r="P109" s="14"/>
@@ -7642,21 +5778,11 @@
         <v>429</v>
       </c>
       <c r="G110" s="14"/>
-      <c r="H110" s="14">
-        <v>26</v>
-      </c>
-      <c r="I110" s="14">
-        <v>38</v>
-      </c>
-      <c r="J110" s="14">
-        <v>11</v>
-      </c>
-      <c r="K110" s="14">
-        <v>2</v>
-      </c>
-      <c r="L110" s="14">
-        <v>1</v>
-      </c>
+      <c r="H110" s="14"/>
+      <c r="I110" s="14"/>
+      <c r="J110" s="14"/>
+      <c r="K110" s="14"/>
+      <c r="L110" s="14"/>
       <c r="M110" s="14"/>
       <c r="N110" s="14"/>
       <c r="O110" s="14"/>
@@ -7686,15 +5812,9 @@
         <v>430</v>
       </c>
       <c r="G111" s="14"/>
-      <c r="H111" s="14">
-        <v>40</v>
-      </c>
-      <c r="I111" s="14">
-        <v>50</v>
-      </c>
-      <c r="J111" s="14">
-        <v>10</v>
-      </c>
+      <c r="H111" s="14"/>
+      <c r="I111" s="14"/>
+      <c r="J111" s="14"/>
       <c r="K111" s="14"/>
       <c r="L111" s="14"/>
       <c r="M111" s="14"/>
@@ -7726,12 +5846,8 @@
         <v>431</v>
       </c>
       <c r="G112" s="14"/>
-      <c r="H112" s="14">
-        <v>200</v>
-      </c>
-      <c r="I112" s="14">
-        <v>50</v>
-      </c>
+      <c r="H112" s="14"/>
+      <c r="I112" s="14"/>
       <c r="J112" s="14"/>
       <c r="K112" s="14"/>
       <c r="L112" s="14"/>
@@ -7764,19 +5880,11 @@
         <v>432</v>
       </c>
       <c r="G113" s="14"/>
-      <c r="H113" s="14">
-        <v>75</v>
-      </c>
-      <c r="I113" s="14">
-        <v>65</v>
-      </c>
-      <c r="J113" s="14">
-        <v>9</v>
-      </c>
+      <c r="H113" s="14"/>
+      <c r="I113" s="14"/>
+      <c r="J113" s="14"/>
       <c r="K113" s="14"/>
-      <c r="L113" s="14">
-        <v>1</v>
-      </c>
+      <c r="L113" s="14"/>
       <c r="M113" s="14"/>
       <c r="N113" s="14"/>
       <c r="O113" s="14"/>
@@ -7807,12 +5915,8 @@
       </c>
       <c r="G114" s="14"/>
       <c r="H114" s="14"/>
-      <c r="I114" s="14">
-        <v>102</v>
-      </c>
-      <c r="J114" s="14">
-        <v>102</v>
-      </c>
+      <c r="I114" s="14"/>
+      <c r="J114" s="14"/>
       <c r="K114" s="14"/>
       <c r="L114" s="14"/>
       <c r="M114" s="14"/>
@@ -7844,18 +5948,10 @@
         <v>434</v>
       </c>
       <c r="G115" s="14"/>
-      <c r="H115" s="14">
-        <v>30</v>
-      </c>
-      <c r="I115" s="14">
-        <v>130</v>
-      </c>
-      <c r="J115" s="14">
-        <v>90</v>
-      </c>
-      <c r="K115" s="14">
-        <v>15</v>
-      </c>
+      <c r="H115" s="14"/>
+      <c r="I115" s="14"/>
+      <c r="J115" s="14"/>
+      <c r="K115" s="14"/>
       <c r="L115" s="14"/>
       <c r="M115" s="14"/>
       <c r="N115" s="14"/>
@@ -7886,21 +5982,11 @@
         <v>435</v>
       </c>
       <c r="G116" s="14"/>
-      <c r="H116" s="14">
-        <v>40</v>
-      </c>
-      <c r="I116" s="14">
-        <v>125</v>
-      </c>
-      <c r="J116" s="14">
-        <v>130</v>
-      </c>
-      <c r="K116" s="14">
-        <v>10</v>
-      </c>
-      <c r="L116" s="14">
-        <v>2</v>
-      </c>
+      <c r="H116" s="14"/>
+      <c r="I116" s="14"/>
+      <c r="J116" s="14"/>
+      <c r="K116" s="14"/>
+      <c r="L116" s="14"/>
       <c r="M116" s="14"/>
       <c r="N116" s="14"/>
       <c r="O116" s="14"/>
@@ -7929,21 +6015,11 @@
       <c r="F117" s="8" t="s">
         <v>436</v>
       </c>
-      <c r="G117" s="14">
-        <v>10</v>
-      </c>
-      <c r="H117" s="14">
-        <v>50</v>
-      </c>
-      <c r="I117" s="14">
-        <v>60</v>
-      </c>
-      <c r="J117" s="14">
-        <v>40</v>
-      </c>
-      <c r="K117" s="14">
-        <v>20</v>
-      </c>
+      <c r="G117" s="14"/>
+      <c r="H117" s="14"/>
+      <c r="I117" s="14"/>
+      <c r="J117" s="14"/>
+      <c r="K117" s="14"/>
       <c r="L117" s="14"/>
       <c r="M117" s="14"/>
       <c r="N117" s="14"/>
@@ -7974,18 +6050,10 @@
         <v>437</v>
       </c>
       <c r="G118" s="14"/>
-      <c r="H118" s="14">
-        <v>50</v>
-      </c>
-      <c r="I118" s="14">
-        <v>90</v>
-      </c>
-      <c r="J118" s="14">
-        <v>50</v>
-      </c>
-      <c r="K118" s="14">
-        <v>10</v>
-      </c>
+      <c r="H118" s="14"/>
+      <c r="I118" s="14"/>
+      <c r="J118" s="14"/>
+      <c r="K118" s="14"/>
       <c r="L118" s="14"/>
       <c r="M118" s="14"/>
       <c r="N118" s="14"/>
@@ -8016,18 +6084,10 @@
         <v>438</v>
       </c>
       <c r="G119" s="14"/>
-      <c r="H119" s="14">
-        <v>30</v>
-      </c>
-      <c r="I119" s="14">
-        <v>70</v>
-      </c>
-      <c r="J119" s="14">
-        <v>30</v>
-      </c>
-      <c r="K119" s="14">
-        <v>20</v>
-      </c>
+      <c r="H119" s="14"/>
+      <c r="I119" s="14"/>
+      <c r="J119" s="14"/>
+      <c r="K119" s="14"/>
       <c r="L119" s="14"/>
       <c r="M119" s="14"/>
       <c r="N119" s="14"/>
@@ -8058,21 +6118,11 @@
         <v>439</v>
       </c>
       <c r="G120" s="14"/>
-      <c r="H120" s="14">
-        <v>60</v>
-      </c>
-      <c r="I120" s="14">
-        <v>80</v>
-      </c>
-      <c r="J120" s="14">
-        <v>40</v>
-      </c>
-      <c r="K120" s="14">
-        <v>6</v>
-      </c>
-      <c r="L120" s="14">
-        <v>2</v>
-      </c>
+      <c r="H120" s="14"/>
+      <c r="I120" s="14"/>
+      <c r="J120" s="14"/>
+      <c r="K120" s="14"/>
+      <c r="L120" s="14"/>
       <c r="M120" s="14"/>
       <c r="N120" s="14"/>
       <c r="O120" s="14"/>
@@ -8102,18 +6152,10 @@
         <v>440</v>
       </c>
       <c r="G121" s="14"/>
-      <c r="H121" s="14">
-        <v>40</v>
-      </c>
-      <c r="I121" s="14">
-        <v>75</v>
-      </c>
-      <c r="J121" s="14">
-        <v>45</v>
-      </c>
-      <c r="K121" s="14">
-        <v>7</v>
-      </c>
+      <c r="H121" s="14"/>
+      <c r="I121" s="14"/>
+      <c r="J121" s="14"/>
+      <c r="K121" s="14"/>
       <c r="L121" s="14"/>
       <c r="M121" s="14"/>
       <c r="N121" s="14"/>
@@ -8144,18 +6186,10 @@
         <v>441</v>
       </c>
       <c r="G122" s="14"/>
-      <c r="H122" s="14">
-        <v>55</v>
-      </c>
-      <c r="I122" s="14">
-        <v>116</v>
-      </c>
-      <c r="J122" s="14">
-        <v>25</v>
-      </c>
-      <c r="K122" s="14">
-        <v>4</v>
-      </c>
+      <c r="H122" s="14"/>
+      <c r="I122" s="14"/>
+      <c r="J122" s="14"/>
+      <c r="K122" s="14"/>
       <c r="L122" s="14"/>
       <c r="M122" s="14"/>
       <c r="N122" s="14"/>
@@ -8186,27 +6220,13 @@
         <v>442</v>
       </c>
       <c r="G123" s="14"/>
-      <c r="H123" s="14">
-        <v>70</v>
-      </c>
-      <c r="I123" s="14">
-        <v>100</v>
-      </c>
-      <c r="J123" s="14">
-        <v>20</v>
-      </c>
-      <c r="K123" s="14">
-        <v>4</v>
-      </c>
-      <c r="L123" s="14">
-        <v>2</v>
-      </c>
-      <c r="M123" s="14">
-        <v>3</v>
-      </c>
-      <c r="N123" s="14">
-        <v>1</v>
-      </c>
+      <c r="H123" s="14"/>
+      <c r="I123" s="14"/>
+      <c r="J123" s="14"/>
+      <c r="K123" s="14"/>
+      <c r="L123" s="14"/>
+      <c r="M123" s="14"/>
+      <c r="N123" s="14"/>
       <c r="O123" s="14"/>
       <c r="P123" s="14"/>
       <c r="Q123" s="14"/>
@@ -8234,24 +6254,12 @@
         <v>443</v>
       </c>
       <c r="G124" s="14"/>
-      <c r="H124" s="14">
-        <v>45</v>
-      </c>
-      <c r="I124" s="14">
-        <v>65</v>
-      </c>
-      <c r="J124" s="14">
-        <v>30</v>
-      </c>
-      <c r="K124" s="14">
-        <v>10</v>
-      </c>
-      <c r="L124" s="14">
-        <v>2</v>
-      </c>
-      <c r="M124" s="14">
-        <v>3</v>
-      </c>
+      <c r="H124" s="14"/>
+      <c r="I124" s="14"/>
+      <c r="J124" s="14"/>
+      <c r="K124" s="14"/>
+      <c r="L124" s="14"/>
+      <c r="M124" s="14"/>
       <c r="N124" s="14"/>
       <c r="O124" s="14"/>
       <c r="P124" s="14"/>
@@ -8280,18 +6288,10 @@
         <v>444</v>
       </c>
       <c r="G125" s="14"/>
-      <c r="H125" s="14">
-        <v>50</v>
-      </c>
-      <c r="I125" s="14">
-        <v>60</v>
-      </c>
-      <c r="J125" s="14">
-        <v>40</v>
-      </c>
-      <c r="K125" s="14">
-        <v>5</v>
-      </c>
+      <c r="H125" s="14"/>
+      <c r="I125" s="14"/>
+      <c r="J125" s="14"/>
+      <c r="K125" s="14"/>
       <c r="L125" s="14"/>
       <c r="M125" s="14"/>
       <c r="N125" s="14"/>
@@ -8356,18 +6356,10 @@
         <v>446</v>
       </c>
       <c r="G127" s="14"/>
-      <c r="H127" s="14">
-        <v>100</v>
-      </c>
-      <c r="I127" s="14">
-        <v>66</v>
-      </c>
-      <c r="J127" s="14">
-        <v>70</v>
-      </c>
-      <c r="K127" s="14">
-        <v>15</v>
-      </c>
+      <c r="H127" s="14"/>
+      <c r="I127" s="14"/>
+      <c r="J127" s="14"/>
+      <c r="K127" s="14"/>
       <c r="L127" s="14"/>
       <c r="M127" s="14"/>
       <c r="N127" s="14"/>
@@ -8398,15 +6390,9 @@
         <v>447</v>
       </c>
       <c r="G128" s="14"/>
-      <c r="H128" s="14">
-        <v>30</v>
-      </c>
-      <c r="I128" s="14">
-        <v>50</v>
-      </c>
-      <c r="J128" s="14">
-        <v>25</v>
-      </c>
+      <c r="H128" s="14"/>
+      <c r="I128" s="14"/>
+      <c r="J128" s="14"/>
       <c r="K128" s="14"/>
       <c r="L128" s="14"/>
       <c r="M128" s="14"/>
@@ -8438,12 +6424,8 @@
         <v>448</v>
       </c>
       <c r="G129" s="14"/>
-      <c r="H129" s="14">
-        <v>37</v>
-      </c>
-      <c r="I129" s="14">
-        <v>32</v>
-      </c>
+      <c r="H129" s="14"/>
+      <c r="I129" s="14"/>
       <c r="J129" s="14"/>
       <c r="K129" s="14"/>
       <c r="L129" s="14"/>
@@ -8476,18 +6458,10 @@
         <v>449</v>
       </c>
       <c r="G130" s="14"/>
-      <c r="H130" s="14">
-        <v>50</v>
-      </c>
-      <c r="I130" s="14">
-        <v>130</v>
-      </c>
-      <c r="J130" s="14">
-        <v>5</v>
-      </c>
-      <c r="K130" s="14">
-        <v>5</v>
-      </c>
+      <c r="H130" s="14"/>
+      <c r="I130" s="14"/>
+      <c r="J130" s="14"/>
+      <c r="K130" s="14"/>
       <c r="L130" s="14"/>
       <c r="M130" s="14"/>
       <c r="N130" s="14"/>
@@ -8518,21 +6492,11 @@
         <v>450</v>
       </c>
       <c r="G131" s="14"/>
-      <c r="H131" s="14">
-        <v>70</v>
-      </c>
-      <c r="I131" s="14">
-        <v>178</v>
-      </c>
-      <c r="J131" s="14">
-        <v>60</v>
-      </c>
-      <c r="K131" s="14">
-        <v>7</v>
-      </c>
-      <c r="L131" s="14">
-        <v>3</v>
-      </c>
+      <c r="H131" s="14"/>
+      <c r="I131" s="14"/>
+      <c r="J131" s="14"/>
+      <c r="K131" s="14"/>
+      <c r="L131" s="14"/>
       <c r="M131" s="14"/>
       <c r="N131" s="14"/>
       <c r="O131" s="14"/>
@@ -8562,24 +6526,12 @@
         <v>451</v>
       </c>
       <c r="G132" s="14"/>
-      <c r="H132" s="14">
-        <v>70</v>
-      </c>
-      <c r="I132" s="14">
-        <v>123</v>
-      </c>
-      <c r="J132" s="14">
-        <v>56</v>
-      </c>
-      <c r="K132" s="14">
-        <v>2</v>
-      </c>
-      <c r="L132" s="14">
-        <v>4</v>
-      </c>
-      <c r="M132" s="14">
-        <v>1</v>
-      </c>
+      <c r="H132" s="14"/>
+      <c r="I132" s="14"/>
+      <c r="J132" s="14"/>
+      <c r="K132" s="14"/>
+      <c r="L132" s="14"/>
+      <c r="M132" s="14"/>
       <c r="N132" s="14"/>
       <c r="O132" s="14"/>
       <c r="P132" s="14"/>
@@ -8609,18 +6561,10 @@
       </c>
       <c r="G133" s="14"/>
       <c r="H133" s="14"/>
-      <c r="I133" s="14">
-        <v>400</v>
-      </c>
-      <c r="J133" s="14">
-        <v>10</v>
-      </c>
-      <c r="K133" s="14">
-        <v>5</v>
-      </c>
-      <c r="L133" s="14">
-        <v>5</v>
-      </c>
+      <c r="I133" s="14"/>
+      <c r="J133" s="14"/>
+      <c r="K133" s="14"/>
+      <c r="L133" s="14"/>
       <c r="M133" s="14"/>
       <c r="N133" s="14"/>
       <c r="O133" s="14"/>
@@ -8650,21 +6594,11 @@
         <v>453</v>
       </c>
       <c r="G134" s="14"/>
-      <c r="H134" s="14">
-        <v>55</v>
-      </c>
-      <c r="I134" s="14">
-        <v>117</v>
-      </c>
-      <c r="J134" s="14">
-        <v>38</v>
-      </c>
-      <c r="K134" s="14">
-        <v>5</v>
-      </c>
-      <c r="L134" s="14">
-        <v>2</v>
-      </c>
+      <c r="H134" s="14"/>
+      <c r="I134" s="14"/>
+      <c r="J134" s="14"/>
+      <c r="K134" s="14"/>
+      <c r="L134" s="14"/>
       <c r="M134" s="14"/>
       <c r="N134" s="14"/>
       <c r="O134" s="14"/>
@@ -8694,19 +6628,11 @@
         <v>454</v>
       </c>
       <c r="G135" s="14"/>
-      <c r="H135" s="14">
-        <v>100</v>
-      </c>
-      <c r="I135" s="14">
-        <v>100</v>
-      </c>
-      <c r="J135" s="14">
-        <v>92</v>
-      </c>
+      <c r="H135" s="14"/>
+      <c r="I135" s="14"/>
+      <c r="J135" s="14"/>
       <c r="K135" s="14"/>
-      <c r="L135" s="14">
-        <v>8</v>
-      </c>
+      <c r="L135" s="14"/>
       <c r="M135" s="14"/>
       <c r="N135" s="14"/>
       <c r="O135" s="14"/>
@@ -8735,18 +6661,10 @@
       <c r="F136" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="G136" s="14">
-        <v>4</v>
-      </c>
-      <c r="H136" s="14">
-        <v>16</v>
-      </c>
-      <c r="I136" s="14">
-        <v>14</v>
-      </c>
-      <c r="J136" s="14">
-        <v>2</v>
-      </c>
+      <c r="G136" s="14"/>
+      <c r="H136" s="14"/>
+      <c r="I136" s="14"/>
+      <c r="J136" s="14"/>
       <c r="K136" s="14"/>
       <c r="L136" s="14"/>
       <c r="M136" s="14"/>
@@ -8778,21 +6696,11 @@
         <v>456</v>
       </c>
       <c r="G137" s="14"/>
-      <c r="H137" s="14">
-        <v>15</v>
-      </c>
-      <c r="I137" s="14">
-        <v>89</v>
-      </c>
-      <c r="J137" s="14">
-        <v>90</v>
-      </c>
-      <c r="K137" s="14">
-        <v>4</v>
-      </c>
-      <c r="L137" s="14">
-        <v>2</v>
-      </c>
+      <c r="H137" s="14"/>
+      <c r="I137" s="14"/>
+      <c r="J137" s="14"/>
+      <c r="K137" s="14"/>
+      <c r="L137" s="14"/>
       <c r="M137" s="14"/>
       <c r="N137" s="14"/>
       <c r="O137" s="14"/>
@@ -8821,27 +6729,13 @@
       <c r="F138" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="G138" s="14">
-        <v>5</v>
-      </c>
-      <c r="H138" s="14">
-        <v>60</v>
-      </c>
-      <c r="I138" s="14">
-        <v>67</v>
-      </c>
-      <c r="J138" s="14">
-        <v>40</v>
-      </c>
-      <c r="K138" s="14">
-        <v>15</v>
-      </c>
-      <c r="L138" s="14">
-        <v>10</v>
-      </c>
-      <c r="M138" s="14">
-        <v>3</v>
-      </c>
+      <c r="G138" s="14"/>
+      <c r="H138" s="14"/>
+      <c r="I138" s="14"/>
+      <c r="J138" s="14"/>
+      <c r="K138" s="14"/>
+      <c r="L138" s="14"/>
+      <c r="M138" s="14"/>
       <c r="N138" s="14"/>
       <c r="O138" s="14"/>
       <c r="P138" s="14"/>
@@ -8870,22 +6764,12 @@
         <v>458</v>
       </c>
       <c r="G139" s="14"/>
-      <c r="H139" s="14">
-        <v>66</v>
-      </c>
-      <c r="I139" s="14">
-        <v>68</v>
-      </c>
-      <c r="J139" s="14">
-        <v>49</v>
-      </c>
-      <c r="K139" s="14">
-        <v>15</v>
-      </c>
+      <c r="H139" s="14"/>
+      <c r="I139" s="14"/>
+      <c r="J139" s="14"/>
+      <c r="K139" s="14"/>
       <c r="L139" s="14"/>
-      <c r="M139" s="14">
-        <v>2</v>
-      </c>
+      <c r="M139" s="14"/>
       <c r="N139" s="14"/>
       <c r="O139" s="14"/>
       <c r="P139" s="14"/>
@@ -8914,24 +6798,12 @@
         <v>459</v>
       </c>
       <c r="G140" s="14"/>
-      <c r="H140" s="14">
-        <v>100</v>
-      </c>
-      <c r="I140" s="14">
-        <v>100</v>
-      </c>
-      <c r="J140" s="14">
-        <v>30</v>
-      </c>
-      <c r="K140" s="14">
-        <v>20</v>
-      </c>
-      <c r="L140" s="14">
-        <v>5</v>
-      </c>
-      <c r="M140" s="14">
-        <v>2</v>
-      </c>
+      <c r="H140" s="14"/>
+      <c r="I140" s="14"/>
+      <c r="J140" s="14"/>
+      <c r="K140" s="14"/>
+      <c r="L140" s="14"/>
+      <c r="M140" s="14"/>
       <c r="N140" s="14"/>
       <c r="O140" s="14"/>
       <c r="P140" s="14"/>
@@ -8959,21 +6831,11 @@
       <c r="F141" s="8" t="s">
         <v>460</v>
       </c>
-      <c r="G141" s="14">
-        <v>2</v>
-      </c>
-      <c r="H141" s="14">
-        <v>97</v>
-      </c>
-      <c r="I141" s="14">
-        <v>103</v>
-      </c>
-      <c r="J141" s="14">
-        <v>15</v>
-      </c>
-      <c r="K141" s="14">
-        <v>8</v>
-      </c>
+      <c r="G141" s="14"/>
+      <c r="H141" s="14"/>
+      <c r="I141" s="14"/>
+      <c r="J141" s="14"/>
+      <c r="K141" s="14"/>
       <c r="L141" s="14"/>
       <c r="M141" s="14"/>
       <c r="N141" s="14"/>
@@ -9003,27 +6865,13 @@
       <c r="F142" s="8" t="s">
         <v>461</v>
       </c>
-      <c r="G142" s="14">
-        <v>4</v>
-      </c>
-      <c r="H142" s="14">
-        <v>85</v>
-      </c>
-      <c r="I142" s="14">
-        <v>180</v>
-      </c>
-      <c r="J142" s="14">
-        <v>85</v>
-      </c>
-      <c r="K142" s="14">
-        <v>10</v>
-      </c>
-      <c r="L142" s="14">
-        <v>4</v>
-      </c>
-      <c r="M142" s="14">
-        <v>2</v>
-      </c>
+      <c r="G142" s="14"/>
+      <c r="H142" s="14"/>
+      <c r="I142" s="14"/>
+      <c r="J142" s="14"/>
+      <c r="K142" s="14"/>
+      <c r="L142" s="14"/>
+      <c r="M142" s="14"/>
       <c r="N142" s="14"/>
       <c r="O142" s="14"/>
       <c r="P142" s="14"/>
@@ -9052,21 +6900,11 @@
         <v>462</v>
       </c>
       <c r="G143" s="14"/>
-      <c r="H143" s="14">
-        <v>40</v>
-      </c>
-      <c r="I143" s="14">
-        <v>85</v>
-      </c>
-      <c r="J143" s="14">
-        <v>85</v>
-      </c>
-      <c r="K143" s="14">
-        <v>25</v>
-      </c>
-      <c r="L143" s="14">
-        <v>10</v>
-      </c>
+      <c r="H143" s="14"/>
+      <c r="I143" s="14"/>
+      <c r="J143" s="14"/>
+      <c r="K143" s="14"/>
+      <c r="L143" s="14"/>
       <c r="M143" s="14"/>
       <c r="N143" s="14"/>
       <c r="O143" s="14"/>
@@ -9096,18 +6934,10 @@
         <v>463</v>
       </c>
       <c r="G144" s="14"/>
-      <c r="H144" s="14">
-        <v>12</v>
-      </c>
-      <c r="I144" s="14">
-        <v>136</v>
-      </c>
-      <c r="J144" s="14">
-        <v>48</v>
-      </c>
-      <c r="K144" s="14">
-        <v>5</v>
-      </c>
+      <c r="H144" s="14"/>
+      <c r="I144" s="14"/>
+      <c r="J144" s="14"/>
+      <c r="K144" s="14"/>
       <c r="L144" s="14"/>
       <c r="M144" s="14"/>
       <c r="N144" s="14"/>
@@ -9172,21 +7002,11 @@
         <v>465</v>
       </c>
       <c r="G146" s="14"/>
-      <c r="H146" s="14">
-        <v>20</v>
-      </c>
-      <c r="I146" s="14">
-        <v>70</v>
-      </c>
-      <c r="J146" s="14">
-        <v>20</v>
-      </c>
-      <c r="K146" s="14">
-        <v>2</v>
-      </c>
-      <c r="L146" s="14">
-        <v>1</v>
-      </c>
+      <c r="H146" s="14"/>
+      <c r="I146" s="14"/>
+      <c r="J146" s="14"/>
+      <c r="K146" s="14"/>
+      <c r="L146" s="14"/>
       <c r="M146" s="14"/>
       <c r="N146" s="14"/>
       <c r="O146" s="14"/>
@@ -9216,21 +7036,11 @@
         <v>466</v>
       </c>
       <c r="G147" s="14"/>
-      <c r="H147" s="14">
-        <v>39</v>
-      </c>
-      <c r="I147" s="14">
-        <v>85</v>
-      </c>
-      <c r="J147" s="14">
-        <v>22</v>
-      </c>
-      <c r="K147" s="14">
-        <v>2</v>
-      </c>
-      <c r="L147" s="14">
-        <v>2</v>
-      </c>
+      <c r="H147" s="14"/>
+      <c r="I147" s="14"/>
+      <c r="J147" s="14"/>
+      <c r="K147" s="14"/>
+      <c r="L147" s="14"/>
       <c r="M147" s="14"/>
       <c r="N147" s="14"/>
       <c r="O147" s="14"/>
@@ -9261,15 +7071,9 @@
       </c>
       <c r="G148" s="14"/>
       <c r="H148" s="14"/>
-      <c r="I148" s="14">
-        <v>35</v>
-      </c>
-      <c r="J148" s="14">
-        <v>40</v>
-      </c>
-      <c r="K148" s="14">
-        <v>1</v>
-      </c>
+      <c r="I148" s="14"/>
+      <c r="J148" s="14"/>
+      <c r="K148" s="14"/>
       <c r="L148" s="14"/>
       <c r="M148" s="14"/>
       <c r="N148" s="14"/>
@@ -9299,24 +7103,12 @@
       <c r="F149" s="8" t="s">
         <v>468</v>
       </c>
-      <c r="G149" s="14">
-        <v>52</v>
-      </c>
-      <c r="H149" s="14">
-        <v>150</v>
-      </c>
-      <c r="I149" s="14">
-        <v>150</v>
-      </c>
-      <c r="J149" s="14">
-        <v>50</v>
-      </c>
-      <c r="K149" s="14">
-        <v>4</v>
-      </c>
-      <c r="L149" s="14">
-        <v>4</v>
-      </c>
+      <c r="G149" s="14"/>
+      <c r="H149" s="14"/>
+      <c r="I149" s="14"/>
+      <c r="J149" s="14"/>
+      <c r="K149" s="14"/>
+      <c r="L149" s="14"/>
       <c r="M149" s="14"/>
       <c r="N149" s="14"/>
       <c r="O149" s="14"/>
@@ -9346,18 +7138,10 @@
         <v>469</v>
       </c>
       <c r="G150" s="14"/>
-      <c r="H150" s="14">
-        <v>80</v>
-      </c>
-      <c r="I150" s="14">
-        <v>110</v>
-      </c>
-      <c r="J150" s="14">
-        <v>40</v>
-      </c>
-      <c r="K150" s="14">
-        <v>20</v>
-      </c>
+      <c r="H150" s="14"/>
+      <c r="I150" s="14"/>
+      <c r="J150" s="14"/>
+      <c r="K150" s="14"/>
       <c r="L150" s="14"/>
       <c r="M150" s="14"/>
       <c r="N150" s="14"/>
@@ -9388,24 +7172,12 @@
         <v>470</v>
       </c>
       <c r="G151" s="14"/>
-      <c r="H151" s="14">
-        <v>40</v>
-      </c>
-      <c r="I151" s="14">
-        <v>50</v>
-      </c>
-      <c r="J151" s="14">
-        <v>50</v>
-      </c>
-      <c r="K151" s="14">
-        <v>3</v>
-      </c>
-      <c r="L151" s="14">
-        <v>2</v>
-      </c>
-      <c r="M151" s="14">
-        <v>1</v>
-      </c>
+      <c r="H151" s="14"/>
+      <c r="I151" s="14"/>
+      <c r="J151" s="14"/>
+      <c r="K151" s="14"/>
+      <c r="L151" s="14"/>
+      <c r="M151" s="14"/>
       <c r="N151" s="14"/>
       <c r="O151" s="14"/>
       <c r="P151" s="14"/>
@@ -9433,24 +7205,12 @@
       <c r="F152" s="8" t="s">
         <v>471</v>
       </c>
-      <c r="G152" s="14">
-        <v>10</v>
-      </c>
-      <c r="H152" s="14">
-        <v>40</v>
-      </c>
-      <c r="I152" s="14">
-        <v>65</v>
-      </c>
-      <c r="J152" s="14">
-        <v>35</v>
-      </c>
-      <c r="K152" s="14">
-        <v>5</v>
-      </c>
-      <c r="L152" s="14">
-        <v>5</v>
-      </c>
+      <c r="G152" s="14"/>
+      <c r="H152" s="14"/>
+      <c r="I152" s="14"/>
+      <c r="J152" s="14"/>
+      <c r="K152" s="14"/>
+      <c r="L152" s="14"/>
       <c r="M152" s="14"/>
       <c r="N152" s="14"/>
       <c r="O152" s="14"/>
@@ -9479,27 +7239,13 @@
       <c r="F153" s="8" t="s">
         <v>472</v>
       </c>
-      <c r="G153" s="14">
-        <v>10</v>
-      </c>
-      <c r="H153" s="14">
-        <v>43</v>
-      </c>
-      <c r="I153" s="14">
-        <v>50</v>
-      </c>
-      <c r="J153" s="14">
-        <v>20</v>
-      </c>
-      <c r="K153" s="14">
-        <v>5</v>
-      </c>
-      <c r="L153" s="14">
-        <v>1</v>
-      </c>
-      <c r="M153" s="14">
-        <v>1</v>
-      </c>
+      <c r="G153" s="14"/>
+      <c r="H153" s="14"/>
+      <c r="I153" s="14"/>
+      <c r="J153" s="14"/>
+      <c r="K153" s="14"/>
+      <c r="L153" s="14"/>
+      <c r="M153" s="14"/>
       <c r="N153" s="14"/>
       <c r="O153" s="14"/>
       <c r="P153" s="14"/>
@@ -9527,21 +7273,11 @@
       <c r="F154" s="8" t="s">
         <v>473</v>
       </c>
-      <c r="G154" s="14">
-        <v>20</v>
-      </c>
-      <c r="H154" s="14">
-        <v>105</v>
-      </c>
-      <c r="I154" s="14">
-        <v>110</v>
-      </c>
-      <c r="J154" s="14">
-        <v>20</v>
-      </c>
-      <c r="K154" s="14">
-        <v>5</v>
-      </c>
+      <c r="G154" s="14"/>
+      <c r="H154" s="14"/>
+      <c r="I154" s="14"/>
+      <c r="J154" s="14"/>
+      <c r="K154" s="14"/>
       <c r="L154" s="14"/>
       <c r="M154" s="14"/>
       <c r="N154" s="14"/>
@@ -9572,22 +7308,12 @@
         <v>474</v>
       </c>
       <c r="G155" s="14"/>
-      <c r="H155" s="14">
-        <v>55</v>
-      </c>
-      <c r="I155" s="14">
-        <v>80</v>
-      </c>
-      <c r="J155" s="14">
-        <v>30</v>
-      </c>
+      <c r="H155" s="14"/>
+      <c r="I155" s="14"/>
+      <c r="J155" s="14"/>
       <c r="K155" s="14"/>
-      <c r="L155" s="14">
-        <v>2</v>
-      </c>
-      <c r="M155" s="14">
-        <v>1</v>
-      </c>
+      <c r="L155" s="14"/>
+      <c r="M155" s="14"/>
       <c r="N155" s="14"/>
       <c r="O155" s="14"/>
       <c r="P155" s="14"/>
@@ -9616,18 +7342,10 @@
         <v>475</v>
       </c>
       <c r="G156" s="14"/>
-      <c r="H156" s="14">
-        <v>3</v>
-      </c>
-      <c r="I156" s="14">
-        <v>55</v>
-      </c>
-      <c r="J156" s="14">
-        <v>72</v>
-      </c>
-      <c r="K156" s="14">
-        <v>25</v>
-      </c>
+      <c r="H156" s="14"/>
+      <c r="I156" s="14"/>
+      <c r="J156" s="14"/>
+      <c r="K156" s="14"/>
       <c r="L156" s="14"/>
       <c r="M156" s="14"/>
       <c r="N156" s="14"/>
@@ -9657,21 +7375,11 @@
       <c r="F157" s="8" t="s">
         <v>476</v>
       </c>
-      <c r="G157" s="14">
-        <v>10</v>
-      </c>
-      <c r="H157" s="14">
-        <v>20</v>
-      </c>
-      <c r="I157" s="14">
-        <v>210</v>
-      </c>
-      <c r="J157" s="14">
-        <v>160</v>
-      </c>
-      <c r="K157" s="14">
-        <v>10</v>
-      </c>
+      <c r="G157" s="14"/>
+      <c r="H157" s="14"/>
+      <c r="I157" s="14"/>
+      <c r="J157" s="14"/>
+      <c r="K157" s="14"/>
       <c r="L157" s="14"/>
       <c r="M157" s="14"/>
       <c r="N157" s="14"/>
@@ -9702,18 +7410,10 @@
         <v>483</v>
       </c>
       <c r="G158" s="14"/>
-      <c r="H158" s="14">
-        <v>10</v>
-      </c>
-      <c r="I158" s="14">
-        <v>105</v>
-      </c>
-      <c r="J158" s="14">
-        <v>80</v>
-      </c>
-      <c r="K158" s="14">
-        <v>5</v>
-      </c>
+      <c r="H158" s="14"/>
+      <c r="I158" s="14"/>
+      <c r="J158" s="14"/>
+      <c r="K158" s="14"/>
       <c r="L158" s="14"/>
       <c r="M158" s="14"/>
       <c r="N158" s="14"/>

--- a/core/utils/distgradeunificadaJOINVILLE.xlsx
+++ b/core/utils/distgradeunificadaJOINVILLE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{936921E2-3EFF-4B00-9979-6FD4E88BD2D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB35AA16-F1CC-4F35-AA00-CFB163AABA0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7D8F346-A79E-4C25-BB45-DA9F96A70FA9}"/>
   </bookViews>
@@ -2004,7 +2004,7 @@
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="U152" sqref="U152"/>
+      <selection pane="bottomLeft" activeCell="E152" sqref="E152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/core/utils/distgradeunificadaJOINVILLE.xlsx
+++ b/core/utils/distgradeunificadaJOINVILLE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3CEDC1-0BCB-4E5C-A43C-4907682B1809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA76CA38-7420-448B-8D6F-F0D503E9C1DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7D8F346-A79E-4C25-BB45-DA9F96A70FA9}"/>
   </bookViews>
@@ -2004,10 +2004,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{414053F0-9035-4345-833E-9715016AA804}">
   <dimension ref="A1:T198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="P153" sqref="P153"/>
+      <selection pane="bottomLeft" activeCell="R168" sqref="R168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/core/utils/distgradeunificadaJOINVILLE.xlsx
+++ b/core/utils/distgradeunificadaJOINVILLE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA76CA38-7420-448B-8D6F-F0D503E9C1DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE984945-CDF2-4FDA-8624-5200633A05A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7D8F346-A79E-4C25-BB45-DA9F96A70FA9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="486">
   <si>
     <t>PROJETO</t>
   </si>
@@ -1483,15 +1483,6 @@
   </si>
   <si>
     <t>UNISSEX</t>
-  </si>
-  <si>
-    <t>CALÇA SUPLEX</t>
-  </si>
-  <si>
-    <t>FEMININO</t>
-  </si>
-  <si>
-    <t>CALÇA TACTEL</t>
   </si>
 </sst>
 </file>
@@ -2004,10 +1995,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{414053F0-9035-4345-833E-9715016AA804}">
   <dimension ref="A1:T198"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="R168" sqref="R168"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2202,7 +2193,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>485</v>
@@ -3732,7 +3723,7 @@
         <v>124</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="E50" s="10" t="s">
         <v>485</v>
@@ -6350,10 +6341,10 @@
         <v>356</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E127" s="10" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F127" s="8" t="s">
         <v>446</v>
@@ -6970,20 +6961,20 @@
       <c r="F145" s="8" t="s">
         <v>464</v>
       </c>
-      <c r="G145" s="13"/>
-      <c r="H145" s="13"/>
-      <c r="I145" s="13"/>
-      <c r="J145" s="13"/>
-      <c r="K145" s="13"/>
-      <c r="L145" s="13"/>
-      <c r="M145" s="13"/>
-      <c r="N145" s="13"/>
-      <c r="O145" s="13"/>
-      <c r="P145" s="13"/>
-      <c r="Q145" s="13"/>
-      <c r="R145" s="13"/>
-      <c r="S145" s="13"/>
-      <c r="T145" s="13"/>
+      <c r="G145" s="14"/>
+      <c r="H145" s="14"/>
+      <c r="I145" s="14"/>
+      <c r="J145" s="14"/>
+      <c r="K145" s="14"/>
+      <c r="L145" s="14"/>
+      <c r="M145" s="14"/>
+      <c r="N145" s="14"/>
+      <c r="O145" s="14"/>
+      <c r="P145" s="14"/>
+      <c r="Q145" s="14"/>
+      <c r="R145" s="14"/>
+      <c r="S145" s="14"/>
+      <c r="T145" s="14"/>
     </row>
     <row r="146" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A146" s="11" t="s">
@@ -7234,7 +7225,7 @@
         <v>382</v>
       </c>
       <c r="D153" s="10" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="E153" s="10" t="s">
         <v>485</v>
